--- a/Model Results.xlsx
+++ b/Model Results.xlsx
@@ -8,12 +8,13 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Pivot Table_Sheet3_1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Temp" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Data" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Pivot Table" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t xml:space="preserve">window</t>
   </si>
@@ -56,10 +57,22 @@
     <t xml:space="preserve">testing error eval time</t>
   </si>
   <si>
-    <t xml:space="preserve">- all -</t>
+    <t xml:space="preserve">45</t>
   </si>
   <si>
-    <t xml:space="preserve">Average - testing error eval time</t>
+    <t xml:space="preserve">Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Average - training error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Average - testing error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average - training error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average - testing error</t>
   </si>
   <si>
     <t xml:space="preserve">Total Result</t>
@@ -69,8 +82,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -108,7 +122,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -141,14 +155,49 @@
       <left/>
       <right/>
       <top style="medium"/>
-      <bottom style="thin"/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="medium"/>
       <top style="medium"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -160,14 +209,7 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
+      <right style="thin"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
@@ -175,7 +217,7 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="medium"/>
-      <top style="thin"/>
+      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -195,29 +237,8 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -243,15 +264,15 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
+      <left style="thin"/>
+      <right/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
+      <left/>
+      <right style="thin"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
@@ -272,13 +293,13 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right/>
+      <right style="thin"/>
       <top style="thin"/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
+      <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="medium"/>
@@ -289,6 +310,13 @@
       <right style="medium"/>
       <top style="thin"/>
       <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -327,7 +355,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -336,11 +364,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -356,7 +384,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -372,28 +400,28 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="24" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="24" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -404,36 +432,44 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="25" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -445,6 +481,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="25" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="26" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -469,7 +513,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="300">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:J301" sheet="Sheet3"/>
+    <worksheetSource ref="A1:J301" sheet="Data"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="window" numFmtId="0">
@@ -506,12 +550,13 @@
       </sharedItems>
     </cacheField>
     <cacheField name="training error" numFmtId="0">
-      <sharedItems count="266" containsMixedTypes="1" containsSemiMixedTypes="1" containsString="0" containsNumber="1">
+      <sharedItems count="296" containsMixedTypes="1" containsSemiMixedTypes="1" containsString="0" containsNumber="1">
         <n v="2.56160228536089E-006"/>
         <n v="2.58307568920722E-006"/>
         <n v="2.58417734445314E-006"/>
         <n v="2.61434031870591E-006"/>
         <n v="2.64602741007915E-006"/>
+        <n v="2.64641686266456E-006"/>
         <n v="2.65474946221376E-006"/>
         <n v="2.6549643273864E-006"/>
         <n v="2.66506398422905E-006"/>
@@ -524,6 +569,7 @@
         <n v="2.80694786873978E-006"/>
         <n v="2.83952639965478E-006"/>
         <n v="2.861367178865E-006"/>
+        <n v="2.86719382177899E-006"/>
         <n v="2.88027548162552E-006"/>
         <n v="2.88612027097902E-006"/>
         <n v="2.89939120246318E-006"/>
@@ -559,6 +605,7 @@
         <n v="3.61520763447564E-006"/>
         <n v="3.63907802262825E-006"/>
         <n v="3.73609221209949E-006"/>
+        <n v="3.75551086923311E-006"/>
         <n v="3.78018221878106E-006"/>
         <n v="3.81365364706386E-006"/>
         <n v="3.82160669449037E-006"/>
@@ -566,6 +613,7 @@
         <n v="3.94627527756685E-006"/>
         <n v="3.98687043870914E-006"/>
         <n v="4.04213523925095E-006"/>
+        <n v="4.06443245435933E-006"/>
         <n v="4.06462220851662E-006"/>
         <n v="4.07860658894163E-006"/>
         <n v="4.11063326508409E-006"/>
@@ -586,10 +634,12 @@
         <n v="4.71834813565988E-006"/>
         <n v="4.74090704888665E-006"/>
         <n v="4.80663978556909E-006"/>
+        <n v="4.8546473725786E-006"/>
         <n v="4.94620275333841E-006"/>
         <n v="5.07355049664648E-006"/>
         <n v="5.10912373741584E-006"/>
         <n v="5.11101624720765E-006"/>
+        <n v="5.22073468624526E-006"/>
         <n v="5.25367078102887E-006"/>
         <n v="5.27691329338604E-006"/>
         <n v="5.28479568499152E-006"/>
@@ -601,6 +651,7 @@
         <n v="5.57205325282737E-006"/>
         <n v="5.62983284495362E-006"/>
         <n v="5.75587648915882E-006"/>
+        <n v="5.78547384477E-006"/>
         <n v="5.78562852636514E-006"/>
         <n v="5.84488857398225E-006"/>
         <n v="5.89494798615797E-006"/>
@@ -613,7 +664,9 @@
         <n v="6.20700901155351E-006"/>
         <n v="6.27939757940559E-006"/>
         <n v="6.2853050508462E-006"/>
+        <n v="6.28584398384985E-006"/>
         <n v="6.30397683693763E-006"/>
+        <n v="6.32513873795298E-006"/>
         <n v="6.34264546825234E-006"/>
         <n v="6.36282461249975E-006"/>
         <n v="6.36607260857089E-006"/>
@@ -622,6 +675,7 @@
         <n v="6.48060826372771E-006"/>
         <n v="6.48798083503285E-006"/>
         <n v="6.58063104966787E-006"/>
+        <n v="6.64057320320219E-006"/>
         <n v="6.68184321210369E-006"/>
         <n v="6.69248767234672E-006"/>
         <n v="6.70134357351535E-006"/>
@@ -633,6 +687,7 @@
         <n v="7.3297845672651E-006"/>
         <n v="7.39015246330519E-006"/>
         <n v="7.43767835125747E-006"/>
+        <n v="7.44171911015363E-006"/>
         <n v="7.46872105161479E-006"/>
         <n v="7.52037777364227E-006"/>
         <n v="7.57650402391787E-006"/>
@@ -641,11 +696,14 @@
         <n v="7.68050863963276E-006"/>
         <n v="7.70112308596002E-006"/>
         <n v="7.80557799891109E-006"/>
+        <n v="7.86562985598068E-006"/>
         <n v="8.00488745379428E-006"/>
         <n v="8.04687894126843E-006"/>
+        <n v="8.18810180463834E-006"/>
         <n v="8.18820640804053E-006"/>
         <n v="8.19561996608289E-006"/>
         <n v="8.2891175018886E-006"/>
+        <n v="8.34970908246678E-006"/>
         <n v="8.53390066776479E-006"/>
         <n v="8.65587409051095E-006"/>
         <n v="8.80891021980261E-006"/>
@@ -665,8 +723,10 @@
         <n v="1.03467850973673E-005"/>
         <n v="1.04581272478403E-005"/>
         <n v="1.05183972666635E-005"/>
+        <n v="1.08269458160078E-005"/>
         <n v="1.11293747631791E-005"/>
         <n v="1.11309404410242E-005"/>
+        <n v="1.11550614642507E-005"/>
         <n v="1.11694777179681E-005"/>
         <n v="1.12009564759356E-005"/>
         <n v="1.13433181973322E-005"/>
@@ -679,8 +739,10 @@
         <n v="1.19710238993098E-005"/>
         <n v="1.20649179105082E-005"/>
         <n v="1.22168281200667E-005"/>
+        <n v="1.22712465665491E-005"/>
         <n v="1.24541734906342E-005"/>
         <n v="1.24805898554279E-005"/>
+        <n v="1.26487994964547E-005"/>
         <n v="1.2727636899659E-005"/>
         <n v="1.2857893379461E-005"/>
         <n v="1.2933696021726E-005"/>
@@ -688,19 +750,25 @@
         <n v="1.39827427512731E-005"/>
         <n v="1.4166414014477E-005"/>
         <n v="1.45745892056882E-005"/>
+        <n v="1.4660304506838E-005"/>
         <n v="1.47109199133411E-005"/>
         <n v="1.47604764018297E-005"/>
+        <n v="1.48078836829044E-005"/>
         <n v="1.50450965552866E-005"/>
         <n v="1.51650995837613E-005"/>
         <n v="1.52518311374943E-005"/>
+        <n v="1.52707869987055E-005"/>
+        <n v="1.53185355740029E-005"/>
         <n v="1.55087578547569E-005"/>
         <n v="1.55694470738755E-005"/>
         <n v="1.56051205621275E-005"/>
         <n v="1.60317436090219E-005"/>
         <n v="1.62838788330991E-005"/>
+        <n v="1.65421596275644E-005"/>
         <n v="1.66129753721794E-005"/>
         <n v="1.73803267347917E-005"/>
         <n v="1.75669174910887E-005"/>
+        <n v="1.76910565772188E-005"/>
         <n v="1.79655226608191E-005"/>
         <n v="1.82873157512579E-005"/>
         <n v="1.841756257891E-005"/>
@@ -709,6 +777,7 @@
         <n v="1.9379906512496E-005"/>
         <n v="1.94098841162277E-005"/>
         <n v="1.97631083772116E-005"/>
+        <n v="1.99482328572645E-005"/>
         <n v="2.03062325747316E-005"/>
         <n v="2.03450445336657E-005"/>
         <n v="2.07008237603014E-005"/>
@@ -735,6 +804,7 @@
         <n v="2.80554992683747E-005"/>
         <n v="3.03820143549928E-005"/>
         <n v="3.12596773224864E-005"/>
+        <n v="3.12721692926705E-005"/>
         <n v="3.19573242297056E-005"/>
         <n v="3.20007425143236E-005"/>
         <n v="3.20244038345722E-005"/>
@@ -746,13 +816,17 @@
         <n v="3.58752902898499E-005"/>
         <n v="3.67850749018262E-005"/>
         <n v="4.02666902047955E-005"/>
+        <n v="4.06173879830327E-005"/>
         <n v="4.08464437845933E-005"/>
         <n v="4.1741713428329E-005"/>
         <n v="4.36706941688156E-005"/>
         <n v="4.40142957400806E-005"/>
+        <n v="4.4796561122455E-005"/>
         <n v="4.54539079302119E-005"/>
         <n v="5.18717093985866E-005"/>
         <n v="5.21083482294093E-005"/>
+        <n v="5.51886898921177E-005"/>
+        <n v="5.67605048792485E-005"/>
         <n v="5.92699062422513E-005"/>
         <n v="6.37266321656068E-005"/>
         <n v="6.65237076936374E-005"/>
@@ -776,7 +850,8 @@
       </sharedItems>
     </cacheField>
     <cacheField name="testing error" numFmtId="0">
-      <sharedItems count="266" containsMixedTypes="1" containsSemiMixedTypes="1" containsString="0" containsNumber="1">
+      <sharedItems count="296" containsMixedTypes="1" containsSemiMixedTypes="1" containsString="0" containsNumber="1">
+        <n v="7.54167574034384E-005"/>
         <n v="7.58083330056681E-005"/>
         <n v="7.68545666619592E-005"/>
         <n v="8.06066774037337E-005"/>
@@ -801,6 +876,7 @@
         <n v="0.000113839445921954"/>
         <n v="0.000120426290490509"/>
         <n v="0.000121594815380886"/>
+        <n v="0.0001225024434973"/>
         <n v="0.000124224915909477"/>
         <n v="0.000129672535401427"/>
         <n v="0.000136618742986219"/>
@@ -811,6 +887,7 @@
         <n v="0.000151620412583624"/>
         <n v="0.000157358312745898"/>
         <n v="0.000160741957746965"/>
+        <n v="0.000161767302573385"/>
         <n v="0.000166114188628461"/>
         <n v="0.000166902048175338"/>
         <n v="0.000169351581316637"/>
@@ -833,11 +910,14 @@
         <n v="0.00021223334112653"/>
         <n v="0.000213676111366695"/>
         <n v="0.00021475339006281"/>
+        <n v="0.000228038378886405"/>
+        <n v="0.000232679616539073"/>
         <n v="0.000232693207258684"/>
         <n v="0.000238312026061914"/>
         <n v="0.000245259453547419"/>
         <n v="0.000247927199748755"/>
         <n v="0.000251028519357238"/>
+        <n v="0.000254371272129439"/>
         <n v="0.000255212759544773"/>
         <n v="0.000265565435844121"/>
         <n v="0.000282026900133431"/>
@@ -857,13 +937,16 @@
         <n v="0.000396141095767467"/>
         <n v="0.000401262646300056"/>
         <n v="0.00040201907865185"/>
+        <n v="0.000420187558341592"/>
         <n v="0.00042105101093757"/>
+        <n v="0.000425628633521902"/>
         <n v="0.000426264190167521"/>
         <n v="0.000427814653098429"/>
         <n v="0.000448083601092466"/>
         <n v="0.00045194733431128"/>
         <n v="0.000458447951569365"/>
         <n v="0.000465071314381945"/>
+        <n v="0.000465140702797089"/>
         <n v="0.000474605506581882"/>
         <n v="0.000492784715595297"/>
         <n v="0.000499874631743065"/>
@@ -885,12 +968,15 @@
         <n v="0.000711985090513267"/>
         <n v="0.000726648539070523"/>
         <n v="0.00073717436948136"/>
+        <n v="0.000738619994827467"/>
         <n v="0.000754228176129612"/>
         <n v="0.000814475128367251"/>
+        <n v="0.000814897227250397"/>
         <n v="0.000821962354173469"/>
         <n v="0.00083963847541095"/>
         <n v="0.000850018845648649"/>
         <n v="0.000856642797237224"/>
+        <n v="0.000857416897065122"/>
         <n v="0.000860219489412539"/>
         <n v="0.000861489597280515"/>
         <n v="0.00091400096655705"/>
@@ -903,6 +989,7 @@
         <n v="0.00116474433052788"/>
         <n v="0.00119184434168315"/>
         <n v="0.00122183947151083"/>
+        <n v="0.00123933566445121"/>
         <n v="0.00129592457473212"/>
         <n v="0.00130964935314749"/>
         <n v="0.00145359755541582"/>
@@ -920,6 +1007,7 @@
         <n v="0.00164989395653854"/>
         <n v="0.00165950537144804"/>
         <n v="0.00169856270215114"/>
+        <n v="0.00170830986870873"/>
         <n v="0.00180002290812718"/>
         <n v="0.00183707789433091"/>
         <n v="0.00190320506072993"/>
@@ -941,6 +1029,7 @@
         <n v="0.00357030240607793"/>
         <n v="0.00365694916376563"/>
         <n v="0.00389705733915907"/>
+        <n v="0.00392824935572987"/>
         <n v="0.00402429959162164"/>
         <n v="0.00405661890835048"/>
         <n v="0.00416859425841613"/>
@@ -948,9 +1037,11 @@
         <n v="0.00422915913625991"/>
         <n v="0.00457165650705473"/>
         <n v="0.00466751610702965"/>
+        <n v="0.00474151743232771"/>
         <n v="0.00482073980858912"/>
         <n v="0.00518700694997928"/>
         <n v="0.0052651640043977"/>
+        <n v="0.00538822089830872"/>
         <n v="0.00567280881550136"/>
         <n v="0.00598734950420506"/>
         <n v="0.00619359029734467"/>
@@ -971,6 +1062,7 @@
         <n v="0.00834579100612235"/>
         <n v="0.00883397087803505"/>
         <n v="0.00901304626584326"/>
+        <n v="0.00970315638598928"/>
         <n v="0.00975655619068258"/>
         <n v="0.00978835027523763"/>
         <n v="0.00994701630419275"/>
@@ -986,28 +1078,35 @@
         <n v="0.0142379858224508"/>
         <n v="0.0149353029698661"/>
         <n v="0.0150167585860921"/>
+        <n v="0.0159923621545183"/>
         <n v="0.0167871819652637"/>
         <n v="0.0168420056762966"/>
         <n v="0.0170136198440922"/>
         <n v="0.0171201527478833"/>
         <n v="0.0175813385991262"/>
         <n v="0.0176147037150735"/>
+        <n v="0.0177121966384384"/>
+        <n v="0.0179469162908899"/>
         <n v="0.0184236769399682"/>
         <n v="0.0191992092873406"/>
         <n v="0.0194077109245139"/>
         <n v="0.0201891552989241"/>
+        <n v="0.0208240987223815"/>
         <n v="0.0209438567306739"/>
         <n v="0.0213893158841663"/>
         <n v="0.022097846016492"/>
         <n v="0.022297458102101"/>
         <n v="0.0223464087155294"/>
+        <n v="0.0225106575840642"/>
         <n v="0.0225775824502854"/>
         <n v="0.0240981345951751"/>
         <n v="0.0264903712129213"/>
         <n v="0.0265537694601159"/>
         <n v="0.0276028922670915"/>
+        <n v="0.0278178760764934"/>
         <n v="0.0293595047967196"/>
         <n v="0.0302584745587173"/>
+        <n v="0.0309782317173276"/>
         <n v="0.0316622616109631"/>
         <n v="0.0319104680541139"/>
         <n v="0.0322139246193655"/>
@@ -1016,10 +1115,12 @@
         <n v="0.0344706470369949"/>
         <n v="0.0354764109004867"/>
         <n v="0.0390139155874581"/>
+        <n v="0.0416123511475862"/>
         <n v="0.041690620176808"/>
         <n v="0.0421378974908736"/>
         <n v="0.0440800797792334"/>
         <n v="0.0441458010941478"/>
+        <n v="0.0454646205797264"/>
         <n v="0.0463467736319467"/>
         <n v="0.0508489905682809"/>
         <n v="0.0524881951905045"/>
@@ -1035,6 +1136,9 @@
         <n v="0.0778008158393351"/>
         <n v="0.0879959236132595"/>
         <n v="0.0911540496680472"/>
+        <n v="0.0955409638328525"/>
+        <n v="0.108570956390905"/>
+        <n v="0.109611549795953"/>
         <n v="0.110382568012572"/>
         <n v="0.117094792603027"/>
         <n v="0.119774870387472"/>
@@ -1046,7 +1150,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="model fit time" numFmtId="0">
-      <sharedItems count="266" containsMixedTypes="1" containsSemiMixedTypes="1" containsString="0" containsNumber="1">
+      <sharedItems count="296" containsMixedTypes="1" containsSemiMixedTypes="1" containsString="0" containsNumber="1">
         <n v="2.0546"/>
         <n v="2.1481"/>
         <n v="2.6018"/>
@@ -1090,8 +1194,10 @@
         <n v="15.349"/>
         <n v="15.993"/>
         <n v="16.33"/>
+        <n v="17.245"/>
         <n v="17.442"/>
         <n v="18.331"/>
+        <n v="18.466"/>
         <n v="18.492"/>
         <n v="18.723"/>
         <n v="18.729"/>
@@ -1106,6 +1212,7 @@
         <n v="24.086"/>
         <n v="24.618"/>
         <n v="24.799"/>
+        <n v="25.1"/>
         <n v="26.982"/>
         <n v="27.017"/>
         <n v="27.139"/>
@@ -1116,6 +1223,7 @@
         <n v="31.023"/>
         <n v="31.864"/>
         <n v="32.209"/>
+        <n v="33.899"/>
         <n v="34.804"/>
         <n v="35.351"/>
         <n v="35.948"/>
@@ -1139,6 +1247,7 @@
         <n v="53.653"/>
         <n v="53.801"/>
         <n v="56.794"/>
+        <n v="57.276"/>
         <n v="57.709"/>
         <n v="58.033"/>
         <n v="59.523"/>
@@ -1149,6 +1258,7 @@
         <n v="66.002"/>
         <n v="66.33"/>
         <n v="66.741"/>
+        <n v="68.639"/>
         <n v="71.425"/>
         <n v="74.21"/>
         <n v="75.799"/>
@@ -1159,6 +1269,7 @@
         <n v="80.974"/>
         <n v="84.929"/>
         <n v="85.065"/>
+        <n v="86.092"/>
         <n v="88.342"/>
         <n v="88.999"/>
         <n v="89.704"/>
@@ -1176,6 +1287,8 @@
         <n v="117.85"/>
         <n v="120.33"/>
         <n v="122.85"/>
+        <n v="129.11"/>
+        <n v="129.47"/>
         <n v="129.61"/>
         <n v="130.83"/>
         <n v="131.42"/>
@@ -1186,6 +1299,7 @@
         <n v="146.85"/>
         <n v="149.16"/>
         <n v="149.53"/>
+        <n v="150.17"/>
         <n v="156.01"/>
         <n v="156.67"/>
         <n v="159.16"/>
@@ -1203,6 +1317,7 @@
         <n v="200.85"/>
         <n v="202.2"/>
         <n v="206.4"/>
+        <n v="207.71"/>
         <n v="208.65"/>
         <n v="210.91"/>
         <n v="221.75"/>
@@ -1218,9 +1333,12 @@
         <n v="263.19"/>
         <n v="263.51"/>
         <n v="267.3"/>
+        <n v="267.49"/>
         <n v="285.38"/>
+        <n v="295.42"/>
         <n v="298.05"/>
         <n v="299.08"/>
+        <n v="308.11"/>
         <n v="309.45"/>
         <n v="311.85"/>
         <n v="318.26"/>
@@ -1244,25 +1362,31 @@
         <n v="458.22"/>
         <n v="462.45"/>
         <n v="480.9"/>
+        <n v="495.61"/>
         <n v="496.83"/>
         <n v="499.95"/>
         <n v="502.69"/>
         <n v="526.77"/>
         <n v="529.27"/>
+        <n v="529.38"/>
         <n v="538.57"/>
         <n v="540.55"/>
         <n v="541.83"/>
         <n v="585.4"/>
         <n v="588.37"/>
         <n v="591.8"/>
+        <n v="593.56"/>
         <n v="606.02"/>
+        <n v="625.44"/>
         <n v="649.75"/>
         <n v="664.11"/>
         <n v="676.98"/>
         <n v="693.32"/>
         <n v="708.72"/>
         <n v="710.61"/>
+        <n v="763.09"/>
         <n v="765.38"/>
+        <n v="812.29"/>
         <n v="820.91"/>
         <n v="834.75"/>
         <n v="846.75"/>
@@ -1274,12 +1398,15 @@
         <n v="1003.1"/>
         <n v="1003.8"/>
         <n v="1007"/>
+        <n v="1008.8"/>
         <n v="1033"/>
         <n v="1033.6"/>
+        <n v="1034.8"/>
         <n v="1100.8"/>
         <n v="1158.5"/>
         <n v="1194.9"/>
         <n v="1216.8"/>
+        <n v="1311.6"/>
         <n v="1338.7"/>
         <n v="1406.6"/>
         <n v="1522.5"/>
@@ -1290,10 +1417,13 @@
         <n v="1682.7"/>
         <n v="1738.2"/>
         <n v="1887.9"/>
+        <n v="1907.6"/>
         <n v="1912.7"/>
         <n v="1937.5"/>
         <n v="1997.8"/>
         <n v="2015.5"/>
+        <n v="2091.5"/>
+        <n v="2142.2"/>
         <n v="2410.6"/>
         <n v="2448"/>
         <n v="2672.3"/>
@@ -1301,8 +1431,10 @@
         <n v="3198.6"/>
         <n v="3393.1"/>
         <n v="3481.3"/>
+        <n v="3610.6"/>
         <n v="3926.5"/>
         <n v="3963.1"/>
+        <n v="4001"/>
         <n v="4039.5"/>
         <n v="4837"/>
         <n v="5427.7"/>
@@ -1310,13 +1442,15 @@
         <n v="6777.9"/>
         <n v="6780"/>
         <n v="8016.9"/>
+        <n v="8091.1"/>
         <n v="9828.2"/>
         <n v="12744"/>
+        <n v="15179"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="training predict time" numFmtId="0">
-      <sharedItems count="266" containsMixedTypes="1" containsSemiMixedTypes="1" containsString="0" containsNumber="1">
+      <sharedItems count="295" containsMixedTypes="1" containsSemiMixedTypes="1" containsString="0" containsNumber="1">
         <n v="0.10009"/>
         <n v="0.11548"/>
         <n v="0.16901"/>
@@ -1547,11 +1681,15 @@
         <n v="8.5937"/>
         <n v="8.6413"/>
         <n v="8.6579"/>
+        <n v="8.6925"/>
         <n v="8.6957"/>
         <n v="8.7099"/>
+        <n v="8.7252"/>
+        <n v="8.8078"/>
         <n v="8.812"/>
         <n v="8.8355"/>
         <n v="8.8384"/>
+        <n v="8.8453"/>
         <n v="8.8462"/>
         <n v="8.8615"/>
         <n v="8.9266"/>
@@ -1560,33 +1698,58 @@
         <n v="8.9889"/>
         <n v="8.9964"/>
         <n v="9.0107"/>
+        <n v="9.0134"/>
         <n v="9.0419"/>
+        <n v="9.087"/>
+        <n v="9.0986"/>
+        <n v="9.1356"/>
         <n v="9.1492"/>
         <n v="9.1628"/>
+        <n v="9.1947"/>
         <n v="9.204"/>
+        <n v="9.2404"/>
         <n v="9.2641"/>
+        <n v="9.2735"/>
+        <n v="9.3458"/>
+        <n v="9.3475"/>
         <n v="9.4011"/>
+        <n v="9.4344"/>
+        <n v="9.4567"/>
+        <n v="9.4707"/>
         <n v="9.4973"/>
         <n v="9.61"/>
+        <n v="9.6971"/>
         <n v="9.7295"/>
+        <n v="9.7396"/>
+        <n v="9.8086"/>
+        <n v="9.8172"/>
         <n v="9.8239"/>
         <n v="9.827"/>
+        <n v="9.885"/>
         <n v="9.9443"/>
+        <n v="10.032"/>
+        <n v="10.054"/>
         <n v="10.086"/>
         <n v="10.092"/>
+        <n v="10.258"/>
+        <n v="10.334"/>
         <n v="10.467"/>
+        <n v="10.471"/>
         <n v="10.499"/>
+        <n v="10.797"/>
         <n v="11.064"/>
         <n v="11.073"/>
+        <n v="11.149"/>
         <n v="11.684"/>
         <n v="12.191"/>
         <n v="12.432"/>
         <n v="14.282"/>
+        <n v="29.982"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="testing predict time" numFmtId="0">
-      <sharedItems count="245" containsMixedTypes="1" containsSemiMixedTypes="1" containsString="0" containsNumber="1">
+      <sharedItems count="274" containsMixedTypes="1" containsSemiMixedTypes="1" containsString="0" containsNumber="1">
         <n v="0.021646"/>
         <n v="0.031226"/>
         <n v="0.031252"/>
@@ -1792,50 +1955,79 @@
         <n v="0.27825"/>
         <n v="0.27857"/>
         <n v="0.27886"/>
+        <n v="0.28259"/>
         <n v="0.28433"/>
         <n v="0.28442"/>
         <n v="0.28451"/>
         <n v="0.28475"/>
         <n v="0.28478"/>
         <n v="0.29481"/>
+        <n v="0.29942"/>
+        <n v="0.30004"/>
         <n v="0.3003"/>
+        <n v="0.30031"/>
         <n v="0.30035"/>
+        <n v="0.30052"/>
         <n v="0.30062"/>
         <n v="0.30087"/>
+        <n v="0.30105"/>
         <n v="0.30376"/>
         <n v="0.30734"/>
         <n v="0.30792"/>
         <n v="0.315"/>
+        <n v="0.31505"/>
         <n v="0.31569"/>
         <n v="0.31578"/>
         <n v="0.31595"/>
+        <n v="0.31609"/>
         <n v="0.31612"/>
         <n v="0.31649"/>
+        <n v="0.3181"/>
+        <n v="0.31996"/>
         <n v="0.32388"/>
         <n v="0.32543"/>
+        <n v="0.33135"/>
         <n v="0.33197"/>
         <n v="0.33199"/>
+        <n v="0.33413"/>
         <n v="0.33598"/>
         <n v="0.33712"/>
+        <n v="0.33823"/>
         <n v="0.33842"/>
+        <n v="0.34422"/>
         <n v="0.34668"/>
         <n v="0.3472"/>
+        <n v="0.34791"/>
         <n v="0.34895"/>
+        <n v="0.35337"/>
         <n v="0.35388"/>
+        <n v="0.36279"/>
         <n v="0.36292"/>
+        <n v="0.36306"/>
         <n v="0.36349"/>
+        <n v="0.36537"/>
+        <n v="0.3693"/>
         <n v="0.37818"/>
+        <n v="0.37938"/>
         <n v="0.3801"/>
         <n v="0.38477"/>
+        <n v="0.38487"/>
+        <n v="0.38502"/>
         <n v="0.38504"/>
+        <n v="0.38509"/>
         <n v="0.38512"/>
+        <n v="0.38551"/>
         <n v="0.40014"/>
+        <n v="0.40028"/>
+        <n v="0.40031"/>
         <n v="0.41597"/>
+        <n v="0.41672"/>
+        <n v="0.42515"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="training error eval time" numFmtId="0">
-      <sharedItems count="266" containsMixedTypes="1" containsSemiMixedTypes="1" containsString="0" containsNumber="1">
+      <sharedItems count="296" containsMixedTypes="1" containsSemiMixedTypes="1" containsString="0" containsNumber="1">
         <n v="0.11571"/>
         <n v="0.15279"/>
         <n v="0.16886"/>
@@ -2074,38 +2266,68 @@
         <n v="8.6311"/>
         <n v="8.6926"/>
         <n v="8.6928"/>
+        <n v="8.7184"/>
+        <n v="8.7744"/>
+        <n v="8.7901"/>
         <n v="8.8433"/>
         <n v="8.8661"/>
         <n v="8.8777"/>
+        <n v="8.8875"/>
         <n v="8.9054"/>
         <n v="8.9216"/>
+        <n v="8.9361"/>
+        <n v="8.9424"/>
+        <n v="8.9577"/>
         <n v="8.9762"/>
+        <n v="9.0105"/>
+        <n v="9.0125"/>
+        <n v="9.0244"/>
+        <n v="9.0891"/>
         <n v="9.131"/>
         <n v="9.1477"/>
+        <n v="9.1976"/>
+        <n v="9.2767"/>
         <n v="9.2781"/>
+        <n v="9.2908"/>
+        <n v="9.2969"/>
         <n v="9.3412"/>
+        <n v="9.3508"/>
+        <n v="9.3743"/>
         <n v="9.3889"/>
+        <n v="9.3946"/>
         <n v="9.437"/>
+        <n v="9.438"/>
         <n v="9.4393"/>
         <n v="9.5068"/>
         <n v="9.5861"/>
+        <n v="9.5884"/>
+        <n v="9.5897"/>
         <n v="9.6442"/>
+        <n v="9.6508"/>
         <n v="9.6585"/>
         <n v="9.6628"/>
         <n v="9.6762"/>
         <n v="9.712"/>
+        <n v="9.7612"/>
+        <n v="9.8027"/>
+        <n v="9.8922"/>
         <n v="9.9246"/>
+        <n v="10.017"/>
+        <n v="10.042"/>
         <n v="10.043"/>
         <n v="10.067"/>
+        <n v="10.071"/>
+        <n v="10.122"/>
         <n v="10.332"/>
         <n v="10.93"/>
+        <n v="11.06"/>
         <n v="11.36"/>
         <n v="11.581"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="testing error eval time" numFmtId="0">
-      <sharedItems count="240" containsMixedTypes="1" containsSemiMixedTypes="1" containsString="0" containsNumber="1">
+      <sharedItems count="270" containsMixedTypes="1" containsSemiMixedTypes="1" containsString="0" containsNumber="1">
         <n v="0.031252"/>
         <n v="0.031253"/>
         <n v="0.031255"/>
@@ -2309,40 +2531,70 @@
         <n v="0.29387"/>
         <n v="0.29791"/>
         <n v="0.29886"/>
+        <n v="0.29988"/>
         <n v="0.29996"/>
+        <n v="0.30026"/>
         <n v="0.30038"/>
         <n v="0.30039"/>
+        <n v="0.30045"/>
+        <n v="0.3005"/>
         <n v="0.30059"/>
+        <n v="0.30069"/>
+        <n v="0.30076"/>
         <n v="0.30588"/>
         <n v="0.31025"/>
+        <n v="0.31598"/>
         <n v="0.31616"/>
         <n v="0.31618"/>
         <n v="0.31631"/>
         <n v="0.31637"/>
+        <n v="0.31722"/>
         <n v="0.31828"/>
         <n v="0.31841"/>
         <n v="0.32142"/>
         <n v="0.32187"/>
+        <n v="0.32206"/>
         <n v="0.32289"/>
         <n v="0.32991"/>
+        <n v="0.33123"/>
         <n v="0.33143"/>
+        <n v="0.33151"/>
         <n v="0.33157"/>
         <n v="0.33167"/>
+        <n v="0.33169"/>
+        <n v="0.33171"/>
         <n v="0.33186"/>
         <n v="0.33197"/>
         <n v="0.33209"/>
+        <n v="0.33856"/>
+        <n v="0.34679"/>
+        <n v="0.3469"/>
         <n v="0.34702"/>
+        <n v="0.34737"/>
         <n v="0.3475"/>
+        <n v="0.34773"/>
         <n v="0.34779"/>
         <n v="0.35254"/>
+        <n v="0.35299"/>
+        <n v="0.35367"/>
         <n v="0.35962"/>
+        <n v="0.36261"/>
         <n v="0.36393"/>
         <n v="0.36884"/>
+        <n v="0.36914"/>
+        <n v="0.3692"/>
+        <n v="0.36954"/>
+        <n v="0.37899"/>
+        <n v="0.38399"/>
         <n v="0.3858"/>
+        <n v="0.39716"/>
+        <n v="0.39922"/>
         <n v="0.39992"/>
+        <n v="0.40039"/>
         <n v="0.40511"/>
         <n v="0.41519"/>
         <n v="0.41584"/>
+        <n v="0.43186"/>
         <n v="0.43234"/>
         <n v="0.45372"/>
         <m/>
@@ -2358,8 +2610,8 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="63"/>
-    <x v="55"/>
+    <x v="67"/>
+    <x v="58"/>
     <x v="23"/>
     <x v="0"/>
     <x v="1"/>
@@ -2370,8 +2622,8 @@
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="210"/>
-    <x v="217"/>
+    <x v="235"/>
+    <x v="238"/>
     <x v="5"/>
     <x v="1"/>
     <x v="4"/>
@@ -2382,8 +2634,8 @@
     <x v="0"/>
     <x v="0"/>
     <x v="2"/>
-    <x v="197"/>
-    <x v="219"/>
+    <x v="221"/>
+    <x v="241"/>
     <x v="2"/>
     <x v="2"/>
     <x v="4"/>
@@ -2394,8 +2646,8 @@
     <x v="0"/>
     <x v="0"/>
     <x v="3"/>
-    <x v="258"/>
-    <x v="253"/>
+    <x v="288"/>
+    <x v="280"/>
     <x v="1"/>
     <x v="3"/>
     <x v="4"/>
@@ -2406,8 +2658,8 @@
     <x v="0"/>
     <x v="0"/>
     <x v="4"/>
-    <x v="263"/>
-    <x v="263"/>
+    <x v="293"/>
+    <x v="293"/>
     <x v="0"/>
     <x v="4"/>
     <x v="0"/>
@@ -2418,9 +2670,9 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="158"/>
-    <x v="25"/>
-    <x v="108"/>
+    <x v="173"/>
+    <x v="27"/>
+    <x v="114"/>
     <x v="5"/>
     <x v="19"/>
     <x v="5"/>
@@ -2430,9 +2682,9 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="214"/>
-    <x v="81"/>
-    <x v="44"/>
+    <x v="239"/>
+    <x v="89"/>
+    <x v="45"/>
     <x v="6"/>
     <x v="7"/>
     <x v="6"/>
@@ -2442,8 +2694,8 @@
     <x v="0"/>
     <x v="1"/>
     <x v="2"/>
-    <x v="156"/>
-    <x v="75"/>
+    <x v="170"/>
+    <x v="81"/>
     <x v="29"/>
     <x v="7"/>
     <x v="14"/>
@@ -2454,8 +2706,8 @@
     <x v="0"/>
     <x v="1"/>
     <x v="3"/>
-    <x v="206"/>
-    <x v="164"/>
+    <x v="231"/>
+    <x v="179"/>
     <x v="12"/>
     <x v="8"/>
     <x v="21"/>
@@ -2466,8 +2718,8 @@
     <x v="0"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="199"/>
-    <x v="205"/>
+    <x v="223"/>
+    <x v="223"/>
     <x v="8"/>
     <x v="10"/>
     <x v="3"/>
@@ -2478,9 +2730,9 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="49"/>
-    <x v="13"/>
-    <x v="152"/>
+    <x v="51"/>
+    <x v="14"/>
+    <x v="162"/>
     <x v="9"/>
     <x v="16"/>
     <x v="11"/>
@@ -2490,9 +2742,9 @@
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <x v="54"/>
-    <x v="125"/>
-    <x v="80"/>
+    <x v="57"/>
+    <x v="137"/>
+    <x v="84"/>
     <x v="11"/>
     <x v="13"/>
     <x v="10"/>
@@ -2502,9 +2754,9 @@
     <x v="0"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="129"/>
-    <x v="61"/>
-    <x v="56"/>
+    <x v="140"/>
+    <x v="67"/>
+    <x v="58"/>
     <x v="14"/>
     <x v="34"/>
     <x v="12"/>
@@ -2514,8 +2766,8 @@
     <x v="0"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="159"/>
-    <x v="110"/>
+    <x v="174"/>
+    <x v="121"/>
     <x v="32"/>
     <x v="12"/>
     <x v="10"/>
@@ -2526,8 +2778,8 @@
     <x v="0"/>
     <x v="2"/>
     <x v="4"/>
-    <x v="192"/>
-    <x v="70"/>
+    <x v="215"/>
+    <x v="76"/>
     <x v="21"/>
     <x v="13"/>
     <x v="13"/>
@@ -2538,9 +2790,9 @@
     <x v="0"/>
     <x v="3"/>
     <x v="0"/>
-    <x v="20"/>
-    <x v="5"/>
-    <x v="188"/>
+    <x v="22"/>
+    <x v="6"/>
+    <x v="202"/>
     <x v="15"/>
     <x v="52"/>
     <x v="15"/>
@@ -2550,9 +2802,9 @@
     <x v="0"/>
     <x v="3"/>
     <x v="1"/>
-    <x v="115"/>
-    <x v="193"/>
-    <x v="112"/>
+    <x v="125"/>
+    <x v="210"/>
+    <x v="119"/>
     <x v="16"/>
     <x v="11"/>
     <x v="16"/>
@@ -2562,9 +2814,9 @@
     <x v="0"/>
     <x v="3"/>
     <x v="2"/>
-    <x v="202"/>
-    <x v="24"/>
-    <x v="85"/>
+    <x v="227"/>
+    <x v="26"/>
+    <x v="89"/>
     <x v="17"/>
     <x v="43"/>
     <x v="17"/>
@@ -2574,9 +2826,9 @@
     <x v="0"/>
     <x v="3"/>
     <x v="3"/>
-    <x v="145"/>
-    <x v="150"/>
-    <x v="55"/>
+    <x v="159"/>
+    <x v="164"/>
+    <x v="57"/>
     <x v="18"/>
     <x v="2"/>
     <x v="18"/>
@@ -2586,8 +2838,8 @@
     <x v="0"/>
     <x v="3"/>
     <x v="4"/>
-    <x v="120"/>
-    <x v="45"/>
+    <x v="130"/>
+    <x v="48"/>
     <x v="41"/>
     <x v="19"/>
     <x v="12"/>
@@ -2598,9 +2850,9 @@
     <x v="0"/>
     <x v="4"/>
     <x v="0"/>
-    <x v="137"/>
-    <x v="137"/>
-    <x v="217"/>
+    <x v="150"/>
+    <x v="150"/>
+    <x v="237"/>
     <x v="20"/>
     <x v="6"/>
     <x v="20"/>
@@ -2610,9 +2862,9 @@
     <x v="0"/>
     <x v="4"/>
     <x v="1"/>
-    <x v="37"/>
-    <x v="35"/>
-    <x v="148"/>
+    <x v="39"/>
+    <x v="38"/>
+    <x v="158"/>
     <x v="22"/>
     <x v="14"/>
     <x v="21"/>
@@ -2622,9 +2874,9 @@
     <x v="0"/>
     <x v="4"/>
     <x v="2"/>
-    <x v="9"/>
-    <x v="41"/>
-    <x v="116"/>
+    <x v="10"/>
+    <x v="44"/>
+    <x v="123"/>
     <x v="21"/>
     <x v="27"/>
     <x v="22"/>
@@ -2634,9 +2886,9 @@
     <x v="0"/>
     <x v="4"/>
     <x v="3"/>
-    <x v="64"/>
-    <x v="82"/>
-    <x v="83"/>
+    <x v="68"/>
+    <x v="90"/>
+    <x v="87"/>
     <x v="23"/>
     <x v="41"/>
     <x v="23"/>
@@ -2646,9 +2898,9 @@
     <x v="0"/>
     <x v="4"/>
     <x v="4"/>
-    <x v="103"/>
-    <x v="68"/>
-    <x v="64"/>
+    <x v="110"/>
+    <x v="74"/>
+    <x v="67"/>
     <x v="24"/>
     <x v="15"/>
     <x v="24"/>
@@ -2658,9 +2910,9 @@
     <x v="0"/>
     <x v="5"/>
     <x v="0"/>
-    <x v="32"/>
-    <x v="172"/>
-    <x v="238"/>
+    <x v="34"/>
+    <x v="188"/>
+    <x v="261"/>
     <x v="25"/>
     <x v="37"/>
     <x v="25"/>
@@ -2671,8 +2923,8 @@
     <x v="5"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="17"/>
-    <x v="184"/>
+    <x v="18"/>
+    <x v="198"/>
     <x v="26"/>
     <x v="25"/>
     <x v="27"/>
@@ -2682,9 +2934,9 @@
     <x v="0"/>
     <x v="5"/>
     <x v="2"/>
-    <x v="91"/>
-    <x v="103"/>
-    <x v="149"/>
+    <x v="97"/>
+    <x v="112"/>
+    <x v="159"/>
     <x v="27"/>
     <x v="36"/>
     <x v="26"/>
@@ -2694,9 +2946,9 @@
     <x v="0"/>
     <x v="5"/>
     <x v="3"/>
-    <x v="25"/>
-    <x v="93"/>
-    <x v="114"/>
+    <x v="27"/>
+    <x v="102"/>
+    <x v="121"/>
     <x v="28"/>
     <x v="44"/>
     <x v="30"/>
@@ -2706,9 +2958,9 @@
     <x v="0"/>
     <x v="5"/>
     <x v="4"/>
-    <x v="118"/>
-    <x v="30"/>
-    <x v="92"/>
+    <x v="128"/>
+    <x v="32"/>
+    <x v="97"/>
     <x v="29"/>
     <x v="2"/>
     <x v="28"/>
@@ -2718,8 +2970,8 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="65"/>
-    <x v="98"/>
+    <x v="69"/>
+    <x v="107"/>
     <x v="42"/>
     <x v="30"/>
     <x v="23"/>
@@ -2730,8 +2982,8 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="204"/>
-    <x v="213"/>
+    <x v="229"/>
+    <x v="232"/>
     <x v="9"/>
     <x v="31"/>
     <x v="2"/>
@@ -2742,8 +2994,8 @@
     <x v="1"/>
     <x v="0"/>
     <x v="2"/>
-    <x v="163"/>
-    <x v="231"/>
+    <x v="179"/>
+    <x v="256"/>
     <x v="7"/>
     <x v="32"/>
     <x v="5"/>
@@ -2754,8 +3006,8 @@
     <x v="1"/>
     <x v="0"/>
     <x v="3"/>
-    <x v="229"/>
-    <x v="209"/>
+    <x v="255"/>
+    <x v="228"/>
     <x v="4"/>
     <x v="33"/>
     <x v="32"/>
@@ -2766,8 +3018,8 @@
     <x v="1"/>
     <x v="0"/>
     <x v="4"/>
-    <x v="264"/>
-    <x v="264"/>
+    <x v="294"/>
+    <x v="294"/>
     <x v="3"/>
     <x v="34"/>
     <x v="27"/>
@@ -2778,9 +3030,9 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="111"/>
-    <x v="132"/>
-    <x v="135"/>
+    <x v="120"/>
+    <x v="145"/>
+    <x v="144"/>
     <x v="35"/>
     <x v="17"/>
     <x v="35"/>
@@ -2790,9 +3042,9 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="160"/>
-    <x v="15"/>
-    <x v="67"/>
+    <x v="176"/>
+    <x v="16"/>
+    <x v="70"/>
     <x v="39"/>
     <x v="9"/>
     <x v="36"/>
@@ -2802,9 +3054,9 @@
     <x v="1"/>
     <x v="1"/>
     <x v="2"/>
-    <x v="185"/>
-    <x v="36"/>
-    <x v="46"/>
+    <x v="205"/>
+    <x v="39"/>
+    <x v="48"/>
     <x v="38"/>
     <x v="29"/>
     <x v="37"/>
@@ -2814,8 +3066,8 @@
     <x v="1"/>
     <x v="1"/>
     <x v="3"/>
-    <x v="161"/>
-    <x v="112"/>
+    <x v="177"/>
+    <x v="123"/>
     <x v="30"/>
     <x v="36"/>
     <x v="22"/>
@@ -2826,8 +3078,8 @@
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="215"/>
-    <x v="247"/>
+    <x v="240"/>
+    <x v="274"/>
     <x v="18"/>
     <x v="37"/>
     <x v="18"/>
@@ -2838,9 +3090,9 @@
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="59"/>
-    <x v="20"/>
-    <x v="182"/>
+    <x v="63"/>
+    <x v="21"/>
+    <x v="196"/>
     <x v="42"/>
     <x v="45"/>
     <x v="40"/>
@@ -2850,9 +3102,9 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <x v="126"/>
-    <x v="134"/>
-    <x v="104"/>
+    <x v="137"/>
+    <x v="147"/>
+    <x v="110"/>
     <x v="40"/>
     <x v="48"/>
     <x v="41"/>
@@ -2862,9 +3114,9 @@
     <x v="1"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="189"/>
-    <x v="43"/>
-    <x v="79"/>
+    <x v="211"/>
+    <x v="46"/>
+    <x v="83"/>
     <x v="41"/>
     <x v="47"/>
     <x v="42"/>
@@ -2874,9 +3126,9 @@
     <x v="1"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="144"/>
-    <x v="157"/>
-    <x v="52"/>
+    <x v="158"/>
+    <x v="171"/>
+    <x v="54"/>
     <x v="45"/>
     <x v="27"/>
     <x v="43"/>
@@ -2886,8 +3138,8 @@
     <x v="1"/>
     <x v="2"/>
     <x v="4"/>
-    <x v="209"/>
-    <x v="210"/>
+    <x v="234"/>
+    <x v="229"/>
     <x v="39"/>
     <x v="43"/>
     <x v="51"/>
@@ -2898,9 +3150,9 @@
     <x v="1"/>
     <x v="3"/>
     <x v="0"/>
-    <x v="8"/>
-    <x v="208"/>
-    <x v="212"/>
+    <x v="9"/>
+    <x v="226"/>
+    <x v="230"/>
     <x v="44"/>
     <x v="26"/>
     <x v="48"/>
@@ -2910,9 +3162,9 @@
     <x v="1"/>
     <x v="3"/>
     <x v="1"/>
-    <x v="61"/>
-    <x v="72"/>
-    <x v="137"/>
+    <x v="65"/>
+    <x v="78"/>
+    <x v="146"/>
     <x v="46"/>
     <x v="70"/>
     <x v="47"/>
@@ -2922,9 +3174,9 @@
     <x v="1"/>
     <x v="3"/>
     <x v="2"/>
-    <x v="104"/>
-    <x v="38"/>
     <x v="111"/>
+    <x v="41"/>
+    <x v="117"/>
     <x v="47"/>
     <x v="27"/>
     <x v="45"/>
@@ -2934,9 +3186,9 @@
     <x v="1"/>
     <x v="3"/>
     <x v="3"/>
-    <x v="167"/>
-    <x v="50"/>
-    <x v="75"/>
+    <x v="183"/>
+    <x v="53"/>
+    <x v="79"/>
     <x v="48"/>
     <x v="31"/>
     <x v="46"/>
@@ -2946,9 +3198,9 @@
     <x v="1"/>
     <x v="3"/>
     <x v="4"/>
-    <x v="147"/>
-    <x v="92"/>
-    <x v="60"/>
+    <x v="161"/>
+    <x v="101"/>
+    <x v="63"/>
     <x v="49"/>
     <x v="20"/>
     <x v="49"/>
@@ -2958,9 +3210,9 @@
     <x v="1"/>
     <x v="4"/>
     <x v="0"/>
-    <x v="73"/>
-    <x v="203"/>
-    <x v="234"/>
+    <x v="77"/>
+    <x v="221"/>
+    <x v="257"/>
     <x v="50"/>
     <x v="50"/>
     <x v="50"/>
@@ -2971,8 +3223,8 @@
     <x v="4"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="155"/>
-    <x v="172"/>
+    <x v="169"/>
+    <x v="185"/>
     <x v="52"/>
     <x v="3"/>
     <x v="54"/>
@@ -2982,9 +3234,9 @@
     <x v="1"/>
     <x v="4"/>
     <x v="2"/>
-    <x v="90"/>
-    <x v="182"/>
-    <x v="147"/>
+    <x v="96"/>
+    <x v="199"/>
+    <x v="157"/>
     <x v="51"/>
     <x v="42"/>
     <x v="52"/>
@@ -2994,9 +3246,9 @@
     <x v="1"/>
     <x v="4"/>
     <x v="3"/>
-    <x v="112"/>
-    <x v="58"/>
-    <x v="109"/>
+    <x v="121"/>
+    <x v="63"/>
+    <x v="115"/>
     <x v="53"/>
     <x v="45"/>
     <x v="51"/>
@@ -3006,9 +3258,9 @@
     <x v="1"/>
     <x v="4"/>
     <x v="4"/>
-    <x v="154"/>
-    <x v="10"/>
-    <x v="87"/>
+    <x v="168"/>
+    <x v="11"/>
+    <x v="91"/>
     <x v="55"/>
     <x v="24"/>
     <x v="53"/>
@@ -3018,9 +3270,9 @@
     <x v="1"/>
     <x v="5"/>
     <x v="0"/>
-    <x v="10"/>
-    <x v="224"/>
-    <x v="250"/>
+    <x v="11"/>
+    <x v="247"/>
+    <x v="276"/>
     <x v="57"/>
     <x v="65"/>
     <x v="56"/>
@@ -3030,9 +3282,9 @@
     <x v="1"/>
     <x v="5"/>
     <x v="1"/>
-    <x v="21"/>
-    <x v="156"/>
-    <x v="207"/>
+    <x v="23"/>
+    <x v="170"/>
+    <x v="223"/>
     <x v="54"/>
     <x v="4"/>
     <x v="55"/>
@@ -3042,9 +3294,9 @@
     <x v="1"/>
     <x v="5"/>
     <x v="2"/>
-    <x v="81"/>
-    <x v="152"/>
-    <x v="179"/>
+    <x v="86"/>
+    <x v="166"/>
+    <x v="193"/>
     <x v="56"/>
     <x v="8"/>
     <x v="57"/>
@@ -3054,9 +3306,9 @@
     <x v="1"/>
     <x v="5"/>
     <x v="3"/>
-    <x v="142"/>
-    <x v="40"/>
-    <x v="144"/>
+    <x v="156"/>
+    <x v="43"/>
+    <x v="154"/>
     <x v="58"/>
     <x v="55"/>
     <x v="59"/>
@@ -3066,9 +3318,9 @@
     <x v="1"/>
     <x v="5"/>
     <x v="4"/>
-    <x v="187"/>
-    <x v="0"/>
-    <x v="121"/>
+    <x v="209"/>
+    <x v="1"/>
+    <x v="128"/>
     <x v="60"/>
     <x v="28"/>
     <x v="58"/>
@@ -3078,9 +3330,9 @@
     <x v="2"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="193"/>
-    <x v="64"/>
-    <x v="54"/>
+    <x v="216"/>
+    <x v="70"/>
+    <x v="56"/>
     <x v="61"/>
     <x v="26"/>
     <x v="60"/>
@@ -3090,8 +3342,8 @@
     <x v="2"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="240"/>
-    <x v="198"/>
+    <x v="267"/>
+    <x v="216"/>
     <x v="19"/>
     <x v="59"/>
     <x v="33"/>
@@ -3102,8 +3354,8 @@
     <x v="2"/>
     <x v="0"/>
     <x v="2"/>
-    <x v="235"/>
-    <x v="181"/>
+    <x v="261"/>
+    <x v="198"/>
     <x v="13"/>
     <x v="63"/>
     <x v="35"/>
@@ -3114,8 +3366,8 @@
     <x v="2"/>
     <x v="0"/>
     <x v="3"/>
-    <x v="230"/>
-    <x v="226"/>
+    <x v="256"/>
+    <x v="249"/>
     <x v="11"/>
     <x v="62"/>
     <x v="63"/>
@@ -3126,8 +3378,8 @@
     <x v="2"/>
     <x v="0"/>
     <x v="4"/>
-    <x v="259"/>
-    <x v="255"/>
+    <x v="289"/>
+    <x v="282"/>
     <x v="6"/>
     <x v="64"/>
     <x v="40"/>
@@ -3138,9 +3390,9 @@
     <x v="2"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="66"/>
-    <x v="86"/>
-    <x v="154"/>
+    <x v="70"/>
+    <x v="94"/>
+    <x v="164"/>
     <x v="66"/>
     <x v="69"/>
     <x v="67"/>
@@ -3150,9 +3402,9 @@
     <x v="2"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="69"/>
-    <x v="126"/>
-    <x v="84"/>
+    <x v="73"/>
+    <x v="139"/>
+    <x v="88"/>
     <x v="65"/>
     <x v="66"/>
     <x v="64"/>
@@ -3162,9 +3414,9 @@
     <x v="2"/>
     <x v="1"/>
     <x v="2"/>
-    <x v="107"/>
-    <x v="135"/>
-    <x v="61"/>
+    <x v="116"/>
+    <x v="148"/>
+    <x v="64"/>
     <x v="68"/>
     <x v="71"/>
     <x v="65"/>
@@ -3174,8 +3426,8 @@
     <x v="2"/>
     <x v="1"/>
     <x v="3"/>
-    <x v="212"/>
-    <x v="173"/>
+    <x v="237"/>
+    <x v="189"/>
     <x v="37"/>
     <x v="67"/>
     <x v="49"/>
@@ -3186,8 +3438,8 @@
     <x v="2"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="182"/>
-    <x v="220"/>
+    <x v="201"/>
+    <x v="242"/>
     <x v="27"/>
     <x v="74"/>
     <x v="62"/>
@@ -3198,9 +3450,9 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="35"/>
-    <x v="158"/>
-    <x v="197"/>
+    <x v="37"/>
+    <x v="172"/>
+    <x v="212"/>
     <x v="69"/>
     <x v="38"/>
     <x v="70"/>
@@ -3210,9 +3462,9 @@
     <x v="2"/>
     <x v="2"/>
     <x v="1"/>
-    <x v="86"/>
-    <x v="31"/>
-    <x v="125"/>
+    <x v="92"/>
+    <x v="33"/>
+    <x v="132"/>
     <x v="71"/>
     <x v="53"/>
     <x v="68"/>
@@ -3222,9 +3474,9 @@
     <x v="2"/>
     <x v="2"/>
     <x v="2"/>
+    <x v="109"/>
+    <x v="51"/>
     <x v="102"/>
-    <x v="48"/>
-    <x v="97"/>
     <x v="70"/>
     <x v="54"/>
     <x v="72"/>
@@ -3234,9 +3486,9 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="171"/>
-    <x v="123"/>
-    <x v="66"/>
+    <x v="187"/>
+    <x v="135"/>
+    <x v="69"/>
     <x v="73"/>
     <x v="67"/>
     <x v="71"/>
@@ -3246,9 +3498,9 @@
     <x v="2"/>
     <x v="2"/>
     <x v="4"/>
-    <x v="223"/>
-    <x v="185"/>
-    <x v="53"/>
+    <x v="248"/>
+    <x v="202"/>
+    <x v="55"/>
     <x v="72"/>
     <x v="39"/>
     <x v="75"/>
@@ -3258,9 +3510,9 @@
     <x v="2"/>
     <x v="3"/>
     <x v="0"/>
-    <x v="5"/>
-    <x v="56"/>
-    <x v="224"/>
+    <x v="6"/>
+    <x v="61"/>
+    <x v="244"/>
     <x v="77"/>
     <x v="59"/>
     <x v="74"/>
@@ -3270,9 +3522,9 @@
     <x v="2"/>
     <x v="3"/>
     <x v="1"/>
-    <x v="75"/>
-    <x v="7"/>
-    <x v="160"/>
+    <x v="79"/>
+    <x v="8"/>
+    <x v="171"/>
     <x v="75"/>
     <x v="57"/>
     <x v="78"/>
@@ -3282,9 +3534,9 @@
     <x v="2"/>
     <x v="3"/>
     <x v="2"/>
+    <x v="147"/>
+    <x v="40"/>
     <x v="135"/>
-    <x v="37"/>
-    <x v="128"/>
     <x v="78"/>
     <x v="77"/>
     <x v="77"/>
@@ -3294,9 +3546,9 @@
     <x v="2"/>
     <x v="3"/>
     <x v="3"/>
-    <x v="122"/>
-    <x v="114"/>
-    <x v="94"/>
+    <x v="132"/>
+    <x v="126"/>
+    <x v="99"/>
     <x v="76"/>
     <x v="75"/>
     <x v="76"/>
@@ -3306,9 +3558,9 @@
     <x v="2"/>
     <x v="3"/>
     <x v="4"/>
-    <x v="136"/>
-    <x v="74"/>
-    <x v="73"/>
+    <x v="149"/>
+    <x v="80"/>
+    <x v="77"/>
     <x v="80"/>
     <x v="46"/>
     <x v="79"/>
@@ -3318,9 +3570,9 @@
     <x v="2"/>
     <x v="4"/>
     <x v="0"/>
-    <x v="52"/>
-    <x v="234"/>
-    <x v="246"/>
+    <x v="55"/>
+    <x v="259"/>
+    <x v="270"/>
     <x v="79"/>
     <x v="74"/>
     <x v="80"/>
@@ -3330,9 +3582,9 @@
     <x v="2"/>
     <x v="4"/>
     <x v="1"/>
-    <x v="100"/>
-    <x v="8"/>
-    <x v="193"/>
+    <x v="107"/>
+    <x v="9"/>
+    <x v="207"/>
     <x v="81"/>
     <x v="61"/>
     <x v="83"/>
@@ -3342,9 +3594,9 @@
     <x v="2"/>
     <x v="4"/>
     <x v="2"/>
-    <x v="60"/>
-    <x v="104"/>
-    <x v="164"/>
+    <x v="64"/>
+    <x v="113"/>
+    <x v="175"/>
     <x v="82"/>
     <x v="73"/>
     <x v="82"/>
@@ -3354,9 +3606,9 @@
     <x v="2"/>
     <x v="4"/>
     <x v="3"/>
-    <x v="68"/>
-    <x v="175"/>
-    <x v="126"/>
+    <x v="72"/>
+    <x v="192"/>
+    <x v="133"/>
     <x v="83"/>
     <x v="74"/>
     <x v="85"/>
@@ -3366,9 +3618,9 @@
     <x v="2"/>
     <x v="4"/>
     <x v="4"/>
-    <x v="141"/>
-    <x v="96"/>
-    <x v="103"/>
+    <x v="155"/>
+    <x v="105"/>
+    <x v="109"/>
     <x v="84"/>
     <x v="64"/>
     <x v="81"/>
@@ -3378,9 +3630,9 @@
     <x v="2"/>
     <x v="5"/>
     <x v="0"/>
-    <x v="28"/>
-    <x v="249"/>
-    <x v="256"/>
+    <x v="30"/>
+    <x v="276"/>
+    <x v="284"/>
     <x v="85"/>
     <x v="30"/>
     <x v="84"/>
@@ -3391,8 +3643,8 @@
     <x v="5"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="128"/>
-    <x v="221"/>
+    <x v="141"/>
+    <x v="241"/>
     <x v="86"/>
     <x v="58"/>
     <x v="89"/>
@@ -3402,9 +3654,9 @@
     <x v="2"/>
     <x v="5"/>
     <x v="2"/>
-    <x v="93"/>
-    <x v="32"/>
-    <x v="198"/>
+    <x v="99"/>
+    <x v="34"/>
+    <x v="213"/>
     <x v="87"/>
     <x v="68"/>
     <x v="86"/>
@@ -3414,9 +3666,9 @@
     <x v="2"/>
     <x v="5"/>
     <x v="3"/>
-    <x v="123"/>
-    <x v="1"/>
-    <x v="162"/>
+    <x v="133"/>
+    <x v="2"/>
+    <x v="173"/>
     <x v="88"/>
     <x v="56"/>
     <x v="87"/>
@@ -3426,9 +3678,9 @@
     <x v="2"/>
     <x v="5"/>
     <x v="4"/>
-    <x v="105"/>
-    <x v="87"/>
-    <x v="136"/>
+    <x v="112"/>
+    <x v="96"/>
+    <x v="145"/>
     <x v="90"/>
     <x v="60"/>
     <x v="88"/>
@@ -3438,9 +3690,9 @@
     <x v="3"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="237"/>
-    <x v="99"/>
-    <x v="65"/>
+    <x v="263"/>
+    <x v="108"/>
+    <x v="68"/>
     <x v="92"/>
     <x v="72"/>
     <x v="92"/>
@@ -3450,8 +3702,8 @@
     <x v="3"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="228"/>
-    <x v="197"/>
+    <x v="254"/>
+    <x v="215"/>
     <x v="26"/>
     <x v="93"/>
     <x v="73"/>
@@ -3462,8 +3714,8 @@
     <x v="3"/>
     <x v="0"/>
     <x v="2"/>
-    <x v="190"/>
-    <x v="189"/>
+    <x v="212"/>
+    <x v="206"/>
     <x v="17"/>
     <x v="89"/>
     <x v="94"/>
@@ -3474,8 +3726,8 @@
     <x v="3"/>
     <x v="0"/>
     <x v="3"/>
-    <x v="252"/>
-    <x v="252"/>
+    <x v="282"/>
+    <x v="279"/>
     <x v="14"/>
     <x v="91"/>
     <x v="96"/>
@@ -3486,8 +3738,8 @@
     <x v="3"/>
     <x v="0"/>
     <x v="4"/>
-    <x v="255"/>
-    <x v="257"/>
+    <x v="285"/>
+    <x v="284"/>
     <x v="10"/>
     <x v="94"/>
     <x v="114"/>
@@ -3498,9 +3750,9 @@
     <x v="3"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="128"/>
-    <x v="118"/>
-    <x v="170"/>
+    <x v="139"/>
+    <x v="130"/>
+    <x v="181"/>
     <x v="95"/>
     <x v="82"/>
     <x v="96"/>
@@ -3510,9 +3762,9 @@
     <x v="3"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="168"/>
-    <x v="148"/>
-    <x v="96"/>
+    <x v="184"/>
+    <x v="162"/>
+    <x v="101"/>
     <x v="96"/>
     <x v="108"/>
     <x v="93"/>
@@ -3522,9 +3774,9 @@
     <x v="3"/>
     <x v="1"/>
     <x v="2"/>
-    <x v="166"/>
-    <x v="120"/>
-    <x v="70"/>
+    <x v="182"/>
+    <x v="132"/>
+    <x v="74"/>
     <x v="99"/>
     <x v="92"/>
     <x v="97"/>
@@ -3534,9 +3786,9 @@
     <x v="3"/>
     <x v="1"/>
     <x v="3"/>
-    <x v="221"/>
-    <x v="190"/>
-    <x v="48"/>
+    <x v="246"/>
+    <x v="207"/>
+    <x v="50"/>
     <x v="97"/>
     <x v="88"/>
     <x v="99"/>
@@ -3546,8 +3798,8 @@
     <x v="3"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="247"/>
-    <x v="243"/>
+    <x v="277"/>
+    <x v="270"/>
     <x v="36"/>
     <x v="98"/>
     <x v="81"/>
@@ -3558,9 +3810,9 @@
     <x v="3"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="99"/>
-    <x v="139"/>
-    <x v="211"/>
+    <x v="106"/>
+    <x v="152"/>
+    <x v="229"/>
     <x v="103"/>
     <x v="90"/>
     <x v="100"/>
@@ -3570,9 +3822,9 @@
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
-    <x v="53"/>
-    <x v="117"/>
-    <x v="138"/>
+    <x v="56"/>
+    <x v="129"/>
+    <x v="147"/>
     <x v="101"/>
     <x v="79"/>
     <x v="101"/>
@@ -3582,9 +3834,9 @@
     <x v="3"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="150"/>
-    <x v="67"/>
-    <x v="110"/>
+    <x v="164"/>
+    <x v="73"/>
+    <x v="116"/>
     <x v="100"/>
     <x v="89"/>
     <x v="102"/>
@@ -3594,9 +3846,9 @@
     <x v="3"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="174"/>
-    <x v="166"/>
-    <x v="77"/>
+    <x v="192"/>
+    <x v="181"/>
+    <x v="81"/>
     <x v="102"/>
     <x v="83"/>
     <x v="103"/>
@@ -3606,9 +3858,9 @@
     <x v="3"/>
     <x v="2"/>
     <x v="4"/>
-    <x v="175"/>
-    <x v="168"/>
-    <x v="63"/>
+    <x v="193"/>
+    <x v="183"/>
+    <x v="66"/>
     <x v="104"/>
     <x v="85"/>
     <x v="104"/>
@@ -3618,9 +3870,9 @@
     <x v="3"/>
     <x v="3"/>
     <x v="0"/>
-    <x v="82"/>
-    <x v="250"/>
-    <x v="233"/>
+    <x v="87"/>
+    <x v="277"/>
+    <x v="256"/>
     <x v="107"/>
     <x v="107"/>
     <x v="112"/>
@@ -3630,9 +3882,9 @@
     <x v="3"/>
     <x v="3"/>
     <x v="1"/>
-    <x v="29"/>
-    <x v="34"/>
-    <x v="173"/>
+    <x v="31"/>
+    <x v="37"/>
+    <x v="186"/>
     <x v="105"/>
     <x v="84"/>
     <x v="105"/>
@@ -3642,9 +3894,9 @@
     <x v="3"/>
     <x v="3"/>
     <x v="2"/>
-    <x v="155"/>
-    <x v="84"/>
-    <x v="143"/>
+    <x v="169"/>
+    <x v="92"/>
+    <x v="153"/>
     <x v="106"/>
     <x v="98"/>
     <x v="107"/>
@@ -3654,9 +3906,9 @@
     <x v="3"/>
     <x v="3"/>
     <x v="3"/>
-    <x v="149"/>
-    <x v="44"/>
-    <x v="106"/>
+    <x v="163"/>
+    <x v="47"/>
+    <x v="112"/>
     <x v="108"/>
     <x v="121"/>
     <x v="106"/>
@@ -3666,9 +3918,9 @@
     <x v="3"/>
     <x v="3"/>
     <x v="4"/>
-    <x v="225"/>
-    <x v="85"/>
-    <x v="89"/>
+    <x v="250"/>
+    <x v="93"/>
+    <x v="93"/>
     <x v="111"/>
     <x v="95"/>
     <x v="108"/>
@@ -3678,9 +3930,9 @@
     <x v="3"/>
     <x v="4"/>
     <x v="0"/>
-    <x v="98"/>
-    <x v="195"/>
-    <x v="249"/>
+    <x v="105"/>
+    <x v="213"/>
+    <x v="275"/>
     <x v="109"/>
     <x v="86"/>
     <x v="109"/>
@@ -3690,9 +3942,9 @@
     <x v="3"/>
     <x v="4"/>
     <x v="1"/>
-    <x v="108"/>
-    <x v="105"/>
-    <x v="208"/>
+    <x v="117"/>
+    <x v="114"/>
+    <x v="225"/>
     <x v="110"/>
     <x v="87"/>
     <x v="110"/>
@@ -3702,9 +3954,9 @@
     <x v="3"/>
     <x v="4"/>
     <x v="2"/>
-    <x v="117"/>
-    <x v="39"/>
-    <x v="177"/>
+    <x v="127"/>
+    <x v="42"/>
+    <x v="191"/>
     <x v="112"/>
     <x v="91"/>
     <x v="111"/>
@@ -3714,9 +3966,9 @@
     <x v="3"/>
     <x v="4"/>
     <x v="3"/>
-    <x v="121"/>
-    <x v="23"/>
-    <x v="140"/>
+    <x v="131"/>
+    <x v="24"/>
+    <x v="150"/>
     <x v="114"/>
     <x v="76"/>
     <x v="113"/>
@@ -3726,9 +3978,9 @@
     <x v="3"/>
     <x v="4"/>
     <x v="4"/>
-    <x v="183"/>
-    <x v="113"/>
-    <x v="120"/>
+    <x v="203"/>
+    <x v="124"/>
+    <x v="127"/>
     <x v="113"/>
     <x v="80"/>
     <x v="115"/>
@@ -3739,8 +3991,8 @@
     <x v="5"/>
     <x v="0"/>
     <x v="2"/>
-    <x v="232"/>
-    <x v="258"/>
+    <x v="257"/>
+    <x v="286"/>
     <x v="115"/>
     <x v="93"/>
     <x v="116"/>
@@ -3750,9 +4002,9 @@
     <x v="3"/>
     <x v="5"/>
     <x v="1"/>
-    <x v="26"/>
-    <x v="78"/>
-    <x v="232"/>
+    <x v="28"/>
+    <x v="84"/>
+    <x v="254"/>
     <x v="134"/>
     <x v="113"/>
     <x v="114"/>
@@ -3762,9 +4014,9 @@
     <x v="3"/>
     <x v="5"/>
     <x v="2"/>
-    <x v="11"/>
-    <x v="54"/>
-    <x v="209"/>
+    <x v="12"/>
+    <x v="57"/>
+    <x v="227"/>
     <x v="116"/>
     <x v="101"/>
     <x v="117"/>
@@ -3774,9 +4026,9 @@
     <x v="3"/>
     <x v="5"/>
     <x v="3"/>
-    <x v="76"/>
-    <x v="101"/>
-    <x v="175"/>
+    <x v="80"/>
+    <x v="110"/>
+    <x v="189"/>
     <x v="119"/>
     <x v="97"/>
     <x v="120"/>
@@ -3786,9 +4038,9 @@
     <x v="3"/>
     <x v="5"/>
     <x v="4"/>
-    <x v="130"/>
-    <x v="102"/>
-    <x v="153"/>
+    <x v="141"/>
+    <x v="111"/>
+    <x v="163"/>
     <x v="124"/>
     <x v="78"/>
     <x v="118"/>
@@ -3798,9 +4050,9 @@
     <x v="4"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="165"/>
-    <x v="201"/>
-    <x v="76"/>
+    <x v="181"/>
+    <x v="219"/>
+    <x v="80"/>
     <x v="118"/>
     <x v="100"/>
     <x v="119"/>
@@ -3810,8 +4062,8 @@
     <x v="4"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="226"/>
-    <x v="236"/>
+    <x v="251"/>
+    <x v="261"/>
     <x v="33"/>
     <x v="121"/>
     <x v="112"/>
@@ -3822,8 +4074,8 @@
     <x v="4"/>
     <x v="0"/>
     <x v="2"/>
-    <x v="177"/>
-    <x v="191"/>
+    <x v="195"/>
+    <x v="208"/>
     <x v="24"/>
     <x v="117"/>
     <x v="106"/>
@@ -3834,8 +4086,8 @@
     <x v="4"/>
     <x v="0"/>
     <x v="3"/>
-    <x v="234"/>
-    <x v="239"/>
+    <x v="260"/>
+    <x v="265"/>
     <x v="16"/>
     <x v="120"/>
     <x v="102"/>
@@ -3846,8 +4098,8 @@
     <x v="4"/>
     <x v="0"/>
     <x v="4"/>
-    <x v="262"/>
-    <x v="261"/>
+    <x v="292"/>
+    <x v="291"/>
     <x v="15"/>
     <x v="123"/>
     <x v="118"/>
@@ -3858,9 +4110,9 @@
     <x v="4"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="23"/>
-    <x v="52"/>
-    <x v="178"/>
+    <x v="25"/>
+    <x v="55"/>
+    <x v="192"/>
     <x v="122"/>
     <x v="125"/>
     <x v="125"/>
@@ -3870,9 +4122,9 @@
     <x v="4"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="184"/>
-    <x v="69"/>
-    <x v="105"/>
+    <x v="204"/>
+    <x v="75"/>
+    <x v="111"/>
     <x v="126"/>
     <x v="123"/>
     <x v="124"/>
@@ -3882,9 +4134,9 @@
     <x v="4"/>
     <x v="1"/>
     <x v="2"/>
-    <x v="148"/>
-    <x v="186"/>
-    <x v="82"/>
+    <x v="162"/>
+    <x v="203"/>
+    <x v="86"/>
     <x v="125"/>
     <x v="106"/>
     <x v="126"/>
@@ -3894,9 +4146,9 @@
     <x v="4"/>
     <x v="1"/>
     <x v="3"/>
-    <x v="211"/>
-    <x v="202"/>
-    <x v="57"/>
+    <x v="236"/>
+    <x v="220"/>
+    <x v="59"/>
     <x v="128"/>
     <x v="132"/>
     <x v="127"/>
@@ -3906,9 +4158,9 @@
     <x v="4"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="242"/>
-    <x v="227"/>
-    <x v="43"/>
+    <x v="269"/>
+    <x v="250"/>
+    <x v="44"/>
     <x v="127"/>
     <x v="103"/>
     <x v="129"/>
@@ -3918,9 +4170,9 @@
     <x v="4"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="43"/>
-    <x v="79"/>
-    <x v="216"/>
+    <x v="45"/>
+    <x v="85"/>
+    <x v="236"/>
     <x v="129"/>
     <x v="99"/>
     <x v="130"/>
@@ -3930,9 +4182,9 @@
     <x v="4"/>
     <x v="2"/>
     <x v="1"/>
-    <x v="125"/>
-    <x v="161"/>
-    <x v="150"/>
+    <x v="135"/>
+    <x v="175"/>
+    <x v="160"/>
     <x v="130"/>
     <x v="104"/>
     <x v="131"/>
@@ -3942,9 +4194,9 @@
     <x v="4"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="44"/>
-    <x v="106"/>
-    <x v="122"/>
+    <x v="46"/>
+    <x v="115"/>
+    <x v="129"/>
     <x v="132"/>
     <x v="176"/>
     <x v="138"/>
@@ -3954,9 +4206,9 @@
     <x v="4"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="169"/>
-    <x v="95"/>
-    <x v="88"/>
+    <x v="185"/>
+    <x v="104"/>
+    <x v="92"/>
     <x v="131"/>
     <x v="138"/>
     <x v="134"/>
@@ -3966,9 +4218,9 @@
     <x v="4"/>
     <x v="2"/>
     <x v="4"/>
-    <x v="220"/>
-    <x v="174"/>
-    <x v="71"/>
+    <x v="245"/>
+    <x v="191"/>
+    <x v="75"/>
     <x v="133"/>
     <x v="105"/>
     <x v="133"/>
@@ -3978,9 +4230,9 @@
     <x v="4"/>
     <x v="3"/>
     <x v="0"/>
-    <x v="77"/>
-    <x v="145"/>
-    <x v="239"/>
+    <x v="81"/>
+    <x v="159"/>
+    <x v="262"/>
     <x v="136"/>
     <x v="120"/>
     <x v="132"/>
@@ -3990,9 +4242,9 @@
     <x v="4"/>
     <x v="3"/>
     <x v="1"/>
-    <x v="34"/>
-    <x v="116"/>
-    <x v="185"/>
+    <x v="36"/>
+    <x v="128"/>
+    <x v="199"/>
     <x v="135"/>
     <x v="124"/>
     <x v="136"/>
@@ -4002,9 +4254,9 @@
     <x v="4"/>
     <x v="3"/>
     <x v="2"/>
-    <x v="39"/>
-    <x v="100"/>
-    <x v="155"/>
+    <x v="41"/>
+    <x v="109"/>
+    <x v="165"/>
     <x v="139"/>
     <x v="129"/>
     <x v="135"/>
@@ -4014,9 +4266,9 @@
     <x v="4"/>
     <x v="3"/>
     <x v="3"/>
-    <x v="138"/>
-    <x v="170"/>
-    <x v="119"/>
+    <x v="151"/>
+    <x v="185"/>
+    <x v="126"/>
     <x v="137"/>
     <x v="110"/>
     <x v="137"/>
@@ -4026,9 +4278,9 @@
     <x v="4"/>
     <x v="3"/>
     <x v="4"/>
-    <x v="172"/>
-    <x v="192"/>
-    <x v="100"/>
+    <x v="189"/>
+    <x v="209"/>
+    <x v="105"/>
     <x v="138"/>
     <x v="122"/>
     <x v="139"/>
@@ -4038,9 +4290,9 @@
     <x v="4"/>
     <x v="4"/>
     <x v="0"/>
-    <x v="22"/>
-    <x v="248"/>
-    <x v="252"/>
+    <x v="24"/>
+    <x v="275"/>
+    <x v="278"/>
     <x v="154"/>
     <x v="133"/>
     <x v="154"/>
@@ -4050,9 +4302,9 @@
     <x v="4"/>
     <x v="4"/>
     <x v="1"/>
-    <x v="47"/>
-    <x v="122"/>
-    <x v="219"/>
+    <x v="49"/>
+    <x v="134"/>
+    <x v="239"/>
     <x v="145"/>
     <x v="141"/>
     <x v="144"/>
@@ -4062,9 +4314,9 @@
     <x v="4"/>
     <x v="4"/>
     <x v="2"/>
-    <x v="38"/>
-    <x v="18"/>
-    <x v="192"/>
+    <x v="40"/>
+    <x v="19"/>
+    <x v="206"/>
     <x v="153"/>
     <x v="135"/>
     <x v="146"/>
@@ -4074,9 +4326,9 @@
     <x v="4"/>
     <x v="4"/>
     <x v="3"/>
-    <x v="84"/>
-    <x v="4"/>
-    <x v="159"/>
+    <x v="90"/>
+    <x v="5"/>
+    <x v="170"/>
     <x v="149"/>
     <x v="175"/>
     <x v="153"/>
@@ -4086,9 +4338,9 @@
     <x v="4"/>
     <x v="4"/>
     <x v="4"/>
-    <x v="170"/>
-    <x v="138"/>
-    <x v="134"/>
+    <x v="186"/>
+    <x v="151"/>
+    <x v="143"/>
     <x v="151"/>
     <x v="123"/>
     <x v="150"/>
@@ -4098,9 +4350,9 @@
     <x v="4"/>
     <x v="5"/>
     <x v="0"/>
-    <x v="42"/>
-    <x v="167"/>
-    <x v="259"/>
+    <x v="44"/>
+    <x v="182"/>
+    <x v="287"/>
     <x v="152"/>
     <x v="127"/>
     <x v="142"/>
@@ -4110,9 +4362,9 @@
     <x v="4"/>
     <x v="5"/>
     <x v="1"/>
-    <x v="70"/>
-    <x v="183"/>
-    <x v="236"/>
+    <x v="74"/>
+    <x v="200"/>
+    <x v="259"/>
     <x v="143"/>
     <x v="111"/>
     <x v="141"/>
@@ -4122,9 +4374,9 @@
     <x v="4"/>
     <x v="5"/>
     <x v="2"/>
-    <x v="88"/>
-    <x v="28"/>
-    <x v="218"/>
+    <x v="94"/>
+    <x v="30"/>
+    <x v="238"/>
     <x v="140"/>
     <x v="131"/>
     <x v="140"/>
@@ -4134,9 +4386,9 @@
     <x v="4"/>
     <x v="5"/>
     <x v="3"/>
-    <x v="134"/>
-    <x v="65"/>
-    <x v="187"/>
+    <x v="146"/>
+    <x v="71"/>
+    <x v="201"/>
     <x v="142"/>
     <x v="115"/>
     <x v="143"/>
@@ -4146,9 +4398,9 @@
     <x v="4"/>
     <x v="5"/>
     <x v="4"/>
-    <x v="151"/>
-    <x v="160"/>
     <x v="165"/>
+    <x v="174"/>
+    <x v="176"/>
     <x v="141"/>
     <x v="109"/>
     <x v="145"/>
@@ -4158,9 +4410,9 @@
     <x v="5"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="179"/>
-    <x v="178"/>
-    <x v="81"/>
+    <x v="197"/>
+    <x v="195"/>
+    <x v="85"/>
     <x v="147"/>
     <x v="135"/>
     <x v="151"/>
@@ -4170,8 +4422,8 @@
     <x v="5"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="238"/>
-    <x v="214"/>
+    <x v="264"/>
+    <x v="233"/>
     <x v="40"/>
     <x v="144"/>
     <x v="134"/>
@@ -4182,8 +4434,8 @@
     <x v="5"/>
     <x v="0"/>
     <x v="2"/>
-    <x v="254"/>
-    <x v="258"/>
+    <x v="284"/>
+    <x v="288"/>
     <x v="31"/>
     <x v="146"/>
     <x v="138"/>
@@ -4194,8 +4446,8 @@
     <x v="5"/>
     <x v="0"/>
     <x v="3"/>
-    <x v="251"/>
-    <x v="244"/>
+    <x v="281"/>
+    <x v="271"/>
     <x v="22"/>
     <x v="150"/>
     <x v="169"/>
@@ -4206,8 +4458,8 @@
     <x v="5"/>
     <x v="0"/>
     <x v="4"/>
-    <x v="260"/>
-    <x v="262"/>
+    <x v="290"/>
+    <x v="292"/>
     <x v="20"/>
     <x v="148"/>
     <x v="126"/>
@@ -4218,9 +4470,9 @@
     <x v="5"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="14"/>
-    <x v="131"/>
-    <x v="186"/>
+    <x v="15"/>
+    <x v="144"/>
+    <x v="200"/>
     <x v="155"/>
     <x v="128"/>
     <x v="156"/>
@@ -4230,9 +4482,9 @@
     <x v="5"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="97"/>
-    <x v="140"/>
-    <x v="117"/>
+    <x v="104"/>
+    <x v="153"/>
+    <x v="124"/>
     <x v="157"/>
     <x v="116"/>
     <x v="155"/>
@@ -4242,9 +4494,9 @@
     <x v="5"/>
     <x v="1"/>
     <x v="2"/>
-    <x v="176"/>
-    <x v="188"/>
-    <x v="93"/>
+    <x v="194"/>
+    <x v="205"/>
+    <x v="98"/>
     <x v="170"/>
     <x v="130"/>
     <x v="172"/>
@@ -4254,9 +4506,9 @@
     <x v="5"/>
     <x v="1"/>
     <x v="3"/>
-    <x v="224"/>
-    <x v="225"/>
-    <x v="68"/>
+    <x v="249"/>
+    <x v="248"/>
+    <x v="71"/>
     <x v="168"/>
     <x v="136"/>
     <x v="169"/>
@@ -4266,9 +4518,9 @@
     <x v="5"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="244"/>
-    <x v="245"/>
-    <x v="51"/>
+    <x v="272"/>
+    <x v="272"/>
+    <x v="53"/>
     <x v="156"/>
     <x v="119"/>
     <x v="158"/>
@@ -4278,9 +4530,9 @@
     <x v="5"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="15"/>
-    <x v="27"/>
-    <x v="223"/>
+    <x v="16"/>
+    <x v="29"/>
+    <x v="243"/>
     <x v="160"/>
     <x v="155"/>
     <x v="157"/>
@@ -4290,9 +4542,9 @@
     <x v="5"/>
     <x v="2"/>
     <x v="1"/>
-    <x v="143"/>
-    <x v="62"/>
-    <x v="161"/>
+    <x v="157"/>
+    <x v="68"/>
+    <x v="172"/>
     <x v="158"/>
     <x v="143"/>
     <x v="159"/>
@@ -4302,9 +4554,9 @@
     <x v="5"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="180"/>
-    <x v="51"/>
-    <x v="131"/>
+    <x v="198"/>
+    <x v="54"/>
+    <x v="140"/>
     <x v="159"/>
     <x v="117"/>
     <x v="161"/>
@@ -4314,9 +4566,9 @@
     <x v="5"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="113"/>
-    <x v="19"/>
-    <x v="98"/>
+    <x v="122"/>
+    <x v="20"/>
+    <x v="103"/>
     <x v="161"/>
     <x v="137"/>
     <x v="160"/>
@@ -4326,9 +4578,9 @@
     <x v="5"/>
     <x v="2"/>
     <x v="4"/>
-    <x v="196"/>
-    <x v="94"/>
-    <x v="78"/>
+    <x v="220"/>
+    <x v="103"/>
+    <x v="82"/>
     <x v="162"/>
     <x v="139"/>
     <x v="162"/>
@@ -4339,8 +4591,8 @@
     <x v="3"/>
     <x v="0"/>
     <x v="3"/>
-    <x v="154"/>
-    <x v="245"/>
+    <x v="168"/>
+    <x v="269"/>
     <x v="171"/>
     <x v="138"/>
     <x v="178"/>
@@ -4350,9 +4602,9 @@
     <x v="5"/>
     <x v="3"/>
     <x v="1"/>
-    <x v="7"/>
-    <x v="47"/>
-    <x v="195"/>
+    <x v="8"/>
+    <x v="50"/>
+    <x v="209"/>
     <x v="166"/>
     <x v="160"/>
     <x v="164"/>
@@ -4362,9 +4614,9 @@
     <x v="5"/>
     <x v="3"/>
     <x v="2"/>
-    <x v="57"/>
-    <x v="73"/>
-    <x v="169"/>
+    <x v="60"/>
+    <x v="79"/>
+    <x v="180"/>
     <x v="163"/>
     <x v="177"/>
     <x v="163"/>
@@ -4374,9 +4626,9 @@
     <x v="5"/>
     <x v="3"/>
     <x v="3"/>
-    <x v="116"/>
-    <x v="77"/>
-    <x v="129"/>
+    <x v="126"/>
+    <x v="83"/>
+    <x v="138"/>
     <x v="165"/>
     <x v="159"/>
     <x v="167"/>
@@ -4386,9 +4638,9 @@
     <x v="5"/>
     <x v="3"/>
     <x v="4"/>
-    <x v="218"/>
-    <x v="111"/>
-    <x v="107"/>
+    <x v="243"/>
+    <x v="122"/>
+    <x v="113"/>
     <x v="164"/>
     <x v="138"/>
     <x v="165"/>
@@ -4398,9 +4650,9 @@
     <x v="5"/>
     <x v="4"/>
     <x v="0"/>
-    <x v="19"/>
-    <x v="216"/>
-    <x v="255"/>
+    <x v="21"/>
+    <x v="237"/>
+    <x v="282"/>
     <x v="167"/>
     <x v="140"/>
     <x v="168"/>
@@ -4410,9 +4662,9 @@
     <x v="5"/>
     <x v="4"/>
     <x v="1"/>
-    <x v="6"/>
-    <x v="151"/>
-    <x v="222"/>
+    <x v="7"/>
+    <x v="165"/>
+    <x v="242"/>
     <x v="169"/>
     <x v="154"/>
     <x v="166"/>
@@ -4422,9 +4674,9 @@
     <x v="5"/>
     <x v="4"/>
     <x v="2"/>
-    <x v="55"/>
-    <x v="3"/>
-    <x v="203"/>
+    <x v="58"/>
+    <x v="4"/>
+    <x v="219"/>
     <x v="172"/>
     <x v="142"/>
     <x v="170"/>
@@ -4434,9 +4686,9 @@
     <x v="5"/>
     <x v="4"/>
     <x v="3"/>
-    <x v="164"/>
-    <x v="16"/>
-    <x v="167"/>
+    <x v="180"/>
+    <x v="17"/>
+    <x v="178"/>
     <x v="196"/>
     <x v="152"/>
     <x v="174"/>
@@ -4446,9 +4698,9 @@
     <x v="5"/>
     <x v="4"/>
     <x v="4"/>
-    <x v="146"/>
-    <x v="76"/>
-    <x v="141"/>
+    <x v="160"/>
+    <x v="82"/>
+    <x v="151"/>
     <x v="188"/>
     <x v="147"/>
     <x v="171"/>
@@ -4458,9 +4710,9 @@
     <x v="5"/>
     <x v="5"/>
     <x v="0"/>
-    <x v="109"/>
-    <x v="246"/>
-    <x v="262"/>
+    <x v="118"/>
+    <x v="273"/>
+    <x v="290"/>
     <x v="173"/>
     <x v="144"/>
     <x v="173"/>
@@ -4470,9 +4722,9 @@
     <x v="5"/>
     <x v="5"/>
     <x v="1"/>
-    <x v="27"/>
-    <x v="176"/>
-    <x v="243"/>
+    <x v="29"/>
+    <x v="193"/>
+    <x v="267"/>
     <x v="174"/>
     <x v="146"/>
     <x v="185"/>
@@ -4482,9 +4734,9 @@
     <x v="5"/>
     <x v="5"/>
     <x v="2"/>
-    <x v="18"/>
-    <x v="184"/>
-    <x v="229"/>
+    <x v="20"/>
+    <x v="201"/>
+    <x v="251"/>
     <x v="176"/>
     <x v="148"/>
     <x v="184"/>
@@ -4494,9 +4746,9 @@
     <x v="5"/>
     <x v="5"/>
     <x v="3"/>
-    <x v="119"/>
-    <x v="11"/>
-    <x v="202"/>
+    <x v="129"/>
+    <x v="12"/>
+    <x v="218"/>
     <x v="175"/>
     <x v="150"/>
     <x v="175"/>
@@ -4506,9 +4758,9 @@
     <x v="5"/>
     <x v="5"/>
     <x v="4"/>
-    <x v="139"/>
-    <x v="22"/>
-    <x v="176"/>
+    <x v="153"/>
+    <x v="23"/>
+    <x v="190"/>
     <x v="177"/>
     <x v="162"/>
     <x v="177"/>
@@ -4518,9 +4770,9 @@
     <x v="6"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="173"/>
-    <x v="60"/>
-    <x v="90"/>
+    <x v="190"/>
+    <x v="65"/>
+    <x v="94"/>
     <x v="179"/>
     <x v="167"/>
     <x v="182"/>
@@ -4530,9 +4782,9 @@
     <x v="6"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="201"/>
-    <x v="206"/>
-    <x v="45"/>
+    <x v="225"/>
+    <x v="224"/>
+    <x v="47"/>
     <x v="178"/>
     <x v="166"/>
     <x v="176"/>
@@ -4542,8 +4794,8 @@
     <x v="6"/>
     <x v="0"/>
     <x v="2"/>
-    <x v="239"/>
-    <x v="212"/>
+    <x v="266"/>
+    <x v="231"/>
     <x v="35"/>
     <x v="182"/>
     <x v="145"/>
@@ -4554,8 +4806,8 @@
     <x v="6"/>
     <x v="0"/>
     <x v="3"/>
-    <x v="241"/>
-    <x v="222"/>
+    <x v="268"/>
+    <x v="244"/>
     <x v="28"/>
     <x v="180"/>
     <x v="153"/>
@@ -4566,8 +4818,8 @@
     <x v="6"/>
     <x v="0"/>
     <x v="4"/>
-    <x v="257"/>
-    <x v="256"/>
+    <x v="287"/>
+    <x v="283"/>
     <x v="25"/>
     <x v="181"/>
     <x v="156"/>
@@ -4578,9 +4830,9 @@
     <x v="6"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="45"/>
-    <x v="26"/>
-    <x v="196"/>
+    <x v="47"/>
+    <x v="28"/>
+    <x v="210"/>
     <x v="189"/>
     <x v="165"/>
     <x v="183"/>
@@ -4590,9 +4842,9 @@
     <x v="6"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="217"/>
-    <x v="169"/>
-    <x v="127"/>
+    <x v="242"/>
+    <x v="184"/>
+    <x v="134"/>
     <x v="184"/>
     <x v="172"/>
     <x v="186"/>
@@ -4602,9 +4854,9 @@
     <x v="6"/>
     <x v="1"/>
     <x v="2"/>
-    <x v="205"/>
-    <x v="171"/>
-    <x v="102"/>
+    <x v="230"/>
+    <x v="187"/>
+    <x v="108"/>
     <x v="185"/>
     <x v="163"/>
     <x v="187"/>
@@ -4614,9 +4866,9 @@
     <x v="6"/>
     <x v="1"/>
     <x v="3"/>
-    <x v="181"/>
-    <x v="153"/>
-    <x v="72"/>
+    <x v="200"/>
+    <x v="167"/>
+    <x v="76"/>
     <x v="183"/>
     <x v="149"/>
     <x v="193"/>
@@ -4626,9 +4878,9 @@
     <x v="6"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="198"/>
-    <x v="97"/>
-    <x v="62"/>
+    <x v="222"/>
+    <x v="106"/>
+    <x v="65"/>
     <x v="197"/>
     <x v="170"/>
     <x v="198"/>
@@ -4638,9 +4890,9 @@
     <x v="6"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="30"/>
-    <x v="9"/>
-    <x v="231"/>
+    <x v="32"/>
+    <x v="10"/>
+    <x v="253"/>
     <x v="187"/>
     <x v="164"/>
     <x v="188"/>
@@ -4650,9 +4902,9 @@
     <x v="6"/>
     <x v="2"/>
     <x v="1"/>
-    <x v="85"/>
-    <x v="165"/>
-    <x v="171"/>
+    <x v="91"/>
+    <x v="180"/>
+    <x v="183"/>
     <x v="186"/>
     <x v="158"/>
     <x v="189"/>
@@ -4662,9 +4914,9 @@
     <x v="6"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="222"/>
-    <x v="159"/>
-    <x v="146"/>
+    <x v="247"/>
+    <x v="173"/>
+    <x v="156"/>
     <x v="191"/>
     <x v="151"/>
     <x v="190"/>
@@ -4674,9 +4926,9 @@
     <x v="6"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="194"/>
     <x v="218"/>
-    <x v="118"/>
+    <x v="239"/>
+    <x v="125"/>
     <x v="205"/>
     <x v="184"/>
     <x v="205"/>
@@ -4686,9 +4938,9 @@
     <x v="6"/>
     <x v="2"/>
     <x v="4"/>
-    <x v="248"/>
-    <x v="147"/>
-    <x v="95"/>
+    <x v="278"/>
+    <x v="161"/>
+    <x v="100"/>
     <x v="190"/>
     <x v="174"/>
     <x v="191"/>
@@ -4698,9 +4950,9 @@
     <x v="6"/>
     <x v="3"/>
     <x v="0"/>
-    <x v="12"/>
-    <x v="21"/>
-    <x v="248"/>
+    <x v="13"/>
+    <x v="22"/>
+    <x v="274"/>
     <x v="192"/>
     <x v="198"/>
     <x v="192"/>
@@ -4710,9 +4962,9 @@
     <x v="6"/>
     <x v="3"/>
     <x v="1"/>
-    <x v="132"/>
-    <x v="2"/>
-    <x v="206"/>
+    <x v="143"/>
+    <x v="3"/>
+    <x v="222"/>
     <x v="193"/>
     <x v="173"/>
     <x v="196"/>
@@ -4722,9 +4974,9 @@
     <x v="6"/>
     <x v="3"/>
     <x v="2"/>
-    <x v="157"/>
-    <x v="59"/>
-    <x v="181"/>
+    <x v="171"/>
+    <x v="64"/>
+    <x v="195"/>
     <x v="195"/>
     <x v="180"/>
     <x v="195"/>
@@ -4734,9 +4986,9 @@
     <x v="6"/>
     <x v="3"/>
     <x v="3"/>
-    <x v="191"/>
-    <x v="177"/>
-    <x v="145"/>
+    <x v="214"/>
+    <x v="194"/>
+    <x v="155"/>
     <x v="194"/>
     <x v="181"/>
     <x v="194"/>
@@ -4746,9 +4998,9 @@
     <x v="6"/>
     <x v="3"/>
     <x v="4"/>
-    <x v="186"/>
-    <x v="109"/>
-    <x v="123"/>
+    <x v="208"/>
+    <x v="119"/>
+    <x v="130"/>
     <x v="201"/>
     <x v="157"/>
     <x v="197"/>
@@ -4758,9 +5010,9 @@
     <x v="6"/>
     <x v="4"/>
     <x v="0"/>
-    <x v="56"/>
-    <x v="254"/>
-    <x v="257"/>
+    <x v="59"/>
+    <x v="281"/>
+    <x v="285"/>
     <x v="199"/>
     <x v="161"/>
     <x v="199"/>
@@ -4770,9 +5022,9 @@
     <x v="6"/>
     <x v="4"/>
     <x v="1"/>
-    <x v="17"/>
-    <x v="211"/>
+    <x v="19"/>
     <x v="230"/>
+    <x v="252"/>
     <x v="198"/>
     <x v="171"/>
     <x v="200"/>
@@ -4782,9 +5034,9 @@
     <x v="6"/>
     <x v="4"/>
     <x v="2"/>
-    <x v="16"/>
-    <x v="66"/>
-    <x v="213"/>
+    <x v="17"/>
+    <x v="72"/>
+    <x v="231"/>
     <x v="202"/>
     <x v="179"/>
     <x v="204"/>
@@ -4794,9 +5046,9 @@
     <x v="6"/>
     <x v="4"/>
     <x v="3"/>
-    <x v="79"/>
-    <x v="127"/>
-    <x v="183"/>
+    <x v="84"/>
+    <x v="140"/>
+    <x v="197"/>
     <x v="200"/>
     <x v="178"/>
     <x v="202"/>
@@ -4806,9 +5058,9 @@
     <x v="6"/>
     <x v="4"/>
     <x v="4"/>
-    <x v="140"/>
-    <x v="29"/>
-    <x v="158"/>
+    <x v="154"/>
+    <x v="31"/>
+    <x v="169"/>
     <x v="204"/>
     <x v="168"/>
     <x v="203"/>
@@ -4818,9 +5070,9 @@
     <x v="6"/>
     <x v="5"/>
     <x v="0"/>
-    <x v="92"/>
-    <x v="237"/>
-    <x v="263"/>
+    <x v="98"/>
+    <x v="262"/>
+    <x v="292"/>
     <x v="203"/>
     <x v="185"/>
     <x v="201"/>
@@ -4830,9 +5082,9 @@
     <x v="6"/>
     <x v="5"/>
     <x v="1"/>
-    <x v="80"/>
-    <x v="179"/>
-    <x v="247"/>
+    <x v="85"/>
+    <x v="196"/>
+    <x v="273"/>
     <x v="215"/>
     <x v="187"/>
     <x v="211"/>
@@ -4842,9 +5094,9 @@
     <x v="6"/>
     <x v="5"/>
     <x v="2"/>
-    <x v="50"/>
-    <x v="57"/>
-    <x v="235"/>
+    <x v="52"/>
+    <x v="62"/>
+    <x v="258"/>
     <x v="207"/>
     <x v="183"/>
     <x v="206"/>
@@ -4854,9 +5106,9 @@
     <x v="6"/>
     <x v="5"/>
     <x v="3"/>
-    <x v="48"/>
-    <x v="6"/>
-    <x v="210"/>
+    <x v="50"/>
+    <x v="7"/>
+    <x v="228"/>
     <x v="217"/>
     <x v="182"/>
     <x v="207"/>
@@ -4866,9 +5118,9 @@
     <x v="6"/>
     <x v="5"/>
     <x v="4"/>
-    <x v="127"/>
-    <x v="141"/>
-    <x v="189"/>
+    <x v="138"/>
+    <x v="154"/>
+    <x v="203"/>
     <x v="206"/>
     <x v="192"/>
     <x v="214"/>
@@ -4878,11 +5130,11 @@
     <x v="7"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="273"/>
     <x v="245"/>
-    <x v="223"/>
-    <x v="99"/>
+    <x v="104"/>
     <x v="213"/>
-    <x v="210"/>
+    <x v="211"/>
     <x v="218"/>
     <x v="200"/>
   </r>
@@ -4890,9 +5142,9 @@
     <x v="7"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="231"/>
-    <x v="196"/>
-    <x v="58"/>
+    <x v="257"/>
+    <x v="214"/>
+    <x v="60"/>
     <x v="208"/>
     <x v="186"/>
     <x v="209"/>
@@ -4902,9 +5154,9 @@
     <x v="7"/>
     <x v="0"/>
     <x v="2"/>
-    <x v="219"/>
-    <x v="229"/>
-    <x v="47"/>
+    <x v="244"/>
+    <x v="253"/>
+    <x v="49"/>
     <x v="211"/>
     <x v="194"/>
     <x v="217"/>
@@ -4914,8 +5166,8 @@
     <x v="7"/>
     <x v="0"/>
     <x v="3"/>
-    <x v="243"/>
-    <x v="200"/>
+    <x v="271"/>
+    <x v="218"/>
     <x v="38"/>
     <x v="218"/>
     <x v="201"/>
@@ -4926,8 +5178,8 @@
     <x v="7"/>
     <x v="0"/>
     <x v="4"/>
-    <x v="261"/>
-    <x v="260"/>
+    <x v="291"/>
+    <x v="290"/>
     <x v="34"/>
     <x v="209"/>
     <x v="195"/>
@@ -4938,9 +5190,9 @@
     <x v="7"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="72"/>
-    <x v="14"/>
-    <x v="205"/>
+    <x v="76"/>
+    <x v="15"/>
+    <x v="221"/>
     <x v="210"/>
     <x v="189"/>
     <x v="208"/>
@@ -4950,9 +5202,9 @@
     <x v="7"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="110"/>
-    <x v="207"/>
-    <x v="142"/>
+    <x v="119"/>
+    <x v="225"/>
+    <x v="152"/>
     <x v="219"/>
     <x v="191"/>
     <x v="213"/>
@@ -4962,9 +5214,9 @@
     <x v="7"/>
     <x v="1"/>
     <x v="2"/>
-    <x v="227"/>
-    <x v="143"/>
-    <x v="115"/>
+    <x v="252"/>
+    <x v="157"/>
+    <x v="122"/>
     <x v="216"/>
     <x v="190"/>
     <x v="212"/>
@@ -4974,9 +5226,9 @@
     <x v="7"/>
     <x v="1"/>
     <x v="3"/>
-    <x v="233"/>
-    <x v="194"/>
-    <x v="86"/>
+    <x v="259"/>
+    <x v="212"/>
+    <x v="90"/>
     <x v="214"/>
     <x v="197"/>
     <x v="234"/>
@@ -4986,9 +5238,9 @@
     <x v="7"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="250"/>
-    <x v="233"/>
-    <x v="74"/>
+    <x v="280"/>
+    <x v="258"/>
+    <x v="78"/>
     <x v="212"/>
     <x v="188"/>
     <x v="215"/>
@@ -4998,143 +5250,143 @@
     <x v="7"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="58"/>
-    <x v="46"/>
-    <x v="237"/>
-    <x v="256"/>
-    <x v="217"/>
-    <x v="251"/>
+    <x v="61"/>
+    <x v="49"/>
+    <x v="260"/>
+    <x v="279"/>
+    <x v="223"/>
+    <x v="270"/>
     <x v="201"/>
   </r>
   <r>
     <x v="7"/>
     <x v="2"/>
     <x v="1"/>
-    <x v="101"/>
-    <x v="121"/>
-    <x v="191"/>
+    <x v="108"/>
+    <x v="133"/>
+    <x v="205"/>
     <x v="224"/>
-    <x v="225"/>
+    <x v="235"/>
     <x v="219"/>
-    <x v="208"/>
+    <x v="214"/>
   </r>
   <r>
     <x v="7"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="78"/>
-    <x v="33"/>
-    <x v="168"/>
-    <x v="250"/>
-    <x v="232"/>
+    <x v="82"/>
+    <x v="35"/>
+    <x v="179"/>
+    <x v="266"/>
+    <x v="246"/>
     <x v="223"/>
-    <x v="218"/>
+    <x v="227"/>
   </r>
   <r>
     <x v="7"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="208"/>
-    <x v="133"/>
-    <x v="133"/>
-    <x v="255"/>
     <x v="233"/>
+    <x v="146"/>
+    <x v="142"/>
+    <x v="278"/>
+    <x v="248"/>
     <x v="228"/>
-    <x v="213"/>
+    <x v="221"/>
   </r>
   <r>
     <x v="7"/>
     <x v="2"/>
     <x v="4"/>
-    <x v="232"/>
-    <x v="129"/>
-    <x v="124"/>
+    <x v="258"/>
+    <x v="142"/>
+    <x v="131"/>
     <x v="220"/>
-    <x v="229"/>
+    <x v="241"/>
     <x v="227"/>
-    <x v="232"/>
+    <x v="258"/>
   </r>
   <r>
     <x v="7"/>
     <x v="3"/>
     <x v="0"/>
-    <x v="24"/>
-    <x v="142"/>
-    <x v="253"/>
+    <x v="26"/>
+    <x v="155"/>
+    <x v="279"/>
     <x v="225"/>
-    <x v="215"/>
     <x v="221"/>
-    <x v="235"/>
+    <x v="221"/>
+    <x v="264"/>
   </r>
   <r>
     <x v="7"/>
     <x v="3"/>
     <x v="1"/>
-    <x v="162"/>
-    <x v="83"/>
-    <x v="225"/>
-    <x v="253"/>
-    <x v="218"/>
-    <x v="258"/>
-    <x v="229"/>
+    <x v="178"/>
+    <x v="91"/>
+    <x v="245"/>
+    <x v="273"/>
+    <x v="224"/>
+    <x v="283"/>
+    <x v="249"/>
   </r>
   <r>
     <x v="7"/>
     <x v="3"/>
     <x v="2"/>
-    <x v="83"/>
-    <x v="91"/>
-    <x v="204"/>
-    <x v="259"/>
-    <x v="224"/>
-    <x v="263"/>
-    <x v="227"/>
+    <x v="89"/>
+    <x v="100"/>
+    <x v="220"/>
+    <x v="286"/>
+    <x v="234"/>
+    <x v="293"/>
+    <x v="245"/>
   </r>
   <r>
     <x v="7"/>
     <x v="3"/>
     <x v="3"/>
-    <x v="207"/>
-    <x v="88"/>
-    <x v="166"/>
+    <x v="232"/>
+    <x v="97"/>
+    <x v="177"/>
     <x v="227"/>
-    <x v="228"/>
-    <x v="254"/>
-    <x v="228"/>
+    <x v="240"/>
+    <x v="276"/>
+    <x v="246"/>
   </r>
   <r>
     <x v="7"/>
     <x v="3"/>
     <x v="4"/>
-    <x v="152"/>
-    <x v="119"/>
-    <x v="151"/>
+    <x v="166"/>
+    <x v="131"/>
+    <x v="161"/>
     <x v="223"/>
-    <x v="216"/>
     <x v="222"/>
-    <x v="234"/>
+    <x v="222"/>
+    <x v="263"/>
   </r>
   <r>
     <x v="7"/>
     <x v="4"/>
     <x v="0"/>
-    <x v="13"/>
-    <x v="230"/>
-    <x v="260"/>
-    <x v="240"/>
-    <x v="238"/>
-    <x v="242"/>
-    <x v="216"/>
+    <x v="14"/>
+    <x v="254"/>
+    <x v="288"/>
+    <x v="244"/>
+    <x v="259"/>
+    <x v="246"/>
+    <x v="224"/>
   </r>
   <r>
     <x v="7"/>
     <x v="4"/>
     <x v="1"/>
-    <x v="46"/>
-    <x v="235"/>
-    <x v="240"/>
+    <x v="48"/>
+    <x v="260"/>
     <x v="263"/>
-    <x v="222"/>
+    <x v="291"/>
+    <x v="230"/>
     <x v="220"/>
     <x v="196"/>
   </r>
@@ -5142,297 +5394,297 @@
     <x v="7"/>
     <x v="4"/>
     <x v="2"/>
-    <x v="41"/>
-    <x v="90"/>
-    <x v="228"/>
-    <x v="244"/>
-    <x v="214"/>
-    <x v="248"/>
-    <x v="214"/>
+    <x v="43"/>
+    <x v="99"/>
+    <x v="249"/>
+    <x v="252"/>
+    <x v="219"/>
+    <x v="265"/>
+    <x v="222"/>
   </r>
   <r>
     <x v="7"/>
     <x v="4"/>
     <x v="3"/>
-    <x v="89"/>
-    <x v="107"/>
-    <x v="194"/>
+    <x v="95"/>
+    <x v="116"/>
+    <x v="208"/>
+    <x v="240"/>
+    <x v="207"/>
+    <x v="262"/>
     <x v="236"/>
-    <x v="206"/>
-    <x v="247"/>
-    <x v="223"/>
   </r>
   <r>
     <x v="7"/>
     <x v="4"/>
     <x v="4"/>
-    <x v="71"/>
-    <x v="136"/>
-    <x v="180"/>
-    <x v="231"/>
-    <x v="205"/>
+    <x v="75"/>
+    <x v="149"/>
+    <x v="194"/>
+    <x v="232"/>
+    <x v="206"/>
     <x v="225"/>
-    <x v="207"/>
+    <x v="213"/>
   </r>
   <r>
     <x v="7"/>
     <x v="5"/>
     <x v="0"/>
-    <x v="40"/>
-    <x v="242"/>
-    <x v="264"/>
-    <x v="264"/>
+    <x v="42"/>
+    <x v="268"/>
+    <x v="293"/>
+    <x v="292"/>
     <x v="196"/>
-    <x v="243"/>
-    <x v="233"/>
+    <x v="250"/>
+    <x v="261"/>
   </r>
   <r>
     <x v="7"/>
     <x v="5"/>
     <x v="1"/>
-    <x v="33"/>
-    <x v="187"/>
-    <x v="251"/>
+    <x v="35"/>
+    <x v="204"/>
+    <x v="277"/>
     <x v="228"/>
-    <x v="227"/>
     <x v="238"/>
-    <x v="205"/>
+    <x v="241"/>
+    <x v="207"/>
   </r>
   <r>
     <x v="7"/>
     <x v="5"/>
     <x v="2"/>
-    <x v="51"/>
-    <x v="163"/>
-    <x v="244"/>
-    <x v="247"/>
-    <x v="213"/>
+    <x v="53"/>
+    <x v="177"/>
+    <x v="268"/>
+    <x v="257"/>
+    <x v="218"/>
     <x v="226"/>
-    <x v="206"/>
+    <x v="210"/>
   </r>
   <r>
     <x v="7"/>
     <x v="5"/>
     <x v="3"/>
-    <x v="114"/>
-    <x v="124"/>
-    <x v="220"/>
-    <x v="257"/>
-    <x v="241"/>
-    <x v="259"/>
-    <x v="210"/>
+    <x v="123"/>
+    <x v="136"/>
+    <x v="240"/>
+    <x v="282"/>
+    <x v="265"/>
+    <x v="286"/>
+    <x v="217"/>
   </r>
   <r>
     <x v="7"/>
     <x v="5"/>
     <x v="4"/>
-    <x v="95"/>
-    <x v="130"/>
-    <x v="214"/>
-    <x v="260"/>
+    <x v="102"/>
+    <x v="143"/>
+    <x v="232"/>
+    <x v="287"/>
     <x v="199"/>
-    <x v="253"/>
-    <x v="220"/>
+    <x v="274"/>
+    <x v="231"/>
   </r>
   <r>
     <x v="8"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="236"/>
-    <x v="204"/>
-    <x v="113"/>
-    <x v="246"/>
-    <x v="226"/>
-    <x v="261"/>
-    <x v="238"/>
+    <x v="262"/>
+    <x v="222"/>
+    <x v="120"/>
+    <x v="255"/>
+    <x v="237"/>
+    <x v="290"/>
+    <x v="268"/>
   </r>
   <r>
     <x v="8"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="195"/>
-    <x v="228"/>
-    <x v="69"/>
-    <x v="235"/>
-    <x v="230"/>
-    <x v="245"/>
-    <x v="230"/>
+    <x v="219"/>
+    <x v="251"/>
+    <x v="73"/>
+    <x v="239"/>
+    <x v="243"/>
+    <x v="256"/>
+    <x v="251"/>
   </r>
   <r>
     <x v="8"/>
     <x v="0"/>
     <x v="2"/>
-    <x v="246"/>
-    <x v="199"/>
-    <x v="59"/>
+    <x v="276"/>
+    <x v="217"/>
+    <x v="62"/>
     <x v="222"/>
-    <x v="221"/>
+    <x v="228"/>
     <x v="232"/>
-    <x v="226"/>
+    <x v="243"/>
   </r>
   <r>
     <x v="8"/>
     <x v="0"/>
     <x v="3"/>
-    <x v="249"/>
-    <x v="238"/>
-    <x v="50"/>
+    <x v="279"/>
+    <x v="263"/>
+    <x v="52"/>
     <x v="226"/>
-    <x v="208"/>
+    <x v="209"/>
     <x v="224"/>
-    <x v="203"/>
+    <x v="204"/>
   </r>
   <r>
     <x v="8"/>
     <x v="0"/>
     <x v="4"/>
-    <x v="256"/>
-    <x v="259"/>
-    <x v="49"/>
-    <x v="248"/>
-    <x v="236"/>
-    <x v="260"/>
-    <x v="237"/>
+    <x v="286"/>
+    <x v="289"/>
+    <x v="51"/>
+    <x v="261"/>
+    <x v="254"/>
+    <x v="287"/>
+    <x v="267"/>
   </r>
   <r>
     <x v="8"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="36"/>
-    <x v="108"/>
-    <x v="215"/>
-    <x v="249"/>
-    <x v="237"/>
+    <x v="38"/>
+    <x v="118"/>
+    <x v="234"/>
+    <x v="265"/>
     <x v="257"/>
-    <x v="231"/>
+    <x v="279"/>
+    <x v="252"/>
   </r>
   <r>
     <x v="8"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="188"/>
-    <x v="89"/>
-    <x v="157"/>
-    <x v="252"/>
-    <x v="212"/>
-    <x v="250"/>
-    <x v="209"/>
+    <x v="210"/>
+    <x v="98"/>
+    <x v="168"/>
+    <x v="272"/>
+    <x v="216"/>
+    <x v="269"/>
+    <x v="216"/>
   </r>
   <r>
     <x v="8"/>
     <x v="1"/>
     <x v="2"/>
-    <x v="200"/>
-    <x v="162"/>
-    <x v="132"/>
-    <x v="234"/>
-    <x v="211"/>
-    <x v="239"/>
-    <x v="211"/>
+    <x v="224"/>
+    <x v="176"/>
+    <x v="141"/>
+    <x v="237"/>
+    <x v="214"/>
+    <x v="242"/>
+    <x v="218"/>
   </r>
   <r>
     <x v="8"/>
     <x v="1"/>
     <x v="3"/>
-    <x v="253"/>
-    <x v="241"/>
-    <x v="101"/>
-    <x v="242"/>
-    <x v="231"/>
-    <x v="249"/>
-    <x v="204"/>
+    <x v="283"/>
+    <x v="267"/>
+    <x v="106"/>
+    <x v="246"/>
+    <x v="245"/>
+    <x v="267"/>
+    <x v="206"/>
   </r>
   <r>
     <x v="8"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="203"/>
-    <x v="215"/>
-    <x v="91"/>
-    <x v="251"/>
-    <x v="242"/>
-    <x v="240"/>
-    <x v="215"/>
+    <x v="228"/>
+    <x v="236"/>
+    <x v="95"/>
+    <x v="268"/>
+    <x v="267"/>
+    <x v="243"/>
+    <x v="223"/>
   </r>
   <r>
     <x v="8"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="124"/>
-    <x v="12"/>
-    <x v="242"/>
-    <x v="237"/>
-    <x v="220"/>
+    <x v="134"/>
+    <x v="13"/>
+    <x v="265"/>
+    <x v="241"/>
+    <x v="227"/>
     <x v="236"/>
-    <x v="219"/>
+    <x v="229"/>
   </r>
   <r>
     <x v="8"/>
     <x v="2"/>
     <x v="1"/>
-    <x v="153"/>
-    <x v="144"/>
-    <x v="199"/>
-    <x v="261"/>
-    <x v="223"/>
-    <x v="262"/>
-    <x v="212"/>
+    <x v="167"/>
+    <x v="158"/>
+    <x v="214"/>
+    <x v="289"/>
+    <x v="231"/>
+    <x v="291"/>
+    <x v="219"/>
   </r>
   <r>
     <x v="8"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="133"/>
-    <x v="115"/>
-    <x v="174"/>
-    <x v="254"/>
-    <x v="243"/>
-    <x v="264"/>
-    <x v="224"/>
+    <x v="144"/>
+    <x v="127"/>
+    <x v="188"/>
+    <x v="275"/>
+    <x v="270"/>
+    <x v="294"/>
+    <x v="237"/>
   </r>
   <r>
     <x v="8"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="178"/>
+    <x v="196"/>
+    <x v="163"/>
     <x v="149"/>
-    <x v="139"/>
-    <x v="258"/>
-    <x v="239"/>
-    <x v="246"/>
-    <x v="236"/>
+    <x v="284"/>
+    <x v="260"/>
+    <x v="259"/>
+    <x v="265"/>
   </r>
   <r>
     <x v="8"/>
     <x v="2"/>
     <x v="4"/>
-    <x v="216"/>
-    <x v="146"/>
-    <x v="130"/>
-    <x v="245"/>
-    <x v="234"/>
-    <x v="255"/>
-    <x v="217"/>
+    <x v="241"/>
+    <x v="160"/>
+    <x v="139"/>
+    <x v="253"/>
+    <x v="250"/>
+    <x v="277"/>
+    <x v="226"/>
   </r>
   <r>
     <x v="8"/>
     <x v="3"/>
     <x v="0"/>
-    <x v="31"/>
-    <x v="240"/>
-    <x v="254"/>
-    <x v="262"/>
-    <x v="240"/>
-    <x v="256"/>
-    <x v="225"/>
+    <x v="33"/>
+    <x v="266"/>
+    <x v="281"/>
+    <x v="290"/>
+    <x v="263"/>
+    <x v="278"/>
+    <x v="241"/>
   </r>
   <r>
     <x v="8"/>
     <x v="3"/>
     <x v="1"/>
-    <x v="62"/>
-    <x v="80"/>
-    <x v="226"/>
+    <x v="66"/>
+    <x v="87"/>
+    <x v="246"/>
     <x v="221"/>
     <x v="202"/>
     <x v="233"/>
@@ -5442,23 +5694,23 @@
     <x v="8"/>
     <x v="3"/>
     <x v="2"/>
-    <x v="96"/>
-    <x v="221"/>
-    <x v="201"/>
-    <x v="232"/>
+    <x v="103"/>
+    <x v="243"/>
+    <x v="216"/>
+    <x v="235"/>
     <x v="203"/>
     <x v="230"/>
-    <x v="222"/>
+    <x v="235"/>
   </r>
   <r>
     <x v="8"/>
     <x v="3"/>
     <x v="3"/>
-    <x v="131"/>
-    <x v="42"/>
-    <x v="163"/>
+    <x v="142"/>
+    <x v="45"/>
+    <x v="174"/>
     <x v="229"/>
-    <x v="219"/>
+    <x v="226"/>
     <x v="229"/>
     <x v="194"/>
   </r>
@@ -5466,10 +5718,10 @@
     <x v="8"/>
     <x v="3"/>
     <x v="4"/>
-    <x v="213"/>
-    <x v="180"/>
-    <x v="156"/>
-    <x v="239"/>
+    <x v="238"/>
+    <x v="197"/>
+    <x v="167"/>
+    <x v="243"/>
     <x v="193"/>
     <x v="235"/>
     <x v="193"/>
@@ -5478,11 +5730,11 @@
     <x v="8"/>
     <x v="4"/>
     <x v="0"/>
-    <x v="106"/>
-    <x v="251"/>
-    <x v="261"/>
-    <x v="233"/>
-    <x v="209"/>
+    <x v="114"/>
+    <x v="278"/>
+    <x v="289"/>
+    <x v="236"/>
+    <x v="210"/>
     <x v="231"/>
     <x v="199"/>
   </r>
@@ -5490,34 +5742,34 @@
     <x v="8"/>
     <x v="4"/>
     <x v="1"/>
-    <x v="74"/>
-    <x v="49"/>
-    <x v="241"/>
-    <x v="243"/>
+    <x v="78"/>
+    <x v="52"/>
+    <x v="264"/>
+    <x v="248"/>
     <x v="200"/>
-    <x v="244"/>
-    <x v="221"/>
+    <x v="255"/>
+    <x v="232"/>
   </r>
   <r>
     <x v="8"/>
     <x v="4"/>
     <x v="2"/>
-    <x v="94"/>
-    <x v="71"/>
-    <x v="227"/>
-    <x v="241"/>
-    <x v="207"/>
-    <x v="252"/>
+    <x v="101"/>
+    <x v="77"/>
+    <x v="248"/>
+    <x v="245"/>
+    <x v="208"/>
+    <x v="271"/>
     <x v="197"/>
   </r>
   <r>
     <x v="8"/>
     <x v="4"/>
     <x v="3"/>
-    <x v="67"/>
-    <x v="63"/>
-    <x v="200"/>
-    <x v="230"/>
+    <x v="71"/>
+    <x v="69"/>
+    <x v="215"/>
+    <x v="231"/>
     <x v="204"/>
     <x v="237"/>
     <x v="195"/>
@@ -5526,451 +5778,451 @@
     <x v="8"/>
     <x v="4"/>
     <x v="4"/>
-    <x v="87"/>
-    <x v="53"/>
-    <x v="190"/>
-    <x v="238"/>
-    <x v="235"/>
-    <x v="241"/>
-    <x v="205"/>
+    <x v="93"/>
+    <x v="56"/>
+    <x v="204"/>
+    <x v="242"/>
+    <x v="252"/>
+    <x v="245"/>
+    <x v="207"/>
   </r>
   <r>
     <x v="8"/>
     <x v="5"/>
     <x v="0"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="244"/>
-    <x v="265"/>
-    <x v="239"/>
+    <x v="5"/>
+    <x v="286"/>
+    <x v="294"/>
+    <x v="293"/>
+    <x v="272"/>
+    <x v="292"/>
+    <x v="259"/>
   </r>
   <r>
     <x v="8"/>
     <x v="5"/>
     <x v="1"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="244"/>
-    <x v="265"/>
-    <x v="239"/>
+    <x v="18"/>
+    <x v="234"/>
+    <x v="280"/>
+    <x v="288"/>
+    <x v="215"/>
+    <x v="257"/>
+    <x v="211"/>
   </r>
   <r>
     <x v="8"/>
     <x v="5"/>
     <x v="2"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="244"/>
-    <x v="265"/>
-    <x v="239"/>
+    <x v="88"/>
+    <x v="178"/>
+    <x v="272"/>
+    <x v="264"/>
+    <x v="247"/>
+    <x v="289"/>
+    <x v="256"/>
   </r>
   <r>
     <x v="8"/>
     <x v="5"/>
     <x v="3"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
+    <x v="175"/>
+    <x v="86"/>
+    <x v="250"/>
+    <x v="258"/>
     <x v="244"/>
-    <x v="265"/>
     <x v="239"/>
+    <x v="203"/>
   </r>
   <r>
     <x v="8"/>
     <x v="5"/>
     <x v="4"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="244"/>
-    <x v="265"/>
-    <x v="239"/>
+    <x v="152"/>
+    <x v="120"/>
+    <x v="235"/>
+    <x v="230"/>
+    <x v="232"/>
+    <x v="258"/>
+    <x v="209"/>
   </r>
   <r>
     <x v="9"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="244"/>
-    <x v="265"/>
-    <x v="239"/>
+    <x v="83"/>
+    <x v="138"/>
+    <x v="118"/>
+    <x v="262"/>
+    <x v="255"/>
+    <x v="288"/>
+    <x v="212"/>
   </r>
   <r>
     <x v="9"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="244"/>
-    <x v="265"/>
-    <x v="239"/>
+    <x v="206"/>
+    <x v="235"/>
+    <x v="72"/>
+    <x v="281"/>
+    <x v="217"/>
+    <x v="272"/>
+    <x v="215"/>
   </r>
   <r>
     <x v="9"/>
     <x v="0"/>
     <x v="2"/>
     <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="244"/>
-    <x v="265"/>
-    <x v="239"/>
+    <x v="246"/>
+    <x v="61"/>
+    <x v="233"/>
+    <x v="205"/>
+    <x v="240"/>
+    <x v="247"/>
   </r>
   <r>
     <x v="9"/>
     <x v="0"/>
     <x v="3"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="244"/>
-    <x v="265"/>
-    <x v="239"/>
+    <x v="202"/>
+    <x v="252"/>
+    <x v="46"/>
+    <x v="238"/>
+    <x v="220"/>
+    <x v="238"/>
+    <x v="240"/>
   </r>
   <r>
     <x v="9"/>
     <x v="0"/>
     <x v="4"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
+    <x v="275"/>
+    <x v="255"/>
+    <x v="43"/>
+    <x v="234"/>
+    <x v="213"/>
     <x v="244"/>
-    <x v="265"/>
     <x v="239"/>
   </r>
   <r>
     <x v="9"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="244"/>
-    <x v="265"/>
-    <x v="239"/>
+    <x v="213"/>
+    <x v="117"/>
+    <x v="233"/>
+    <x v="254"/>
+    <x v="242"/>
+    <x v="254"/>
+    <x v="238"/>
   </r>
   <r>
     <x v="9"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="244"/>
-    <x v="265"/>
+    <x v="199"/>
+    <x v="36"/>
+    <x v="166"/>
+    <x v="267"/>
     <x v="239"/>
+    <x v="260"/>
+    <x v="234"/>
   </r>
   <r>
     <x v="9"/>
     <x v="1"/>
     <x v="2"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="244"/>
-    <x v="265"/>
-    <x v="239"/>
+    <x v="253"/>
+    <x v="227"/>
+    <x v="137"/>
+    <x v="256"/>
+    <x v="226"/>
+    <x v="253"/>
+    <x v="253"/>
   </r>
   <r>
     <x v="9"/>
     <x v="1"/>
     <x v="3"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="244"/>
-    <x v="265"/>
-    <x v="239"/>
+    <x v="270"/>
+    <x v="264"/>
+    <x v="107"/>
+    <x v="250"/>
+    <x v="256"/>
+    <x v="249"/>
+    <x v="220"/>
   </r>
   <r>
     <x v="9"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="244"/>
-    <x v="265"/>
-    <x v="239"/>
+    <x v="274"/>
+    <x v="186"/>
+    <x v="96"/>
+    <x v="259"/>
+    <x v="229"/>
+    <x v="248"/>
+    <x v="260"/>
   </r>
   <r>
     <x v="9"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="244"/>
-    <x v="265"/>
-    <x v="239"/>
+    <x v="62"/>
+    <x v="125"/>
+    <x v="266"/>
+    <x v="247"/>
+    <x v="212"/>
+    <x v="252"/>
+    <x v="205"/>
   </r>
   <r>
     <x v="9"/>
     <x v="2"/>
     <x v="1"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="244"/>
-    <x v="265"/>
-    <x v="239"/>
+    <x v="54"/>
+    <x v="156"/>
+    <x v="211"/>
+    <x v="251"/>
+    <x v="225"/>
+    <x v="251"/>
+    <x v="208"/>
   </r>
   <r>
     <x v="9"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="244"/>
-    <x v="265"/>
-    <x v="239"/>
+    <x v="226"/>
+    <x v="95"/>
+    <x v="184"/>
+    <x v="249"/>
+    <x v="266"/>
+    <x v="247"/>
+    <x v="228"/>
   </r>
   <r>
     <x v="9"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="244"/>
-    <x v="265"/>
-    <x v="239"/>
+    <x v="191"/>
+    <x v="285"/>
+    <x v="148"/>
+    <x v="260"/>
+    <x v="233"/>
+    <x v="263"/>
+    <x v="257"/>
   </r>
   <r>
     <x v="9"/>
     <x v="2"/>
     <x v="4"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="244"/>
-    <x v="265"/>
-    <x v="239"/>
+    <x v="188"/>
+    <x v="88"/>
+    <x v="136"/>
+    <x v="276"/>
+    <x v="258"/>
+    <x v="281"/>
+    <x v="225"/>
   </r>
   <r>
     <x v="9"/>
     <x v="3"/>
     <x v="0"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="244"/>
-    <x v="265"/>
-    <x v="239"/>
+    <x v="113"/>
+    <x v="240"/>
+    <x v="283"/>
+    <x v="271"/>
+    <x v="236"/>
+    <x v="264"/>
+    <x v="266"/>
   </r>
   <r>
     <x v="9"/>
     <x v="3"/>
     <x v="1"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="244"/>
-    <x v="265"/>
-    <x v="239"/>
+    <x v="124"/>
+    <x v="0"/>
+    <x v="247"/>
+    <x v="285"/>
+    <x v="249"/>
+    <x v="261"/>
+    <x v="255"/>
   </r>
   <r>
     <x v="9"/>
     <x v="3"/>
     <x v="2"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="244"/>
-    <x v="265"/>
-    <x v="239"/>
+    <x v="115"/>
+    <x v="59"/>
+    <x v="224"/>
+    <x v="278"/>
+    <x v="269"/>
+    <x v="280"/>
+    <x v="233"/>
   </r>
   <r>
     <x v="9"/>
     <x v="3"/>
     <x v="3"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="244"/>
-    <x v="265"/>
-    <x v="239"/>
+    <x v="207"/>
+    <x v="211"/>
+    <x v="187"/>
+    <x v="277"/>
+    <x v="253"/>
+    <x v="282"/>
+    <x v="242"/>
   </r>
   <r>
     <x v="9"/>
     <x v="3"/>
     <x v="4"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
+    <x v="217"/>
+    <x v="60"/>
+    <x v="182"/>
+    <x v="283"/>
+    <x v="268"/>
+    <x v="284"/>
     <x v="244"/>
-    <x v="265"/>
-    <x v="239"/>
   </r>
   <r>
     <x v="9"/>
     <x v="4"/>
     <x v="0"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="244"/>
-    <x v="265"/>
-    <x v="239"/>
+    <x v="172"/>
+    <x v="287"/>
+    <x v="291"/>
+    <x v="280"/>
+    <x v="264"/>
+    <x v="285"/>
+    <x v="230"/>
   </r>
   <r>
     <x v="9"/>
     <x v="4"/>
     <x v="1"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="244"/>
-    <x v="265"/>
-    <x v="239"/>
+    <x v="145"/>
+    <x v="269"/>
+    <x v="271"/>
+    <x v="274"/>
+    <x v="261"/>
+    <x v="273"/>
+    <x v="248"/>
   </r>
   <r>
     <x v="9"/>
     <x v="4"/>
     <x v="2"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="244"/>
-    <x v="265"/>
-    <x v="239"/>
+    <x v="136"/>
+    <x v="190"/>
+    <x v="255"/>
+    <x v="269"/>
+    <x v="271"/>
+    <x v="268"/>
+    <x v="262"/>
   </r>
   <r>
     <x v="9"/>
     <x v="4"/>
     <x v="3"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="244"/>
-    <x v="265"/>
-    <x v="239"/>
+    <x v="148"/>
+    <x v="25"/>
+    <x v="226"/>
+    <x v="263"/>
+    <x v="251"/>
+    <x v="266"/>
+    <x v="250"/>
   </r>
   <r>
     <x v="9"/>
     <x v="4"/>
     <x v="4"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="244"/>
-    <x v="265"/>
-    <x v="239"/>
+    <x v="100"/>
+    <x v="66"/>
+    <x v="217"/>
+    <x v="270"/>
+    <x v="262"/>
+    <x v="275"/>
+    <x v="254"/>
   </r>
   <r>
     <x v="9"/>
     <x v="5"/>
     <x v="0"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="244"/>
-    <x v="265"/>
-    <x v="239"/>
+    <x v="295"/>
+    <x v="295"/>
+    <x v="295"/>
+    <x v="294"/>
+    <x v="273"/>
+    <x v="295"/>
+    <x v="269"/>
   </r>
   <r>
     <x v="9"/>
     <x v="5"/>
     <x v="1"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="244"/>
-    <x v="265"/>
-    <x v="239"/>
+    <x v="295"/>
+    <x v="295"/>
+    <x v="295"/>
+    <x v="294"/>
+    <x v="273"/>
+    <x v="295"/>
+    <x v="269"/>
   </r>
   <r>
     <x v="9"/>
     <x v="5"/>
     <x v="2"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="244"/>
-    <x v="265"/>
-    <x v="239"/>
+    <x v="295"/>
+    <x v="295"/>
+    <x v="295"/>
+    <x v="294"/>
+    <x v="273"/>
+    <x v="295"/>
+    <x v="269"/>
   </r>
   <r>
     <x v="9"/>
     <x v="5"/>
     <x v="3"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="244"/>
-    <x v="265"/>
-    <x v="239"/>
+    <x v="295"/>
+    <x v="295"/>
+    <x v="295"/>
+    <x v="294"/>
+    <x v="273"/>
+    <x v="295"/>
+    <x v="269"/>
   </r>
   <r>
     <x v="9"/>
     <x v="5"/>
     <x v="4"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="244"/>
-    <x v="265"/>
-    <x v="239"/>
+    <x v="295"/>
+    <x v="295"/>
+    <x v="295"/>
+    <x v="294"/>
+    <x v="273"/>
+    <x v="295"/>
+    <x v="269"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="1" outlineData="1">
-  <location ref="A5:G13" firstHeaderRow="2" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="A5:M14" firstHeaderRow="2" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" showAll="0"/>
     <pivotField axis="axisRow" showAll="0"/>
     <pivotField axis="axisCol" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
@@ -5982,8 +6234,9 @@
   <pageFields count="1">
     <pageField fld="0" hier="-1"/>
   </pageFields>
-  <dataFields count="1">
-    <dataField fld="9" subtotal="average"/>
+  <dataFields count="2">
+    <dataField fld="3" subtotal="average"/>
+    <dataField fld="4" subtotal="average"/>
   </dataFields>
 </pivotTableDefinition>
 </file>
@@ -5993,10 +6246,36 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:J301"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A253" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F297" activeCellId="0" sqref="F297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14771,6 +15050,27 @@
       <c r="C267" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="D267" s="0" t="n">
+        <v>2.64641686266456E-006</v>
+      </c>
+      <c r="E267" s="0" t="n">
+        <v>0.108570956390905</v>
+      </c>
+      <c r="F267" s="0" t="n">
+        <v>15179</v>
+      </c>
+      <c r="G267" s="0" t="n">
+        <v>29.982</v>
+      </c>
+      <c r="H267" s="0" t="n">
+        <v>0.42515</v>
+      </c>
+      <c r="I267" s="0" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="J267" s="0" t="n">
+        <v>0.39716</v>
+      </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="n">
@@ -14783,6 +15083,27 @@
       <c r="C268" s="0" t="n">
         <v>50</v>
       </c>
+      <c r="D268" s="0" t="n">
+        <v>2.86719382177899E-006</v>
+      </c>
+      <c r="E268" s="0" t="n">
+        <v>0.0177121966384384</v>
+      </c>
+      <c r="F268" s="0" t="n">
+        <v>3610.6</v>
+      </c>
+      <c r="G268" s="0" t="n">
+        <v>11.149</v>
+      </c>
+      <c r="H268" s="0" t="n">
+        <v>0.30031</v>
+      </c>
+      <c r="I268" s="0" t="n">
+        <v>9.1976</v>
+      </c>
+      <c r="J268" s="0" t="n">
+        <v>0.30069</v>
+      </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="n">
@@ -14795,6 +15116,27 @@
       <c r="C269" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="D269" s="0" t="n">
+        <v>5.22073468624526E-006</v>
+      </c>
+      <c r="E269" s="0" t="n">
+        <v>0.00392824935572987</v>
+      </c>
+      <c r="F269" s="0" t="n">
+        <v>2142.2</v>
+      </c>
+      <c r="G269" s="0" t="n">
+        <v>9.4707</v>
+      </c>
+      <c r="H269" s="0" t="n">
+        <v>0.34791</v>
+      </c>
+      <c r="I269" s="0" t="n">
+        <v>10.122</v>
+      </c>
+      <c r="J269" s="0" t="n">
+        <v>0.37899</v>
+      </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="n">
@@ -14807,6 +15149,27 @@
       <c r="C270" s="0" t="n">
         <v>250</v>
       </c>
+      <c r="D270" s="0" t="n">
+        <v>1.11550614642507E-005</v>
+      </c>
+      <c r="E270" s="0" t="n">
+        <v>0.000420187558341592</v>
+      </c>
+      <c r="F270" s="0" t="n">
+        <v>1034.8</v>
+      </c>
+      <c r="G270" s="0" t="n">
+        <v>9.2735</v>
+      </c>
+      <c r="H270" s="0" t="n">
+        <v>0.34422</v>
+      </c>
+      <c r="I270" s="0" t="n">
+        <v>8.7744</v>
+      </c>
+      <c r="J270" s="0" t="n">
+        <v>0.29988</v>
+      </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="n">
@@ -14819,6 +15182,27 @@
       <c r="C271" s="0" t="n">
         <v>500</v>
       </c>
+      <c r="D271" s="0" t="n">
+        <v>8.34970908246678E-006</v>
+      </c>
+      <c r="E271" s="0" t="n">
+        <v>0.000814897227250397</v>
+      </c>
+      <c r="F271" s="0" t="n">
+        <v>812.29</v>
+      </c>
+      <c r="G271" s="0" t="n">
+        <v>8.6925</v>
+      </c>
+      <c r="H271" s="0" t="n">
+        <v>0.3181</v>
+      </c>
+      <c r="I271" s="0" t="n">
+        <v>9.2767</v>
+      </c>
+      <c r="J271" s="0" t="n">
+        <v>0.3005</v>
+      </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="n">
@@ -14831,6 +15215,27 @@
       <c r="C272" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="D272" s="0" t="n">
+        <v>4.8546473725786E-006</v>
+      </c>
+      <c r="E272" s="0" t="n">
+        <v>0.00123933566445121</v>
+      </c>
+      <c r="F272" s="0" t="n">
+        <v>86.092</v>
+      </c>
+      <c r="G272" s="0" t="n">
+        <v>9.4344</v>
+      </c>
+      <c r="H272" s="0" t="n">
+        <v>0.36537</v>
+      </c>
+      <c r="I272" s="0" t="n">
+        <v>10.071</v>
+      </c>
+      <c r="J272" s="0" t="n">
+        <v>0.30076</v>
+      </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="n">
@@ -14843,6 +15248,27 @@
       <c r="C273" s="0" t="n">
         <v>50</v>
       </c>
+      <c r="D273" s="0" t="n">
+        <v>1.52707869987055E-005</v>
+      </c>
+      <c r="E273" s="0" t="n">
+        <v>0.0179469162908899</v>
+      </c>
+      <c r="F273" s="0" t="n">
+        <v>33.899</v>
+      </c>
+      <c r="G273" s="0" t="n">
+        <v>10.334</v>
+      </c>
+      <c r="H273" s="0" t="n">
+        <v>0.30052</v>
+      </c>
+      <c r="I273" s="0" t="n">
+        <v>9.5884</v>
+      </c>
+      <c r="J273" s="0" t="n">
+        <v>0.31598</v>
+      </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="n">
@@ -14855,6 +15281,27 @@
       <c r="C274" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="D274" s="0" t="n">
+        <v>4.06173879830327E-005</v>
+      </c>
+      <c r="E274" s="0" t="n">
+        <v>0.0225106575840642</v>
+      </c>
+      <c r="F274" s="0" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="G274" s="0" t="n">
+        <v>8.7252</v>
+      </c>
+      <c r="H274" s="0" t="n">
+        <v>0.28259</v>
+      </c>
+      <c r="I274" s="0" t="n">
+        <v>8.7901</v>
+      </c>
+      <c r="J274" s="0" t="n">
+        <v>0.35299</v>
+      </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="n">
@@ -14867,6 +15314,27 @@
       <c r="C275" s="0" t="n">
         <v>250</v>
       </c>
+      <c r="D275" s="0" t="n">
+        <v>1.48078836829044E-005</v>
+      </c>
+      <c r="E275" s="0" t="n">
+        <v>0.0278178760764934</v>
+      </c>
+      <c r="F275" s="0" t="n">
+        <v>18.466</v>
+      </c>
+      <c r="G275" s="0" t="n">
+        <v>8.8453</v>
+      </c>
+      <c r="H275" s="0" t="n">
+        <v>0.30105</v>
+      </c>
+      <c r="I275" s="0" t="n">
+        <v>8.7184</v>
+      </c>
+      <c r="J275" s="0" t="n">
+        <v>0.3469</v>
+      </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="n">
@@ -14879,6 +15347,27 @@
       <c r="C276" s="0" t="n">
         <v>500</v>
       </c>
+      <c r="D276" s="0" t="n">
+        <v>5.67605048792485E-005</v>
+      </c>
+      <c r="E276" s="0" t="n">
+        <v>0.0309782317173276</v>
+      </c>
+      <c r="F276" s="0" t="n">
+        <v>17.245</v>
+      </c>
+      <c r="G276" s="0" t="n">
+        <v>8.8078</v>
+      </c>
+      <c r="H276" s="0" t="n">
+        <v>0.30004</v>
+      </c>
+      <c r="I276" s="0" t="n">
+        <v>8.8875</v>
+      </c>
+      <c r="J276" s="0" t="n">
+        <v>0.34679</v>
+      </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="n">
@@ -14891,6 +15380,27 @@
       <c r="C277" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="D277" s="0" t="n">
+        <v>1.65421596275644E-005</v>
+      </c>
+      <c r="E277" s="0" t="n">
+        <v>0.000738619994827467</v>
+      </c>
+      <c r="F277" s="0" t="n">
+        <v>763.09</v>
+      </c>
+      <c r="G277" s="0" t="n">
+        <v>9.1947</v>
+      </c>
+      <c r="H277" s="0" t="n">
+        <v>0.33823</v>
+      </c>
+      <c r="I277" s="0" t="n">
+        <v>9.0891</v>
+      </c>
+      <c r="J277" s="0" t="n">
+        <v>0.33856</v>
+      </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="n">
@@ -14903,6 +15413,27 @@
       <c r="C278" s="0" t="n">
         <v>50</v>
       </c>
+      <c r="D278" s="0" t="n">
+        <v>1.4660304506838E-005</v>
+      </c>
+      <c r="E278" s="0" t="n">
+        <v>0.000161767302573385</v>
+      </c>
+      <c r="F278" s="0" t="n">
+        <v>207.71</v>
+      </c>
+      <c r="G278" s="0" t="n">
+        <v>9.6971</v>
+      </c>
+      <c r="H278" s="0" t="n">
+        <v>0.33413</v>
+      </c>
+      <c r="I278" s="0" t="n">
+        <v>9.2908</v>
+      </c>
+      <c r="J278" s="0" t="n">
+        <v>0.33171</v>
+      </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="n">
@@ -14915,6 +15446,27 @@
       <c r="C279" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="D279" s="0" t="n">
+        <v>3.12721692926705E-005</v>
+      </c>
+      <c r="E279" s="0" t="n">
+        <v>0.0159923621545183</v>
+      </c>
+      <c r="F279" s="0" t="n">
+        <v>129.47</v>
+      </c>
+      <c r="G279" s="0" t="n">
+        <v>9.2404</v>
+      </c>
+      <c r="H279" s="0" t="n">
+        <v>0.31569</v>
+      </c>
+      <c r="I279" s="0" t="n">
+        <v>9.0244</v>
+      </c>
+      <c r="J279" s="0" t="n">
+        <v>0.36914</v>
+      </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="n">
@@ -14927,6 +15479,27 @@
       <c r="C280" s="0" t="n">
         <v>250</v>
       </c>
+      <c r="D280" s="0" t="n">
+        <v>4.4796561122455E-005</v>
+      </c>
+      <c r="E280" s="0" t="n">
+        <v>0.0416123511475862</v>
+      </c>
+      <c r="F280" s="0" t="n">
+        <v>68.639</v>
+      </c>
+      <c r="G280" s="0" t="n">
+        <v>9.0986</v>
+      </c>
+      <c r="H280" s="0" t="n">
+        <v>0.3693</v>
+      </c>
+      <c r="I280" s="0" t="n">
+        <v>8.9577</v>
+      </c>
+      <c r="J280" s="0" t="n">
+        <v>0.31722</v>
+      </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="n">
@@ -14939,6 +15512,27 @@
       <c r="C281" s="0" t="n">
         <v>500</v>
       </c>
+      <c r="D281" s="0" t="n">
+        <v>5.51886898921177E-005</v>
+      </c>
+      <c r="E281" s="0" t="n">
+        <v>0.00474151743232771</v>
+      </c>
+      <c r="F281" s="0" t="n">
+        <v>57.276</v>
+      </c>
+      <c r="G281" s="0" t="n">
+        <v>9.3458</v>
+      </c>
+      <c r="H281" s="0" t="n">
+        <v>0.31609</v>
+      </c>
+      <c r="I281" s="0" t="n">
+        <v>8.9424</v>
+      </c>
+      <c r="J281" s="0" t="n">
+        <v>0.39922</v>
+      </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="n">
@@ -14951,6 +15545,27 @@
       <c r="C282" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="D282" s="0" t="n">
+        <v>4.06443245435933E-006</v>
+      </c>
+      <c r="E282" s="0" t="n">
+        <v>0.000857416897065122</v>
+      </c>
+      <c r="F282" s="0" t="n">
+        <v>1907.6</v>
+      </c>
+      <c r="G282" s="0" t="n">
+        <v>9.0134</v>
+      </c>
+      <c r="H282" s="0" t="n">
+        <v>0.29942</v>
+      </c>
+      <c r="I282" s="0" t="n">
+        <v>9.0125</v>
+      </c>
+      <c r="J282" s="0" t="n">
+        <v>0.30026</v>
+      </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="n">
@@ -14963,6 +15578,27 @@
       <c r="C283" s="0" t="n">
         <v>50</v>
       </c>
+      <c r="D283" s="0" t="n">
+        <v>3.75551086923311E-006</v>
+      </c>
+      <c r="E283" s="0" t="n">
+        <v>0.00170830986870873</v>
+      </c>
+      <c r="F283" s="0" t="n">
+        <v>495.61</v>
+      </c>
+      <c r="G283" s="0" t="n">
+        <v>9.1356</v>
+      </c>
+      <c r="H283" s="0" t="n">
+        <v>0.31505</v>
+      </c>
+      <c r="I283" s="0" t="n">
+        <v>9.0105</v>
+      </c>
+      <c r="J283" s="0" t="n">
+        <v>0.30045</v>
+      </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="n">
@@ -14975,6 +15611,27 @@
       <c r="C284" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="D284" s="0" t="n">
+        <v>1.99482328572645E-005</v>
+      </c>
+      <c r="E284" s="0" t="n">
+        <v>0.000465140702797089</v>
+      </c>
+      <c r="F284" s="0" t="n">
+        <v>295.42</v>
+      </c>
+      <c r="G284" s="0" t="n">
+        <v>9.087</v>
+      </c>
+      <c r="H284" s="0" t="n">
+        <v>0.38551</v>
+      </c>
+      <c r="I284" s="0" t="n">
+        <v>8.9361</v>
+      </c>
+      <c r="J284" s="0" t="n">
+        <v>0.33123</v>
+      </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="n">
@@ -14987,6 +15644,27 @@
       <c r="C285" s="0" t="n">
         <v>250</v>
       </c>
+      <c r="D285" s="0" t="n">
+        <v>1.26487994964547E-005</v>
+      </c>
+      <c r="E285" s="0" t="n">
+        <v>0.0955409638328525</v>
+      </c>
+      <c r="F285" s="0" t="n">
+        <v>150.17</v>
+      </c>
+      <c r="G285" s="0" t="n">
+        <v>9.3475</v>
+      </c>
+      <c r="H285" s="0" t="n">
+        <v>0.31996</v>
+      </c>
+      <c r="I285" s="0" t="n">
+        <v>9.3508</v>
+      </c>
+      <c r="J285" s="0" t="n">
+        <v>0.38399</v>
+      </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="n">
@@ -14999,6 +15677,27 @@
       <c r="C286" s="0" t="n">
         <v>500</v>
       </c>
+      <c r="D286" s="0" t="n">
+        <v>1.22712465665491E-005</v>
+      </c>
+      <c r="E286" s="0" t="n">
+        <v>0.000425628633521902</v>
+      </c>
+      <c r="F286" s="0" t="n">
+        <v>129.11</v>
+      </c>
+      <c r="G286" s="0" t="n">
+        <v>10.032</v>
+      </c>
+      <c r="H286" s="0" t="n">
+        <v>0.37938</v>
+      </c>
+      <c r="I286" s="0" t="n">
+        <v>9.8027</v>
+      </c>
+      <c r="J286" s="0" t="n">
+        <v>0.32206</v>
+      </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="n">
@@ -15011,6 +15710,27 @@
       <c r="C287" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="D287" s="0" t="n">
+        <v>6.28584398384985E-006</v>
+      </c>
+      <c r="E287" s="0" t="n">
+        <v>0.0208240987223815</v>
+      </c>
+      <c r="F287" s="0" t="n">
+        <v>4001</v>
+      </c>
+      <c r="G287" s="0" t="n">
+        <v>9.8172</v>
+      </c>
+      <c r="H287" s="0" t="n">
+        <v>0.33135</v>
+      </c>
+      <c r="I287" s="0" t="n">
+        <v>9.3743</v>
+      </c>
+      <c r="J287" s="0" t="n">
+        <v>0.43186</v>
+      </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="n">
@@ -15023,6 +15743,27 @@
       <c r="C288" s="0" t="n">
         <v>50</v>
       </c>
+      <c r="D288" s="0" t="n">
+        <v>6.64057320320219E-006</v>
+      </c>
+      <c r="E288" s="0" t="n">
+        <v>7.54167574034384E-005</v>
+      </c>
+      <c r="F288" s="0" t="n">
+        <v>1008.8</v>
+      </c>
+      <c r="G288" s="0" t="n">
+        <v>10.797</v>
+      </c>
+      <c r="H288" s="0" t="n">
+        <v>0.35337</v>
+      </c>
+      <c r="I288" s="0" t="n">
+        <v>9.2969</v>
+      </c>
+      <c r="J288" s="0" t="n">
+        <v>0.36954</v>
+      </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="n">
@@ -15035,6 +15776,27 @@
       <c r="C289" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="D289" s="0" t="n">
+        <v>6.32513873795298E-006</v>
+      </c>
+      <c r="E289" s="0" t="n">
+        <v>0.000228038378886405</v>
+      </c>
+      <c r="F289" s="0" t="n">
+        <v>593.56</v>
+      </c>
+      <c r="G289" s="0" t="n">
+        <v>10.086</v>
+      </c>
+      <c r="H289" s="0" t="n">
+        <v>0.40031</v>
+      </c>
+      <c r="I289" s="0" t="n">
+        <v>9.7612</v>
+      </c>
+      <c r="J289" s="0" t="n">
+        <v>0.33169</v>
+      </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="n">
@@ -15047,6 +15809,27 @@
       <c r="C290" s="0" t="n">
         <v>250</v>
       </c>
+      <c r="D290" s="0" t="n">
+        <v>1.53185355740029E-005</v>
+      </c>
+      <c r="E290" s="0" t="n">
+        <v>0.00970315638598928</v>
+      </c>
+      <c r="F290" s="0" t="n">
+        <v>308.11</v>
+      </c>
+      <c r="G290" s="0" t="n">
+        <v>10.054</v>
+      </c>
+      <c r="H290" s="0" t="n">
+        <v>0.36306</v>
+      </c>
+      <c r="I290" s="0" t="n">
+        <v>9.8922</v>
+      </c>
+      <c r="J290" s="0" t="n">
+        <v>0.34737</v>
+      </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="n">
@@ -15059,6 +15842,27 @@
       <c r="C291" s="0" t="n">
         <v>500</v>
       </c>
+      <c r="D291" s="0" t="n">
+        <v>1.76910565772188E-005</v>
+      </c>
+      <c r="E291" s="0" t="n">
+        <v>0.000232679616539073</v>
+      </c>
+      <c r="F291" s="0" t="n">
+        <v>267.49</v>
+      </c>
+      <c r="G291" s="0" t="n">
+        <v>10.471</v>
+      </c>
+      <c r="H291" s="0" t="n">
+        <v>0.40028</v>
+      </c>
+      <c r="I291" s="0" t="n">
+        <v>10.017</v>
+      </c>
+      <c r="J291" s="0" t="n">
+        <v>0.34773</v>
+      </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="n">
@@ -15071,6 +15875,27 @@
       <c r="C292" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="D292" s="0" t="n">
+        <v>1.08269458160078E-005</v>
+      </c>
+      <c r="E292" s="0" t="n">
+        <v>0.109611549795953</v>
+      </c>
+      <c r="F292" s="0" t="n">
+        <v>8091.1</v>
+      </c>
+      <c r="G292" s="0" t="n">
+        <v>10.258</v>
+      </c>
+      <c r="H292" s="0" t="n">
+        <v>0.38509</v>
+      </c>
+      <c r="I292" s="0" t="n">
+        <v>10.042</v>
+      </c>
+      <c r="J292" s="0" t="n">
+        <v>0.33151</v>
+      </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="n">
@@ -15083,6 +15908,27 @@
       <c r="C293" s="0" t="n">
         <v>50</v>
       </c>
+      <c r="D293" s="0" t="n">
+        <v>7.86562985598068E-006</v>
+      </c>
+      <c r="E293" s="0" t="n">
+        <v>0.0454646205797264</v>
+      </c>
+      <c r="F293" s="0" t="n">
+        <v>2091.5</v>
+      </c>
+      <c r="G293" s="0" t="n">
+        <v>9.885</v>
+      </c>
+      <c r="H293" s="0" t="n">
+        <v>0.38487</v>
+      </c>
+      <c r="I293" s="0" t="n">
+        <v>9.5897</v>
+      </c>
+      <c r="J293" s="0" t="n">
+        <v>0.35367</v>
+      </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="n">
@@ -15095,6 +15941,27 @@
       <c r="C294" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="D294" s="0" t="n">
+        <v>7.44171911015363E-006</v>
+      </c>
+      <c r="E294" s="0" t="n">
+        <v>0.00538822089830872</v>
+      </c>
+      <c r="F294" s="0" t="n">
+        <v>1311.6</v>
+      </c>
+      <c r="G294" s="0" t="n">
+        <v>9.7396</v>
+      </c>
+      <c r="H294" s="0" t="n">
+        <v>0.41672</v>
+      </c>
+      <c r="I294" s="0" t="n">
+        <v>9.438</v>
+      </c>
+      <c r="J294" s="0" t="n">
+        <v>0.40039</v>
+      </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="n">
@@ -15107,6 +15974,27 @@
       <c r="C295" s="0" t="n">
         <v>250</v>
       </c>
+      <c r="D295" s="0" t="n">
+        <v>8.18810180463834E-006</v>
+      </c>
+      <c r="E295" s="0" t="n">
+        <v>0.0001225024434973</v>
+      </c>
+      <c r="F295" s="0" t="n">
+        <v>625.44</v>
+      </c>
+      <c r="G295" s="0" t="n">
+        <v>9.4567</v>
+      </c>
+      <c r="H295" s="0" t="n">
+        <v>0.36279</v>
+      </c>
+      <c r="I295" s="0" t="n">
+        <v>9.3946</v>
+      </c>
+      <c r="J295" s="0" t="n">
+        <v>0.36261</v>
+      </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="n">
@@ -15119,6 +16007,27 @@
       <c r="C296" s="0" t="n">
         <v>500</v>
       </c>
+      <c r="D296" s="0" t="n">
+        <v>5.78547384477E-006</v>
+      </c>
+      <c r="E296" s="0" t="n">
+        <v>0.000254371272129439</v>
+      </c>
+      <c r="F296" s="0" t="n">
+        <v>529.38</v>
+      </c>
+      <c r="G296" s="0" t="n">
+        <v>9.8086</v>
+      </c>
+      <c r="H296" s="0" t="n">
+        <v>0.38502</v>
+      </c>
+      <c r="I296" s="0" t="n">
+        <v>9.6508</v>
+      </c>
+      <c r="J296" s="0" t="n">
+        <v>0.3692</v>
+      </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="n">
@@ -15183,7 +16092,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -15191,15 +16100,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:J27"/>
+  <dimension ref="A3:M28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15216,208 +16125,375 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="A6" s="7"/>
       <c r="B6" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="9"/>
+      <c r="D6" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="D6" s="9" t="n">
+      <c r="E6" s="9"/>
+      <c r="F6" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="E6" s="9" t="n">
+      <c r="G6" s="9"/>
+      <c r="H6" s="8" t="n">
         <v>250</v>
       </c>
-      <c r="F6" s="9" t="n">
+      <c r="I6" s="9"/>
+      <c r="J6" s="8" t="n">
         <v>500</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="K6" s="9"/>
+      <c r="L6" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="M6" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="n">
+      <c r="A7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="13"/>
+      <c r="M7" s="14"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="B7" s="12" t="n">
-        <v>0.164872222222222</v>
-      </c>
-      <c r="C7" s="13" t="n">
-        <v>0.143551888888889</v>
-      </c>
-      <c r="D7" s="13" t="n">
-        <v>0.133691444444444</v>
-      </c>
-      <c r="E7" s="13" t="n">
-        <v>0.141849666666667</v>
-      </c>
-      <c r="F7" s="14" t="n">
-        <v>0.152488666666667</v>
-      </c>
-      <c r="G7" s="15" t="n">
-        <v>0.147290777777778</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="n">
+      <c r="B8" s="16" t="n">
+        <v>3.58752902898499E-005</v>
+      </c>
+      <c r="C8" s="17" t="n">
+        <v>0.0130635215976293</v>
+      </c>
+      <c r="D8" s="18" t="n">
+        <v>1.82873157512579E-005</v>
+      </c>
+      <c r="E8" s="18" t="n">
+        <v>0.0276028922670915</v>
+      </c>
+      <c r="F8" s="16" t="n">
+        <v>5.92699062422513E-005</v>
+      </c>
+      <c r="G8" s="17" t="n">
+        <v>0.0105684386648203</v>
+      </c>
+      <c r="H8" s="18" t="n">
+        <v>7.21152814966765E-005</v>
+      </c>
+      <c r="I8" s="18" t="n">
+        <v>0.0390139155874581</v>
+      </c>
+      <c r="J8" s="16" t="n">
+        <v>0.000394138629702215</v>
+      </c>
+      <c r="K8" s="17" t="n">
+        <v>0.117094792603027</v>
+      </c>
+      <c r="L8" s="19" t="n">
+        <v>0.00011593728469645</v>
+      </c>
+      <c r="M8" s="20" t="n">
+        <v>0.0414687121440053</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="21" t="n">
         <v>100</v>
       </c>
-      <c r="B8" s="17" t="n">
-        <v>0.142081</v>
-      </c>
-      <c r="C8" s="18" t="n">
-        <v>0.139403222222222</v>
-      </c>
-      <c r="D8" s="18" t="n">
-        <v>0.144992555555556</v>
-      </c>
-      <c r="E8" s="18" t="n">
-        <v>0.148407333333333</v>
-      </c>
-      <c r="F8" s="19" t="n">
-        <v>0.135198666666667</v>
-      </c>
-      <c r="G8" s="20" t="n">
-        <v>0.142016555555556</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="n">
+      <c r="B9" s="22" t="n">
+        <v>3.2691016816007E-006</v>
+      </c>
+      <c r="C9" s="23" t="n">
+        <v>0.000754228176129612</v>
+      </c>
+      <c r="D9" s="18" t="n">
+        <v>1.56051205621275E-005</v>
+      </c>
+      <c r="E9" s="18" t="n">
+        <v>0.000499874631743065</v>
+      </c>
+      <c r="F9" s="22" t="n">
+        <v>1.94098841162277E-005</v>
+      </c>
+      <c r="G9" s="23" t="n">
+        <v>0.00365694916376563</v>
+      </c>
+      <c r="H9" s="18" t="n">
+        <v>9.23603159455202E-005</v>
+      </c>
+      <c r="I9" s="18" t="n">
+        <v>0.0440800797792334</v>
+      </c>
+      <c r="J9" s="22" t="n">
+        <v>2.03450445336657E-005</v>
+      </c>
+      <c r="K9" s="23" t="n">
+        <v>0.0184236769399682</v>
+      </c>
+      <c r="L9" s="19" t="n">
+        <v>3.01978933678283E-005</v>
+      </c>
+      <c r="M9" s="24" t="n">
+        <v>0.013482961738168</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="21" t="n">
         <v>250</v>
       </c>
-      <c r="B9" s="17" t="n">
-        <v>0.147150333333333</v>
-      </c>
-      <c r="C9" s="18" t="n">
-        <v>0.144983666666667</v>
-      </c>
-      <c r="D9" s="18" t="n">
-        <v>0.150476222222222</v>
-      </c>
-      <c r="E9" s="18" t="n">
-        <v>0.156186222222222</v>
-      </c>
-      <c r="F9" s="19" t="n">
-        <v>0.157598888888889</v>
-      </c>
-      <c r="G9" s="20" t="n">
-        <v>0.151279066666667</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="n">
+      <c r="B10" s="22" t="n">
+        <v>7.39015246330519E-006</v>
+      </c>
+      <c r="C10" s="23" t="n">
+        <v>0.000103601910841125</v>
+      </c>
+      <c r="D10" s="18" t="n">
+        <v>1.01029439510744E-005</v>
+      </c>
+      <c r="E10" s="18" t="n">
+        <v>0.00183707789433091</v>
+      </c>
+      <c r="F10" s="22" t="n">
+        <v>7.80557799891109E-006</v>
+      </c>
+      <c r="G10" s="23" t="n">
+        <v>0.000861489597280515</v>
+      </c>
+      <c r="H10" s="18" t="n">
+        <v>1.39827427512731E-005</v>
+      </c>
+      <c r="I10" s="18" t="n">
+        <v>0.00236455697234272</v>
+      </c>
+      <c r="J10" s="22" t="n">
+        <v>2.44172526510698E-005</v>
+      </c>
+      <c r="K10" s="23" t="n">
+        <v>0.00205907897283656</v>
+      </c>
+      <c r="L10" s="19" t="n">
+        <v>1.27397339631267E-005</v>
+      </c>
+      <c r="M10" s="24" t="n">
+        <v>0.00144516106952637</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="21" t="n">
         <v>500</v>
       </c>
-      <c r="B10" s="17" t="n">
-        <v>0.164948777777778</v>
-      </c>
-      <c r="C10" s="18" t="n">
-        <v>0.151937444444444</v>
-      </c>
-      <c r="D10" s="18" t="n">
-        <v>0.150025777777778</v>
-      </c>
-      <c r="E10" s="18" t="n">
-        <v>0.149003444444444</v>
-      </c>
-      <c r="F10" s="19" t="n">
-        <v>0.152506777777778</v>
-      </c>
-      <c r="G10" s="20" t="n">
-        <v>0.153684444444444</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="n">
+      <c r="B11" s="22" t="n">
+        <v>3.20869307476719E-006</v>
+      </c>
+      <c r="C11" s="23" t="n">
+        <v>0.0421378974908736</v>
+      </c>
+      <c r="D11" s="18" t="n">
+        <v>4.17980819639853E-006</v>
+      </c>
+      <c r="E11" s="18" t="n">
+        <v>0.00042105101093757</v>
+      </c>
+      <c r="F11" s="22" t="n">
+        <v>5.89494798615797E-006</v>
+      </c>
+      <c r="G11" s="23" t="n">
+        <v>0.022097846016492</v>
+      </c>
+      <c r="H11" s="18" t="n">
+        <v>7.68050863963276E-006</v>
+      </c>
+      <c r="I11" s="18" t="n">
+        <v>0.000183722039095801</v>
+      </c>
+      <c r="J11" s="22" t="n">
+        <v>2.29452342860326E-005</v>
+      </c>
+      <c r="K11" s="23" t="n">
+        <v>0.00661509530930614</v>
+      </c>
+      <c r="L11" s="19" t="n">
+        <v>8.7818384365978E-006</v>
+      </c>
+      <c r="M11" s="24" t="n">
+        <v>0.014291122373341</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="21" t="n">
         <v>1000</v>
       </c>
-      <c r="B11" s="17" t="n">
-        <v>0.149430888888889</v>
-      </c>
-      <c r="C11" s="18" t="n">
-        <v>0.153649555555556</v>
-      </c>
-      <c r="D11" s="18" t="n">
-        <v>0.154382555555556</v>
-      </c>
-      <c r="E11" s="18" t="n">
-        <v>0.157651</v>
-      </c>
-      <c r="F11" s="19" t="n">
-        <v>0.152887666666667</v>
-      </c>
-      <c r="G11" s="20" t="n">
-        <v>0.153600333333333</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="n">
+      <c r="B12" s="22" t="n">
+        <v>6.30397683693763E-006</v>
+      </c>
+      <c r="C12" s="23" t="n">
+        <v>0.0657966584278266</v>
+      </c>
+      <c r="D12" s="18" t="n">
+        <v>4.58853535401996E-006</v>
+      </c>
+      <c r="E12" s="18" t="n">
+        <v>0.000200816689121658</v>
+      </c>
+      <c r="F12" s="22" t="n">
+        <v>5.78562852636514E-006</v>
+      </c>
+      <c r="G12" s="23" t="n">
+        <v>0.000352585453400881</v>
+      </c>
+      <c r="H12" s="18" t="n">
+        <v>4.40366732763583E-006</v>
+      </c>
+      <c r="I12" s="18" t="n">
+        <v>0.000282026900133431</v>
+      </c>
+      <c r="J12" s="22" t="n">
+        <v>5.46095124019301E-006</v>
+      </c>
+      <c r="K12" s="23" t="n">
+        <v>0.00021223334112653</v>
+      </c>
+      <c r="L12" s="19" t="n">
+        <v>5.30855185703032E-006</v>
+      </c>
+      <c r="M12" s="24" t="n">
+        <v>0.0133688641623218</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="21" t="n">
         <v>2000</v>
       </c>
-      <c r="B12" s="21" t="n">
-        <v>0.138580375</v>
-      </c>
-      <c r="C12" s="22" t="n">
-        <v>0.13963475</v>
-      </c>
-      <c r="D12" s="22" t="n">
-        <v>0.140848125</v>
-      </c>
-      <c r="E12" s="22" t="n">
-        <v>0.146355125</v>
-      </c>
-      <c r="F12" s="23" t="n">
-        <v>0.1302815</v>
-      </c>
-      <c r="G12" s="24" t="n">
-        <v>0.139139975</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <f aca="false">B12/B7</f>
-        <v>0.840531977625771</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <f aca="false">F12/F7</f>
-        <v>0.854368412078712</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="26" t="n">
-        <v>0.151414943396226</v>
-      </c>
-      <c r="C13" s="27" t="n">
-        <v>0.145637924528302</v>
-      </c>
-      <c r="D13" s="27" t="n">
-        <v>0.145828339622641</v>
-      </c>
-      <c r="E13" s="27" t="n">
-        <v>0.149975849056604</v>
-      </c>
-      <c r="F13" s="28" t="n">
-        <v>0.14713920754717</v>
-      </c>
-      <c r="G13" s="29" t="n">
-        <v>0.147999252830189</v>
+      <c r="B13" s="25" t="n">
+        <v>2.64641686266456E-006</v>
+      </c>
+      <c r="C13" s="26" t="n">
+        <v>0.108570956390905</v>
+      </c>
+      <c r="D13" s="18" t="n">
+        <v>2.86719382177899E-006</v>
+      </c>
+      <c r="E13" s="18" t="n">
+        <v>0.0177121966384384</v>
+      </c>
+      <c r="F13" s="25" t="n">
+        <v>5.22073468624526E-006</v>
+      </c>
+      <c r="G13" s="26" t="n">
+        <v>0.00392824935572987</v>
+      </c>
+      <c r="H13" s="18" t="n">
+        <v>1.11550614642507E-005</v>
+      </c>
+      <c r="I13" s="18" t="n">
+        <v>0.000420187558341592</v>
+      </c>
+      <c r="J13" s="25" t="n">
+        <v>8.34970908246678E-006</v>
+      </c>
+      <c r="K13" s="26" t="n">
+        <v>0.000814897227250397</v>
+      </c>
+      <c r="L13" s="19" t="n">
+        <v>6.04782318348127E-006</v>
+      </c>
+      <c r="M13" s="27" t="n">
+        <v>0.026289297434133</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="29" t="n">
+        <v>9.78227186818753E-006</v>
+      </c>
+      <c r="C14" s="30" t="n">
+        <v>0.0384044773323675</v>
+      </c>
+      <c r="D14" s="29" t="n">
+        <v>9.27181960610954E-006</v>
+      </c>
+      <c r="E14" s="30" t="n">
+        <v>0.00804565152194385</v>
+      </c>
+      <c r="F14" s="29" t="n">
+        <v>1.72311132593597E-005</v>
+      </c>
+      <c r="G14" s="30" t="n">
+        <v>0.0069109263752482</v>
+      </c>
+      <c r="H14" s="29" t="n">
+        <v>3.36162629374982E-005</v>
+      </c>
+      <c r="I14" s="30" t="n">
+        <v>0.0143907481394342</v>
+      </c>
+      <c r="J14" s="29" t="n">
+        <v>7.92761369159405E-005</v>
+      </c>
+      <c r="K14" s="30" t="n">
+        <v>0.0242032957322525</v>
+      </c>
+      <c r="L14" s="31" t="n">
+        <v>2.98355209174191E-005</v>
+      </c>
+      <c r="M14" s="32" t="n">
+        <v>0.0183910198202492</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15429,10 +16505,10 @@
       <c r="A20" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B20" s="22" t="n">
+      <c r="B20" s="33" t="n">
         <v>2.64602741007915E-006</v>
       </c>
-      <c r="C20" s="17" t="n">
+      <c r="C20" s="22" t="n">
         <v>8.45248971571096E-005</v>
       </c>
     </row>
@@ -15443,7 +16519,7 @@
       <c r="B21" s="18" t="n">
         <v>2.58307568920722E-006</v>
       </c>
-      <c r="C21" s="23" t="n">
+      <c r="C21" s="26" t="n">
         <v>7.58083330056681E-005</v>
       </c>
     </row>
@@ -15451,10 +16527,10 @@
       <c r="A22" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B22" s="22" t="n">
+      <c r="B22" s="33" t="n">
         <v>2.56160228536089E-006</v>
       </c>
-      <c r="C22" s="22" t="n">
+      <c r="C22" s="33" t="n">
         <v>7.68545666619592E-005</v>
       </c>
     </row>
@@ -15462,7 +16538,7 @@
       <c r="A23" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B23" s="21" t="n">
+      <c r="B23" s="25" t="n">
         <v>2.58417734445314E-006</v>
       </c>
       <c r="C23" s="18" t="n">
@@ -15470,7 +16546,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="17" t="n">
+      <c r="B24" s="22" t="n">
         <v>3.03647753812124E-006</v>
       </c>
       <c r="C24" s="18" t="n">
@@ -15478,7 +16554,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="17" t="n">
+      <c r="B25" s="22" t="n">
         <v>2.61434031870591E-006</v>
       </c>
       <c r="C25" s="18" t="n">
@@ -15486,19 +16562,27 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="17" t="n">
+      <c r="B26" s="22" t="n">
         <v>2.76965992404646E-006</v>
       </c>
-      <c r="C26" s="22" t="n">
+      <c r="C26" s="33" t="n">
         <v>8.8773597318109E-005</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="17" t="n">
+      <c r="B27" s="22" t="n">
         <v>2.78905245566453E-006</v>
       </c>
-      <c r="C27" s="17" t="n">
+      <c r="C27" s="22" t="n">
         <v>0.000106031093266614</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="25" t="n">
+        <v>2.64641686266456E-006</v>
+      </c>
+      <c r="C28" s="18" t="n">
+        <v>0.000200816689121658</v>
       </c>
     </row>
   </sheetData>

--- a/Model Results.xlsx
+++ b/Model Results.xlsx
@@ -25,9 +25,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t xml:space="preserve">window</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5, epoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 500, batch size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">training error </t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing error </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model fit time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 315.67 s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">training predict time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.57503 s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing predict time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.080213 s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">training error eval time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.374 s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing error eval time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.098262 s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compilation time </t>
   </si>
   <si>
     <t xml:space="preserve">epoch</t>
@@ -40,21 +85,6 @@
   </si>
   <si>
     <t xml:space="preserve">testing error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model fit time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">training predict time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing predict time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">training error eval time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing error eval time</t>
   </si>
   <si>
     <t xml:space="preserve">45</t>
@@ -82,9 +112,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="165" formatCode="0.00E+00"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -355,8 +386,12 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -364,7 +399,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6246,17 +6281,96 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>7.46179651998731E-005</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.0407150174913511</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>316.879235744476</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6275,7 +6389,7 @@
   <dimension ref="A1:J301"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A253" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F297" activeCellId="0" sqref="F297"/>
+      <selection pane="topLeft" activeCell="D288" activeCellId="0" sqref="D288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6297,31 +6411,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16117,382 +16231,382 @@
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="6"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8" t="n">
+      <c r="C6" s="10"/>
+      <c r="D6" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="9" t="n">
+        <v>250</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="9" t="n">
+        <v>500</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="14"/>
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="8" t="n">
-        <v>50</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="8" t="n">
+      <c r="B8" s="17" t="n">
+        <v>3.58752902898499E-005</v>
+      </c>
+      <c r="C8" s="18" t="n">
+        <v>0.0130635215976293</v>
+      </c>
+      <c r="D8" s="19" t="n">
+        <v>1.82873157512579E-005</v>
+      </c>
+      <c r="E8" s="19" t="n">
+        <v>0.0276028922670915</v>
+      </c>
+      <c r="F8" s="17" t="n">
+        <v>5.92699062422513E-005</v>
+      </c>
+      <c r="G8" s="18" t="n">
+        <v>0.0105684386648203</v>
+      </c>
+      <c r="H8" s="19" t="n">
+        <v>7.21152814966765E-005</v>
+      </c>
+      <c r="I8" s="19" t="n">
+        <v>0.0390139155874581</v>
+      </c>
+      <c r="J8" s="17" t="n">
+        <v>0.000394138629702215</v>
+      </c>
+      <c r="K8" s="18" t="n">
+        <v>0.117094792603027</v>
+      </c>
+      <c r="L8" s="20" t="n">
+        <v>0.00011593728469645</v>
+      </c>
+      <c r="M8" s="21" t="n">
+        <v>0.0414687121440053</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="22" t="n">
         <v>100</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="8" t="n">
+      <c r="B9" s="23" t="n">
+        <v>3.2691016816007E-006</v>
+      </c>
+      <c r="C9" s="24" t="n">
+        <v>0.000754228176129612</v>
+      </c>
+      <c r="D9" s="19" t="n">
+        <v>1.56051205621275E-005</v>
+      </c>
+      <c r="E9" s="19" t="n">
+        <v>0.000499874631743065</v>
+      </c>
+      <c r="F9" s="23" t="n">
+        <v>1.94098841162277E-005</v>
+      </c>
+      <c r="G9" s="24" t="n">
+        <v>0.00365694916376563</v>
+      </c>
+      <c r="H9" s="19" t="n">
+        <v>9.23603159455202E-005</v>
+      </c>
+      <c r="I9" s="19" t="n">
+        <v>0.0440800797792334</v>
+      </c>
+      <c r="J9" s="23" t="n">
+        <v>2.03450445336657E-005</v>
+      </c>
+      <c r="K9" s="24" t="n">
+        <v>0.0184236769399682</v>
+      </c>
+      <c r="L9" s="20" t="n">
+        <v>3.01978933678283E-005</v>
+      </c>
+      <c r="M9" s="25" t="n">
+        <v>0.013482961738168</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="22" t="n">
         <v>250</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="8" t="n">
+      <c r="B10" s="23" t="n">
+        <v>7.39015246330519E-006</v>
+      </c>
+      <c r="C10" s="24" t="n">
+        <v>0.000103601910841125</v>
+      </c>
+      <c r="D10" s="19" t="n">
+        <v>1.01029439510744E-005</v>
+      </c>
+      <c r="E10" s="19" t="n">
+        <v>0.00183707789433091</v>
+      </c>
+      <c r="F10" s="23" t="n">
+        <v>7.80557799891109E-006</v>
+      </c>
+      <c r="G10" s="24" t="n">
+        <v>0.000861489597280515</v>
+      </c>
+      <c r="H10" s="19" t="n">
+        <v>1.39827427512731E-005</v>
+      </c>
+      <c r="I10" s="19" t="n">
+        <v>0.00236455697234272</v>
+      </c>
+      <c r="J10" s="23" t="n">
+        <v>2.44172526510698E-005</v>
+      </c>
+      <c r="K10" s="24" t="n">
+        <v>0.00205907897283656</v>
+      </c>
+      <c r="L10" s="20" t="n">
+        <v>1.27397339631267E-005</v>
+      </c>
+      <c r="M10" s="25" t="n">
+        <v>0.00144516106952637</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="22" t="n">
         <v>500</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="14"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="n">
-        <v>10</v>
-      </c>
-      <c r="B8" s="16" t="n">
-        <v>3.58752902898499E-005</v>
-      </c>
-      <c r="C8" s="17" t="n">
-        <v>0.0130635215976293</v>
-      </c>
-      <c r="D8" s="18" t="n">
-        <v>1.82873157512579E-005</v>
-      </c>
-      <c r="E8" s="18" t="n">
-        <v>0.0276028922670915</v>
-      </c>
-      <c r="F8" s="16" t="n">
-        <v>5.92699062422513E-005</v>
-      </c>
-      <c r="G8" s="17" t="n">
-        <v>0.0105684386648203</v>
-      </c>
-      <c r="H8" s="18" t="n">
-        <v>7.21152814966765E-005</v>
-      </c>
-      <c r="I8" s="18" t="n">
-        <v>0.0390139155874581</v>
-      </c>
-      <c r="J8" s="16" t="n">
-        <v>0.000394138629702215</v>
-      </c>
-      <c r="K8" s="17" t="n">
-        <v>0.117094792603027</v>
-      </c>
-      <c r="L8" s="19" t="n">
-        <v>0.00011593728469645</v>
-      </c>
-      <c r="M8" s="20" t="n">
-        <v>0.0414687121440053</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21" t="n">
-        <v>100</v>
-      </c>
-      <c r="B9" s="22" t="n">
-        <v>3.2691016816007E-006</v>
-      </c>
-      <c r="C9" s="23" t="n">
-        <v>0.000754228176129612</v>
-      </c>
-      <c r="D9" s="18" t="n">
-        <v>1.56051205621275E-005</v>
-      </c>
-      <c r="E9" s="18" t="n">
-        <v>0.000499874631743065</v>
-      </c>
-      <c r="F9" s="22" t="n">
-        <v>1.94098841162277E-005</v>
-      </c>
-      <c r="G9" s="23" t="n">
-        <v>0.00365694916376563</v>
-      </c>
-      <c r="H9" s="18" t="n">
-        <v>9.23603159455202E-005</v>
-      </c>
-      <c r="I9" s="18" t="n">
-        <v>0.0440800797792334</v>
-      </c>
-      <c r="J9" s="22" t="n">
-        <v>2.03450445336657E-005</v>
-      </c>
-      <c r="K9" s="23" t="n">
-        <v>0.0184236769399682</v>
-      </c>
-      <c r="L9" s="19" t="n">
-        <v>3.01978933678283E-005</v>
-      </c>
-      <c r="M9" s="24" t="n">
-        <v>0.013482961738168</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="n">
-        <v>250</v>
-      </c>
-      <c r="B10" s="22" t="n">
-        <v>7.39015246330519E-006</v>
-      </c>
-      <c r="C10" s="23" t="n">
-        <v>0.000103601910841125</v>
-      </c>
-      <c r="D10" s="18" t="n">
-        <v>1.01029439510744E-005</v>
-      </c>
-      <c r="E10" s="18" t="n">
-        <v>0.00183707789433091</v>
-      </c>
-      <c r="F10" s="22" t="n">
-        <v>7.80557799891109E-006</v>
-      </c>
-      <c r="G10" s="23" t="n">
-        <v>0.000861489597280515</v>
-      </c>
-      <c r="H10" s="18" t="n">
-        <v>1.39827427512731E-005</v>
-      </c>
-      <c r="I10" s="18" t="n">
-        <v>0.00236455697234272</v>
-      </c>
-      <c r="J10" s="22" t="n">
-        <v>2.44172526510698E-005</v>
-      </c>
-      <c r="K10" s="23" t="n">
-        <v>0.00205907897283656</v>
-      </c>
-      <c r="L10" s="19" t="n">
-        <v>1.27397339631267E-005</v>
-      </c>
-      <c r="M10" s="24" t="n">
-        <v>0.00144516106952637</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21" t="n">
-        <v>500</v>
-      </c>
-      <c r="B11" s="22" t="n">
+      <c r="B11" s="23" t="n">
         <v>3.20869307476719E-006</v>
       </c>
-      <c r="C11" s="23" t="n">
+      <c r="C11" s="24" t="n">
         <v>0.0421378974908736</v>
       </c>
-      <c r="D11" s="18" t="n">
+      <c r="D11" s="19" t="n">
         <v>4.17980819639853E-006</v>
       </c>
-      <c r="E11" s="18" t="n">
+      <c r="E11" s="19" t="n">
         <v>0.00042105101093757</v>
       </c>
-      <c r="F11" s="22" t="n">
+      <c r="F11" s="23" t="n">
         <v>5.89494798615797E-006</v>
       </c>
-      <c r="G11" s="23" t="n">
+      <c r="G11" s="24" t="n">
         <v>0.022097846016492</v>
       </c>
-      <c r="H11" s="18" t="n">
+      <c r="H11" s="19" t="n">
         <v>7.68050863963276E-006</v>
       </c>
-      <c r="I11" s="18" t="n">
+      <c r="I11" s="19" t="n">
         <v>0.000183722039095801</v>
       </c>
-      <c r="J11" s="22" t="n">
+      <c r="J11" s="23" t="n">
         <v>2.29452342860326E-005</v>
       </c>
-      <c r="K11" s="23" t="n">
+      <c r="K11" s="24" t="n">
         <v>0.00661509530930614</v>
       </c>
-      <c r="L11" s="19" t="n">
+      <c r="L11" s="20" t="n">
         <v>8.7818384365978E-006</v>
       </c>
-      <c r="M11" s="24" t="n">
+      <c r="M11" s="25" t="n">
         <v>0.014291122373341</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="n">
+      <c r="A12" s="22" t="n">
         <v>1000</v>
       </c>
-      <c r="B12" s="22" t="n">
+      <c r="B12" s="23" t="n">
         <v>6.30397683693763E-006</v>
       </c>
-      <c r="C12" s="23" t="n">
+      <c r="C12" s="24" t="n">
         <v>0.0657966584278266</v>
       </c>
-      <c r="D12" s="18" t="n">
+      <c r="D12" s="19" t="n">
         <v>4.58853535401996E-006</v>
       </c>
-      <c r="E12" s="18" t="n">
+      <c r="E12" s="19" t="n">
         <v>0.000200816689121658</v>
       </c>
-      <c r="F12" s="22" t="n">
+      <c r="F12" s="23" t="n">
         <v>5.78562852636514E-006</v>
       </c>
-      <c r="G12" s="23" t="n">
+      <c r="G12" s="24" t="n">
         <v>0.000352585453400881</v>
       </c>
-      <c r="H12" s="18" t="n">
+      <c r="H12" s="19" t="n">
         <v>4.40366732763583E-006</v>
       </c>
-      <c r="I12" s="18" t="n">
+      <c r="I12" s="19" t="n">
         <v>0.000282026900133431</v>
       </c>
-      <c r="J12" s="22" t="n">
+      <c r="J12" s="23" t="n">
         <v>5.46095124019301E-006</v>
       </c>
-      <c r="K12" s="23" t="n">
+      <c r="K12" s="24" t="n">
         <v>0.00021223334112653</v>
       </c>
-      <c r="L12" s="19" t="n">
+      <c r="L12" s="20" t="n">
         <v>5.30855185703032E-006</v>
       </c>
-      <c r="M12" s="24" t="n">
+      <c r="M12" s="25" t="n">
         <v>0.0133688641623218</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="n">
+      <c r="A13" s="22" t="n">
         <v>2000</v>
       </c>
-      <c r="B13" s="25" t="n">
+      <c r="B13" s="26" t="n">
         <v>2.64641686266456E-006</v>
       </c>
-      <c r="C13" s="26" t="n">
+      <c r="C13" s="27" t="n">
         <v>0.108570956390905</v>
       </c>
-      <c r="D13" s="18" t="n">
+      <c r="D13" s="19" t="n">
         <v>2.86719382177899E-006</v>
       </c>
-      <c r="E13" s="18" t="n">
+      <c r="E13" s="19" t="n">
         <v>0.0177121966384384</v>
       </c>
-      <c r="F13" s="25" t="n">
+      <c r="F13" s="26" t="n">
         <v>5.22073468624526E-006</v>
       </c>
-      <c r="G13" s="26" t="n">
+      <c r="G13" s="27" t="n">
         <v>0.00392824935572987</v>
       </c>
-      <c r="H13" s="18" t="n">
+      <c r="H13" s="19" t="n">
         <v>1.11550614642507E-005</v>
       </c>
-      <c r="I13" s="18" t="n">
+      <c r="I13" s="19" t="n">
         <v>0.000420187558341592</v>
       </c>
-      <c r="J13" s="25" t="n">
+      <c r="J13" s="26" t="n">
         <v>8.34970908246678E-006</v>
       </c>
-      <c r="K13" s="26" t="n">
+      <c r="K13" s="27" t="n">
         <v>0.000814897227250397</v>
       </c>
-      <c r="L13" s="19" t="n">
+      <c r="L13" s="20" t="n">
         <v>6.04782318348127E-006</v>
       </c>
-      <c r="M13" s="27" t="n">
+      <c r="M13" s="28" t="n">
         <v>0.026289297434133</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="29" t="n">
+      <c r="A14" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="30" t="n">
         <v>9.78227186818753E-006</v>
       </c>
-      <c r="C14" s="30" t="n">
+      <c r="C14" s="31" t="n">
         <v>0.0384044773323675</v>
       </c>
-      <c r="D14" s="29" t="n">
+      <c r="D14" s="30" t="n">
         <v>9.27181960610954E-006</v>
       </c>
-      <c r="E14" s="30" t="n">
+      <c r="E14" s="31" t="n">
         <v>0.00804565152194385</v>
       </c>
-      <c r="F14" s="29" t="n">
+      <c r="F14" s="30" t="n">
         <v>1.72311132593597E-005</v>
       </c>
-      <c r="G14" s="30" t="n">
+      <c r="G14" s="31" t="n">
         <v>0.0069109263752482</v>
       </c>
-      <c r="H14" s="29" t="n">
+      <c r="H14" s="30" t="n">
         <v>3.36162629374982E-005</v>
       </c>
-      <c r="I14" s="30" t="n">
+      <c r="I14" s="31" t="n">
         <v>0.0143907481394342</v>
       </c>
-      <c r="J14" s="29" t="n">
+      <c r="J14" s="30" t="n">
         <v>7.92761369159405E-005</v>
       </c>
-      <c r="K14" s="30" t="n">
+      <c r="K14" s="31" t="n">
         <v>0.0242032957322525</v>
       </c>
-      <c r="L14" s="31" t="n">
+      <c r="L14" s="32" t="n">
         <v>2.98355209174191E-005</v>
       </c>
-      <c r="M14" s="32" t="n">
+      <c r="M14" s="33" t="n">
         <v>0.0183910198202492</v>
       </c>
     </row>
@@ -16505,10 +16619,10 @@
       <c r="A20" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B20" s="33" t="n">
+      <c r="B20" s="34" t="n">
         <v>2.64602741007915E-006</v>
       </c>
-      <c r="C20" s="22" t="n">
+      <c r="C20" s="23" t="n">
         <v>8.45248971571096E-005</v>
       </c>
     </row>
@@ -16516,10 +16630,10 @@
       <c r="A21" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B21" s="18" t="n">
+      <c r="B21" s="19" t="n">
         <v>2.58307568920722E-006</v>
       </c>
-      <c r="C21" s="26" t="n">
+      <c r="C21" s="27" t="n">
         <v>7.58083330056681E-005</v>
       </c>
     </row>
@@ -16527,10 +16641,10 @@
       <c r="A22" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B22" s="33" t="n">
+      <c r="B22" s="34" t="n">
         <v>2.56160228536089E-006</v>
       </c>
-      <c r="C22" s="33" t="n">
+      <c r="C22" s="34" t="n">
         <v>7.68545666619592E-005</v>
       </c>
     </row>
@@ -16538,50 +16652,50 @@
       <c r="A23" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B23" s="25" t="n">
+      <c r="B23" s="26" t="n">
         <v>2.58417734445314E-006</v>
       </c>
-      <c r="C23" s="18" t="n">
+      <c r="C23" s="19" t="n">
         <v>0.000121594815380886</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="22" t="n">
+      <c r="B24" s="23" t="n">
         <v>3.03647753812124E-006</v>
       </c>
-      <c r="C24" s="18" t="n">
+      <c r="C24" s="19" t="n">
         <v>8.44823534778547E-005</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="22" t="n">
+      <c r="B25" s="23" t="n">
         <v>2.61434031870591E-006</v>
       </c>
-      <c r="C25" s="18" t="n">
+      <c r="C25" s="19" t="n">
         <v>8.1532351679863E-005</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="22" t="n">
+      <c r="B26" s="23" t="n">
         <v>2.76965992404646E-006</v>
       </c>
-      <c r="C26" s="33" t="n">
+      <c r="C26" s="34" t="n">
         <v>8.8773597318109E-005</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="22" t="n">
+      <c r="B27" s="23" t="n">
         <v>2.78905245566453E-006</v>
       </c>
-      <c r="C27" s="22" t="n">
+      <c r="C27" s="23" t="n">
         <v>0.000106031093266614</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="25" t="n">
+      <c r="B28" s="26" t="n">
         <v>2.64641686266456E-006</v>
       </c>
-      <c r="C28" s="18" t="n">
+      <c r="C28" s="19" t="n">
         <v>0.000200816689121658</v>
       </c>
     </row>

--- a/Model Results.xlsx
+++ b/Model Results.xlsx
@@ -5,16 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Temp" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Data" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Pivot Table" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="1 LSTM Data" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="2 LSTM Data" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Pivot Table (1 LSTM)" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -25,54 +26,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="33">
+  <si>
+    <t xml:space="preserve">Scaler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first LSTM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">second LSTM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dropout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">training error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StandardScaler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sigmoid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relu</t>
+  </si>
   <si>
     <t xml:space="preserve">window</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5, epoch</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 500, batch size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">training error </t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing error </t>
-  </si>
-  <si>
-    <t xml:space="preserve">model fit time</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 315.67 s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">training predict time</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.57503 s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing predict time</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.080213 s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">training error eval time</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.374 s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing error eval time</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.098262 s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compilation time </t>
   </si>
   <si>
     <t xml:space="preserve">epoch</t>
@@ -81,10 +73,37 @@
     <t xml:space="preserve">batchize</t>
   </si>
   <si>
-    <t xml:space="preserve">training error</t>
+    <t xml:space="preserve">model fit time</t>
   </si>
   <si>
-    <t xml:space="preserve">testing error</t>
+    <t xml:space="preserve">training predict time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing predict time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">training error eval time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing error eval time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">train error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">train predict time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test predict time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">train error eval time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test error eval time</t>
   </si>
   <si>
     <t xml:space="preserve">45</t>
@@ -114,7 +133,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00E+00"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
   <fonts count="5">
@@ -145,12 +164,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="28">
@@ -386,12 +417,24 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -542,13 +585,73 @@
     <cellStyle name="Pivot Table Title" xfId="24" builtinId="53" customBuiltin="true"/>
     <cellStyle name="Pivot Table Result" xfId="25" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF66"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="300">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:J301" sheet="Data"/>
+    <worksheetSource ref="A1:J301" sheet="1 LSTM Data"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="window" numFmtId="0">
@@ -6281,15 +6384,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D44" activeCellId="0" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6302,32 +6406,86 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="n">
-        <v>125</v>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>7.46179651998731E-005</v>
+        <v>7</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.00186629821180013</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1.12502427283532</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.0407150174913511</v>
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.00152840089388517</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.735484414804177</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.00149961327809416</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.154436714141095</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6337,37 +6495,2680 @@
       <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="C5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.0013888535926174</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.988911662140831</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.000821505989800466</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.410584674311466</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.000954898910477465</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.734779379341772</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.00150551860975155</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1.47979111567221</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>316.879235744476</v>
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.00119637990992741</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.238253076740953</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.00161491885326747</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.456662825808499</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.00337740480872797</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>2.9854841951464</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.00183443527211007</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>2.75101745949417</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.00167038222043286</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1.00886420005006</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.00295571006715387</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1.39628005001714</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.00173114705059271</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>6.56690456098546</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.00116909502244848</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>2.09670477043736</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.0014451029656588</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>1.23333332864313</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.000825500208528137</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0.309525633477122</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.00084137987767912</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0.389887877565915</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.000886990441402396</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0.121865871304371</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0.000843307446347778</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0.143884145415546</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0.000916985941383439</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>0.238546865624808</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0.000819380366543512</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0.0547021945317586</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0.000907134838384709</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0.0735573161820896</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0.000921921193032801</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0.0817435846954096</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0.000845576989525294</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>0.603822928373931</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0.000789539008498055</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>0.103517638920435</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0.000998881520302587</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>0.37312915950525</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0.000775085755962846</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>0.419736730400982</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0.00086932519100281</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>4.04777287720331</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0.000902422837557713</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>0.535045530431258</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0.000831866292866547</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>0.247836276058291</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0.00111637389642166</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>0.19293210962431</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>0.00219767471475442</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>1.20357164372512</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0.00184530118513509</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>0.851585068468188</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0.000996176257134123</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>0.540764434318073</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>0.00147614609196845</v>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>0.0148887627030331</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0.000989331345255955</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>0.627667523863537</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E39" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>0.000941592110714332</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>0.40196490105384</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>0.00119861000478613</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>0.931382119981318</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>0.00118797908623757</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>0.315225864108143</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0.00108477926919205</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>0.406823913516894</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>0.00215550786983334</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>2.14903098038637</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>0.00292395555030429</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>2.22315634221979</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>0.00110636805197747</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>0.452139937030813</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E46" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>0.00258871326298102</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>1.15889487970071</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>0.00220577644542991</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>5.85428888393882</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>0.00149724377323289</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>0.0827615790801947</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E49" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>0.000866890389310708</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>1.91324114962354</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>0.0012597911190237</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>0.307799472900036</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>0.00087322577394255</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>0.514013825153393</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>0.000819708206820658</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>0.0156532825464434</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>0.000850306148329013</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>0.045128802476003</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>0.00118044352939164</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>0.375021999390399</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>0.000896668009435538</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>0.2089148763099</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>0.000883430784685783</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>0.10048923967966</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3" t="n">
+        <v>0.000657644810701823</v>
+      </c>
+      <c r="G57" s="4" t="n">
+        <v>0.0160723943120795</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>0.00126661682784217</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>0.611807567044034</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>0.000930649716962952</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>0.175456999234163</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>0.000701683257059856</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>0.0181703930914076</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>0.000908511391604227</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>0.108453822657059</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>0.00102693215984534</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>0.866291929333588</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>0.00161972914922251</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <v>4.02286903297966</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>0.00123583523332095</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>0.297644855350745</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E65" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>0.00113541164630034</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <v>0.232437422269029</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E66" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>0.365246623799808</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>1.28916308658371</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E67" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>0.364659353580105</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <v>0.893042908470487</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E68" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>0.365151344386422</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <v>1.13470702744573</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E69" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>0.364542983469293</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <v>0.931914578630624</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E70" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>0.364664984094735</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <v>0.89328016492187</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E71" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>0.364656147311627</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <v>1.05893687263864</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E72" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>0.365508307575829</v>
+      </c>
+      <c r="G72" s="0" t="n">
+        <v>1.33382920437172</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E73" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>0.369384446289786</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <v>2.23780419813479</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E74" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>0.364431595899639</v>
+      </c>
+      <c r="G74" s="0" t="n">
+        <v>0.885460038523856</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E75" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>0.364463204579048</v>
+      </c>
+      <c r="G75" s="0" t="n">
+        <v>0.868167291182638</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E76" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>0.364834417123984</v>
+      </c>
+      <c r="G76" s="0" t="n">
+        <v>0.991408620896886</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E77" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>0.368154383549809</v>
+      </c>
+      <c r="G77" s="0" t="n">
+        <v>2.06561477640287</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E78" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>0.364663694736027</v>
+      </c>
+      <c r="G78" s="0" t="n">
+        <v>0.910243149793864</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E79" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>0.364992516846825</v>
+      </c>
+      <c r="G79" s="0" t="n">
+        <v>1.21482175191244</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E80" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>0.365252584280066</v>
+      </c>
+      <c r="G80" s="0" t="n">
+        <v>1.05244658214798</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E81" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>0.368326797411477</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <v>1.95618561447644</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E82" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>0.364586589687401</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <v>0.903901963546628</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E83" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>0.3649578605623</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <v>0.977478487765203</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E84" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>0.365346907375085</v>
+      </c>
+      <c r="G84" s="0" t="n">
+        <v>0.986033097251517</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E85" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>0.369140175646403</v>
+      </c>
+      <c r="G85" s="0" t="n">
+        <v>1.20876846626157</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E86" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>0.365367689668057</v>
+      </c>
+      <c r="G86" s="0" t="n">
+        <v>0.952624295187778</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E87" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>0.365130324306612</v>
+      </c>
+      <c r="G87" s="0" t="n">
+        <v>0.920893127410138</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E88" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>0.367459095753862</v>
+      </c>
+      <c r="G88" s="0" t="n">
+        <v>1.53225412420888</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E89" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>0.371778298375034</v>
+      </c>
+      <c r="G89" s="0" t="n">
+        <v>2.91289109871036</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E90" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>0.365674804491924</v>
+      </c>
+      <c r="G90" s="0" t="n">
+        <v>1.16438270839837</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E91" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>0.365918757234112</v>
+      </c>
+      <c r="G91" s="0" t="n">
+        <v>1.09621899844519</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E92" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>0.364690260264242</v>
+      </c>
+      <c r="G92" s="0" t="n">
+        <v>0.894467317341455</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E93" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>0.370050557590481</v>
+      </c>
+      <c r="G93" s="0" t="n">
+        <v>1.83941439435782</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>0.369239667520623</v>
+      </c>
+      <c r="G94" s="0" t="n">
+        <v>2.04809337417936</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E95" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>0.365970248861702</v>
+      </c>
+      <c r="G95" s="0" t="n">
+        <v>1.0315459845496</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E96" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>0.366673287860978</v>
+      </c>
+      <c r="G96" s="0" t="n">
+        <v>1.31124671560819</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E97" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>0.371793362776026</v>
+      </c>
+      <c r="G97" s="0" t="n">
+        <v>2.03584361675659</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D98" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E98" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E99" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E100" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E101" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E102" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E103" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E104" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E105" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E106" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E107" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E108" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E109" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E110" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E111" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E112" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E113" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E114" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E115" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D116" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E116" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E117" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E118" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D119" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E119" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E120" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E121" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D122" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E122" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D123" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E123" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D124" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E124" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D125" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E125" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D126" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E126" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D127" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E127" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D128" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E128" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D129" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E129" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6388,8 +9189,8 @@
   </sheetPr>
   <dimension ref="A1:J301"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A253" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D288" activeCellId="0" sqref="D288"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A247" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F283" activeCellId="0" sqref="F283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6408,34 +9209,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16154,6 +18955,27 @@
       <c r="C297" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="D297" s="0" t="n">
+        <v>6.21832099530042E-006</v>
+      </c>
+      <c r="E297" s="0" t="n">
+        <v>0.0669285663428842</v>
+      </c>
+      <c r="F297" s="0" t="n">
+        <v>17855</v>
+      </c>
+      <c r="G297" s="0" t="n">
+        <v>18.674</v>
+      </c>
+      <c r="H297" s="0" t="n">
+        <v>0.37954</v>
+      </c>
+      <c r="I297" s="0" t="n">
+        <v>10.755</v>
+      </c>
+      <c r="J297" s="0" t="n">
+        <v>0.3486</v>
+      </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="n">
@@ -16166,6 +18988,27 @@
       <c r="C298" s="0" t="n">
         <v>50</v>
       </c>
+      <c r="D298" s="0" t="n">
+        <v>6.9452462622971E-006</v>
+      </c>
+      <c r="E298" s="0" t="n">
+        <v>0.00308443764570582</v>
+      </c>
+      <c r="F298" s="0" t="n">
+        <v>10377</v>
+      </c>
+      <c r="G298" s="0" t="n">
+        <v>87.113</v>
+      </c>
+      <c r="H298" s="0" t="n">
+        <v>0.82369</v>
+      </c>
+      <c r="I298" s="0" t="n">
+        <v>52.973</v>
+      </c>
+      <c r="J298" s="0" t="n">
+        <v>0.76905</v>
+      </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="n">
@@ -16178,6 +19021,27 @@
       <c r="C299" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="D299" s="0" t="n">
+        <v>2.89970579035082E-006</v>
+      </c>
+      <c r="E299" s="0" t="n">
+        <v>0.00596302372392965</v>
+      </c>
+      <c r="F299" s="0" t="n">
+        <v>5168.9</v>
+      </c>
+      <c r="G299" s="0" t="n">
+        <v>18.568</v>
+      </c>
+      <c r="H299" s="0" t="n">
+        <v>0.41512</v>
+      </c>
+      <c r="I299" s="0" t="n">
+        <v>11.849</v>
+      </c>
+      <c r="J299" s="0" t="n">
+        <v>0.35141</v>
+      </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="n">
@@ -16190,6 +19054,27 @@
       <c r="C300" s="0" t="n">
         <v>250</v>
       </c>
+      <c r="D300" s="0" t="n">
+        <v>4.46533039599379E-006</v>
+      </c>
+      <c r="E300" s="0" t="n">
+        <v>0.000233919348379426</v>
+      </c>
+      <c r="F300" s="0" t="n">
+        <v>1397.9</v>
+      </c>
+      <c r="G300" s="0" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="H300" s="0" t="n">
+        <v>0.36482</v>
+      </c>
+      <c r="I300" s="0" t="n">
+        <v>10.626</v>
+      </c>
+      <c r="J300" s="0" t="n">
+        <v>0.38168</v>
+      </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="n">
@@ -16201,6 +19086,27 @@
       </c>
       <c r="C301" s="0" t="n">
         <v>500</v>
+      </c>
+      <c r="D301" s="0" t="n">
+        <v>1.3992336681927E-005</v>
+      </c>
+      <c r="E301" s="0" t="n">
+        <v>0.000160246893709919</v>
+      </c>
+      <c r="F301" s="0" t="n">
+        <v>1126.7</v>
+      </c>
+      <c r="G301" s="0" t="n">
+        <v>9.8934</v>
+      </c>
+      <c r="H301" s="0" t="n">
+        <v>0.36812</v>
+      </c>
+      <c r="I301" s="0" t="n">
+        <v>9.6901</v>
+      </c>
+      <c r="J301" s="0" t="n">
+        <v>0.38371</v>
       </c>
     </row>
   </sheetData>
@@ -16219,10 +19125,1093 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:J33"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>6.64612168648089E-005</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.009678409346303</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>566.69</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>2.9008</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0.15843</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0.67784</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0.17999</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>4.73674534151945E-005</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.00822470139284603</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>551.71</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>2.7047</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.16414</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.66248</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0.17837</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>5.75752848557006E-005</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.0249410021215514</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>636.68</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>2.8511</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.19453</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.80476</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0.18832</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>4.40408409857479E-005</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.00489036127151362</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>581.08</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>3.4974</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.21157</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.83296</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.21258</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>6.84661598439665E-005</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.053150348389735</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>786.48</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>3.3988</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.21336</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.84645</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.23063</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>5.15375083860696E-005</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.00703313141002681</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>784.39</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>3.7469</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.2226</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0.93955</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0.22862</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.00012295517734689</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.0518588076198036</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1173.3</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>4.0198</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.32444</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>1.375</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0.34563</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>6.76767662476612E-005</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.0148729210424293</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1147.2</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>4.5023</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.34544</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>1.373</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0.33792</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>6.26896961600678E-005</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0.0102224757497916</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>280.26</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1.7357</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.078213</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.32187</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0.079784</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>5.33948827407051E-005</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0.010862608954229</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>268.6</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1.9472</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.069189</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0.3299</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0.08022</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>8.02310439112135E-005</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.0301534795451685</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>333.93</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>2.0917</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.097264</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0.41613</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0.10027</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>6.39065007108255E-005</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.00943697789083413</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>316.66</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>2.2974</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.1113</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0.44186</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0.10729</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>9.93361554346895E-005</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.0333262795063316</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>442.26</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>2.1168</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.11393</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0.47972</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0.11732</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>6.72344230890455E-005</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0.012704645398536</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>424.84</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>2.3476</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.11632</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0.49935</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0.13086</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>7.09613524843771E-005</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.0365008566019639</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>703.39</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>3.2337</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0.19553</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0.76296</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>0.18951</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>6.41251871577221E-005</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.0151250461696601</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>687.31</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>2.7707</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.19453</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0.79515</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0.18851</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>6.238175205032E-005</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0.0158724693978419</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>175.69</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>1.3162</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.061166</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0.24566</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0.063174</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>5.53587496656705E-005</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0.0137603364070582</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>162.52</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.057157</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0.24266</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0.065179</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>7.58339227730327E-005</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0.0360074800220344</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>213</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1.4851</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.07314</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0.33992</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>0.076871</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>5.69624212299988E-005</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0.0111789731950056</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>202.31</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>1.3179</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0.086235</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0.35396</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>0.10328</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0.000108275868385453</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0.0455652615737394</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>306.85</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>1.4807</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0.086767</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0.39029</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>0.096262</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>7.37607778445735E-005</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0.0159506194741348</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>319.31</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>1.7394</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0.10027</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0.36962</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>0.1018</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0.000151037775093906</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0.0449611975032775</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>525.66</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>2.0688</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0.15342</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0.64569</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>0.16244</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>5.09273911485498E-005</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0.0123342484988964</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>515.55</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>1.8625</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>0.16394</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>0.67054</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>0.15534</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0.000237530910736508</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0.126111937220631</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>127.2</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>0.4888</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>0.050133</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>0.21958</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>0.044619</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>7.18208159596602E-005</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0.00917048528994042</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>122.55</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>0.47877</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>0.044117</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>0.19652</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>0.04913</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0.000224303461491829</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0.093667643610897</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>161.07</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>0.64121</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0.054144</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0.24064</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>0.063168</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>6.13482213658913E-005</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0.00956249536305177</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>158.48</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>0.73496</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0.069184</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0.28877</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>0.073696</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0.000172180775152999</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0.0843109158870301</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>242.71</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>0.77511</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>0.068184</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>0.30721</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>0.068341</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>5.47601606992544E-005</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0.00723804964332796</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>232.9</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>0.7779</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>0.068182</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>0.28394</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>0.06919</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0.000410479683658063</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0.113248941318585</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>445.6</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>1.233</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>0.13386</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>0.56203</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>0.14038</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>5.6266521609303E-005</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0.00741361620851228</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>448.81</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>1.8027</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>0.13036</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>0.56419</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>0.13838</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A3:M28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="J32" activeCellId="0" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16231,398 +20220,398 @@
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="7"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9" t="n">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="9" t="n">
+      <c r="E6" s="13"/>
+      <c r="F6" s="12" t="n">
         <v>100</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="9" t="n">
+      <c r="G6" s="13"/>
+      <c r="H6" s="12" t="n">
         <v>250</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="9" t="n">
+      <c r="I6" s="13"/>
+      <c r="J6" s="12" t="n">
         <v>500</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>23</v>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="15"/>
+      <c r="A7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="B8" s="17" t="n">
+      <c r="A8" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" s="20" t="n">
         <v>3.58752902898499E-005</v>
       </c>
-      <c r="C8" s="18" t="n">
+      <c r="C8" s="21" t="n">
         <v>0.0130635215976293</v>
       </c>
-      <c r="D8" s="19" t="n">
+      <c r="D8" s="22" t="n">
         <v>1.82873157512579E-005</v>
       </c>
-      <c r="E8" s="19" t="n">
+      <c r="E8" s="22" t="n">
         <v>0.0276028922670915</v>
       </c>
-      <c r="F8" s="17" t="n">
+      <c r="F8" s="20" t="n">
         <v>5.92699062422513E-005</v>
       </c>
-      <c r="G8" s="18" t="n">
+      <c r="G8" s="21" t="n">
         <v>0.0105684386648203</v>
       </c>
-      <c r="H8" s="19" t="n">
+      <c r="H8" s="22" t="n">
         <v>7.21152814966765E-005</v>
       </c>
-      <c r="I8" s="19" t="n">
+      <c r="I8" s="22" t="n">
         <v>0.0390139155874581</v>
       </c>
-      <c r="J8" s="17" t="n">
+      <c r="J8" s="20" t="n">
         <v>0.000394138629702215</v>
       </c>
-      <c r="K8" s="18" t="n">
+      <c r="K8" s="21" t="n">
         <v>0.117094792603027</v>
       </c>
-      <c r="L8" s="20" t="n">
+      <c r="L8" s="23" t="n">
         <v>0.00011593728469645</v>
       </c>
-      <c r="M8" s="21" t="n">
+      <c r="M8" s="24" t="n">
         <v>0.0414687121440053</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22" t="n">
+      <c r="A9" s="25" t="n">
         <v>100</v>
       </c>
-      <c r="B9" s="23" t="n">
+      <c r="B9" s="26" t="n">
         <v>3.2691016816007E-006</v>
       </c>
-      <c r="C9" s="24" t="n">
+      <c r="C9" s="27" t="n">
         <v>0.000754228176129612</v>
       </c>
-      <c r="D9" s="19" t="n">
+      <c r="D9" s="22" t="n">
         <v>1.56051205621275E-005</v>
       </c>
-      <c r="E9" s="19" t="n">
+      <c r="E9" s="22" t="n">
         <v>0.000499874631743065</v>
       </c>
-      <c r="F9" s="23" t="n">
+      <c r="F9" s="26" t="n">
         <v>1.94098841162277E-005</v>
       </c>
-      <c r="G9" s="24" t="n">
+      <c r="G9" s="27" t="n">
         <v>0.00365694916376563</v>
       </c>
-      <c r="H9" s="19" t="n">
+      <c r="H9" s="22" t="n">
         <v>9.23603159455202E-005</v>
       </c>
-      <c r="I9" s="19" t="n">
+      <c r="I9" s="22" t="n">
         <v>0.0440800797792334</v>
       </c>
-      <c r="J9" s="23" t="n">
+      <c r="J9" s="26" t="n">
         <v>2.03450445336657E-005</v>
       </c>
-      <c r="K9" s="24" t="n">
+      <c r="K9" s="27" t="n">
         <v>0.0184236769399682</v>
       </c>
-      <c r="L9" s="20" t="n">
+      <c r="L9" s="23" t="n">
         <v>3.01978933678283E-005</v>
       </c>
-      <c r="M9" s="25" t="n">
+      <c r="M9" s="28" t="n">
         <v>0.013482961738168</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22" t="n">
+      <c r="A10" s="25" t="n">
         <v>250</v>
       </c>
-      <c r="B10" s="23" t="n">
+      <c r="B10" s="26" t="n">
         <v>7.39015246330519E-006</v>
       </c>
-      <c r="C10" s="24" t="n">
+      <c r="C10" s="27" t="n">
         <v>0.000103601910841125</v>
       </c>
-      <c r="D10" s="19" t="n">
+      <c r="D10" s="22" t="n">
         <v>1.01029439510744E-005</v>
       </c>
-      <c r="E10" s="19" t="n">
+      <c r="E10" s="22" t="n">
         <v>0.00183707789433091</v>
       </c>
-      <c r="F10" s="23" t="n">
+      <c r="F10" s="26" t="n">
         <v>7.80557799891109E-006</v>
       </c>
-      <c r="G10" s="24" t="n">
+      <c r="G10" s="27" t="n">
         <v>0.000861489597280515</v>
       </c>
-      <c r="H10" s="19" t="n">
+      <c r="H10" s="22" t="n">
         <v>1.39827427512731E-005</v>
       </c>
-      <c r="I10" s="19" t="n">
+      <c r="I10" s="22" t="n">
         <v>0.00236455697234272</v>
       </c>
-      <c r="J10" s="23" t="n">
+      <c r="J10" s="26" t="n">
         <v>2.44172526510698E-005</v>
       </c>
-      <c r="K10" s="24" t="n">
+      <c r="K10" s="27" t="n">
         <v>0.00205907897283656</v>
       </c>
-      <c r="L10" s="20" t="n">
+      <c r="L10" s="23" t="n">
         <v>1.27397339631267E-005</v>
       </c>
-      <c r="M10" s="25" t="n">
+      <c r="M10" s="28" t="n">
         <v>0.00144516106952637</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="n">
+      <c r="A11" s="25" t="n">
         <v>500</v>
       </c>
-      <c r="B11" s="23" t="n">
+      <c r="B11" s="26" t="n">
         <v>3.20869307476719E-006</v>
       </c>
-      <c r="C11" s="24" t="n">
+      <c r="C11" s="27" t="n">
         <v>0.0421378974908736</v>
       </c>
-      <c r="D11" s="19" t="n">
+      <c r="D11" s="22" t="n">
         <v>4.17980819639853E-006</v>
       </c>
-      <c r="E11" s="19" t="n">
+      <c r="E11" s="22" t="n">
         <v>0.00042105101093757</v>
       </c>
-      <c r="F11" s="23" t="n">
+      <c r="F11" s="26" t="n">
         <v>5.89494798615797E-006</v>
       </c>
-      <c r="G11" s="24" t="n">
+      <c r="G11" s="27" t="n">
         <v>0.022097846016492</v>
       </c>
-      <c r="H11" s="19" t="n">
+      <c r="H11" s="22" t="n">
         <v>7.68050863963276E-006</v>
       </c>
-      <c r="I11" s="19" t="n">
+      <c r="I11" s="22" t="n">
         <v>0.000183722039095801</v>
       </c>
-      <c r="J11" s="23" t="n">
+      <c r="J11" s="26" t="n">
         <v>2.29452342860326E-005</v>
       </c>
-      <c r="K11" s="24" t="n">
+      <c r="K11" s="27" t="n">
         <v>0.00661509530930614</v>
       </c>
-      <c r="L11" s="20" t="n">
+      <c r="L11" s="23" t="n">
         <v>8.7818384365978E-006</v>
       </c>
-      <c r="M11" s="25" t="n">
+      <c r="M11" s="28" t="n">
         <v>0.014291122373341</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="n">
+      <c r="A12" s="25" t="n">
         <v>1000</v>
       </c>
-      <c r="B12" s="23" t="n">
+      <c r="B12" s="26" t="n">
         <v>6.30397683693763E-006</v>
       </c>
-      <c r="C12" s="24" t="n">
+      <c r="C12" s="27" t="n">
         <v>0.0657966584278266</v>
       </c>
-      <c r="D12" s="19" t="n">
+      <c r="D12" s="22" t="n">
         <v>4.58853535401996E-006</v>
       </c>
-      <c r="E12" s="19" t="n">
+      <c r="E12" s="22" t="n">
         <v>0.000200816689121658</v>
       </c>
-      <c r="F12" s="23" t="n">
+      <c r="F12" s="26" t="n">
         <v>5.78562852636514E-006</v>
       </c>
-      <c r="G12" s="24" t="n">
+      <c r="G12" s="27" t="n">
         <v>0.000352585453400881</v>
       </c>
-      <c r="H12" s="19" t="n">
+      <c r="H12" s="22" t="n">
         <v>4.40366732763583E-006</v>
       </c>
-      <c r="I12" s="19" t="n">
+      <c r="I12" s="22" t="n">
         <v>0.000282026900133431</v>
       </c>
-      <c r="J12" s="23" t="n">
+      <c r="J12" s="26" t="n">
         <v>5.46095124019301E-006</v>
       </c>
-      <c r="K12" s="24" t="n">
+      <c r="K12" s="27" t="n">
         <v>0.00021223334112653</v>
       </c>
-      <c r="L12" s="20" t="n">
+      <c r="L12" s="23" t="n">
         <v>5.30855185703032E-006</v>
       </c>
-      <c r="M12" s="25" t="n">
+      <c r="M12" s="28" t="n">
         <v>0.0133688641623218</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22" t="n">
+      <c r="A13" s="25" t="n">
         <v>2000</v>
       </c>
-      <c r="B13" s="26" t="n">
+      <c r="B13" s="29" t="n">
         <v>2.64641686266456E-006</v>
       </c>
-      <c r="C13" s="27" t="n">
+      <c r="C13" s="30" t="n">
         <v>0.108570956390905</v>
       </c>
-      <c r="D13" s="19" t="n">
+      <c r="D13" s="22" t="n">
         <v>2.86719382177899E-006</v>
       </c>
-      <c r="E13" s="19" t="n">
+      <c r="E13" s="22" t="n">
         <v>0.0177121966384384</v>
       </c>
-      <c r="F13" s="26" t="n">
+      <c r="F13" s="29" t="n">
         <v>5.22073468624526E-006</v>
       </c>
-      <c r="G13" s="27" t="n">
+      <c r="G13" s="30" t="n">
         <v>0.00392824935572987</v>
       </c>
-      <c r="H13" s="19" t="n">
+      <c r="H13" s="22" t="n">
         <v>1.11550614642507E-005</v>
       </c>
-      <c r="I13" s="19" t="n">
+      <c r="I13" s="22" t="n">
         <v>0.000420187558341592</v>
       </c>
-      <c r="J13" s="26" t="n">
+      <c r="J13" s="29" t="n">
         <v>8.34970908246678E-006</v>
       </c>
-      <c r="K13" s="27" t="n">
+      <c r="K13" s="30" t="n">
         <v>0.000814897227250397</v>
       </c>
-      <c r="L13" s="20" t="n">
+      <c r="L13" s="23" t="n">
         <v>6.04782318348127E-006</v>
       </c>
-      <c r="M13" s="28" t="n">
+      <c r="M13" s="31" t="n">
         <v>0.026289297434133</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="30" t="n">
+      <c r="A14" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="33" t="n">
         <v>9.78227186818753E-006</v>
       </c>
-      <c r="C14" s="31" t="n">
+      <c r="C14" s="34" t="n">
         <v>0.0384044773323675</v>
       </c>
-      <c r="D14" s="30" t="n">
+      <c r="D14" s="33" t="n">
         <v>9.27181960610954E-006</v>
       </c>
-      <c r="E14" s="31" t="n">
+      <c r="E14" s="34" t="n">
         <v>0.00804565152194385</v>
       </c>
-      <c r="F14" s="30" t="n">
+      <c r="F14" s="33" t="n">
         <v>1.72311132593597E-005</v>
       </c>
-      <c r="G14" s="31" t="n">
+      <c r="G14" s="34" t="n">
         <v>0.0069109263752482</v>
       </c>
-      <c r="H14" s="30" t="n">
+      <c r="H14" s="33" t="n">
         <v>3.36162629374982E-005</v>
       </c>
-      <c r="I14" s="31" t="n">
+      <c r="I14" s="34" t="n">
         <v>0.0143907481394342</v>
       </c>
-      <c r="J14" s="30" t="n">
+      <c r="J14" s="33" t="n">
         <v>7.92761369159405E-005</v>
       </c>
-      <c r="K14" s="31" t="n">
+      <c r="K14" s="34" t="n">
         <v>0.0242032957322525</v>
       </c>
-      <c r="L14" s="32" t="n">
+      <c r="L14" s="35" t="n">
         <v>2.98355209174191E-005</v>
       </c>
-      <c r="M14" s="33" t="n">
+      <c r="M14" s="36" t="n">
         <v>0.0183910198202492</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B20" s="34" t="n">
+      <c r="B20" s="37" t="n">
         <v>2.64602741007915E-006</v>
       </c>
-      <c r="C20" s="23" t="n">
+      <c r="C20" s="26" t="n">
         <v>8.45248971571096E-005</v>
       </c>
     </row>
@@ -16630,10 +20619,10 @@
       <c r="A21" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B21" s="19" t="n">
+      <c r="B21" s="22" t="n">
         <v>2.58307568920722E-006</v>
       </c>
-      <c r="C21" s="27" t="n">
+      <c r="C21" s="30" t="n">
         <v>7.58083330056681E-005</v>
       </c>
     </row>
@@ -16641,10 +20630,10 @@
       <c r="A22" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B22" s="34" t="n">
+      <c r="B22" s="37" t="n">
         <v>2.56160228536089E-006</v>
       </c>
-      <c r="C22" s="34" t="n">
+      <c r="C22" s="37" t="n">
         <v>7.68545666619592E-005</v>
       </c>
     </row>
@@ -16652,50 +20641,50 @@
       <c r="A23" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B23" s="26" t="n">
+      <c r="B23" s="29" t="n">
         <v>2.58417734445314E-006</v>
       </c>
-      <c r="C23" s="19" t="n">
+      <c r="C23" s="22" t="n">
         <v>0.000121594815380886</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="23" t="n">
+      <c r="B24" s="26" t="n">
         <v>3.03647753812124E-006</v>
       </c>
-      <c r="C24" s="19" t="n">
+      <c r="C24" s="22" t="n">
         <v>8.44823534778547E-005</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="23" t="n">
+      <c r="B25" s="26" t="n">
         <v>2.61434031870591E-006</v>
       </c>
-      <c r="C25" s="19" t="n">
+      <c r="C25" s="22" t="n">
         <v>8.1532351679863E-005</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="23" t="n">
+      <c r="B26" s="26" t="n">
         <v>2.76965992404646E-006</v>
       </c>
-      <c r="C26" s="34" t="n">
+      <c r="C26" s="37" t="n">
         <v>8.8773597318109E-005</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="23" t="n">
+      <c r="B27" s="26" t="n">
         <v>2.78905245566453E-006</v>
       </c>
-      <c r="C27" s="23" t="n">
+      <c r="C27" s="26" t="n">
         <v>0.000106031093266614</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="26" t="n">
+      <c r="B28" s="29" t="n">
         <v>2.64641686266456E-006</v>
       </c>
-      <c r="C28" s="19" t="n">
+      <c r="C28" s="22" t="n">
         <v>0.000200816689121658</v>
       </c>
     </row>

--- a/Model Results.xlsx
+++ b/Model Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Findings" sheetId="1" state="visible" r:id="rId2"/>
@@ -9259,7 +9259,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9375,7 +9375,7 @@
   </sheetPr>
   <dimension ref="A1:G257"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A199" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A199" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J213" activeCellId="0" sqref="J213"/>
     </sheetView>
   </sheetViews>
@@ -15769,7 +15769,7 @@
   <dimension ref="A1:J301"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A247" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F283" activeCellId="0" sqref="F283"/>
+      <selection pane="topLeft" activeCell="F302" activeCellId="0" sqref="F302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26789,8 +26789,8 @@
   </sheetPr>
   <dimension ref="A3:M28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J32" activeCellId="0" sqref="J32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Model Results.xlsx
+++ b/Model Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Findings" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,11 +14,12 @@
     <sheet name="1 LSTM Data" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="2 LSTM Data" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Pivot Table (1 LSTM)" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Model Summary" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId9"/>
-    <pivotCache cacheId="2" r:id="rId10"/>
+    <pivotCache cacheId="1" r:id="rId10"/>
+    <pivotCache cacheId="2" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="70">
   <si>
     <t xml:space="preserve">for finding prices 5 days (1 week) out:</t>
   </si>
@@ -191,6 +192,54 @@
   </si>
   <si>
     <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no PCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyperparameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adj Close 1day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adj Close 5day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adj Close 1day pct_change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adj Close 5day pct_change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XGBoost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adj Close 1day pct_change cls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adj Close 5day pct_change cls</t>
   </si>
 </sst>
 </file>
@@ -533,7 +582,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -788,6 +837,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="34" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -26789,8 +26846,8 @@
   </sheetPr>
   <dimension ref="A3:M28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27276,4 +27333,145 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.62"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="65" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Model Results.xlsx
+++ b/Model Results.xlsx
@@ -14,12 +14,14 @@
     <sheet name="1 LSTM Data" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="2 LSTM Data" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Pivot Table (1 LSTM)" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="LSTM Model Summary" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Classification Model Summary" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Regression Model Summary" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="LSTM Model Summary" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId10"/>
-    <pivotCache cacheId="2" r:id="rId11"/>
+    <pivotCache cacheId="1" r:id="rId12"/>
+    <pivotCache cacheId="2" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="93">
   <si>
     <t xml:space="preserve">for finding prices 5 days (1 week) out:</t>
   </si>
@@ -188,16 +190,46 @@
     <t xml:space="preserve">test error eval time</t>
   </si>
   <si>
-    <t xml:space="preserve">Construct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target</t>
+    <t xml:space="preserve">no PCA</t>
   </si>
   <si>
     <t xml:space="preserve">PCA</t>
   </si>
   <si>
-    <t xml:space="preserve">no PCA</t>
+    <t xml:space="preserve">No PCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actual values, train</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actual values, test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adj Close 1day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adj Close 5day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adj Close 1day pct_change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adj Close 5day pct_change cls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As % of target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_iter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target</t>
   </si>
   <si>
     <t xml:space="preserve">Hyperparameter</t>
@@ -210,9 +242,6 @@
   </si>
   <si>
     <t xml:space="preserve">10-1, no dropout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adj Close 1day</t>
   </si>
   <si>
     <t xml:space="preserve">adam</t>
@@ -251,16 +280,28 @@
     <t xml:space="preserve">1.8019 (79.18%)</t>
   </si>
   <si>
-    <t xml:space="preserve">Adj Close 5day</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.0547 (2.40%)</t>
   </si>
   <si>
     <t xml:space="preserve">0.3450 (7.19%)</t>
   </si>
   <si>
-    <t xml:space="preserve">Adj Close 1day pct_change</t>
+    <t xml:space="preserve">1.1332 (49.72%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3428 (7.15%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0298 (2137.13%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0475 (5748.59%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0296 (2125.28%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0151 (1829.25%)</t>
   </si>
   <si>
     <t xml:space="preserve">Adj Close 5day pct_change</t>
@@ -271,18 +312,17 @@
   <si>
     <t xml:space="preserve">Adj Close 1day pct_change cls</t>
   </si>
-  <si>
-    <t xml:space="preserve">Adj Close 5day pct_change cls</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="0.00E+00"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.00%"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -334,7 +374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="38">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -580,6 +620,27 @@
       <bottom style="medium"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -624,7 +685,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="86">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -909,8 +970,52 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="17" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="35" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="36" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="37" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -28404,10 +28509,2618 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:A58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+      <selection pane="topLeft" activeCell="K47" activeCellId="0" sqref="K47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I98"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C69" activeCellId="0" sqref="C69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="71" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="32" t="n">
+        <v>1E-010</v>
+      </c>
+      <c r="B4" s="72" t="n">
+        <v>-0.00111293540284043</v>
+      </c>
+      <c r="C4" s="73" t="n">
+        <v>-0.00282414495713061</v>
+      </c>
+      <c r="D4" s="73" t="n">
+        <v>-0.000697946339227086</v>
+      </c>
+      <c r="E4" s="73" t="n">
+        <v>-0.00304118617429148</v>
+      </c>
+      <c r="F4" s="74" t="n">
+        <v>-0.00135596626242466</v>
+      </c>
+      <c r="G4" s="75" t="n">
+        <v>-0.00291327737615589</v>
+      </c>
+      <c r="H4" s="75" t="n">
+        <v>-0.000742094377226566</v>
+      </c>
+      <c r="I4" s="75" t="n">
+        <v>-0.00266934612194859</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="32" t="n">
+        <v>1E-009</v>
+      </c>
+      <c r="B5" s="76" t="n">
+        <v>-0.00111293371315058</v>
+      </c>
+      <c r="C5" s="76" t="n">
+        <v>-0.00282414319570515</v>
+      </c>
+      <c r="D5" s="76" t="n">
+        <v>-0.000697946354035176</v>
+      </c>
+      <c r="E5" s="76" t="n">
+        <v>-0.00304118618738589</v>
+      </c>
+      <c r="F5" s="77" t="n">
+        <v>-0.0013559640302148</v>
+      </c>
+      <c r="G5" s="77" t="n">
+        <v>-0.00291327494139364</v>
+      </c>
+      <c r="H5" s="77" t="n">
+        <v>-0.000742094205402627</v>
+      </c>
+      <c r="I5" s="77" t="n">
+        <v>-0.00266934514913159</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="32" t="n">
+        <v>1E-008</v>
+      </c>
+      <c r="B6" s="76" t="n">
+        <v>-0.00111291681821082</v>
+      </c>
+      <c r="C6" s="76" t="n">
+        <v>-0.00282412559097047</v>
+      </c>
+      <c r="D6" s="76" t="n">
+        <v>-0.000697946509613028</v>
+      </c>
+      <c r="E6" s="76" t="n">
+        <v>-0.00304118632476938</v>
+      </c>
+      <c r="F6" s="77" t="n">
+        <v>-0.00135594171035305</v>
+      </c>
+      <c r="G6" s="77" t="n">
+        <v>-0.00291325060517979</v>
+      </c>
+      <c r="H6" s="77" t="n">
+        <v>-0.000742092494733002</v>
+      </c>
+      <c r="I6" s="77" t="n">
+        <v>-0.00266933542928393</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="32" t="n">
+        <v>1E-007</v>
+      </c>
+      <c r="B7" s="76" t="n">
+        <v>-0.00111274884219232</v>
+      </c>
+      <c r="C7" s="76" t="n">
+        <v>-0.0028239506054595</v>
+      </c>
+      <c r="D7" s="76" t="n">
+        <v>-0.000697948815583526</v>
+      </c>
+      <c r="E7" s="76" t="n">
+        <v>-0.00304118834270706</v>
+      </c>
+      <c r="F7" s="77" t="n">
+        <v>-0.00135571798010367</v>
+      </c>
+      <c r="G7" s="77" t="n">
+        <v>-0.00291299676426354</v>
+      </c>
+      <c r="H7" s="77" t="n">
+        <v>-0.000742076142398709</v>
+      </c>
+      <c r="I7" s="77" t="n">
+        <v>-0.00266923909233181</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="32" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="B8" s="76" t="n">
+        <v>-0.00111108689110401</v>
+      </c>
+      <c r="C8" s="76" t="n">
+        <v>-0.00282225287629909</v>
+      </c>
+      <c r="D8" s="76" t="n">
+        <v>-0.000698037407777804</v>
+      </c>
+      <c r="E8" s="76" t="n">
+        <v>-0.00304125295274483</v>
+      </c>
+      <c r="F8" s="77" t="n">
+        <v>-0.00135357087357215</v>
+      </c>
+      <c r="G8" s="77" t="n">
+        <v>-0.00291096081902446</v>
+      </c>
+      <c r="H8" s="77" t="n">
+        <v>-0.000742027158295506</v>
+      </c>
+      <c r="I8" s="77" t="n">
+        <v>-0.0026684512193998</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="32" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="B9" s="76" t="n">
+        <v>-0.00109545216856461</v>
+      </c>
+      <c r="C9" s="76" t="n">
+        <v>-0.00280667914358119</v>
+      </c>
+      <c r="D9" s="76" t="n">
+        <v>-0.000699040313410207</v>
+      </c>
+      <c r="E9" s="76" t="n">
+        <v>-0.00304296287503557</v>
+      </c>
+      <c r="F9" s="77" t="n">
+        <v>-0.00133376043969365</v>
+      </c>
+      <c r="G9" s="77" t="n">
+        <v>-0.0028930388719619</v>
+      </c>
+      <c r="H9" s="77" t="n">
+        <v>-0.000742015114884388</v>
+      </c>
+      <c r="I9" s="77" t="n">
+        <v>-0.00266689726104487</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="32" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="B10" s="76" t="n">
+        <v>-0.000951001585219408</v>
+      </c>
+      <c r="C10" s="76" t="n">
+        <v>-0.00266549852838807</v>
+      </c>
+      <c r="D10" s="76" t="n">
+        <v>-0.000700097847035075</v>
+      </c>
+      <c r="E10" s="76" t="n">
+        <v>-0.00305321724402439</v>
+      </c>
+      <c r="F10" s="77" t="n">
+        <v>-0.00114910275528798</v>
+      </c>
+      <c r="G10" s="77" t="n">
+        <v>-0.00274525988528818</v>
+      </c>
+      <c r="H10" s="77" t="n">
+        <v>-0.000741866903437737</v>
+      </c>
+      <c r="I10" s="77" t="n">
+        <v>-0.00266680781006204</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="32" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="B11" s="76" t="n">
+        <v>-0.000420641696961403</v>
+      </c>
+      <c r="C11" s="76" t="n">
+        <v>-0.00214803263901152</v>
+      </c>
+      <c r="D11" s="76" t="n">
+        <v>-0.000702725810807464</v>
+      </c>
+      <c r="E11" s="76" t="n">
+        <v>-0.00306807339859227</v>
+      </c>
+      <c r="F11" s="77" t="n">
+        <v>-0.000531390052225809</v>
+      </c>
+      <c r="G11" s="77" t="n">
+        <v>-0.002253331687501</v>
+      </c>
+      <c r="H11" s="77" t="n">
+        <v>-0.000742084078181588</v>
+      </c>
+      <c r="I11" s="77" t="n">
+        <v>-0.00267147142199126</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="32" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="B12" s="76" t="n">
+        <v>-0.000449769312716028</v>
+      </c>
+      <c r="C12" s="76" t="n">
+        <v>-0.00218689107338826</v>
+      </c>
+      <c r="D12" s="76" t="n">
+        <v>-0.000702725810807464</v>
+      </c>
+      <c r="E12" s="76" t="n">
+        <v>-0.00306964567825532</v>
+      </c>
+      <c r="F12" s="77" t="n">
+        <v>-0.000564639024443468</v>
+      </c>
+      <c r="G12" s="77" t="n">
+        <v>-0.00229396302026837</v>
+      </c>
+      <c r="H12" s="77" t="n">
+        <v>-0.000742084078181588</v>
+      </c>
+      <c r="I12" s="77" t="n">
+        <v>-0.00267163595460066</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="78" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B13" s="73" t="n">
+        <v>-0.00468758048692385</v>
+      </c>
+      <c r="C13" s="72" t="n">
+        <v>-0.00650323234156696</v>
+      </c>
+      <c r="D13" s="72" t="n">
+        <v>-0.000702725810807464</v>
+      </c>
+      <c r="E13" s="72" t="n">
+        <v>-0.00306964567825532</v>
+      </c>
+      <c r="F13" s="75" t="n">
+        <v>-0.00486270378259332</v>
+      </c>
+      <c r="G13" s="74" t="n">
+        <v>-0.00658565108550885</v>
+      </c>
+      <c r="H13" s="74" t="n">
+        <v>-0.000742084078181588</v>
+      </c>
+      <c r="I13" s="74" t="n">
+        <v>-0.00267163595460066</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="71" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="32" t="n">
+        <v>1E-010</v>
+      </c>
+      <c r="B18" s="79" t="n">
+        <f aca="false">B4/2.78594350245436</f>
+        <v>-0.00039948240223104</v>
+      </c>
+      <c r="C18" s="79" t="n">
+        <f aca="false">C4/2.78913990345228</f>
+        <v>-0.00101255048326368</v>
+      </c>
+      <c r="D18" s="79" t="n">
+        <f aca="false">D4/0.001137033158201</f>
+        <v>-0.613831121980091</v>
+      </c>
+      <c r="E18" s="79" t="n">
+        <f aca="false">E4/0.006986039944106</f>
+        <v>-0.435323330330694</v>
+      </c>
+      <c r="F18" s="79" t="n">
+        <f aca="false">F4/2.78594350245436</f>
+        <v>-0.000486717071336904</v>
+      </c>
+      <c r="G18" s="79" t="n">
+        <f aca="false">G4/2.78913990345228</f>
+        <v>-0.00104450743849384</v>
+      </c>
+      <c r="H18" s="79" t="n">
+        <f aca="false">H4/0.001137033158201</f>
+        <v>-0.65265851912419</v>
+      </c>
+      <c r="I18" s="79" t="n">
+        <f aca="false">I4/0.006986039944106</f>
+        <v>-0.382097174265467</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="32" t="n">
+        <v>1E-009</v>
+      </c>
+      <c r="B19" s="79" t="n">
+        <f aca="false">B5/2.78594350245436</f>
+        <v>-0.000399481795725616</v>
+      </c>
+      <c r="C19" s="79" t="n">
+        <f aca="false">C5/2.78913990345228</f>
+        <v>-0.0010125498517337</v>
+      </c>
+      <c r="D19" s="79" t="n">
+        <f aca="false">D5/0.001137033158201</f>
+        <v>-0.613831135003537</v>
+      </c>
+      <c r="E19" s="79" t="n">
+        <f aca="false">E5/0.006986039944106</f>
+        <v>-0.435323332205062</v>
+      </c>
+      <c r="F19" s="79" t="n">
+        <f aca="false">F5/2.78594350245436</f>
+        <v>-0.000486716270096728</v>
+      </c>
+      <c r="G19" s="79" t="n">
+        <f aca="false">G5/2.78913990345228</f>
+        <v>-0.00104450656555009</v>
+      </c>
+      <c r="H19" s="79" t="n">
+        <f aca="false">H5/0.001137033158201</f>
+        <v>-0.652658368008158</v>
+      </c>
+      <c r="I19" s="79" t="n">
+        <f aca="false">I5/0.006986039944106</f>
+        <v>-0.382097035013902</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="32" t="n">
+        <v>1E-008</v>
+      </c>
+      <c r="B20" s="79" t="n">
+        <f aca="false">B6/2.78594350245436</f>
+        <v>-0.000399475731374438</v>
+      </c>
+      <c r="C20" s="79" t="n">
+        <f aca="false">C6/2.78913990345228</f>
+        <v>-0.00101254353984714</v>
+      </c>
+      <c r="D20" s="79" t="n">
+        <f aca="false">D6/0.001137033158201</f>
+        <v>-0.613831271831431</v>
+      </c>
+      <c r="E20" s="79" t="n">
+        <f aca="false">E6/0.006986039944106</f>
+        <v>-0.435323351870493</v>
+      </c>
+      <c r="F20" s="79" t="n">
+        <f aca="false">F6/2.78594350245436</f>
+        <v>-0.00048670825849788</v>
+      </c>
+      <c r="G20" s="79" t="n">
+        <f aca="false">G6/2.78913990345228</f>
+        <v>-0.00104449784020296</v>
+      </c>
+      <c r="H20" s="79" t="n">
+        <f aca="false">H6/0.001137033158201</f>
+        <v>-0.65265686350531</v>
+      </c>
+      <c r="I20" s="79" t="n">
+        <f aca="false">I6/0.006986039944106</f>
+        <v>-0.382095643689526</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="32" t="n">
+        <v>1E-007</v>
+      </c>
+      <c r="B21" s="79" t="n">
+        <f aca="false">B7/2.78594350245436</f>
+        <v>-0.000399415437252053</v>
+      </c>
+      <c r="C21" s="79" t="n">
+        <f aca="false">C7/2.78913990345228</f>
+        <v>-0.00101248080168518</v>
+      </c>
+      <c r="D21" s="79" t="n">
+        <f aca="false">D7/0.001137033158201</f>
+        <v>-0.613833299890579</v>
+      </c>
+      <c r="E21" s="79" t="n">
+        <f aca="false">E7/0.006986039944106</f>
+        <v>-0.435323640723362</v>
+      </c>
+      <c r="F21" s="79" t="n">
+        <f aca="false">F7/2.78594350245436</f>
+        <v>-0.000486627951682908</v>
+      </c>
+      <c r="G21" s="79" t="n">
+        <f aca="false">G7/2.78913990345228</f>
+        <v>-0.00104440682973915</v>
+      </c>
+      <c r="H21" s="79" t="n">
+        <f aca="false">H7/0.001137033158201</f>
+        <v>-0.652642481924461</v>
+      </c>
+      <c r="I21" s="79" t="n">
+        <f aca="false">I7/0.006986039944106</f>
+        <v>-0.38208185376664</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="32" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="B22" s="79" t="n">
+        <f aca="false">B8/2.78594350245436</f>
+        <v>-0.000398818888511259</v>
+      </c>
+      <c r="C22" s="79" t="n">
+        <f aca="false">C8/2.78913990345228</f>
+        <v>-0.00101187210896299</v>
+      </c>
+      <c r="D22" s="79" t="n">
+        <f aca="false">D8/0.001137033158201</f>
+        <v>-0.613911215115512</v>
+      </c>
+      <c r="E22" s="79" t="n">
+        <f aca="false">E8/0.006986039944106</f>
+        <v>-0.435332889172882</v>
+      </c>
+      <c r="F22" s="79" t="n">
+        <f aca="false">F8/2.78594350245436</f>
+        <v>-0.000485857258906968</v>
+      </c>
+      <c r="G22" s="79" t="n">
+        <f aca="false">G8/2.78913990345228</f>
+        <v>-0.00104367687523362</v>
+      </c>
+      <c r="H22" s="79" t="n">
+        <f aca="false">H8/0.001137033158201</f>
+        <v>-0.652599401295854</v>
+      </c>
+      <c r="I22" s="79" t="n">
+        <f aca="false">I8/0.006986039944106</f>
+        <v>-0.381969075577806</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="32" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="B23" s="79" t="n">
+        <f aca="false">B9/2.78594350245436</f>
+        <v>-0.000393206885781976</v>
+      </c>
+      <c r="C23" s="79" t="n">
+        <f aca="false">C9/2.78913990345228</f>
+        <v>-0.0010062884045749</v>
+      </c>
+      <c r="D23" s="79" t="n">
+        <f aca="false">D9/0.001137033158201</f>
+        <v>-0.614793252393994</v>
+      </c>
+      <c r="E23" s="79" t="n">
+        <f aca="false">E9/0.006986039944106</f>
+        <v>-0.435577651914639</v>
+      </c>
+      <c r="F23" s="79" t="n">
+        <f aca="false">F9/2.78594350245436</f>
+        <v>-0.00047874640620624</v>
+      </c>
+      <c r="G23" s="79" t="n">
+        <f aca="false">G9/2.78913990345228</f>
+        <v>-0.00103725125741488</v>
+      </c>
+      <c r="H23" s="79" t="n">
+        <f aca="false">H9/0.001137033158201</f>
+        <v>-0.652588809334633</v>
+      </c>
+      <c r="I23" s="79" t="n">
+        <f aca="false">I9/0.006986039944106</f>
+        <v>-0.381746637921085</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="32" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="B24" s="79" t="n">
+        <f aca="false">B10/2.78594350245436</f>
+        <v>-0.000341357096574857</v>
+      </c>
+      <c r="C24" s="79" t="n">
+        <f aca="false">C10/2.78913990345228</f>
+        <v>-0.000955670429112871</v>
+      </c>
+      <c r="D24" s="79" t="n">
+        <f aca="false">D10/0.001137033158201</f>
+        <v>-0.615723333999126</v>
+      </c>
+      <c r="E24" s="79" t="n">
+        <f aca="false">E10/0.006986039944106</f>
+        <v>-0.437045489068572</v>
+      </c>
+      <c r="F24" s="79" t="n">
+        <f aca="false">F10/2.78594350245436</f>
+        <v>-0.000412464486187765</v>
+      </c>
+      <c r="G24" s="79" t="n">
+        <f aca="false">G10/2.78913990345228</f>
+        <v>-0.000984267544948252</v>
+      </c>
+      <c r="H24" s="79" t="n">
+        <f aca="false">H10/0.001137033158201</f>
+        <v>-0.652458460060663</v>
+      </c>
+      <c r="I24" s="79" t="n">
+        <f aca="false">I10/0.006986039944106</f>
+        <v>-0.381733833673822</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="32" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="B25" s="79" t="n">
+        <f aca="false">B11/2.78594350245436</f>
+        <v>-0.000150987159858348</v>
+      </c>
+      <c r="C25" s="79" t="n">
+        <f aca="false">C11/2.78913990345228</f>
+        <v>-0.000770141589653776</v>
+      </c>
+      <c r="D25" s="79" t="n">
+        <f aca="false">D11/0.001137033158201</f>
+        <v>-0.618034580380495</v>
+      </c>
+      <c r="E25" s="79" t="n">
+        <f aca="false">E11/0.006986039944106</f>
+        <v>-0.439172037826773</v>
+      </c>
+      <c r="F25" s="79" t="n">
+        <f aca="false">F11/2.78594350245436</f>
+        <v>-0.000190739708740563</v>
+      </c>
+      <c r="G25" s="79" t="n">
+        <f aca="false">G11/2.78913990345228</f>
+        <v>-0.000807894822598148</v>
+      </c>
+      <c r="H25" s="79" t="n">
+        <f aca="false">H11/0.001137033158201</f>
+        <v>-0.652649461301291</v>
+      </c>
+      <c r="I25" s="79" t="n">
+        <f aca="false">I11/0.006986039944106</f>
+        <v>-0.382401395263297</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="32" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="B26" s="79" t="n">
+        <f aca="false">B12/2.78594350245436</f>
+        <v>-0.000161442366767234</v>
+      </c>
+      <c r="C26" s="79" t="n">
+        <f aca="false">C12/2.78913990345228</f>
+        <v>-0.000784073638859569</v>
+      </c>
+      <c r="D26" s="79" t="n">
+        <f aca="false">D12/0.001137033158201</f>
+        <v>-0.618034580380495</v>
+      </c>
+      <c r="E26" s="79" t="n">
+        <f aca="false">E12/0.006986039944106</f>
+        <v>-0.439397098043381</v>
+      </c>
+      <c r="F26" s="79" t="n">
+        <f aca="false">F12/2.78594350245436</f>
+        <v>-0.000202674255219473</v>
+      </c>
+      <c r="G26" s="79" t="n">
+        <f aca="false">G12/2.78913990345228</f>
+        <v>-0.000822462515210871</v>
+      </c>
+      <c r="H26" s="79" t="n">
+        <f aca="false">H12/0.001137033158201</f>
+        <v>-0.652649461301291</v>
+      </c>
+      <c r="I26" s="79" t="n">
+        <f aca="false">I12/0.006986039944106</f>
+        <v>-0.382424946890644</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="78" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B27" s="79" t="n">
+        <f aca="false">B13/2.78594350245436</f>
+        <v>-0.00168258275259142</v>
+      </c>
+      <c r="C27" s="79" t="n">
+        <f aca="false">C13/2.78913990345228</f>
+        <v>-0.00233162643921789</v>
+      </c>
+      <c r="D27" s="79" t="n">
+        <f aca="false">D13/0.001137033158201</f>
+        <v>-0.618034580380495</v>
+      </c>
+      <c r="E27" s="79" t="n">
+        <f aca="false">E13/0.006986039944106</f>
+        <v>-0.439397098043381</v>
+      </c>
+      <c r="F27" s="79" t="n">
+        <f aca="false">F13/2.78594350245436</f>
+        <v>-0.00174544235312359</v>
+      </c>
+      <c r="G27" s="79" t="n">
+        <f aca="false">G13/2.78913990345228</f>
+        <v>-0.00236117631724296</v>
+      </c>
+      <c r="H27" s="79" t="n">
+        <f aca="false">H13/0.001137033158201</f>
+        <v>-0.652649461301291</v>
+      </c>
+      <c r="I27" s="79" t="n">
+        <f aca="false">I13/0.006986039944106</f>
+        <v>-0.382424946890644</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="78"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30" s="71" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="78" t="n">
+        <v>10</v>
+      </c>
+      <c r="B31" s="73" t="n">
+        <v>-0.00418950155250626</v>
+      </c>
+      <c r="C31" s="73" t="n">
+        <v>-0.00589857300792563</v>
+      </c>
+      <c r="D31" s="73" t="n">
+        <v>-0.000699821673541167</v>
+      </c>
+      <c r="E31" s="73" t="n">
+        <v>-0.00305221798475555</v>
+      </c>
+      <c r="F31" s="75" t="n">
+        <v>-0.00491784416144387</v>
+      </c>
+      <c r="G31" s="75" t="n">
+        <v>-0.00579954664786253</v>
+      </c>
+      <c r="H31" s="75" t="n">
+        <v>-0.000741851591458169</v>
+      </c>
+      <c r="I31" s="75" t="n">
+        <v>-0.00266995951679102</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="32" t="n">
+        <v>100</v>
+      </c>
+      <c r="B32" s="76" t="n">
+        <v>-0.000837907548335361</v>
+      </c>
+      <c r="C32" s="76" t="n">
+        <v>-0.00256726731164869</v>
+      </c>
+      <c r="D32" s="76" t="n">
+        <v>-0.000699794208077064</v>
+      </c>
+      <c r="E32" s="76" t="n">
+        <v>-0.00305112837241017</v>
+      </c>
+      <c r="F32" s="77" t="n">
+        <v>-0.000955880946032487</v>
+      </c>
+      <c r="G32" s="77" t="n">
+        <v>-0.00268912328761873</v>
+      </c>
+      <c r="H32" s="77" t="n">
+        <v>-0.00074196961743598</v>
+      </c>
+      <c r="I32" s="77" t="n">
+        <v>-0.0026687965932604</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B33" s="76" t="n">
+        <v>-0.000837907548335361</v>
+      </c>
+      <c r="C33" s="76" t="n">
+        <v>-0.00256700491974116</v>
+      </c>
+      <c r="D33" s="76" t="n">
+        <v>-0.000699761455773573</v>
+      </c>
+      <c r="E33" s="76" t="n">
+        <v>-0.00305073323066833</v>
+      </c>
+      <c r="F33" s="77" t="n">
+        <v>-0.000955880946032487</v>
+      </c>
+      <c r="G33" s="77" t="n">
+        <v>-0.00268896243097585</v>
+      </c>
+      <c r="H33" s="77" t="n">
+        <v>-0.000742167641530625</v>
+      </c>
+      <c r="I33" s="77" t="n">
+        <v>-0.0026687082011818</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="32" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B34" s="76" t="n">
+        <v>-0.000837907548335361</v>
+      </c>
+      <c r="C34" s="76" t="n">
+        <v>-0.00256694475062215</v>
+      </c>
+      <c r="D34" s="76" t="n">
+        <v>-0.000699719777918008</v>
+      </c>
+      <c r="E34" s="76" t="n">
+        <v>-0.00305069965316976</v>
+      </c>
+      <c r="F34" s="77" t="n">
+        <v>-0.000955880946032487</v>
+      </c>
+      <c r="G34" s="77" t="n">
+        <v>-0.00268902315871548</v>
+      </c>
+      <c r="H34" s="77" t="n">
+        <v>-0.000742201423760159</v>
+      </c>
+      <c r="I34" s="77" t="n">
+        <v>-0.00266903302312579</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="32" t="n">
+        <v>100000</v>
+      </c>
+      <c r="B35" s="76" t="n">
+        <v>-0.000837907548335361</v>
+      </c>
+      <c r="C35" s="76" t="n">
+        <v>-0.00256682666912852</v>
+      </c>
+      <c r="D35" s="76" t="n">
+        <v>-0.000699635575564522</v>
+      </c>
+      <c r="E35" s="76" t="n">
+        <v>-0.00305063541544027</v>
+      </c>
+      <c r="F35" s="77" t="n">
+        <v>-0.000955880946032487</v>
+      </c>
+      <c r="G35" s="77" t="n">
+        <v>-0.00268925408557493</v>
+      </c>
+      <c r="H35" s="77" t="n">
+        <v>-0.000742064946149555</v>
+      </c>
+      <c r="I35" s="77" t="n">
+        <v>-0.00266973552061847</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="32" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="B36" s="76" t="n">
+        <v>-0.000837907548335361</v>
+      </c>
+      <c r="C36" s="76" t="n">
+        <v>-0.00256682450349221</v>
+      </c>
+      <c r="D36" s="76" t="n">
+        <v>-0.000699633011249336</v>
+      </c>
+      <c r="E36" s="76" t="n">
+        <v>-0.00305063337139949</v>
+      </c>
+      <c r="F36" s="77" t="n">
+        <v>-0.000955880946032487</v>
+      </c>
+      <c r="G36" s="77" t="n">
+        <v>-0.00268929696441721</v>
+      </c>
+      <c r="H36" s="77" t="n">
+        <v>-0.000742053910655911</v>
+      </c>
+      <c r="I36" s="77" t="n">
+        <v>-0.00266984146754958</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="32" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="B37" s="72" t="n">
+        <v>-0.000837907548335361</v>
+      </c>
+      <c r="C37" s="72" t="n">
+        <v>-0.00256682450349221</v>
+      </c>
+      <c r="D37" s="72" t="n">
+        <v>-0.000699633011249336</v>
+      </c>
+      <c r="E37" s="72" t="n">
+        <v>-0.00305063337139949</v>
+      </c>
+      <c r="F37" s="74" t="n">
+        <v>-0.000955880946032487</v>
+      </c>
+      <c r="G37" s="74" t="n">
+        <v>-0.00268929696441721</v>
+      </c>
+      <c r="H37" s="74" t="n">
+        <v>-0.000742053910655911</v>
+      </c>
+      <c r="I37" s="74" t="n">
+        <v>-0.00266984146754958</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="H41" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="I41" s="71" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="78" t="n">
+        <v>10</v>
+      </c>
+      <c r="B42" s="79" t="n">
+        <f aca="false">B31/2.78594350245436</f>
+        <v>-0.00150379989716783</v>
+      </c>
+      <c r="C42" s="79" t="n">
+        <f aca="false">C31/2.78913990345228</f>
+        <v>-0.00211483583187226</v>
+      </c>
+      <c r="D42" s="79" t="n">
+        <f aca="false">D31/0.001137033158201</f>
+        <v>-0.615480444429972</v>
+      </c>
+      <c r="E42" s="79" t="n">
+        <f aca="false">E31/0.006986039944106</f>
+        <v>-0.4369024524875</v>
+      </c>
+      <c r="F42" s="79" t="n">
+        <f aca="false">F31/2.78594350245436</f>
+        <v>-0.00176523470670218</v>
+      </c>
+      <c r="G42" s="79" t="n">
+        <f aca="false">G31/2.78913990345228</f>
+        <v>-0.00207933156765786</v>
+      </c>
+      <c r="H42" s="79" t="n">
+        <f aca="false">H31/0.001137033158201</f>
+        <v>-0.652444993452889</v>
+      </c>
+      <c r="I42" s="79" t="n">
+        <f aca="false">I31/0.006986039944106</f>
+        <v>-0.38218497720495</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="32" t="n">
+        <v>100</v>
+      </c>
+      <c r="B43" s="79" t="n">
+        <f aca="false">B32/2.78594350245436</f>
+        <v>-0.000300762577416656</v>
+      </c>
+      <c r="C43" s="79" t="n">
+        <f aca="false">C32/2.78913990345228</f>
+        <v>-0.000920451250391218</v>
+      </c>
+      <c r="D43" s="79" t="n">
+        <f aca="false">D32/0.001137033158201</f>
+        <v>-0.615456289053408</v>
+      </c>
+      <c r="E43" s="79" t="n">
+        <f aca="false">E32/0.006986039944106</f>
+        <v>-0.436746482531115</v>
+      </c>
+      <c r="F43" s="79" t="n">
+        <f aca="false">F32/2.78594350245436</f>
+        <v>-0.000343108517882856</v>
+      </c>
+      <c r="G43" s="79" t="n">
+        <f aca="false">G32/2.78913990345228</f>
+        <v>-0.000964140695950838</v>
+      </c>
+      <c r="H43" s="79" t="n">
+        <f aca="false">H32/0.001137033158201</f>
+        <v>-0.652548795155557</v>
+      </c>
+      <c r="I43" s="79" t="n">
+        <f aca="false">I32/0.006986039944106</f>
+        <v>-0.382018513294075</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B44" s="79" t="n">
+        <f aca="false">B33/2.78594350245436</f>
+        <v>-0.000300762577416656</v>
+      </c>
+      <c r="C44" s="79" t="n">
+        <f aca="false">C33/2.78913990345228</f>
+        <v>-0.000920357174110853</v>
+      </c>
+      <c r="D44" s="79" t="n">
+        <f aca="false">D33/0.001137033158201</f>
+        <v>-0.615427483997676</v>
+      </c>
+      <c r="E44" s="79" t="n">
+        <f aca="false">E33/0.006986039944106</f>
+        <v>-0.436689920910369</v>
+      </c>
+      <c r="F44" s="79" t="n">
+        <f aca="false">F33/2.78594350245436</f>
+        <v>-0.000343108517882856</v>
+      </c>
+      <c r="G44" s="79" t="n">
+        <f aca="false">G33/2.78913990345228</f>
+        <v>-0.000964083023460949</v>
+      </c>
+      <c r="H44" s="79" t="n">
+        <f aca="false">H33/0.001137033158201</f>
+        <v>-0.652722953748221</v>
+      </c>
+      <c r="I44" s="79" t="n">
+        <f aca="false">I33/0.006986039944106</f>
+        <v>-0.382005860621129</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="32" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B45" s="79" t="n">
+        <f aca="false">B34/2.78594350245436</f>
+        <v>-0.000300762577416656</v>
+      </c>
+      <c r="C45" s="79" t="n">
+        <f aca="false">C34/2.78913990345228</f>
+        <v>-0.000920335601467998</v>
+      </c>
+      <c r="D45" s="79" t="n">
+        <f aca="false">D34/0.001137033158201</f>
+        <v>-0.615390829081094</v>
+      </c>
+      <c r="E45" s="79" t="n">
+        <f aca="false">E34/0.006986039944106</f>
+        <v>-0.436685114539544</v>
+      </c>
+      <c r="F45" s="79" t="n">
+        <f aca="false">F34/2.78594350245436</f>
+        <v>-0.000343108517882856</v>
+      </c>
+      <c r="G45" s="79" t="n">
+        <f aca="false">G34/2.78913990345228</f>
+        <v>-0.00096410479638799</v>
+      </c>
+      <c r="H45" s="79" t="n">
+        <f aca="false">H34/0.001137033158201</f>
+        <v>-0.652752664605191</v>
+      </c>
+      <c r="I45" s="79" t="n">
+        <f aca="false">I34/0.006986039944106</f>
+        <v>-0.382052356482388</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="32" t="n">
+        <v>100000</v>
+      </c>
+      <c r="B46" s="79" t="n">
+        <f aca="false">B35/2.78594350245436</f>
+        <v>-0.000300762577416656</v>
+      </c>
+      <c r="C46" s="79" t="n">
+        <f aca="false">C35/2.78913990345228</f>
+        <v>-0.000920293265300681</v>
+      </c>
+      <c r="D46" s="79" t="n">
+        <f aca="false">D35/0.001137033158201</f>
+        <v>-0.615316774641363</v>
+      </c>
+      <c r="E46" s="79" t="n">
+        <f aca="false">E35/0.006986039944106</f>
+        <v>-0.436675919383203</v>
+      </c>
+      <c r="F46" s="79" t="n">
+        <f aca="false">F35/2.78594350245436</f>
+        <v>-0.000343108517882856</v>
+      </c>
+      <c r="G46" s="79" t="n">
+        <f aca="false">G35/2.78913990345228</f>
+        <v>-0.000964187591395572</v>
+      </c>
+      <c r="H46" s="79" t="n">
+        <f aca="false">H35/0.001137033158201</f>
+        <v>-0.652632635026793</v>
+      </c>
+      <c r="I46" s="79" t="n">
+        <f aca="false">I35/0.006986039944106</f>
+        <v>-0.382152913807898</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="32" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="B47" s="79" t="n">
+        <f aca="false">B36/2.78594350245436</f>
+        <v>-0.000300762577416656</v>
+      </c>
+      <c r="C47" s="79" t="n">
+        <f aca="false">C36/2.78913990345228</f>
+        <v>-0.000920292488847585</v>
+      </c>
+      <c r="D47" s="79" t="n">
+        <f aca="false">D36/0.001137033158201</f>
+        <v>-0.615314519372757</v>
+      </c>
+      <c r="E47" s="79" t="n">
+        <f aca="false">E36/0.006986039944106</f>
+        <v>-0.436675626793868</v>
+      </c>
+      <c r="F47" s="79" t="n">
+        <f aca="false">F36/2.78594350245436</f>
+        <v>-0.000343108517882856</v>
+      </c>
+      <c r="G47" s="79" t="n">
+        <f aca="false">G36/2.78913990345228</f>
+        <v>-0.000964202964895561</v>
+      </c>
+      <c r="H47" s="79" t="n">
+        <f aca="false">H36/0.001137033158201</f>
+        <v>-0.652622929510674</v>
+      </c>
+      <c r="I47" s="79" t="n">
+        <f aca="false">I36/0.006986039944106</f>
+        <v>-0.382168079328271</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="32" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="B48" s="79" t="n">
+        <f aca="false">B37/2.78594350245436</f>
+        <v>-0.000300762577416656</v>
+      </c>
+      <c r="C48" s="79" t="n">
+        <f aca="false">C37/2.78913990345228</f>
+        <v>-0.000920292488847585</v>
+      </c>
+      <c r="D48" s="79" t="n">
+        <f aca="false">D37/0.001137033158201</f>
+        <v>-0.615314519372757</v>
+      </c>
+      <c r="E48" s="79" t="n">
+        <f aca="false">E37/0.006986039944106</f>
+        <v>-0.436675626793868</v>
+      </c>
+      <c r="F48" s="79" t="n">
+        <f aca="false">F37/2.78594350245436</f>
+        <v>-0.000343108517882856</v>
+      </c>
+      <c r="G48" s="79" t="n">
+        <f aca="false">G37/2.78913990345228</f>
+        <v>-0.000964202964895561</v>
+      </c>
+      <c r="H48" s="79" t="n">
+        <f aca="false">H37/0.001137033158201</f>
+        <v>-0.652622929510674</v>
+      </c>
+      <c r="I48" s="79" t="n">
+        <f aca="false">I37/0.006986039944106</f>
+        <v>-0.382168079328271</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="F53" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="G53" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="H53" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="I53" s="71" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="32" t="n">
+        <v>1E-010</v>
+      </c>
+      <c r="B54" s="59" t="n">
+        <v>-0.000405996000266245</v>
+      </c>
+      <c r="C54" s="59" t="n">
+        <v>-0.00210695018623318</v>
+      </c>
+      <c r="D54" s="59" t="n">
+        <v>-0.000694249132928277</v>
+      </c>
+      <c r="E54" s="59" t="n">
+        <v>-0.00308672889512076</v>
+      </c>
+      <c r="F54" s="80" t="n">
+        <v>-0.000473225198945218</v>
+      </c>
+      <c r="G54" s="80" t="n">
+        <v>-0.00224827227833021</v>
+      </c>
+      <c r="H54" s="80" t="n">
+        <v>-0.000664809402421442</v>
+      </c>
+      <c r="I54" s="80" t="n">
+        <v>-0.00310177077550035</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="32" t="n">
+        <v>1E-009</v>
+      </c>
+      <c r="B55" s="61" t="n">
+        <v>-0.000405996000269856</v>
+      </c>
+      <c r="C55" s="61" t="n">
+        <v>-0.00210695018623432</v>
+      </c>
+      <c r="D55" s="61" t="n">
+        <v>-0.000694249132929411</v>
+      </c>
+      <c r="E55" s="61" t="n">
+        <v>-0.00308672889512208</v>
+      </c>
+      <c r="F55" s="81" t="n">
+        <v>-0.00047322521584036</v>
+      </c>
+      <c r="G55" s="81" t="n">
+        <v>-0.00224827242883179</v>
+      </c>
+      <c r="H55" s="81" t="n">
+        <v>-0.000664809302669281</v>
+      </c>
+      <c r="I55" s="81" t="n">
+        <v>-0.00310177069540761</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="32" t="n">
+        <v>1E-008</v>
+      </c>
+      <c r="B56" s="61" t="n">
+        <v>-0.000405996000543468</v>
+      </c>
+      <c r="C56" s="61" t="n">
+        <v>-0.00210695018634899</v>
+      </c>
+      <c r="D56" s="61" t="n">
+        <v>-0.000694249133042866</v>
+      </c>
+      <c r="E56" s="61" t="n">
+        <v>-0.0030867288952535</v>
+      </c>
+      <c r="F56" s="81" t="n">
+        <v>-0.000473225385076913</v>
+      </c>
+      <c r="G56" s="81" t="n">
+        <v>-0.00224827393304793</v>
+      </c>
+      <c r="H56" s="81" t="n">
+        <v>-0.000664808305233137</v>
+      </c>
+      <c r="I56" s="81" t="n">
+        <v>-0.00310176989481622</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="32" t="n">
+        <v>1E-007</v>
+      </c>
+      <c r="B57" s="61" t="n">
+        <v>-0.000405996027029902</v>
+      </c>
+      <c r="C57" s="61" t="n">
+        <v>-0.00210695019782497</v>
+      </c>
+      <c r="D57" s="61" t="n">
+        <v>-0.000694249144388348</v>
+      </c>
+      <c r="E57" s="61" t="n">
+        <v>-0.00308672890839525</v>
+      </c>
+      <c r="F57" s="81" t="n">
+        <v>-0.000473227105955835</v>
+      </c>
+      <c r="G57" s="81" t="n">
+        <v>-0.00224828877352045</v>
+      </c>
+      <c r="H57" s="81" t="n">
+        <v>-0.000664798338833684</v>
+      </c>
+      <c r="I57" s="81" t="n">
+        <v>-0.0031017619164212</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="32" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="B58" s="61" t="n">
+        <v>-0.000405998666913694</v>
+      </c>
+      <c r="C58" s="61" t="n">
+        <v>-0.00210695134437133</v>
+      </c>
+      <c r="D58" s="61" t="n">
+        <v>-0.000694250154098719</v>
+      </c>
+      <c r="E58" s="61" t="n">
+        <v>-0.00308673022251637</v>
+      </c>
+      <c r="F58" s="81" t="n">
+        <v>-0.000473247168444011</v>
+      </c>
+      <c r="G58" s="81" t="n">
+        <v>-0.00224844063761824</v>
+      </c>
+      <c r="H58" s="81" t="n">
+        <v>-0.000664708393184906</v>
+      </c>
+      <c r="I58" s="81" t="n">
+        <v>-0.00310168498553079</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="32" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="B59" s="61" t="n">
+        <v>-0.000406107426137982</v>
+      </c>
+      <c r="C59" s="61" t="n">
+        <v>-0.00210706597122042</v>
+      </c>
+      <c r="D59" s="61" t="n">
+        <v>-0.000694334349357489</v>
+      </c>
+      <c r="E59" s="61" t="n">
+        <v>-0.00308686164148339</v>
+      </c>
+      <c r="F59" s="81" t="n">
+        <v>-0.000473555016583991</v>
+      </c>
+      <c r="G59" s="81" t="n">
+        <v>-0.00225003374690476</v>
+      </c>
+      <c r="H59" s="81" t="n">
+        <v>-0.000663838893360779</v>
+      </c>
+      <c r="I59" s="81" t="n">
+        <v>-0.00310120378730034</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="32" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="B60" s="61" t="n">
+        <v>-0.000412733122966253</v>
+      </c>
+      <c r="C60" s="61" t="n">
+        <v>-0.00211764596185014</v>
+      </c>
+      <c r="D60" s="61" t="n">
+        <v>-0.000694815909750847</v>
+      </c>
+      <c r="E60" s="61" t="n">
+        <v>-0.00309531366537313</v>
+      </c>
+      <c r="F60" s="81" t="n">
+        <v>-0.000482141663327276</v>
+      </c>
+      <c r="G60" s="81" t="n">
+        <v>-0.00227361714250838</v>
+      </c>
+      <c r="H60" s="81" t="n">
+        <v>-0.000662048618980374</v>
+      </c>
+      <c r="I60" s="81" t="n">
+        <v>-0.00311204955332386</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="32" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="B61" s="61" t="n">
+        <v>-0.000559880029657381</v>
+      </c>
+      <c r="C61" s="61" t="n">
+        <v>-0.00233626147465881</v>
+      </c>
+      <c r="D61" s="61" t="n">
+        <v>-0.000695531714879928</v>
+      </c>
+      <c r="E61" s="61" t="n">
+        <v>-0.00310784073230535</v>
+      </c>
+      <c r="F61" s="81" t="n">
+        <v>-0.000626854569880979</v>
+      </c>
+      <c r="G61" s="81" t="n">
+        <v>-0.00259781641726194</v>
+      </c>
+      <c r="H61" s="81" t="n">
+        <v>-0.000661783668595696</v>
+      </c>
+      <c r="I61" s="81" t="n">
+        <v>-0.00312576526944782</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="32" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="B62" s="61" t="n">
+        <v>-0.00146725153186042</v>
+      </c>
+      <c r="C62" s="61" t="n">
+        <v>-0.00318400565127745</v>
+      </c>
+      <c r="D62" s="61" t="n">
+        <v>-0.000695531714879928</v>
+      </c>
+      <c r="E62" s="61" t="n">
+        <v>-0.00310889176828074</v>
+      </c>
+      <c r="F62" s="81" t="n">
+        <v>-0.00152484853061883</v>
+      </c>
+      <c r="G62" s="81" t="n">
+        <v>-0.00343903530083687</v>
+      </c>
+      <c r="H62" s="81" t="n">
+        <v>-0.000661783668595696</v>
+      </c>
+      <c r="I62" s="81" t="n">
+        <v>-0.00312578159707235</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="78" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B63" s="62" t="n">
+        <v>-0.0158350869771286</v>
+      </c>
+      <c r="C63" s="62" t="n">
+        <v>-0.0174092615935918</v>
+      </c>
+      <c r="D63" s="62" t="n">
+        <v>-0.000695531714879928</v>
+      </c>
+      <c r="E63" s="62" t="n">
+        <v>-0.00310889176828074</v>
+      </c>
+      <c r="F63" s="82" t="n">
+        <v>-0.0158316400841852</v>
+      </c>
+      <c r="G63" s="82" t="n">
+        <v>-0.018051215658962</v>
+      </c>
+      <c r="H63" s="82" t="n">
+        <v>-0.000661783668595696</v>
+      </c>
+      <c r="I63" s="82" t="n">
+        <v>-0.00312578159707235</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="E67" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="F67" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="G67" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="H67" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="I67" s="71" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="32" t="n">
+        <v>1E-010</v>
+      </c>
+      <c r="B68" s="79" t="n">
+        <f aca="false">B54/2.78301018765889</f>
+        <v>-0.000145883763583264</v>
+      </c>
+      <c r="C68" s="79" t="n">
+        <f aca="false">C54/2.78216724261881</f>
+        <v>-0.000757305367541435</v>
+      </c>
+      <c r="D68" s="79" t="n">
+        <f aca="false">D54/0.001115089567007</f>
+        <v>-0.622594949741754</v>
+      </c>
+      <c r="E68" s="79" t="n">
+        <f aca="false">E54/0.006561434337706</f>
+        <v>-0.470435081150251</v>
+      </c>
+      <c r="F68" s="79" t="n">
+        <f aca="false">F54/2.75877874258439</f>
+        <v>-0.000171534306699024</v>
+      </c>
+      <c r="G68" s="79" t="n">
+        <f aca="false">G54/2.77938916853549</f>
+        <v>-0.000808908771676211</v>
+      </c>
+      <c r="H68" s="79" t="n">
+        <f aca="false">H54/0.001996081508997</f>
+        <v>-0.333057242114075</v>
+      </c>
+      <c r="I68" s="79" t="n">
+        <f aca="false">I54/0.005768856219016</f>
+        <v>-0.537675174721103</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="32" t="n">
+        <v>1E-009</v>
+      </c>
+      <c r="B69" s="79" t="n">
+        <f aca="false">B55/2.78301018765889</f>
+        <v>-0.000145883763584562</v>
+      </c>
+      <c r="C69" s="79" t="n">
+        <f aca="false">C55/2.78216724261881</f>
+        <v>-0.000757305367541847</v>
+      </c>
+      <c r="D69" s="79" t="n">
+        <f aca="false">D55/0.001115089567007</f>
+        <v>-0.622594949742771</v>
+      </c>
+      <c r="E69" s="79" t="n">
+        <f aca="false">E55/0.006561434337706</f>
+        <v>-0.470435081150451</v>
+      </c>
+      <c r="F69" s="79" t="n">
+        <f aca="false">F55/2.75877874258439</f>
+        <v>-0.000171534312823162</v>
+      </c>
+      <c r="G69" s="79" t="n">
+        <f aca="false">G55/2.77938916853549</f>
+        <v>-0.000808908825825368</v>
+      </c>
+      <c r="H69" s="79" t="n">
+        <f aca="false">H55/0.001996081508997</f>
+        <v>-0.333057192140083</v>
+      </c>
+      <c r="I69" s="79" t="n">
+        <f aca="false">I55/0.005768856219016</f>
+        <v>-0.53767516083746</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="32" t="n">
+        <v>1E-008</v>
+      </c>
+      <c r="B70" s="79" t="n">
+        <f aca="false">B56/2.78301018765889</f>
+        <v>-0.000145883763682877</v>
+      </c>
+      <c r="C70" s="79" t="n">
+        <f aca="false">C56/2.78216724261881</f>
+        <v>-0.000757305367583061</v>
+      </c>
+      <c r="D70" s="79" t="n">
+        <f aca="false">D56/0.001115089567007</f>
+        <v>-0.622594949844516</v>
+      </c>
+      <c r="E70" s="79" t="n">
+        <f aca="false">E56/0.006561434337706</f>
+        <v>-0.47043508117048</v>
+      </c>
+      <c r="F70" s="79" t="n">
+        <f aca="false">F56/2.75877874258439</f>
+        <v>-0.000171534374167898</v>
+      </c>
+      <c r="G70" s="79" t="n">
+        <f aca="false">G56/2.77938916853549</f>
+        <v>-0.000808909367029227</v>
+      </c>
+      <c r="H70" s="79" t="n">
+        <f aca="false">H56/0.001996081508997</f>
+        <v>-0.333056692442982</v>
+      </c>
+      <c r="I70" s="79" t="n">
+        <f aca="false">I56/0.005768856219016</f>
+        <v>-0.537675022059276</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="32" t="n">
+        <v>1E-007</v>
+      </c>
+      <c r="B71" s="79" t="n">
+        <f aca="false">B57/2.78301018765889</f>
+        <v>-0.000145883773200066</v>
+      </c>
+      <c r="C71" s="79" t="n">
+        <f aca="false">C57/2.78216724261881</f>
+        <v>-0.000757305371707898</v>
+      </c>
+      <c r="D71" s="79" t="n">
+        <f aca="false">D57/0.001115089567007</f>
+        <v>-0.622594960019019</v>
+      </c>
+      <c r="E71" s="79" t="n">
+        <f aca="false">E57/0.006561434337706</f>
+        <v>-0.470435083173358</v>
+      </c>
+      <c r="F71" s="79" t="n">
+        <f aca="false">F57/2.75877874258439</f>
+        <v>-0.000171534997950768</v>
+      </c>
+      <c r="G71" s="79" t="n">
+        <f aca="false">G57/2.77938916853549</f>
+        <v>-0.0008089147065019</v>
+      </c>
+      <c r="H71" s="79" t="n">
+        <f aca="false">H57/0.001996081508997</f>
+        <v>-0.333051699460778</v>
+      </c>
+      <c r="I71" s="79" t="n">
+        <f aca="false">I57/0.005768856219016</f>
+        <v>-0.537673639047684</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="32" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="B72" s="79" t="n">
+        <f aca="false">B58/2.78301018765889</f>
+        <v>-0.000145884721771438</v>
+      </c>
+      <c r="C72" s="79" t="n">
+        <f aca="false">C58/2.78216724261881</f>
+        <v>-0.000757305783813375</v>
+      </c>
+      <c r="D72" s="79" t="n">
+        <f aca="false">D58/0.001115089567007</f>
+        <v>-0.622595865516121</v>
+      </c>
+      <c r="E72" s="79" t="n">
+        <f aca="false">E58/0.006561434337706</f>
+        <v>-0.470435283452908</v>
+      </c>
+      <c r="F72" s="79" t="n">
+        <f aca="false">F58/2.75877874258439</f>
+        <v>-0.000171542270186075</v>
+      </c>
+      <c r="G72" s="79" t="n">
+        <f aca="false">G58/2.77938916853549</f>
+        <v>-0.000808969345880765</v>
+      </c>
+      <c r="H72" s="79" t="n">
+        <f aca="false">H58/0.001996081508997</f>
+        <v>-0.333006638350611</v>
+      </c>
+      <c r="I72" s="79" t="n">
+        <f aca="false">I58/0.005768856219016</f>
+        <v>-0.537660303494242</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="32" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="B73" s="79" t="n">
+        <f aca="false">B59/2.78301018765889</f>
+        <v>-0.000145923801479004</v>
+      </c>
+      <c r="C73" s="79" t="n">
+        <f aca="false">C59/2.78216724261881</f>
+        <v>-0.000757346984373617</v>
+      </c>
+      <c r="D73" s="79" t="n">
+        <f aca="false">D59/0.001115089567007</f>
+        <v>-0.62267137089368</v>
+      </c>
+      <c r="E73" s="79" t="n">
+        <f aca="false">E59/0.006561434337706</f>
+        <v>-0.470455312452707</v>
+      </c>
+      <c r="F73" s="79" t="n">
+        <f aca="false">F59/2.75877874258439</f>
+        <v>-0.000171653858743442</v>
+      </c>
+      <c r="G73" s="79" t="n">
+        <f aca="false">G59/2.77938916853549</f>
+        <v>-0.000809542532717842</v>
+      </c>
+      <c r="H73" s="79" t="n">
+        <f aca="false">H59/0.001996081508997</f>
+        <v>-0.332571034984612</v>
+      </c>
+      <c r="I73" s="79" t="n">
+        <f aca="false">I59/0.005768856219016</f>
+        <v>-0.537576890385615</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="32" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="B74" s="79" t="n">
+        <f aca="false">B60/2.78301018765889</f>
+        <v>-0.000148304567764968</v>
+      </c>
+      <c r="C74" s="79" t="n">
+        <f aca="false">C60/2.78216724261881</f>
+        <v>-0.00076114977180769</v>
+      </c>
+      <c r="D74" s="79" t="n">
+        <f aca="false">D60/0.001115089567007</f>
+        <v>-0.623103228932359</v>
+      </c>
+      <c r="E74" s="79" t="n">
+        <f aca="false">E60/0.006561434337706</f>
+        <v>-0.471743449078743</v>
+      </c>
+      <c r="F74" s="79" t="n">
+        <f aca="false">F60/2.75877874258439</f>
+        <v>-0.000174766339860808</v>
+      </c>
+      <c r="G74" s="79" t="n">
+        <f aca="false">G60/2.77938916853549</f>
+        <v>-0.00081802763292281</v>
+      </c>
+      <c r="H74" s="79" t="n">
+        <f aca="false">H60/0.001996081508997</f>
+        <v>-0.331674140558039</v>
+      </c>
+      <c r="I74" s="79" t="n">
+        <f aca="false">I60/0.005768856219016</f>
+        <v>-0.539456945220016</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="32" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="B75" s="79" t="n">
+        <f aca="false">B61/2.78301018765889</f>
+        <v>-0.000201177858471428</v>
+      </c>
+      <c r="C75" s="79" t="n">
+        <f aca="false">C61/2.78216724261881</f>
+        <v>-0.000839727187809071</v>
+      </c>
+      <c r="D75" s="79" t="n">
+        <f aca="false">D61/0.001115089567007</f>
+        <v>-0.623745155061218</v>
+      </c>
+      <c r="E75" s="79" t="n">
+        <f aca="false">E61/0.006561434337706</f>
+        <v>-0.473652645496397</v>
+      </c>
+      <c r="F75" s="79" t="n">
+        <f aca="false">F61/2.75877874258439</f>
+        <v>-0.000227221763095706</v>
+      </c>
+      <c r="G75" s="79" t="n">
+        <f aca="false">G61/2.77938916853549</f>
+        <v>-0.000934671706528516</v>
+      </c>
+      <c r="H75" s="79" t="n">
+        <f aca="false">H61/0.001996081508997</f>
+        <v>-0.331541405304753</v>
+      </c>
+      <c r="I75" s="79" t="n">
+        <f aca="false">I61/0.005768856219016</f>
+        <v>-0.541834490369909</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="32" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="B76" s="79" t="n">
+        <f aca="false">B62/2.78301018765889</f>
+        <v>-0.000527217449065356</v>
+      </c>
+      <c r="C76" s="79" t="n">
+        <f aca="false">C62/2.78216724261881</f>
+        <v>-0.00114443359209434</v>
+      </c>
+      <c r="D76" s="79" t="n">
+        <f aca="false">D62/0.001115089567007</f>
+        <v>-0.623745155061218</v>
+      </c>
+      <c r="E76" s="79" t="n">
+        <f aca="false">E62/0.006561434337706</f>
+        <v>-0.473812829371034</v>
+      </c>
+      <c r="F76" s="79" t="n">
+        <f aca="false">F62/2.75877874258439</f>
+        <v>-0.000552725924366943</v>
+      </c>
+      <c r="G76" s="79" t="n">
+        <f aca="false">G62/2.77938916853549</f>
+        <v>-0.00123733492947623</v>
+      </c>
+      <c r="H76" s="79" t="n">
+        <f aca="false">H62/0.001996081508997</f>
+        <v>-0.331541405304753</v>
+      </c>
+      <c r="I76" s="79" t="n">
+        <f aca="false">I62/0.005768856219016</f>
+        <v>-0.541837320675245</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="78" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B77" s="79" t="n">
+        <f aca="false">B63/2.78301018765889</f>
+        <v>-0.00568991340647924</v>
+      </c>
+      <c r="C77" s="79" t="n">
+        <f aca="false">C63/2.78216724261881</f>
+        <v>-0.00625744611140081</v>
+      </c>
+      <c r="D77" s="79" t="n">
+        <f aca="false">D63/0.001115089567007</f>
+        <v>-0.623745155061218</v>
+      </c>
+      <c r="E77" s="79" t="n">
+        <f aca="false">E63/0.006561434337706</f>
+        <v>-0.473812829371034</v>
+      </c>
+      <c r="F77" s="79" t="n">
+        <f aca="false">F63/2.75877874258439</f>
+        <v>-0.00573864073976237</v>
+      </c>
+      <c r="G77" s="79" t="n">
+        <f aca="false">G63/2.77938916853549</f>
+        <v>-0.00649467007474649</v>
+      </c>
+      <c r="H77" s="79" t="n">
+        <f aca="false">H63/0.001996081508997</f>
+        <v>-0.331541405304753</v>
+      </c>
+      <c r="I77" s="79" t="n">
+        <f aca="false">I63/0.005768856219016</f>
+        <v>-0.541837320675245</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="78"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B80" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="D80" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="E80" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="F80" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="G80" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="H80" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="I80" s="71" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="78" t="n">
+        <v>10</v>
+      </c>
+      <c r="B81" s="59" t="n">
+        <v>-0.00207110417827738</v>
+      </c>
+      <c r="C81" s="59" t="n">
+        <v>-0.00376889927536114</v>
+      </c>
+      <c r="D81" s="59" t="n">
+        <v>-0.000694699210113574</v>
+      </c>
+      <c r="E81" s="59" t="n">
+        <v>-0.00309414453921313</v>
+      </c>
+      <c r="F81" s="80" t="n">
+        <v>-0.00213051899388586</v>
+      </c>
+      <c r="G81" s="80" t="n">
+        <v>-0.00398532663178225</v>
+      </c>
+      <c r="H81" s="80" t="n">
+        <v>-0.000663517226047069</v>
+      </c>
+      <c r="I81" s="80" t="n">
+        <v>-0.00310993400718929</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="32" t="n">
+        <v>100</v>
+      </c>
+      <c r="B82" s="61" t="n">
+        <v>-0.00207110417827738</v>
+      </c>
+      <c r="C82" s="61" t="n">
+        <v>-0.00376889927536114</v>
+      </c>
+      <c r="D82" s="61" t="n">
+        <v>-0.000694699210113574</v>
+      </c>
+      <c r="E82" s="61" t="n">
+        <v>-0.00309414453921313</v>
+      </c>
+      <c r="F82" s="81" t="n">
+        <v>-0.00213051899388586</v>
+      </c>
+      <c r="G82" s="81" t="n">
+        <v>-0.00398532663178225</v>
+      </c>
+      <c r="H82" s="81" t="n">
+        <v>-0.000663517226047069</v>
+      </c>
+      <c r="I82" s="81" t="n">
+        <v>-0.00310993400718929</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B83" s="61" t="n">
+        <v>-0.00207110417827738</v>
+      </c>
+      <c r="C83" s="61" t="n">
+        <v>-0.00376889927536114</v>
+      </c>
+      <c r="D83" s="61" t="n">
+        <v>-0.000694699210113574</v>
+      </c>
+      <c r="E83" s="61" t="n">
+        <v>-0.00309414453921313</v>
+      </c>
+      <c r="F83" s="81" t="n">
+        <v>-0.00213051899388586</v>
+      </c>
+      <c r="G83" s="81" t="n">
+        <v>-0.00398532663178225</v>
+      </c>
+      <c r="H83" s="81" t="n">
+        <v>-0.000663517226047069</v>
+      </c>
+      <c r="I83" s="81" t="n">
+        <v>-0.00310993400718929</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="32" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B84" s="61" t="n">
+        <v>-0.00207110417827738</v>
+      </c>
+      <c r="C84" s="61" t="n">
+        <v>-0.00376889927536114</v>
+      </c>
+      <c r="D84" s="61" t="n">
+        <v>-0.000694699210113574</v>
+      </c>
+      <c r="E84" s="61" t="n">
+        <v>-0.00309414453921313</v>
+      </c>
+      <c r="F84" s="81" t="n">
+        <v>-0.00213051899388586</v>
+      </c>
+      <c r="G84" s="81" t="n">
+        <v>-0.00398532663178225</v>
+      </c>
+      <c r="H84" s="81" t="n">
+        <v>-0.000663517226047069</v>
+      </c>
+      <c r="I84" s="81" t="n">
+        <v>-0.00310993400718929</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="32" t="n">
+        <v>100000</v>
+      </c>
+      <c r="B85" s="61" t="n">
+        <v>-0.00207110417827738</v>
+      </c>
+      <c r="C85" s="61" t="n">
+        <v>-0.00376889927536114</v>
+      </c>
+      <c r="D85" s="61" t="n">
+        <v>-0.000694699210113574</v>
+      </c>
+      <c r="E85" s="61" t="n">
+        <v>-0.00309414453921313</v>
+      </c>
+      <c r="F85" s="81" t="n">
+        <v>-0.00213051899388586</v>
+      </c>
+      <c r="G85" s="81" t="n">
+        <v>-0.00398532663178225</v>
+      </c>
+      <c r="H85" s="81" t="n">
+        <v>-0.000663517226047069</v>
+      </c>
+      <c r="I85" s="81" t="n">
+        <v>-0.00310993400718929</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="32" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="B86" s="61" t="n">
+        <v>-0.00207110417827738</v>
+      </c>
+      <c r="C86" s="61" t="n">
+        <v>-0.00376889927536114</v>
+      </c>
+      <c r="D86" s="61" t="n">
+        <v>-0.000694699210113574</v>
+      </c>
+      <c r="E86" s="61" t="n">
+        <v>-0.00309414453921313</v>
+      </c>
+      <c r="F86" s="81" t="n">
+        <v>-0.00213051899388586</v>
+      </c>
+      <c r="G86" s="81" t="n">
+        <v>-0.00398532663178225</v>
+      </c>
+      <c r="H86" s="81" t="n">
+        <v>-0.000663517226047069</v>
+      </c>
+      <c r="I86" s="81" t="n">
+        <v>-0.00310993400718929</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="32" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="B87" s="62" t="n">
+        <v>-0.00207110417827738</v>
+      </c>
+      <c r="C87" s="62" t="n">
+        <v>-0.00376889927536114</v>
+      </c>
+      <c r="D87" s="62" t="n">
+        <v>-0.000694699210113574</v>
+      </c>
+      <c r="E87" s="62" t="n">
+        <v>-0.00309414453921313</v>
+      </c>
+      <c r="F87" s="82" t="n">
+        <v>-0.00213051899388586</v>
+      </c>
+      <c r="G87" s="82" t="n">
+        <v>-0.00398532663178225</v>
+      </c>
+      <c r="H87" s="82" t="n">
+        <v>-0.000663517226047069</v>
+      </c>
+      <c r="I87" s="82" t="n">
+        <v>-0.00310993400718929</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B91" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="C91" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="D91" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="E91" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="F91" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="G91" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="H91" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="I91" s="71" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="78" t="n">
+        <v>10</v>
+      </c>
+      <c r="B92" s="79" t="n">
+        <f aca="false">B81/2.78301018765889</f>
+        <v>-0.00074419568690822</v>
+      </c>
+      <c r="C92" s="79" t="n">
+        <f aca="false">C81/2.78216724261881</f>
+        <v>-0.00135466309056731</v>
+      </c>
+      <c r="D92" s="79" t="n">
+        <f aca="false">D81/0.001115089567007</f>
+        <v>-0.622998573987387</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <f aca="false">E81/0.006561434337706</f>
+        <v>-0.471565267586736</v>
+      </c>
+      <c r="F92" s="79" t="n">
+        <f aca="false">F81/2.75877874258439</f>
+        <v>-0.000772268888765619</v>
+      </c>
+      <c r="G92" s="79" t="n">
+        <f aca="false">G81/2.77938916853549</f>
+        <v>-0.00143388578933054</v>
+      </c>
+      <c r="H92" s="79" t="n">
+        <f aca="false">H81/0.001996081508997</f>
+        <v>-0.332409885596544</v>
+      </c>
+      <c r="I92" s="0" t="n">
+        <f aca="false">I81/0.005768856219016</f>
+        <v>-0.53909022674858</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="32" t="n">
+        <v>100</v>
+      </c>
+      <c r="B93" s="79" t="n">
+        <f aca="false">B82/2.78301018765889</f>
+        <v>-0.00074419568690822</v>
+      </c>
+      <c r="C93" s="79" t="n">
+        <f aca="false">C82/2.78216724261881</f>
+        <v>-0.00135466309056731</v>
+      </c>
+      <c r="D93" s="79" t="n">
+        <f aca="false">D82/0.001115089567007</f>
+        <v>-0.622998573987387</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <f aca="false">E82/0.006561434337706</f>
+        <v>-0.471565267586736</v>
+      </c>
+      <c r="F93" s="79" t="n">
+        <f aca="false">F82/2.75877874258439</f>
+        <v>-0.000772268888765619</v>
+      </c>
+      <c r="G93" s="79" t="n">
+        <f aca="false">G82/2.77938916853549</f>
+        <v>-0.00143388578933054</v>
+      </c>
+      <c r="H93" s="79" t="n">
+        <f aca="false">H82/0.001996081508997</f>
+        <v>-0.332409885596544</v>
+      </c>
+      <c r="I93" s="0" t="n">
+        <f aca="false">I82/0.005768856219016</f>
+        <v>-0.53909022674858</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B94" s="79" t="n">
+        <f aca="false">B83/2.78301018765889</f>
+        <v>-0.00074419568690822</v>
+      </c>
+      <c r="C94" s="79" t="n">
+        <f aca="false">C83/2.78216724261881</f>
+        <v>-0.00135466309056731</v>
+      </c>
+      <c r="D94" s="79" t="n">
+        <f aca="false">D83/0.001115089567007</f>
+        <v>-0.622998573987387</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <f aca="false">E83/0.006561434337706</f>
+        <v>-0.471565267586736</v>
+      </c>
+      <c r="F94" s="79" t="n">
+        <f aca="false">F83/2.75877874258439</f>
+        <v>-0.000772268888765619</v>
+      </c>
+      <c r="G94" s="79" t="n">
+        <f aca="false">G83/2.77938916853549</f>
+        <v>-0.00143388578933054</v>
+      </c>
+      <c r="H94" s="79" t="n">
+        <f aca="false">H83/0.001996081508997</f>
+        <v>-0.332409885596544</v>
+      </c>
+      <c r="I94" s="0" t="n">
+        <f aca="false">I83/0.005768856219016</f>
+        <v>-0.53909022674858</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="32" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B95" s="79" t="n">
+        <f aca="false">B84/2.78301018765889</f>
+        <v>-0.00074419568690822</v>
+      </c>
+      <c r="C95" s="79" t="n">
+        <f aca="false">C84/2.78216724261881</f>
+        <v>-0.00135466309056731</v>
+      </c>
+      <c r="D95" s="79" t="n">
+        <f aca="false">D84/0.001115089567007</f>
+        <v>-0.622998573987387</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <f aca="false">E84/0.006561434337706</f>
+        <v>-0.471565267586736</v>
+      </c>
+      <c r="F95" s="79" t="n">
+        <f aca="false">F84/2.75877874258439</f>
+        <v>-0.000772268888765619</v>
+      </c>
+      <c r="G95" s="79" t="n">
+        <f aca="false">G84/2.77938916853549</f>
+        <v>-0.00143388578933054</v>
+      </c>
+      <c r="H95" s="79" t="n">
+        <f aca="false">H84/0.001996081508997</f>
+        <v>-0.332409885596544</v>
+      </c>
+      <c r="I95" s="0" t="n">
+        <f aca="false">I84/0.005768856219016</f>
+        <v>-0.53909022674858</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="32" t="n">
+        <v>100000</v>
+      </c>
+      <c r="B96" s="79" t="n">
+        <f aca="false">B85/2.78301018765889</f>
+        <v>-0.00074419568690822</v>
+      </c>
+      <c r="C96" s="79" t="n">
+        <f aca="false">C85/2.78216724261881</f>
+        <v>-0.00135466309056731</v>
+      </c>
+      <c r="D96" s="79" t="n">
+        <f aca="false">D85/0.001115089567007</f>
+        <v>-0.622998573987387</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <f aca="false">E85/0.006561434337706</f>
+        <v>-0.471565267586736</v>
+      </c>
+      <c r="F96" s="79" t="n">
+        <f aca="false">F85/2.75877874258439</f>
+        <v>-0.000772268888765619</v>
+      </c>
+      <c r="G96" s="79" t="n">
+        <f aca="false">G85/2.77938916853549</f>
+        <v>-0.00143388578933054</v>
+      </c>
+      <c r="H96" s="79" t="n">
+        <f aca="false">H85/0.001996081508997</f>
+        <v>-0.332409885596544</v>
+      </c>
+      <c r="I96" s="0" t="n">
+        <f aca="false">I85/0.005768856219016</f>
+        <v>-0.53909022674858</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="32" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="B97" s="79" t="n">
+        <f aca="false">B86/2.78301018765889</f>
+        <v>-0.00074419568690822</v>
+      </c>
+      <c r="C97" s="79" t="n">
+        <f aca="false">C86/2.78216724261881</f>
+        <v>-0.00135466309056731</v>
+      </c>
+      <c r="D97" s="79" t="n">
+        <f aca="false">D86/0.001115089567007</f>
+        <v>-0.622998573987387</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <f aca="false">E86/0.006561434337706</f>
+        <v>-0.471565267586736</v>
+      </c>
+      <c r="F97" s="79" t="n">
+        <f aca="false">F86/2.75877874258439</f>
+        <v>-0.000772268888765619</v>
+      </c>
+      <c r="G97" s="79" t="n">
+        <f aca="false">G86/2.77938916853549</f>
+        <v>-0.00143388578933054</v>
+      </c>
+      <c r="H97" s="79" t="n">
+        <f aca="false">H86/0.001996081508997</f>
+        <v>-0.332409885596544</v>
+      </c>
+      <c r="I97" s="0" t="n">
+        <f aca="false">I86/0.005768856219016</f>
+        <v>-0.53909022674858</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="32" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="B98" s="79" t="n">
+        <f aca="false">B87/2.78301018765889</f>
+        <v>-0.00074419568690822</v>
+      </c>
+      <c r="C98" s="79" t="n">
+        <f aca="false">C87/2.78216724261881</f>
+        <v>-0.00135466309056731</v>
+      </c>
+      <c r="D98" s="79" t="n">
+        <f aca="false">D87/0.001115089567007</f>
+        <v>-0.622998573987387</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <f aca="false">E87/0.006561434337706</f>
+        <v>-0.471565267586736</v>
+      </c>
+      <c r="F98" s="79" t="n">
+        <f aca="false">F87/2.75877874258439</f>
+        <v>-0.000772268888765619</v>
+      </c>
+      <c r="G98" s="79" t="n">
+        <f aca="false">G87/2.77938916853549</f>
+        <v>-0.00143388578933054</v>
+      </c>
+      <c r="H98" s="79" t="n">
+        <f aca="false">H87/0.001996081508997</f>
+        <v>-0.332409885596544</v>
+      </c>
+      <c r="I98" s="0" t="n">
+        <f aca="false">I87/0.005768856219016</f>
+        <v>-0.53909022674858</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28418,7 +31131,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="71" width="7.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="71" width="10.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="71" width="9.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="71" width="7.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="71" width="9.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="71" width="9.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="71" width="7.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="71" width="10.15"/>
@@ -28429,95 +31142,95 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73" t="s">
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="73" t="s">
+      <c r="H2" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="73" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73" t="s">
+      <c r="I2" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="73" t="s">
+      <c r="N2" s="84" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="74" t="s">
+    <row r="3" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="74" t="s">
+      <c r="E3" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="85" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="85" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+    </row>
+    <row r="4" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>58</v>
-      </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-    </row>
-    <row r="4" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="71" t="s">
-        <v>60</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>26</v>
@@ -28529,21 +31242,21 @@
         <v>100</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G4" s="71" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="H4" s="71" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="I4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="73"/>
+    <row r="5" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="84"/>
       <c r="B5" s="0"/>
       <c r="C5" s="71" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D5" s="71" t="n">
         <v>1000</v>
@@ -28552,20 +31265,20 @@
         <v>100</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G5" s="71" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H5" s="71" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0"/>
       <c r="B6" s="0"/>
       <c r="C6" s="71" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D6" s="71" t="n">
         <v>1000</v>
@@ -28574,20 +31287,20 @@
         <v>500</v>
       </c>
       <c r="F6" s="71" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G6" s="71" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H6" s="71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0"/>
       <c r="B7" s="0"/>
       <c r="C7" s="71" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D7" s="71" t="n">
         <v>1000</v>
@@ -28596,19 +31309,19 @@
         <v>100</v>
       </c>
       <c r="F7" s="71" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G7" s="71" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H7" s="71" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="73"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="71" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>26</v>
@@ -28620,42 +31333,111 @@
         <v>100</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G8" s="71" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H8" s="71" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0"/>
       <c r="B9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="73"/>
+      <c r="C9" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="71" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="71" t="n">
+        <v>500</v>
+      </c>
+      <c r="F9" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="71" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="84"/>
       <c r="B10" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="71" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="71" t="n">
+        <v>100</v>
+      </c>
+      <c r="F10" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="71" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="84"/>
+      <c r="C11" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="71" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="71" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="71" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="84"/>
+      <c r="C12" s="71" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0"/>
-      <c r="B11" s="71" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="71" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="71" t="s">
+    <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="84"/>
+      <c r="C13" s="71" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0"/>
+      <c r="B14" s="71" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="71" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Model Results.xlsx
+++ b/Model Results.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="104">
   <si>
     <t xml:space="preserve">for finding prices 5 days (1 week) out:</t>
   </si>
@@ -193,7 +193,34 @@
     <t xml:space="preserve">no PCA</t>
   </si>
   <si>
+    <t xml:space="preserve">Adj Close 1day pct_change cls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_train_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_test_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">param_learning_rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">param_max_depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">param_n_estimators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">param_reg_alpha</t>
+  </si>
+  <si>
     <t xml:space="preserve">PCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mean_train_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mean_test_score</t>
   </si>
   <si>
     <t xml:space="preserve">No PCA</t>
@@ -217,10 +244,19 @@
     <t xml:space="preserve">Adj Close 1day pct_change</t>
   </si>
   <si>
-    <t xml:space="preserve">Adj Close 5day pct_change cls</t>
+    <t xml:space="preserve">Adj Close 5day pct_change</t>
   </si>
   <si>
     <t xml:space="preserve">As % of target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">findings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for predicting price, there’s no difference between PCA and no PCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for predicting percentages, no-PCA performs better</t>
   </si>
   <si>
     <t xml:space="preserve">max_iter</t>
@@ -304,25 +340,23 @@
     <t xml:space="preserve">0.0151 (1829.25%)</t>
   </si>
   <si>
-    <t xml:space="preserve">Adj Close 5day pct_change</t>
-  </si>
-  <si>
     <t xml:space="preserve">XGBoost</t>
   </si>
   <si>
-    <t xml:space="preserve">Adj Close 1day pct_change cls</t>
+    <t xml:space="preserve">Adj Close 5day pct_change cls</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="0.00E+00"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.00%"/>
+    <numFmt numFmtId="167" formatCode="0.0000%"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.00%"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -374,7 +408,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="35">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -620,27 +654,6 @@
       <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -685,7 +698,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="83">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -970,51 +983,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="17" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="35" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="36" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="37" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -28509,15 +28510,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A58"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K47" activeCellId="0" sqref="K47"/>
+      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="71" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28525,9 +28528,737 @@
         <v>52</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="B6" s="71" t="n">
+        <v>0.588799</v>
+      </c>
+      <c r="C6" s="71" t="n">
+        <v>0.500728</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="B7" s="71" t="n">
+        <v>0.590488</v>
+      </c>
+      <c r="C7" s="71" t="n">
+        <v>0.499956</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="B8" s="71" t="n">
+        <v>0.620674</v>
+      </c>
+      <c r="C8" s="71" t="n">
+        <v>0.505897</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="B9" s="71" t="n">
+        <v>0.695911</v>
+      </c>
+      <c r="C9" s="71" t="n">
+        <v>0.512216</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="B10" s="71" t="n">
+        <v>0.858909</v>
+      </c>
+      <c r="C10" s="71" t="n">
+        <v>0.506113</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B11" s="71" t="n">
+        <v>0.976405</v>
+      </c>
+      <c r="C11" s="71" t="n">
+        <v>0.501643</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="71" t="n">
+        <v>0.601102</v>
+      </c>
+      <c r="C14" s="71" t="n">
+        <v>0.518221</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" s="71" t="n">
+        <v>0.64477</v>
+      </c>
+      <c r="C15" s="71" t="n">
+        <v>0.500709</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" s="71" t="n">
+        <v>0.677122</v>
+      </c>
+      <c r="C16" s="71" t="n">
+        <v>0.501953</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" s="71" t="n">
+        <v>0.70143</v>
+      </c>
+      <c r="C17" s="71" t="n">
+        <v>0.504602</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B18" s="71" t="n">
+        <v>0.726707</v>
+      </c>
+      <c r="C18" s="71" t="n">
+        <v>0.49951</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B19" s="71" t="n">
+        <v>0.750922</v>
+      </c>
+      <c r="C19" s="71" t="n">
+        <v>0.50157</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B20" s="71" t="n">
+        <v>0.774167</v>
+      </c>
+      <c r="C20" s="71" t="n">
+        <v>0.505062</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B21" s="71" t="n">
+        <v>0.7991</v>
+      </c>
+      <c r="C21" s="71" t="n">
+        <v>0.506495</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B22" s="71" t="n">
+        <v>0.82146</v>
+      </c>
+      <c r="C22" s="71" t="n">
+        <v>0.501707</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="B25" s="71" t="n">
+        <v>0.708537</v>
+      </c>
+      <c r="C25" s="71" t="n">
+        <v>0.503777</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="B26" s="71" t="n">
+        <v>0.713432</v>
+      </c>
+      <c r="C26" s="71" t="n">
+        <v>0.504159</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="B27" s="71" t="n">
+        <v>0.717604</v>
+      </c>
+      <c r="C27" s="71" t="n">
+        <v>0.504153</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="B28" s="71" t="n">
+        <v>0.72118</v>
+      </c>
+      <c r="C28" s="71" t="n">
+        <v>0.504089</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B29" s="71" t="n">
+        <v>0.724456</v>
+      </c>
+      <c r="C29" s="71" t="n">
+        <v>0.504449</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="B30" s="71" t="n">
+        <v>0.727392</v>
+      </c>
+      <c r="C30" s="71" t="n">
+        <v>0.504785</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B31" s="71" t="n">
+        <v>0.729965</v>
+      </c>
+      <c r="C31" s="71" t="n">
+        <v>0.504946</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="B32" s="71" t="n">
+        <v>0.732349</v>
+      </c>
+      <c r="C32" s="71" t="n">
+        <v>0.505045</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="B35" s="71" t="n">
+        <v>0.72166</v>
+      </c>
+      <c r="C35" s="71" t="n">
+        <v>0.504601</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="B36" s="71" t="n">
+        <v>0.721655</v>
+      </c>
+      <c r="C36" s="71" t="n">
+        <v>0.504644</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="B37" s="71" t="n">
+        <v>0.721684</v>
+      </c>
+      <c r="C37" s="71" t="n">
+        <v>0.504482</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="B38" s="71" t="n">
+        <v>0.721702</v>
+      </c>
+      <c r="C38" s="71" t="n">
+        <v>0.504597</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="B39" s="71" t="n">
+        <v>0.72177</v>
+      </c>
+      <c r="C39" s="71" t="n">
+        <v>0.504353</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B40" s="71" t="n">
+        <v>0.722716</v>
+      </c>
+      <c r="C40" s="71" t="n">
+        <v>0.503875</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="71" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="B50" s="71" t="n">
+        <v>0.602489</v>
+      </c>
+      <c r="C50" s="71" t="n">
+        <v>0.51098</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="B51" s="71" t="n">
+        <v>0.604411</v>
+      </c>
+      <c r="C51" s="71" t="n">
+        <v>0.512117</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="B52" s="71" t="n">
+        <v>0.619325</v>
+      </c>
+      <c r="C52" s="71" t="n">
+        <v>0.512607</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="B53" s="71" t="n">
+        <v>0.706715</v>
+      </c>
+      <c r="C53" s="71" t="n">
+        <v>0.515139</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="B54" s="71" t="n">
+        <v>0.862819</v>
+      </c>
+      <c r="C54" s="71" t="n">
+        <v>0.510075</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B55" s="71" t="n">
+        <v>0.972989</v>
+      </c>
+      <c r="C55" s="71" t="n">
+        <v>0.505715</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="71" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B59" s="71" t="n">
+        <v>0.600539</v>
+      </c>
+      <c r="C59" s="71" t="n">
+        <v>0.515303</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B60" s="71" t="n">
+        <v>0.642894</v>
+      </c>
+      <c r="C60" s="71" t="n">
+        <v>0.513368</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B61" s="71" t="n">
+        <v>0.678683</v>
+      </c>
+      <c r="C61" s="71" t="n">
+        <v>0.510288</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B62" s="71" t="n">
+        <v>0.706406</v>
+      </c>
+      <c r="C62" s="71" t="n">
+        <v>0.510719</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B63" s="71" t="n">
+        <v>0.735712</v>
+      </c>
+      <c r="C63" s="71" t="n">
+        <v>0.512142</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B64" s="71" t="n">
+        <v>0.763844</v>
+      </c>
+      <c r="C64" s="71" t="n">
+        <v>0.509424</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B65" s="71" t="n">
+        <v>0.786732</v>
+      </c>
+      <c r="C65" s="71" t="n">
+        <v>0.511646</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B66" s="71" t="n">
+        <v>0.809514</v>
+      </c>
+      <c r="C66" s="71" t="n">
+        <v>0.506977</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B67" s="71" t="n">
+        <v>0.828796</v>
+      </c>
+      <c r="C67" s="71" t="n">
+        <v>0.510082</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" s="71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="B71" s="71" t="n">
+        <v>0.716045</v>
+      </c>
+      <c r="C71" s="71" t="n">
+        <v>0.511619</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="B72" s="71" t="n">
+        <v>0.720636</v>
+      </c>
+      <c r="C72" s="71" t="n">
+        <v>0.511434</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="B73" s="71" t="n">
+        <v>0.724447</v>
+      </c>
+      <c r="C73" s="71" t="n">
+        <v>0.511322</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="B74" s="71" t="n">
+        <v>0.727723</v>
+      </c>
+      <c r="C74" s="71" t="n">
+        <v>0.511291</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B75" s="71" t="n">
+        <v>0.730453</v>
+      </c>
+      <c r="C75" s="71" t="n">
+        <v>0.511138</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="B76" s="71" t="n">
+        <v>0.732973</v>
+      </c>
+      <c r="C76" s="71" t="n">
+        <v>0.51095</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B77" s="71" t="n">
+        <v>0.735325</v>
+      </c>
+      <c r="C77" s="71" t="n">
+        <v>0.510597</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="B78" s="71" t="n">
+        <v>0.737394</v>
+      </c>
+      <c r="C78" s="71" t="n">
+        <v>0.51049</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="C80" s="71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="B82" s="71" t="n">
+        <v>0.727991</v>
+      </c>
+      <c r="C82" s="71" t="n">
+        <v>0.511221</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="B83" s="71" t="n">
+        <v>0.728017</v>
+      </c>
+      <c r="C83" s="71" t="n">
+        <v>0.511195</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="B84" s="71" t="n">
+        <v>0.728005</v>
+      </c>
+      <c r="C84" s="71" t="n">
+        <v>0.511049</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="B85" s="71" t="n">
+        <v>0.728005</v>
+      </c>
+      <c r="C85" s="71" t="n">
+        <v>0.510945</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="B86" s="71" t="n">
+        <v>0.728257</v>
+      </c>
+      <c r="C86" s="71" t="n">
+        <v>0.510797</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B87" s="71" t="n">
+        <v>0.728471</v>
+      </c>
+      <c r="C87" s="71" t="n">
+        <v>0.511425</v>
       </c>
     </row>
   </sheetData>
@@ -28546,10 +29277,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:R98"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C69" activeCellId="0" sqref="C69"/>
+      <selection pane="topLeft" activeCell="N24" activeCellId="0" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28558,64 +29289,64 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>54</v>
+      <c r="A1" s="72" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="71" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="73" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="32" t="n">
+      <c r="A4" s="74" t="n">
         <v>1E-010</v>
       </c>
-      <c r="B4" s="72" t="n">
+      <c r="B4" s="75" t="n">
         <v>-0.00111293540284043</v>
       </c>
-      <c r="C4" s="73" t="n">
+      <c r="C4" s="75" t="n">
         <v>-0.00282414495713061</v>
       </c>
-      <c r="D4" s="73" t="n">
+      <c r="D4" s="75" t="n">
         <v>-0.000697946339227086</v>
       </c>
-      <c r="E4" s="73" t="n">
+      <c r="E4" s="75" t="n">
         <v>-0.00304118617429148</v>
       </c>
-      <c r="F4" s="74" t="n">
+      <c r="F4" s="75" t="n">
         <v>-0.00135596626242466</v>
       </c>
       <c r="G4" s="75" t="n">
@@ -28629,724 +29360,787 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32" t="n">
+      <c r="A5" s="74" t="n">
         <v>1E-009</v>
       </c>
-      <c r="B5" s="76" t="n">
+      <c r="B5" s="75" t="n">
         <v>-0.00111293371315058</v>
       </c>
-      <c r="C5" s="76" t="n">
+      <c r="C5" s="75" t="n">
         <v>-0.00282414319570515</v>
       </c>
-      <c r="D5" s="76" t="n">
+      <c r="D5" s="75" t="n">
         <v>-0.000697946354035176</v>
       </c>
-      <c r="E5" s="76" t="n">
+      <c r="E5" s="75" t="n">
         <v>-0.00304118618738589</v>
       </c>
-      <c r="F5" s="77" t="n">
+      <c r="F5" s="75" t="n">
         <v>-0.0013559640302148</v>
       </c>
-      <c r="G5" s="77" t="n">
+      <c r="G5" s="75" t="n">
         <v>-0.00291327494139364</v>
       </c>
-      <c r="H5" s="77" t="n">
+      <c r="H5" s="75" t="n">
         <v>-0.000742094205402627</v>
       </c>
-      <c r="I5" s="77" t="n">
+      <c r="I5" s="75" t="n">
         <v>-0.00266934514913159</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="n">
+      <c r="A6" s="74" t="n">
         <v>1E-008</v>
       </c>
-      <c r="B6" s="76" t="n">
+      <c r="B6" s="75" t="n">
         <v>-0.00111291681821082</v>
       </c>
-      <c r="C6" s="76" t="n">
+      <c r="C6" s="75" t="n">
         <v>-0.00282412559097047</v>
       </c>
-      <c r="D6" s="76" t="n">
+      <c r="D6" s="75" t="n">
         <v>-0.000697946509613028</v>
       </c>
-      <c r="E6" s="76" t="n">
+      <c r="E6" s="75" t="n">
         <v>-0.00304118632476938</v>
       </c>
-      <c r="F6" s="77" t="n">
+      <c r="F6" s="75" t="n">
         <v>-0.00135594171035305</v>
       </c>
-      <c r="G6" s="77" t="n">
+      <c r="G6" s="75" t="n">
         <v>-0.00291325060517979</v>
       </c>
-      <c r="H6" s="77" t="n">
+      <c r="H6" s="75" t="n">
         <v>-0.000742092494733002</v>
       </c>
-      <c r="I6" s="77" t="n">
+      <c r="I6" s="75" t="n">
         <v>-0.00266933542928393</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="n">
+      <c r="A7" s="74" t="n">
         <v>1E-007</v>
       </c>
-      <c r="B7" s="76" t="n">
+      <c r="B7" s="75" t="n">
         <v>-0.00111274884219232</v>
       </c>
-      <c r="C7" s="76" t="n">
+      <c r="C7" s="75" t="n">
         <v>-0.0028239506054595</v>
       </c>
-      <c r="D7" s="76" t="n">
+      <c r="D7" s="75" t="n">
         <v>-0.000697948815583526</v>
       </c>
-      <c r="E7" s="76" t="n">
+      <c r="E7" s="75" t="n">
         <v>-0.00304118834270706</v>
       </c>
-      <c r="F7" s="77" t="n">
+      <c r="F7" s="75" t="n">
         <v>-0.00135571798010367</v>
       </c>
-      <c r="G7" s="77" t="n">
+      <c r="G7" s="75" t="n">
         <v>-0.00291299676426354</v>
       </c>
-      <c r="H7" s="77" t="n">
+      <c r="H7" s="75" t="n">
         <v>-0.000742076142398709</v>
       </c>
-      <c r="I7" s="77" t="n">
+      <c r="I7" s="75" t="n">
         <v>-0.00266923909233181</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="32" t="n">
+      <c r="A8" s="74" t="n">
         <v>1E-006</v>
       </c>
-      <c r="B8" s="76" t="n">
+      <c r="B8" s="75" t="n">
         <v>-0.00111108689110401</v>
       </c>
-      <c r="C8" s="76" t="n">
+      <c r="C8" s="75" t="n">
         <v>-0.00282225287629909</v>
       </c>
-      <c r="D8" s="76" t="n">
+      <c r="D8" s="75" t="n">
         <v>-0.000698037407777804</v>
       </c>
-      <c r="E8" s="76" t="n">
+      <c r="E8" s="75" t="n">
         <v>-0.00304125295274483</v>
       </c>
-      <c r="F8" s="77" t="n">
+      <c r="F8" s="75" t="n">
         <v>-0.00135357087357215</v>
       </c>
-      <c r="G8" s="77" t="n">
+      <c r="G8" s="75" t="n">
         <v>-0.00291096081902446</v>
       </c>
-      <c r="H8" s="77" t="n">
+      <c r="H8" s="75" t="n">
         <v>-0.000742027158295506</v>
       </c>
-      <c r="I8" s="77" t="n">
+      <c r="I8" s="75" t="n">
         <v>-0.0026684512193998</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="32" t="n">
+      <c r="A9" s="74" t="n">
         <v>1E-005</v>
       </c>
-      <c r="B9" s="76" t="n">
+      <c r="B9" s="75" t="n">
         <v>-0.00109545216856461</v>
       </c>
-      <c r="C9" s="76" t="n">
+      <c r="C9" s="75" t="n">
         <v>-0.00280667914358119</v>
       </c>
-      <c r="D9" s="76" t="n">
+      <c r="D9" s="75" t="n">
         <v>-0.000699040313410207</v>
       </c>
-      <c r="E9" s="76" t="n">
+      <c r="E9" s="75" t="n">
         <v>-0.00304296287503557</v>
       </c>
-      <c r="F9" s="77" t="n">
+      <c r="F9" s="75" t="n">
         <v>-0.00133376043969365</v>
       </c>
-      <c r="G9" s="77" t="n">
+      <c r="G9" s="75" t="n">
         <v>-0.0028930388719619</v>
       </c>
-      <c r="H9" s="77" t="n">
+      <c r="H9" s="75" t="n">
         <v>-0.000742015114884388</v>
       </c>
-      <c r="I9" s="77" t="n">
+      <c r="I9" s="75" t="n">
         <v>-0.00266689726104487</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="32" t="n">
+      <c r="A10" s="74" t="n">
         <v>0.0001</v>
       </c>
-      <c r="B10" s="76" t="n">
+      <c r="B10" s="75" t="n">
         <v>-0.000951001585219408</v>
       </c>
-      <c r="C10" s="76" t="n">
+      <c r="C10" s="75" t="n">
         <v>-0.00266549852838807</v>
       </c>
-      <c r="D10" s="76" t="n">
+      <c r="D10" s="75" t="n">
         <v>-0.000700097847035075</v>
       </c>
-      <c r="E10" s="76" t="n">
+      <c r="E10" s="75" t="n">
         <v>-0.00305321724402439</v>
       </c>
-      <c r="F10" s="77" t="n">
+      <c r="F10" s="75" t="n">
         <v>-0.00114910275528798</v>
       </c>
-      <c r="G10" s="77" t="n">
+      <c r="G10" s="75" t="n">
         <v>-0.00274525988528818</v>
       </c>
-      <c r="H10" s="77" t="n">
+      <c r="H10" s="75" t="n">
         <v>-0.000741866903437737</v>
       </c>
-      <c r="I10" s="77" t="n">
+      <c r="I10" s="75" t="n">
         <v>-0.00266680781006204</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="32" t="n">
+      <c r="A11" s="74" t="n">
         <v>0.001</v>
       </c>
-      <c r="B11" s="76" t="n">
+      <c r="B11" s="75" t="n">
         <v>-0.000420641696961403</v>
       </c>
-      <c r="C11" s="76" t="n">
+      <c r="C11" s="75" t="n">
         <v>-0.00214803263901152</v>
       </c>
-      <c r="D11" s="76" t="n">
+      <c r="D11" s="75" t="n">
         <v>-0.000702725810807464</v>
       </c>
-      <c r="E11" s="76" t="n">
+      <c r="E11" s="75" t="n">
         <v>-0.00306807339859227</v>
       </c>
-      <c r="F11" s="77" t="n">
+      <c r="F11" s="75" t="n">
         <v>-0.000531390052225809</v>
       </c>
-      <c r="G11" s="77" t="n">
+      <c r="G11" s="75" t="n">
         <v>-0.002253331687501</v>
       </c>
-      <c r="H11" s="77" t="n">
+      <c r="H11" s="75" t="n">
         <v>-0.000742084078181588</v>
       </c>
-      <c r="I11" s="77" t="n">
+      <c r="I11" s="75" t="n">
         <v>-0.00267147142199126</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="n">
+      <c r="A12" s="74" t="n">
         <v>0.01</v>
       </c>
-      <c r="B12" s="76" t="n">
+      <c r="B12" s="75" t="n">
         <v>-0.000449769312716028</v>
       </c>
-      <c r="C12" s="76" t="n">
+      <c r="C12" s="75" t="n">
         <v>-0.00218689107338826</v>
       </c>
-      <c r="D12" s="76" t="n">
+      <c r="D12" s="75" t="n">
         <v>-0.000702725810807464</v>
       </c>
-      <c r="E12" s="76" t="n">
+      <c r="E12" s="75" t="n">
         <v>-0.00306964567825532</v>
       </c>
-      <c r="F12" s="77" t="n">
+      <c r="F12" s="75" t="n">
         <v>-0.000564639024443468</v>
       </c>
-      <c r="G12" s="77" t="n">
+      <c r="G12" s="75" t="n">
         <v>-0.00229396302026837</v>
       </c>
-      <c r="H12" s="77" t="n">
+      <c r="H12" s="75" t="n">
         <v>-0.000742084078181588</v>
       </c>
-      <c r="I12" s="77" t="n">
+      <c r="I12" s="75" t="n">
         <v>-0.00267163595460066</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="78" t="n">
+      <c r="A13" s="74" t="n">
         <v>0.1</v>
       </c>
-      <c r="B13" s="73" t="n">
+      <c r="B13" s="75" t="n">
         <v>-0.00468758048692385</v>
       </c>
-      <c r="C13" s="72" t="n">
+      <c r="C13" s="75" t="n">
         <v>-0.00650323234156696</v>
       </c>
-      <c r="D13" s="72" t="n">
+      <c r="D13" s="75" t="n">
         <v>-0.000702725810807464</v>
       </c>
-      <c r="E13" s="72" t="n">
+      <c r="E13" s="75" t="n">
         <v>-0.00306964567825532</v>
       </c>
       <c r="F13" s="75" t="n">
         <v>-0.00486270378259332</v>
       </c>
-      <c r="G13" s="74" t="n">
+      <c r="G13" s="75" t="n">
         <v>-0.00658565108550885</v>
       </c>
-      <c r="H13" s="74" t="n">
+      <c r="H13" s="75" t="n">
         <v>-0.000742084078181588</v>
       </c>
-      <c r="I13" s="74" t="n">
+      <c r="I13" s="75" t="n">
         <v>-0.00267163595460066</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="71" t="s">
-        <v>61</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B17" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="76"/>
+      <c r="P17" s="76"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="32" t="n">
+      <c r="A18" s="74" t="n">
         <v>1E-010</v>
       </c>
-      <c r="B18" s="79" t="n">
+      <c r="B18" s="77" t="n">
         <f aca="false">B4/2.78594350245436</f>
         <v>-0.00039948240223104</v>
       </c>
-      <c r="C18" s="79" t="n">
+      <c r="C18" s="77" t="n">
         <f aca="false">C4/2.78913990345228</f>
         <v>-0.00101255048326368</v>
       </c>
-      <c r="D18" s="79" t="n">
+      <c r="D18" s="77" t="n">
         <f aca="false">D4/0.001137033158201</f>
         <v>-0.613831121980091</v>
       </c>
-      <c r="E18" s="79" t="n">
+      <c r="E18" s="77" t="n">
         <f aca="false">E4/0.006986039944106</f>
         <v>-0.435323330330694</v>
       </c>
-      <c r="F18" s="79" t="n">
+      <c r="F18" s="77" t="n">
         <f aca="false">F4/2.78594350245436</f>
         <v>-0.000486717071336904</v>
       </c>
-      <c r="G18" s="79" t="n">
+      <c r="G18" s="77" t="n">
         <f aca="false">G4/2.78913990345228</f>
         <v>-0.00104450743849384</v>
       </c>
-      <c r="H18" s="79" t="n">
+      <c r="H18" s="77" t="n">
         <f aca="false">H4/0.001137033158201</f>
         <v>-0.65265851912419</v>
       </c>
-      <c r="I18" s="79" t="n">
+      <c r="I18" s="77" t="n">
         <f aca="false">I4/0.006986039944106</f>
         <v>-0.382097174265467</v>
       </c>
+      <c r="K18" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L18" s="74"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="77"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="32" t="n">
+      <c r="A19" s="74" t="n">
         <v>1E-009</v>
       </c>
-      <c r="B19" s="79" t="n">
+      <c r="B19" s="77" t="n">
         <f aca="false">B5/2.78594350245436</f>
         <v>-0.000399481795725616</v>
       </c>
-      <c r="C19" s="79" t="n">
+      <c r="C19" s="77" t="n">
         <f aca="false">C5/2.78913990345228</f>
         <v>-0.0010125498517337</v>
       </c>
-      <c r="D19" s="79" t="n">
+      <c r="D19" s="77" t="n">
         <f aca="false">D5/0.001137033158201</f>
         <v>-0.613831135003537</v>
       </c>
-      <c r="E19" s="79" t="n">
+      <c r="E19" s="77" t="n">
         <f aca="false">E5/0.006986039944106</f>
         <v>-0.435323332205062</v>
       </c>
-      <c r="F19" s="79" t="n">
+      <c r="F19" s="77" t="n">
         <f aca="false">F5/2.78594350245436</f>
         <v>-0.000486716270096728</v>
       </c>
-      <c r="G19" s="79" t="n">
+      <c r="G19" s="77" t="n">
         <f aca="false">G5/2.78913990345228</f>
         <v>-0.00104450656555009</v>
       </c>
-      <c r="H19" s="79" t="n">
+      <c r="H19" s="77" t="n">
         <f aca="false">H5/0.001137033158201</f>
         <v>-0.652658368008158</v>
       </c>
-      <c r="I19" s="79" t="n">
+      <c r="I19" s="77" t="n">
         <f aca="false">I5/0.006986039944106</f>
         <v>-0.382097035013902</v>
       </c>
+      <c r="K19" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L19" s="74"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="32" t="n">
+      <c r="A20" s="74" t="n">
         <v>1E-008</v>
       </c>
-      <c r="B20" s="79" t="n">
+      <c r="B20" s="77" t="n">
         <f aca="false">B6/2.78594350245436</f>
         <v>-0.000399475731374438</v>
       </c>
-      <c r="C20" s="79" t="n">
+      <c r="C20" s="77" t="n">
         <f aca="false">C6/2.78913990345228</f>
         <v>-0.00101254353984714</v>
       </c>
-      <c r="D20" s="79" t="n">
+      <c r="D20" s="77" t="n">
         <f aca="false">D6/0.001137033158201</f>
         <v>-0.613831271831431</v>
       </c>
-      <c r="E20" s="79" t="n">
+      <c r="E20" s="77" t="n">
         <f aca="false">E6/0.006986039944106</f>
         <v>-0.435323351870493</v>
       </c>
-      <c r="F20" s="79" t="n">
+      <c r="F20" s="77" t="n">
         <f aca="false">F6/2.78594350245436</f>
         <v>-0.00048670825849788</v>
       </c>
-      <c r="G20" s="79" t="n">
+      <c r="G20" s="77" t="n">
         <f aca="false">G6/2.78913990345228</f>
         <v>-0.00104449784020296</v>
       </c>
-      <c r="H20" s="79" t="n">
+      <c r="H20" s="77" t="n">
         <f aca="false">H6/0.001137033158201</f>
         <v>-0.65265686350531</v>
       </c>
-      <c r="I20" s="79" t="n">
+      <c r="I20" s="77" t="n">
         <f aca="false">I6/0.006986039944106</f>
         <v>-0.382095643689526</v>
       </c>
+      <c r="L20" s="74"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="32" t="n">
+      <c r="A21" s="74" t="n">
         <v>1E-007</v>
       </c>
-      <c r="B21" s="79" t="n">
+      <c r="B21" s="77" t="n">
         <f aca="false">B7/2.78594350245436</f>
         <v>-0.000399415437252053</v>
       </c>
-      <c r="C21" s="79" t="n">
+      <c r="C21" s="77" t="n">
         <f aca="false">C7/2.78913990345228</f>
         <v>-0.00101248080168518</v>
       </c>
-      <c r="D21" s="79" t="n">
+      <c r="D21" s="78" t="n">
         <f aca="false">D7/0.001137033158201</f>
         <v>-0.613833299890579</v>
       </c>
-      <c r="E21" s="79" t="n">
+      <c r="E21" s="78" t="n">
         <f aca="false">E7/0.006986039944106</f>
         <v>-0.435323640723362</v>
       </c>
-      <c r="F21" s="79" t="n">
+      <c r="F21" s="77" t="n">
         <f aca="false">F7/2.78594350245436</f>
         <v>-0.000486627951682908</v>
       </c>
-      <c r="G21" s="79" t="n">
+      <c r="G21" s="77" t="n">
         <f aca="false">G7/2.78913990345228</f>
         <v>-0.00104440682973915</v>
       </c>
-      <c r="H21" s="79" t="n">
+      <c r="H21" s="77" t="n">
         <f aca="false">H7/0.001137033158201</f>
         <v>-0.652642481924461</v>
       </c>
-      <c r="I21" s="79" t="n">
+      <c r="I21" s="77" t="n">
         <f aca="false">I7/0.006986039944106</f>
         <v>-0.38208185376664</v>
       </c>
+      <c r="L21" s="74"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="32" t="n">
+      <c r="A22" s="74" t="n">
         <v>1E-006</v>
       </c>
-      <c r="B22" s="79" t="n">
+      <c r="B22" s="77" t="n">
         <f aca="false">B8/2.78594350245436</f>
         <v>-0.000398818888511259</v>
       </c>
-      <c r="C22" s="79" t="n">
+      <c r="C22" s="77" t="n">
         <f aca="false">C8/2.78913990345228</f>
         <v>-0.00101187210896299</v>
       </c>
-      <c r="D22" s="79" t="n">
+      <c r="D22" s="77" t="n">
         <f aca="false">D8/0.001137033158201</f>
         <v>-0.613911215115512</v>
       </c>
-      <c r="E22" s="79" t="n">
+      <c r="E22" s="77" t="n">
         <f aca="false">E8/0.006986039944106</f>
         <v>-0.435332889172882</v>
       </c>
-      <c r="F22" s="79" t="n">
+      <c r="F22" s="77" t="n">
         <f aca="false">F8/2.78594350245436</f>
         <v>-0.000485857258906968</v>
       </c>
-      <c r="G22" s="79" t="n">
+      <c r="G22" s="77" t="n">
         <f aca="false">G8/2.78913990345228</f>
         <v>-0.00104367687523362</v>
       </c>
-      <c r="H22" s="79" t="n">
+      <c r="H22" s="78" t="n">
         <f aca="false">H8/0.001137033158201</f>
         <v>-0.652599401295854</v>
       </c>
-      <c r="I22" s="79" t="n">
+      <c r="I22" s="78" t="n">
         <f aca="false">I8/0.006986039944106</f>
         <v>-0.381969075577806</v>
       </c>
+      <c r="L22" s="74"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="32" t="n">
+      <c r="A23" s="74" t="n">
         <v>1E-005</v>
       </c>
-      <c r="B23" s="79" t="n">
+      <c r="B23" s="77" t="n">
         <f aca="false">B9/2.78594350245436</f>
         <v>-0.000393206885781976</v>
       </c>
-      <c r="C23" s="79" t="n">
+      <c r="C23" s="77" t="n">
         <f aca="false">C9/2.78913990345228</f>
         <v>-0.0010062884045749</v>
       </c>
-      <c r="D23" s="79" t="n">
+      <c r="D23" s="77" t="n">
         <f aca="false">D9/0.001137033158201</f>
         <v>-0.614793252393994</v>
       </c>
-      <c r="E23" s="79" t="n">
+      <c r="E23" s="77" t="n">
         <f aca="false">E9/0.006986039944106</f>
         <v>-0.435577651914639</v>
       </c>
-      <c r="F23" s="79" t="n">
+      <c r="F23" s="77" t="n">
         <f aca="false">F9/2.78594350245436</f>
         <v>-0.00047874640620624</v>
       </c>
-      <c r="G23" s="79" t="n">
+      <c r="G23" s="77" t="n">
         <f aca="false">G9/2.78913990345228</f>
         <v>-0.00103725125741488</v>
       </c>
-      <c r="H23" s="79" t="n">
+      <c r="H23" s="77" t="n">
         <f aca="false">H9/0.001137033158201</f>
         <v>-0.652588809334633</v>
       </c>
-      <c r="I23" s="79" t="n">
+      <c r="I23" s="77" t="n">
         <f aca="false">I9/0.006986039944106</f>
         <v>-0.381746637921085</v>
       </c>
+      <c r="L23" s="74"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="77"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="32" t="n">
+      <c r="A24" s="74" t="n">
         <v>0.0001</v>
       </c>
-      <c r="B24" s="79" t="n">
+      <c r="B24" s="77" t="n">
         <f aca="false">B10/2.78594350245436</f>
         <v>-0.000341357096574857</v>
       </c>
-      <c r="C24" s="79" t="n">
+      <c r="C24" s="77" t="n">
         <f aca="false">C10/2.78913990345228</f>
         <v>-0.000955670429112871</v>
       </c>
-      <c r="D24" s="79" t="n">
+      <c r="D24" s="77" t="n">
         <f aca="false">D10/0.001137033158201</f>
         <v>-0.615723333999126</v>
       </c>
-      <c r="E24" s="79" t="n">
+      <c r="E24" s="77" t="n">
         <f aca="false">E10/0.006986039944106</f>
         <v>-0.437045489068572</v>
       </c>
-      <c r="F24" s="79" t="n">
+      <c r="F24" s="77" t="n">
         <f aca="false">F10/2.78594350245436</f>
         <v>-0.000412464486187765</v>
       </c>
-      <c r="G24" s="79" t="n">
+      <c r="G24" s="77" t="n">
         <f aca="false">G10/2.78913990345228</f>
         <v>-0.000984267544948252</v>
       </c>
-      <c r="H24" s="79" t="n">
+      <c r="H24" s="77" t="n">
         <f aca="false">H10/0.001137033158201</f>
         <v>-0.652458460060663</v>
       </c>
-      <c r="I24" s="79" t="n">
+      <c r="I24" s="77" t="n">
         <f aca="false">I10/0.006986039944106</f>
         <v>-0.381733833673822</v>
       </c>
+      <c r="L24" s="74"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="77"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="32" t="n">
+      <c r="A25" s="74" t="n">
         <v>0.001</v>
       </c>
-      <c r="B25" s="79" t="n">
+      <c r="B25" s="78" t="n">
         <f aca="false">B11/2.78594350245436</f>
         <v>-0.000150987159858348</v>
       </c>
-      <c r="C25" s="79" t="n">
+      <c r="C25" s="78" t="n">
         <f aca="false">C11/2.78913990345228</f>
         <v>-0.000770141589653776</v>
       </c>
-      <c r="D25" s="79" t="n">
+      <c r="D25" s="77" t="n">
         <f aca="false">D11/0.001137033158201</f>
         <v>-0.618034580380495</v>
       </c>
-      <c r="E25" s="79" t="n">
+      <c r="E25" s="77" t="n">
         <f aca="false">E11/0.006986039944106</f>
         <v>-0.439172037826773</v>
       </c>
-      <c r="F25" s="79" t="n">
+      <c r="F25" s="78" t="n">
         <f aca="false">F11/2.78594350245436</f>
         <v>-0.000190739708740563</v>
       </c>
-      <c r="G25" s="79" t="n">
+      <c r="G25" s="78" t="n">
         <f aca="false">G11/2.78913990345228</f>
         <v>-0.000807894822598148</v>
       </c>
-      <c r="H25" s="79" t="n">
+      <c r="H25" s="77" t="n">
         <f aca="false">H11/0.001137033158201</f>
         <v>-0.652649461301291</v>
       </c>
-      <c r="I25" s="79" t="n">
+      <c r="I25" s="77" t="n">
         <f aca="false">I11/0.006986039944106</f>
         <v>-0.382401395263297</v>
       </c>
+      <c r="L25" s="74"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="77"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="32" t="n">
+      <c r="A26" s="74" t="n">
         <v>0.01</v>
       </c>
-      <c r="B26" s="79" t="n">
+      <c r="B26" s="77" t="n">
         <f aca="false">B12/2.78594350245436</f>
         <v>-0.000161442366767234</v>
       </c>
-      <c r="C26" s="79" t="n">
+      <c r="C26" s="77" t="n">
         <f aca="false">C12/2.78913990345228</f>
         <v>-0.000784073638859569</v>
       </c>
-      <c r="D26" s="79" t="n">
+      <c r="D26" s="77" t="n">
         <f aca="false">D12/0.001137033158201</f>
         <v>-0.618034580380495</v>
       </c>
-      <c r="E26" s="79" t="n">
+      <c r="E26" s="77" t="n">
         <f aca="false">E12/0.006986039944106</f>
         <v>-0.439397098043381</v>
       </c>
-      <c r="F26" s="79" t="n">
+      <c r="F26" s="77" t="n">
         <f aca="false">F12/2.78594350245436</f>
         <v>-0.000202674255219473</v>
       </c>
-      <c r="G26" s="79" t="n">
+      <c r="G26" s="77" t="n">
         <f aca="false">G12/2.78913990345228</f>
         <v>-0.000822462515210871</v>
       </c>
-      <c r="H26" s="79" t="n">
+      <c r="H26" s="77" t="n">
         <f aca="false">H12/0.001137033158201</f>
         <v>-0.652649461301291</v>
       </c>
-      <c r="I26" s="79" t="n">
+      <c r="I26" s="77" t="n">
         <f aca="false">I12/0.006986039944106</f>
         <v>-0.382424946890644</v>
       </c>
+      <c r="L26" s="74"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="77"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="78" t="n">
+      <c r="A27" s="74" t="n">
         <v>0.1</v>
       </c>
-      <c r="B27" s="79" t="n">
+      <c r="B27" s="77" t="n">
         <f aca="false">B13/2.78594350245436</f>
         <v>-0.00168258275259142</v>
       </c>
-      <c r="C27" s="79" t="n">
+      <c r="C27" s="77" t="n">
         <f aca="false">C13/2.78913990345228</f>
         <v>-0.00233162643921789</v>
       </c>
-      <c r="D27" s="79" t="n">
+      <c r="D27" s="77" t="n">
         <f aca="false">D13/0.001137033158201</f>
         <v>-0.618034580380495</v>
       </c>
-      <c r="E27" s="79" t="n">
+      <c r="E27" s="77" t="n">
         <f aca="false">E13/0.006986039944106</f>
         <v>-0.439397098043381</v>
       </c>
-      <c r="F27" s="79" t="n">
+      <c r="F27" s="77" t="n">
         <f aca="false">F13/2.78594350245436</f>
         <v>-0.00174544235312359</v>
       </c>
-      <c r="G27" s="79" t="n">
+      <c r="G27" s="77" t="n">
         <f aca="false">G13/2.78913990345228</f>
         <v>-0.00236117631724296</v>
       </c>
-      <c r="H27" s="79" t="n">
+      <c r="H27" s="77" t="n">
         <f aca="false">H13/0.001137033158201</f>
         <v>-0.652649461301291</v>
       </c>
-      <c r="I27" s="79" t="n">
+      <c r="I27" s="77" t="n">
         <f aca="false">I13/0.006986039944106</f>
         <v>-0.382424946890644</v>
       </c>
+      <c r="L27" s="74"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="77"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="78"/>
+      <c r="A28" s="74"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="G30" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="H30" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="I30" s="71" t="s">
-        <v>61</v>
+        <v>75</v>
+      </c>
+      <c r="B30" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="I30" s="73" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="78" t="n">
+      <c r="A31" s="74" t="n">
         <v>10</v>
       </c>
-      <c r="B31" s="73" t="n">
+      <c r="B31" s="75" t="n">
         <v>-0.00418950155250626</v>
       </c>
-      <c r="C31" s="73" t="n">
+      <c r="C31" s="75" t="n">
         <v>-0.00589857300792563</v>
       </c>
-      <c r="D31" s="73" t="n">
+      <c r="D31" s="75" t="n">
         <v>-0.000699821673541167</v>
       </c>
-      <c r="E31" s="73" t="n">
+      <c r="E31" s="75" t="n">
         <v>-0.00305221798475555</v>
       </c>
       <c r="F31" s="75" t="n">
@@ -29363,1740 +30157,1785 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="32" t="n">
+      <c r="A32" s="74" t="n">
         <v>100</v>
       </c>
-      <c r="B32" s="76" t="n">
+      <c r="B32" s="75" t="n">
         <v>-0.000837907548335361</v>
       </c>
-      <c r="C32" s="76" t="n">
+      <c r="C32" s="75" t="n">
         <v>-0.00256726731164869</v>
       </c>
-      <c r="D32" s="76" t="n">
+      <c r="D32" s="75" t="n">
         <v>-0.000699794208077064</v>
       </c>
-      <c r="E32" s="76" t="n">
+      <c r="E32" s="75" t="n">
         <v>-0.00305112837241017</v>
       </c>
-      <c r="F32" s="77" t="n">
+      <c r="F32" s="75" t="n">
         <v>-0.000955880946032487</v>
       </c>
-      <c r="G32" s="77" t="n">
+      <c r="G32" s="75" t="n">
         <v>-0.00268912328761873</v>
       </c>
-      <c r="H32" s="77" t="n">
+      <c r="H32" s="75" t="n">
         <v>-0.00074196961743598</v>
       </c>
-      <c r="I32" s="77" t="n">
+      <c r="I32" s="75" t="n">
         <v>-0.0026687965932604</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="32" t="n">
+      <c r="A33" s="74" t="n">
         <v>1000</v>
       </c>
-      <c r="B33" s="76" t="n">
+      <c r="B33" s="75" t="n">
         <v>-0.000837907548335361</v>
       </c>
-      <c r="C33" s="76" t="n">
+      <c r="C33" s="75" t="n">
         <v>-0.00256700491974116</v>
       </c>
-      <c r="D33" s="76" t="n">
+      <c r="D33" s="75" t="n">
         <v>-0.000699761455773573</v>
       </c>
-      <c r="E33" s="76" t="n">
+      <c r="E33" s="75" t="n">
         <v>-0.00305073323066833</v>
       </c>
-      <c r="F33" s="77" t="n">
+      <c r="F33" s="75" t="n">
         <v>-0.000955880946032487</v>
       </c>
-      <c r="G33" s="77" t="n">
+      <c r="G33" s="75" t="n">
         <v>-0.00268896243097585</v>
       </c>
-      <c r="H33" s="77" t="n">
+      <c r="H33" s="75" t="n">
         <v>-0.000742167641530625</v>
       </c>
-      <c r="I33" s="77" t="n">
+      <c r="I33" s="75" t="n">
         <v>-0.0026687082011818</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="32" t="n">
+      <c r="A34" s="74" t="n">
         <v>10000</v>
       </c>
-      <c r="B34" s="76" t="n">
+      <c r="B34" s="75" t="n">
         <v>-0.000837907548335361</v>
       </c>
-      <c r="C34" s="76" t="n">
+      <c r="C34" s="75" t="n">
         <v>-0.00256694475062215</v>
       </c>
-      <c r="D34" s="76" t="n">
+      <c r="D34" s="75" t="n">
         <v>-0.000699719777918008</v>
       </c>
-      <c r="E34" s="76" t="n">
+      <c r="E34" s="75" t="n">
         <v>-0.00305069965316976</v>
       </c>
-      <c r="F34" s="77" t="n">
+      <c r="F34" s="75" t="n">
         <v>-0.000955880946032487</v>
       </c>
-      <c r="G34" s="77" t="n">
+      <c r="G34" s="75" t="n">
         <v>-0.00268902315871548</v>
       </c>
-      <c r="H34" s="77" t="n">
+      <c r="H34" s="75" t="n">
         <v>-0.000742201423760159</v>
       </c>
-      <c r="I34" s="77" t="n">
+      <c r="I34" s="75" t="n">
         <v>-0.00266903302312579</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="32" t="n">
+      <c r="A35" s="74" t="n">
         <v>100000</v>
       </c>
-      <c r="B35" s="76" t="n">
+      <c r="B35" s="75" t="n">
         <v>-0.000837907548335361</v>
       </c>
-      <c r="C35" s="76" t="n">
+      <c r="C35" s="75" t="n">
         <v>-0.00256682666912852</v>
       </c>
-      <c r="D35" s="76" t="n">
+      <c r="D35" s="75" t="n">
         <v>-0.000699635575564522</v>
       </c>
-      <c r="E35" s="76" t="n">
+      <c r="E35" s="75" t="n">
         <v>-0.00305063541544027</v>
       </c>
-      <c r="F35" s="77" t="n">
+      <c r="F35" s="75" t="n">
         <v>-0.000955880946032487</v>
       </c>
-      <c r="G35" s="77" t="n">
+      <c r="G35" s="75" t="n">
         <v>-0.00268925408557493</v>
       </c>
-      <c r="H35" s="77" t="n">
+      <c r="H35" s="75" t="n">
         <v>-0.000742064946149555</v>
       </c>
-      <c r="I35" s="77" t="n">
+      <c r="I35" s="75" t="n">
         <v>-0.00266973552061847</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="32" t="n">
+      <c r="A36" s="74" t="n">
         <v>1000000</v>
       </c>
-      <c r="B36" s="76" t="n">
+      <c r="B36" s="75" t="n">
         <v>-0.000837907548335361</v>
       </c>
-      <c r="C36" s="76" t="n">
+      <c r="C36" s="75" t="n">
         <v>-0.00256682450349221</v>
       </c>
-      <c r="D36" s="76" t="n">
+      <c r="D36" s="75" t="n">
         <v>-0.000699633011249336</v>
       </c>
-      <c r="E36" s="76" t="n">
+      <c r="E36" s="75" t="n">
         <v>-0.00305063337139949</v>
       </c>
-      <c r="F36" s="77" t="n">
+      <c r="F36" s="75" t="n">
         <v>-0.000955880946032487</v>
       </c>
-      <c r="G36" s="77" t="n">
+      <c r="G36" s="75" t="n">
         <v>-0.00268929696441721</v>
       </c>
-      <c r="H36" s="77" t="n">
+      <c r="H36" s="75" t="n">
         <v>-0.000742053910655911</v>
       </c>
-      <c r="I36" s="77" t="n">
+      <c r="I36" s="75" t="n">
         <v>-0.00266984146754958</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="32" t="n">
+      <c r="A37" s="74" t="n">
         <v>10000000</v>
       </c>
-      <c r="B37" s="72" t="n">
+      <c r="B37" s="75" t="n">
         <v>-0.000837907548335361</v>
       </c>
-      <c r="C37" s="72" t="n">
+      <c r="C37" s="75" t="n">
         <v>-0.00256682450349221</v>
       </c>
-      <c r="D37" s="72" t="n">
+      <c r="D37" s="75" t="n">
         <v>-0.000699633011249336</v>
       </c>
-      <c r="E37" s="72" t="n">
+      <c r="E37" s="75" t="n">
         <v>-0.00305063337139949</v>
       </c>
-      <c r="F37" s="74" t="n">
+      <c r="F37" s="75" t="n">
         <v>-0.000955880946032487</v>
       </c>
-      <c r="G37" s="74" t="n">
+      <c r="G37" s="75" t="n">
         <v>-0.00268929696441721</v>
       </c>
-      <c r="H37" s="74" t="n">
+      <c r="H37" s="75" t="n">
         <v>-0.000742053910655911</v>
       </c>
-      <c r="I37" s="74" t="n">
+      <c r="I37" s="75" t="n">
         <v>-0.00266984146754958</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="F41" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="G41" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="H41" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="I41" s="71" t="s">
-        <v>61</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B41" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="G41" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="H41" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="I41" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="L41" s="76"/>
+      <c r="M41" s="76"/>
+      <c r="N41" s="76"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="78" t="n">
+      <c r="A42" s="74" t="n">
         <v>10</v>
       </c>
-      <c r="B42" s="79" t="n">
+      <c r="B42" s="77" t="n">
         <f aca="false">B31/2.78594350245436</f>
         <v>-0.00150379989716783</v>
       </c>
-      <c r="C42" s="79" t="n">
+      <c r="C42" s="77" t="n">
         <f aca="false">C31/2.78913990345228</f>
         <v>-0.00211483583187226</v>
       </c>
-      <c r="D42" s="79" t="n">
+      <c r="D42" s="77" t="n">
         <f aca="false">D31/0.001137033158201</f>
         <v>-0.615480444429972</v>
       </c>
-      <c r="E42" s="79" t="n">
+      <c r="E42" s="77" t="n">
         <f aca="false">E31/0.006986039944106</f>
         <v>-0.4369024524875</v>
       </c>
-      <c r="F42" s="79" t="n">
+      <c r="F42" s="77" t="n">
         <f aca="false">F31/2.78594350245436</f>
         <v>-0.00176523470670218</v>
       </c>
-      <c r="G42" s="79" t="n">
+      <c r="G42" s="77" t="n">
         <f aca="false">G31/2.78913990345228</f>
         <v>-0.00207933156765786</v>
       </c>
-      <c r="H42" s="79" t="n">
+      <c r="H42" s="78" t="n">
         <f aca="false">H31/0.001137033158201</f>
         <v>-0.652444993452889</v>
       </c>
-      <c r="I42" s="79" t="n">
+      <c r="I42" s="77" t="n">
         <f aca="false">I31/0.006986039944106</f>
         <v>-0.38218497720495</v>
       </c>
+      <c r="M42" s="77"/>
+      <c r="N42" s="77"/>
+      <c r="O42" s="77"/>
+      <c r="P42" s="77"/>
+      <c r="Q42" s="77"/>
+      <c r="R42" s="77"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="32" t="n">
+      <c r="A43" s="74" t="n">
         <v>100</v>
       </c>
-      <c r="B43" s="79" t="n">
+      <c r="B43" s="78" t="n">
         <f aca="false">B32/2.78594350245436</f>
         <v>-0.000300762577416656</v>
       </c>
-      <c r="C43" s="79" t="n">
+      <c r="C43" s="78" t="n">
         <f aca="false">C32/2.78913990345228</f>
         <v>-0.000920451250391218</v>
       </c>
-      <c r="D43" s="79" t="n">
+      <c r="D43" s="77" t="n">
         <f aca="false">D32/0.001137033158201</f>
         <v>-0.615456289053408</v>
       </c>
-      <c r="E43" s="79" t="n">
+      <c r="E43" s="78" t="n">
         <f aca="false">E32/0.006986039944106</f>
         <v>-0.436746482531115</v>
       </c>
-      <c r="F43" s="79" t="n">
+      <c r="F43" s="78" t="n">
         <f aca="false">F32/2.78594350245436</f>
         <v>-0.000343108517882856</v>
       </c>
-      <c r="G43" s="79" t="n">
+      <c r="G43" s="78" t="n">
         <f aca="false">G32/2.78913990345228</f>
         <v>-0.000964140695950838</v>
       </c>
-      <c r="H43" s="79" t="n">
+      <c r="H43" s="77" t="n">
         <f aca="false">H32/0.001137033158201</f>
         <v>-0.652548795155557</v>
       </c>
-      <c r="I43" s="79" t="n">
+      <c r="I43" s="78" t="n">
         <f aca="false">I32/0.006986039944106</f>
         <v>-0.382018513294075</v>
       </c>
+      <c r="M43" s="77"/>
+      <c r="N43" s="77"/>
+      <c r="O43" s="77"/>
+      <c r="P43" s="77"/>
+      <c r="Q43" s="77"/>
+      <c r="R43" s="77"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="32" t="n">
+      <c r="A44" s="74" t="n">
         <v>1000</v>
       </c>
-      <c r="B44" s="79" t="n">
+      <c r="B44" s="77" t="n">
         <f aca="false">B33/2.78594350245436</f>
         <v>-0.000300762577416656</v>
       </c>
-      <c r="C44" s="79" t="n">
+      <c r="C44" s="77" t="n">
         <f aca="false">C33/2.78913990345228</f>
         <v>-0.000920357174110853</v>
       </c>
-      <c r="D44" s="79" t="n">
+      <c r="D44" s="77" t="n">
         <f aca="false">D33/0.001137033158201</f>
         <v>-0.615427483997676</v>
       </c>
-      <c r="E44" s="79" t="n">
+      <c r="E44" s="77" t="n">
         <f aca="false">E33/0.006986039944106</f>
         <v>-0.436689920910369</v>
       </c>
-      <c r="F44" s="79" t="n">
+      <c r="F44" s="77" t="n">
         <f aca="false">F33/2.78594350245436</f>
         <v>-0.000343108517882856</v>
       </c>
-      <c r="G44" s="79" t="n">
+      <c r="G44" s="77" t="n">
         <f aca="false">G33/2.78913990345228</f>
         <v>-0.000964083023460949</v>
       </c>
-      <c r="H44" s="79" t="n">
+      <c r="H44" s="77" t="n">
         <f aca="false">H33/0.001137033158201</f>
         <v>-0.652722953748221</v>
       </c>
-      <c r="I44" s="79" t="n">
+      <c r="I44" s="77" t="n">
         <f aca="false">I33/0.006986039944106</f>
         <v>-0.382005860621129</v>
       </c>
+      <c r="M44" s="77"/>
+      <c r="N44" s="77"/>
+      <c r="O44" s="77"/>
+      <c r="P44" s="77"/>
+      <c r="Q44" s="77"/>
+      <c r="R44" s="77"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="32" t="n">
+      <c r="A45" s="74" t="n">
         <v>10000</v>
       </c>
-      <c r="B45" s="79" t="n">
+      <c r="B45" s="77" t="n">
         <f aca="false">B34/2.78594350245436</f>
         <v>-0.000300762577416656</v>
       </c>
-      <c r="C45" s="79" t="n">
+      <c r="C45" s="77" t="n">
         <f aca="false">C34/2.78913990345228</f>
         <v>-0.000920335601467998</v>
       </c>
-      <c r="D45" s="79" t="n">
+      <c r="D45" s="77" t="n">
         <f aca="false">D34/0.001137033158201</f>
         <v>-0.615390829081094</v>
       </c>
-      <c r="E45" s="79" t="n">
+      <c r="E45" s="77" t="n">
         <f aca="false">E34/0.006986039944106</f>
         <v>-0.436685114539544</v>
       </c>
-      <c r="F45" s="79" t="n">
+      <c r="F45" s="77" t="n">
         <f aca="false">F34/2.78594350245436</f>
         <v>-0.000343108517882856</v>
       </c>
-      <c r="G45" s="79" t="n">
+      <c r="G45" s="77" t="n">
         <f aca="false">G34/2.78913990345228</f>
         <v>-0.00096410479638799</v>
       </c>
-      <c r="H45" s="79" t="n">
+      <c r="H45" s="77" t="n">
         <f aca="false">H34/0.001137033158201</f>
         <v>-0.652752664605191</v>
       </c>
-      <c r="I45" s="79" t="n">
+      <c r="I45" s="77" t="n">
         <f aca="false">I34/0.006986039944106</f>
         <v>-0.382052356482388</v>
       </c>
+      <c r="M45" s="77"/>
+      <c r="N45" s="77"/>
+      <c r="O45" s="77"/>
+      <c r="P45" s="77"/>
+      <c r="Q45" s="77"/>
+      <c r="R45" s="77"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="32" t="n">
+      <c r="A46" s="74" t="n">
         <v>100000</v>
       </c>
-      <c r="B46" s="79" t="n">
+      <c r="B46" s="77" t="n">
         <f aca="false">B35/2.78594350245436</f>
         <v>-0.000300762577416656</v>
       </c>
-      <c r="C46" s="79" t="n">
+      <c r="C46" s="77" t="n">
         <f aca="false">C35/2.78913990345228</f>
         <v>-0.000920293265300681</v>
       </c>
-      <c r="D46" s="79" t="n">
+      <c r="D46" s="78" t="n">
         <f aca="false">D35/0.001137033158201</f>
         <v>-0.615316774641363</v>
       </c>
-      <c r="E46" s="79" t="n">
+      <c r="E46" s="77" t="n">
         <f aca="false">E35/0.006986039944106</f>
         <v>-0.436675919383203</v>
       </c>
-      <c r="F46" s="79" t="n">
+      <c r="F46" s="77" t="n">
         <f aca="false">F35/2.78594350245436</f>
         <v>-0.000343108517882856</v>
       </c>
-      <c r="G46" s="79" t="n">
+      <c r="G46" s="77" t="n">
         <f aca="false">G35/2.78913990345228</f>
         <v>-0.000964187591395572</v>
       </c>
-      <c r="H46" s="79" t="n">
+      <c r="H46" s="77" t="n">
         <f aca="false">H35/0.001137033158201</f>
         <v>-0.652632635026793</v>
       </c>
-      <c r="I46" s="79" t="n">
+      <c r="I46" s="77" t="n">
         <f aca="false">I35/0.006986039944106</f>
         <v>-0.382152913807898</v>
       </c>
+      <c r="M46" s="77"/>
+      <c r="N46" s="77"/>
+      <c r="O46" s="77"/>
+      <c r="P46" s="77"/>
+      <c r="Q46" s="77"/>
+      <c r="R46" s="77"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="32" t="n">
+      <c r="A47" s="74" t="n">
         <v>1000000</v>
       </c>
-      <c r="B47" s="79" t="n">
+      <c r="B47" s="77" t="n">
         <f aca="false">B36/2.78594350245436</f>
         <v>-0.000300762577416656</v>
       </c>
-      <c r="C47" s="79" t="n">
+      <c r="C47" s="77" t="n">
         <f aca="false">C36/2.78913990345228</f>
         <v>-0.000920292488847585</v>
       </c>
-      <c r="D47" s="79" t="n">
+      <c r="D47" s="77" t="n">
         <f aca="false">D36/0.001137033158201</f>
         <v>-0.615314519372757</v>
       </c>
-      <c r="E47" s="79" t="n">
+      <c r="E47" s="77" t="n">
         <f aca="false">E36/0.006986039944106</f>
         <v>-0.436675626793868</v>
       </c>
-      <c r="F47" s="79" t="n">
+      <c r="F47" s="77" t="n">
         <f aca="false">F36/2.78594350245436</f>
         <v>-0.000343108517882856</v>
       </c>
-      <c r="G47" s="79" t="n">
+      <c r="G47" s="77" t="n">
         <f aca="false">G36/2.78913990345228</f>
         <v>-0.000964202964895561</v>
       </c>
-      <c r="H47" s="79" t="n">
+      <c r="H47" s="77" t="n">
         <f aca="false">H36/0.001137033158201</f>
         <v>-0.652622929510674</v>
       </c>
-      <c r="I47" s="79" t="n">
+      <c r="I47" s="77" t="n">
         <f aca="false">I36/0.006986039944106</f>
         <v>-0.382168079328271</v>
       </c>
+      <c r="M47" s="77"/>
+      <c r="N47" s="77"/>
+      <c r="O47" s="77"/>
+      <c r="P47" s="77"/>
+      <c r="Q47" s="77"/>
+      <c r="R47" s="77"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="32" t="n">
+      <c r="A48" s="74" t="n">
         <v>10000000</v>
       </c>
-      <c r="B48" s="79" t="n">
+      <c r="B48" s="77" t="n">
         <f aca="false">B37/2.78594350245436</f>
         <v>-0.000300762577416656</v>
       </c>
-      <c r="C48" s="79" t="n">
+      <c r="C48" s="77" t="n">
         <f aca="false">C37/2.78913990345228</f>
         <v>-0.000920292488847585</v>
       </c>
-      <c r="D48" s="79" t="n">
+      <c r="D48" s="77" t="n">
         <f aca="false">D37/0.001137033158201</f>
         <v>-0.615314519372757</v>
       </c>
-      <c r="E48" s="79" t="n">
+      <c r="E48" s="77" t="n">
         <f aca="false">E37/0.006986039944106</f>
         <v>-0.436675626793868</v>
       </c>
-      <c r="F48" s="79" t="n">
+      <c r="F48" s="77" t="n">
         <f aca="false">F37/2.78594350245436</f>
         <v>-0.000343108517882856</v>
       </c>
-      <c r="G48" s="79" t="n">
+      <c r="G48" s="77" t="n">
         <f aca="false">G37/2.78913990345228</f>
         <v>-0.000964202964895561</v>
       </c>
-      <c r="H48" s="79" t="n">
+      <c r="H48" s="77" t="n">
         <f aca="false">H37/0.001137033158201</f>
         <v>-0.652622929510674</v>
       </c>
-      <c r="I48" s="79" t="n">
+      <c r="I48" s="77" t="n">
         <f aca="false">I37/0.006986039944106</f>
         <v>-0.382168079328271</v>
       </c>
+      <c r="M48" s="77"/>
+      <c r="N48" s="77"/>
+      <c r="O48" s="77"/>
+      <c r="P48" s="77"/>
+      <c r="Q48" s="77"/>
+      <c r="R48" s="77"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>53</v>
+      <c r="A51" s="72" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="D53" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="E53" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="F53" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="G53" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="H53" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="I53" s="71" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="B53" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="F53" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="G53" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="H53" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="I53" s="73" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="32" t="n">
+      <c r="A54" s="74" t="n">
         <v>1E-010</v>
       </c>
-      <c r="B54" s="59" t="n">
+      <c r="B54" s="79" t="n">
         <v>-0.000405996000266245</v>
       </c>
-      <c r="C54" s="59" t="n">
+      <c r="C54" s="79" t="n">
         <v>-0.00210695018623318</v>
       </c>
-      <c r="D54" s="59" t="n">
+      <c r="D54" s="79" t="n">
         <v>-0.000694249132928277</v>
       </c>
-      <c r="E54" s="59" t="n">
+      <c r="E54" s="79" t="n">
         <v>-0.00308672889512076</v>
       </c>
-      <c r="F54" s="80" t="n">
+      <c r="F54" s="79" t="n">
         <v>-0.000473225198945218</v>
       </c>
-      <c r="G54" s="80" t="n">
+      <c r="G54" s="79" t="n">
         <v>-0.00224827227833021</v>
       </c>
-      <c r="H54" s="80" t="n">
+      <c r="H54" s="79" t="n">
         <v>-0.000664809402421442</v>
       </c>
-      <c r="I54" s="80" t="n">
+      <c r="I54" s="79" t="n">
         <v>-0.00310177077550035</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="32" t="n">
+      <c r="A55" s="74" t="n">
         <v>1E-009</v>
       </c>
-      <c r="B55" s="61" t="n">
+      <c r="B55" s="79" t="n">
         <v>-0.000405996000269856</v>
       </c>
-      <c r="C55" s="61" t="n">
+      <c r="C55" s="79" t="n">
         <v>-0.00210695018623432</v>
       </c>
-      <c r="D55" s="61" t="n">
+      <c r="D55" s="79" t="n">
         <v>-0.000694249132929411</v>
       </c>
-      <c r="E55" s="61" t="n">
+      <c r="E55" s="79" t="n">
         <v>-0.00308672889512208</v>
       </c>
-      <c r="F55" s="81" t="n">
+      <c r="F55" s="79" t="n">
         <v>-0.00047322521584036</v>
       </c>
-      <c r="G55" s="81" t="n">
+      <c r="G55" s="79" t="n">
         <v>-0.00224827242883179</v>
       </c>
-      <c r="H55" s="81" t="n">
+      <c r="H55" s="79" t="n">
         <v>-0.000664809302669281</v>
       </c>
-      <c r="I55" s="81" t="n">
+      <c r="I55" s="79" t="n">
         <v>-0.00310177069540761</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="32" t="n">
+      <c r="A56" s="74" t="n">
         <v>1E-008</v>
       </c>
-      <c r="B56" s="61" t="n">
+      <c r="B56" s="79" t="n">
         <v>-0.000405996000543468</v>
       </c>
-      <c r="C56" s="61" t="n">
+      <c r="C56" s="79" t="n">
         <v>-0.00210695018634899</v>
       </c>
-      <c r="D56" s="61" t="n">
+      <c r="D56" s="79" t="n">
         <v>-0.000694249133042866</v>
       </c>
-      <c r="E56" s="61" t="n">
+      <c r="E56" s="79" t="n">
         <v>-0.0030867288952535</v>
       </c>
-      <c r="F56" s="81" t="n">
+      <c r="F56" s="79" t="n">
         <v>-0.000473225385076913</v>
       </c>
-      <c r="G56" s="81" t="n">
+      <c r="G56" s="79" t="n">
         <v>-0.00224827393304793</v>
       </c>
-      <c r="H56" s="81" t="n">
+      <c r="H56" s="79" t="n">
         <v>-0.000664808305233137</v>
       </c>
-      <c r="I56" s="81" t="n">
+      <c r="I56" s="79" t="n">
         <v>-0.00310176989481622</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="32" t="n">
+      <c r="A57" s="74" t="n">
         <v>1E-007</v>
       </c>
-      <c r="B57" s="61" t="n">
+      <c r="B57" s="79" t="n">
         <v>-0.000405996027029902</v>
       </c>
-      <c r="C57" s="61" t="n">
+      <c r="C57" s="79" t="n">
         <v>-0.00210695019782497</v>
       </c>
-      <c r="D57" s="61" t="n">
+      <c r="D57" s="79" t="n">
         <v>-0.000694249144388348</v>
       </c>
-      <c r="E57" s="61" t="n">
+      <c r="E57" s="79" t="n">
         <v>-0.00308672890839525</v>
       </c>
-      <c r="F57" s="81" t="n">
+      <c r="F57" s="79" t="n">
         <v>-0.000473227105955835</v>
       </c>
-      <c r="G57" s="81" t="n">
+      <c r="G57" s="79" t="n">
         <v>-0.00224828877352045</v>
       </c>
-      <c r="H57" s="81" t="n">
+      <c r="H57" s="79" t="n">
         <v>-0.000664798338833684</v>
       </c>
-      <c r="I57" s="81" t="n">
+      <c r="I57" s="79" t="n">
         <v>-0.0031017619164212</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="32" t="n">
+      <c r="A58" s="74" t="n">
         <v>1E-006</v>
       </c>
-      <c r="B58" s="61" t="n">
+      <c r="B58" s="79" t="n">
         <v>-0.000405998666913694</v>
       </c>
-      <c r="C58" s="61" t="n">
+      <c r="C58" s="79" t="n">
         <v>-0.00210695134437133</v>
       </c>
-      <c r="D58" s="61" t="n">
+      <c r="D58" s="79" t="n">
         <v>-0.000694250154098719</v>
       </c>
-      <c r="E58" s="61" t="n">
+      <c r="E58" s="79" t="n">
         <v>-0.00308673022251637</v>
       </c>
-      <c r="F58" s="81" t="n">
+      <c r="F58" s="79" t="n">
         <v>-0.000473247168444011</v>
       </c>
-      <c r="G58" s="81" t="n">
+      <c r="G58" s="79" t="n">
         <v>-0.00224844063761824</v>
       </c>
-      <c r="H58" s="81" t="n">
+      <c r="H58" s="79" t="n">
         <v>-0.000664708393184906</v>
       </c>
-      <c r="I58" s="81" t="n">
+      <c r="I58" s="79" t="n">
         <v>-0.00310168498553079</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="32" t="n">
+      <c r="A59" s="74" t="n">
         <v>1E-005</v>
       </c>
-      <c r="B59" s="61" t="n">
+      <c r="B59" s="79" t="n">
         <v>-0.000406107426137982</v>
       </c>
-      <c r="C59" s="61" t="n">
+      <c r="C59" s="79" t="n">
         <v>-0.00210706597122042</v>
       </c>
-      <c r="D59" s="61" t="n">
+      <c r="D59" s="79" t="n">
         <v>-0.000694334349357489</v>
       </c>
-      <c r="E59" s="61" t="n">
+      <c r="E59" s="79" t="n">
         <v>-0.00308686164148339</v>
       </c>
-      <c r="F59" s="81" t="n">
+      <c r="F59" s="79" t="n">
         <v>-0.000473555016583991</v>
       </c>
-      <c r="G59" s="81" t="n">
+      <c r="G59" s="79" t="n">
         <v>-0.00225003374690476</v>
       </c>
-      <c r="H59" s="81" t="n">
+      <c r="H59" s="79" t="n">
         <v>-0.000663838893360779</v>
       </c>
-      <c r="I59" s="81" t="n">
+      <c r="I59" s="79" t="n">
         <v>-0.00310120378730034</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="32" t="n">
+      <c r="A60" s="74" t="n">
         <v>0.0001</v>
       </c>
-      <c r="B60" s="61" t="n">
+      <c r="B60" s="79" t="n">
         <v>-0.000412733122966253</v>
       </c>
-      <c r="C60" s="61" t="n">
+      <c r="C60" s="79" t="n">
         <v>-0.00211764596185014</v>
       </c>
-      <c r="D60" s="61" t="n">
+      <c r="D60" s="79" t="n">
         <v>-0.000694815909750847</v>
       </c>
-      <c r="E60" s="61" t="n">
+      <c r="E60" s="79" t="n">
         <v>-0.00309531366537313</v>
       </c>
-      <c r="F60" s="81" t="n">
+      <c r="F60" s="79" t="n">
         <v>-0.000482141663327276</v>
       </c>
-      <c r="G60" s="81" t="n">
+      <c r="G60" s="79" t="n">
         <v>-0.00227361714250838</v>
       </c>
-      <c r="H60" s="81" t="n">
+      <c r="H60" s="79" t="n">
         <v>-0.000662048618980374</v>
       </c>
-      <c r="I60" s="81" t="n">
+      <c r="I60" s="79" t="n">
         <v>-0.00311204955332386</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="32" t="n">
+      <c r="A61" s="74" t="n">
         <v>0.001</v>
       </c>
-      <c r="B61" s="61" t="n">
+      <c r="B61" s="79" t="n">
         <v>-0.000559880029657381</v>
       </c>
-      <c r="C61" s="61" t="n">
+      <c r="C61" s="79" t="n">
         <v>-0.00233626147465881</v>
       </c>
-      <c r="D61" s="61" t="n">
+      <c r="D61" s="79" t="n">
         <v>-0.000695531714879928</v>
       </c>
-      <c r="E61" s="61" t="n">
+      <c r="E61" s="79" t="n">
         <v>-0.00310784073230535</v>
       </c>
-      <c r="F61" s="81" t="n">
+      <c r="F61" s="79" t="n">
         <v>-0.000626854569880979</v>
       </c>
-      <c r="G61" s="81" t="n">
+      <c r="G61" s="79" t="n">
         <v>-0.00259781641726194</v>
       </c>
-      <c r="H61" s="81" t="n">
+      <c r="H61" s="79" t="n">
         <v>-0.000661783668595696</v>
       </c>
-      <c r="I61" s="81" t="n">
+      <c r="I61" s="79" t="n">
         <v>-0.00312576526944782</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="32" t="n">
+      <c r="A62" s="74" t="n">
         <v>0.01</v>
       </c>
-      <c r="B62" s="61" t="n">
+      <c r="B62" s="79" t="n">
         <v>-0.00146725153186042</v>
       </c>
-      <c r="C62" s="61" t="n">
+      <c r="C62" s="79" t="n">
         <v>-0.00318400565127745</v>
       </c>
-      <c r="D62" s="61" t="n">
+      <c r="D62" s="79" t="n">
         <v>-0.000695531714879928</v>
       </c>
-      <c r="E62" s="61" t="n">
+      <c r="E62" s="79" t="n">
         <v>-0.00310889176828074</v>
       </c>
-      <c r="F62" s="81" t="n">
+      <c r="F62" s="79" t="n">
         <v>-0.00152484853061883</v>
       </c>
-      <c r="G62" s="81" t="n">
+      <c r="G62" s="79" t="n">
         <v>-0.00343903530083687</v>
       </c>
-      <c r="H62" s="81" t="n">
+      <c r="H62" s="79" t="n">
         <v>-0.000661783668595696</v>
       </c>
-      <c r="I62" s="81" t="n">
+      <c r="I62" s="79" t="n">
         <v>-0.00312578159707235</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="78" t="n">
+      <c r="A63" s="74" t="n">
         <v>0.1</v>
       </c>
-      <c r="B63" s="62" t="n">
+      <c r="B63" s="79" t="n">
         <v>-0.0158350869771286</v>
       </c>
-      <c r="C63" s="62" t="n">
+      <c r="C63" s="79" t="n">
         <v>-0.0174092615935918</v>
       </c>
-      <c r="D63" s="62" t="n">
+      <c r="D63" s="79" t="n">
         <v>-0.000695531714879928</v>
       </c>
-      <c r="E63" s="62" t="n">
+      <c r="E63" s="79" t="n">
         <v>-0.00310889176828074</v>
       </c>
-      <c r="F63" s="82" t="n">
+      <c r="F63" s="79" t="n">
         <v>-0.0158316400841852</v>
       </c>
-      <c r="G63" s="82" t="n">
+      <c r="G63" s="79" t="n">
         <v>-0.018051215658962</v>
       </c>
-      <c r="H63" s="82" t="n">
+      <c r="H63" s="79" t="n">
         <v>-0.000661783668595696</v>
       </c>
-      <c r="I63" s="82" t="n">
+      <c r="I63" s="79" t="n">
         <v>-0.00312578159707235</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B67" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="C67" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="D67" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="E67" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="F67" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="G67" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="H67" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="I67" s="71" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="B67" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="F67" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="G67" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="H67" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="I67" s="73" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="32" t="n">
+      <c r="A68" s="74" t="n">
         <v>1E-010</v>
       </c>
-      <c r="B68" s="79" t="n">
+      <c r="B68" s="77" t="n">
         <f aca="false">B54/2.78301018765889</f>
         <v>-0.000145883763583264</v>
       </c>
-      <c r="C68" s="79" t="n">
+      <c r="C68" s="77" t="n">
         <f aca="false">C54/2.78216724261881</f>
         <v>-0.000757305367541435</v>
       </c>
-      <c r="D68" s="79" t="n">
+      <c r="D68" s="77" t="n">
         <f aca="false">D54/0.001115089567007</f>
         <v>-0.622594949741754</v>
       </c>
-      <c r="E68" s="79" t="n">
+      <c r="E68" s="77" t="n">
         <f aca="false">E54/0.006561434337706</f>
         <v>-0.470435081150251</v>
       </c>
-      <c r="F68" s="79" t="n">
+      <c r="F68" s="77" t="n">
         <f aca="false">F54/2.75877874258439</f>
         <v>-0.000171534306699024</v>
       </c>
-      <c r="G68" s="79" t="n">
+      <c r="G68" s="77" t="n">
         <f aca="false">G54/2.77938916853549</f>
         <v>-0.000808908771676211</v>
       </c>
-      <c r="H68" s="79" t="n">
+      <c r="H68" s="77" t="n">
         <f aca="false">H54/0.001996081508997</f>
         <v>-0.333057242114075</v>
       </c>
-      <c r="I68" s="79" t="n">
+      <c r="I68" s="77" t="n">
         <f aca="false">I54/0.005768856219016</f>
         <v>-0.537675174721103</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="32" t="n">
+      <c r="A69" s="74" t="n">
         <v>1E-009</v>
       </c>
-      <c r="B69" s="79" t="n">
+      <c r="B69" s="77" t="n">
         <f aca="false">B55/2.78301018765889</f>
         <v>-0.000145883763584562</v>
       </c>
-      <c r="C69" s="79" t="n">
+      <c r="C69" s="77" t="n">
         <f aca="false">C55/2.78216724261881</f>
         <v>-0.000757305367541847</v>
       </c>
-      <c r="D69" s="79" t="n">
+      <c r="D69" s="77" t="n">
         <f aca="false">D55/0.001115089567007</f>
         <v>-0.622594949742771</v>
       </c>
-      <c r="E69" s="79" t="n">
+      <c r="E69" s="77" t="n">
         <f aca="false">E55/0.006561434337706</f>
         <v>-0.470435081150451</v>
       </c>
-      <c r="F69" s="79" t="n">
+      <c r="F69" s="77" t="n">
         <f aca="false">F55/2.75877874258439</f>
         <v>-0.000171534312823162</v>
       </c>
-      <c r="G69" s="79" t="n">
+      <c r="G69" s="77" t="n">
         <f aca="false">G55/2.77938916853549</f>
         <v>-0.000808908825825368</v>
       </c>
-      <c r="H69" s="79" t="n">
+      <c r="H69" s="77" t="n">
         <f aca="false">H55/0.001996081508997</f>
         <v>-0.333057192140083</v>
       </c>
-      <c r="I69" s="79" t="n">
+      <c r="I69" s="77" t="n">
         <f aca="false">I55/0.005768856219016</f>
         <v>-0.53767516083746</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="32" t="n">
+      <c r="A70" s="74" t="n">
         <v>1E-008</v>
       </c>
-      <c r="B70" s="79" t="n">
+      <c r="B70" s="77" t="n">
         <f aca="false">B56/2.78301018765889</f>
         <v>-0.000145883763682877</v>
       </c>
-      <c r="C70" s="79" t="n">
+      <c r="C70" s="77" t="n">
         <f aca="false">C56/2.78216724261881</f>
         <v>-0.000757305367583061</v>
       </c>
-      <c r="D70" s="79" t="n">
+      <c r="D70" s="77" t="n">
         <f aca="false">D56/0.001115089567007</f>
         <v>-0.622594949844516</v>
       </c>
-      <c r="E70" s="79" t="n">
+      <c r="E70" s="77" t="n">
         <f aca="false">E56/0.006561434337706</f>
         <v>-0.47043508117048</v>
       </c>
-      <c r="F70" s="79" t="n">
+      <c r="F70" s="77" t="n">
         <f aca="false">F56/2.75877874258439</f>
         <v>-0.000171534374167898</v>
       </c>
-      <c r="G70" s="79" t="n">
+      <c r="G70" s="77" t="n">
         <f aca="false">G56/2.77938916853549</f>
         <v>-0.000808909367029227</v>
       </c>
-      <c r="H70" s="79" t="n">
+      <c r="H70" s="77" t="n">
         <f aca="false">H56/0.001996081508997</f>
         <v>-0.333056692442982</v>
       </c>
-      <c r="I70" s="79" t="n">
+      <c r="I70" s="77" t="n">
         <f aca="false">I56/0.005768856219016</f>
         <v>-0.537675022059276</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="32" t="n">
+      <c r="A71" s="74" t="n">
         <v>1E-007</v>
       </c>
-      <c r="B71" s="79" t="n">
+      <c r="B71" s="77" t="n">
         <f aca="false">B57/2.78301018765889</f>
         <v>-0.000145883773200066</v>
       </c>
-      <c r="C71" s="79" t="n">
+      <c r="C71" s="77" t="n">
         <f aca="false">C57/2.78216724261881</f>
         <v>-0.000757305371707898</v>
       </c>
-      <c r="D71" s="79" t="n">
+      <c r="D71" s="77" t="n">
         <f aca="false">D57/0.001115089567007</f>
         <v>-0.622594960019019</v>
       </c>
-      <c r="E71" s="79" t="n">
+      <c r="E71" s="77" t="n">
         <f aca="false">E57/0.006561434337706</f>
         <v>-0.470435083173358</v>
       </c>
-      <c r="F71" s="79" t="n">
+      <c r="F71" s="77" t="n">
         <f aca="false">F57/2.75877874258439</f>
         <v>-0.000171534997950768</v>
       </c>
-      <c r="G71" s="79" t="n">
+      <c r="G71" s="77" t="n">
         <f aca="false">G57/2.77938916853549</f>
         <v>-0.0008089147065019</v>
       </c>
-      <c r="H71" s="79" t="n">
+      <c r="H71" s="77" t="n">
         <f aca="false">H57/0.001996081508997</f>
         <v>-0.333051699460778</v>
       </c>
-      <c r="I71" s="79" t="n">
+      <c r="I71" s="77" t="n">
         <f aca="false">I57/0.005768856219016</f>
         <v>-0.537673639047684</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="32" t="n">
+      <c r="A72" s="74" t="n">
         <v>1E-006</v>
       </c>
-      <c r="B72" s="79" t="n">
+      <c r="B72" s="77" t="n">
         <f aca="false">B58/2.78301018765889</f>
         <v>-0.000145884721771438</v>
       </c>
-      <c r="C72" s="79" t="n">
+      <c r="C72" s="77" t="n">
         <f aca="false">C58/2.78216724261881</f>
         <v>-0.000757305783813375</v>
       </c>
-      <c r="D72" s="79" t="n">
+      <c r="D72" s="78" t="n">
         <f aca="false">D58/0.001115089567007</f>
         <v>-0.622595865516121</v>
       </c>
-      <c r="E72" s="79" t="n">
+      <c r="E72" s="78" t="n">
         <f aca="false">E58/0.006561434337706</f>
         <v>-0.470435283452908</v>
       </c>
-      <c r="F72" s="79" t="n">
+      <c r="F72" s="77" t="n">
         <f aca="false">F58/2.75877874258439</f>
         <v>-0.000171542270186075</v>
       </c>
-      <c r="G72" s="79" t="n">
+      <c r="G72" s="77" t="n">
         <f aca="false">G58/2.77938916853549</f>
         <v>-0.000808969345880765</v>
       </c>
-      <c r="H72" s="79" t="n">
+      <c r="H72" s="77" t="n">
         <f aca="false">H58/0.001996081508997</f>
         <v>-0.333006638350611</v>
       </c>
-      <c r="I72" s="79" t="n">
+      <c r="I72" s="77" t="n">
         <f aca="false">I58/0.005768856219016</f>
         <v>-0.537660303494242</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="32" t="n">
+      <c r="A73" s="74" t="n">
         <v>1E-005</v>
       </c>
-      <c r="B73" s="79" t="n">
+      <c r="B73" s="77" t="n">
         <f aca="false">B59/2.78301018765889</f>
         <v>-0.000145923801479004</v>
       </c>
-      <c r="C73" s="79" t="n">
+      <c r="C73" s="77" t="n">
         <f aca="false">C59/2.78216724261881</f>
         <v>-0.000757346984373617</v>
       </c>
-      <c r="D73" s="79" t="n">
+      <c r="D73" s="77" t="n">
         <f aca="false">D59/0.001115089567007</f>
         <v>-0.62267137089368</v>
       </c>
-      <c r="E73" s="79" t="n">
+      <c r="E73" s="77" t="n">
         <f aca="false">E59/0.006561434337706</f>
         <v>-0.470455312452707</v>
       </c>
-      <c r="F73" s="79" t="n">
+      <c r="F73" s="77" t="n">
         <f aca="false">F59/2.75877874258439</f>
         <v>-0.000171653858743442</v>
       </c>
-      <c r="G73" s="79" t="n">
+      <c r="G73" s="77" t="n">
         <f aca="false">G59/2.77938916853549</f>
         <v>-0.000809542532717842</v>
       </c>
-      <c r="H73" s="79" t="n">
+      <c r="H73" s="77" t="n">
         <f aca="false">H59/0.001996081508997</f>
         <v>-0.332571034984612</v>
       </c>
-      <c r="I73" s="79" t="n">
+      <c r="I73" s="78" t="n">
         <f aca="false">I59/0.005768856219016</f>
         <v>-0.537576890385615</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="32" t="n">
+      <c r="A74" s="74" t="n">
         <v>0.0001</v>
       </c>
-      <c r="B74" s="79" t="n">
+      <c r="B74" s="78" t="n">
         <f aca="false">B60/2.78301018765889</f>
         <v>-0.000148304567764968</v>
       </c>
-      <c r="C74" s="79" t="n">
+      <c r="C74" s="78" t="n">
         <f aca="false">C60/2.78216724261881</f>
         <v>-0.00076114977180769</v>
       </c>
-      <c r="D74" s="79" t="n">
+      <c r="D74" s="77" t="n">
         <f aca="false">D60/0.001115089567007</f>
         <v>-0.623103228932359</v>
       </c>
-      <c r="E74" s="79" t="n">
+      <c r="E74" s="77" t="n">
         <f aca="false">E60/0.006561434337706</f>
         <v>-0.471743449078743</v>
       </c>
-      <c r="F74" s="79" t="n">
+      <c r="F74" s="78" t="n">
         <f aca="false">F60/2.75877874258439</f>
         <v>-0.000174766339860808</v>
       </c>
-      <c r="G74" s="79" t="n">
+      <c r="G74" s="78" t="n">
         <f aca="false">G60/2.77938916853549</f>
         <v>-0.00081802763292281</v>
       </c>
-      <c r="H74" s="79" t="n">
+      <c r="H74" s="77" t="n">
         <f aca="false">H60/0.001996081508997</f>
         <v>-0.331674140558039</v>
       </c>
-      <c r="I74" s="79" t="n">
+      <c r="I74" s="77" t="n">
         <f aca="false">I60/0.005768856219016</f>
         <v>-0.539456945220016</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="32" t="n">
+      <c r="A75" s="74" t="n">
         <v>0.001</v>
       </c>
-      <c r="B75" s="79" t="n">
+      <c r="B75" s="77" t="n">
         <f aca="false">B61/2.78301018765889</f>
         <v>-0.000201177858471428</v>
       </c>
-      <c r="C75" s="79" t="n">
+      <c r="C75" s="77" t="n">
         <f aca="false">C61/2.78216724261881</f>
         <v>-0.000839727187809071</v>
       </c>
-      <c r="D75" s="79" t="n">
+      <c r="D75" s="77" t="n">
         <f aca="false">D61/0.001115089567007</f>
         <v>-0.623745155061218</v>
       </c>
-      <c r="E75" s="79" t="n">
+      <c r="E75" s="77" t="n">
         <f aca="false">E61/0.006561434337706</f>
         <v>-0.473652645496397</v>
       </c>
-      <c r="F75" s="79" t="n">
+      <c r="F75" s="77" t="n">
         <f aca="false">F61/2.75877874258439</f>
         <v>-0.000227221763095706</v>
       </c>
-      <c r="G75" s="79" t="n">
+      <c r="G75" s="77" t="n">
         <f aca="false">G61/2.77938916853549</f>
         <v>-0.000934671706528516</v>
       </c>
-      <c r="H75" s="79" t="n">
+      <c r="H75" s="77" t="n">
         <f aca="false">H61/0.001996081508997</f>
         <v>-0.331541405304753</v>
       </c>
-      <c r="I75" s="79" t="n">
+      <c r="I75" s="77" t="n">
         <f aca="false">I61/0.005768856219016</f>
         <v>-0.541834490369909</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="32" t="n">
+      <c r="A76" s="74" t="n">
         <v>0.01</v>
       </c>
-      <c r="B76" s="79" t="n">
+      <c r="B76" s="77" t="n">
         <f aca="false">B62/2.78301018765889</f>
         <v>-0.000527217449065356</v>
       </c>
-      <c r="C76" s="79" t="n">
+      <c r="C76" s="77" t="n">
         <f aca="false">C62/2.78216724261881</f>
         <v>-0.00114443359209434</v>
       </c>
-      <c r="D76" s="79" t="n">
+      <c r="D76" s="77" t="n">
         <f aca="false">D62/0.001115089567007</f>
         <v>-0.623745155061218</v>
       </c>
-      <c r="E76" s="79" t="n">
+      <c r="E76" s="77" t="n">
         <f aca="false">E62/0.006561434337706</f>
         <v>-0.473812829371034</v>
       </c>
-      <c r="F76" s="79" t="n">
+      <c r="F76" s="77" t="n">
         <f aca="false">F62/2.75877874258439</f>
         <v>-0.000552725924366943</v>
       </c>
-      <c r="G76" s="79" t="n">
+      <c r="G76" s="77" t="n">
         <f aca="false">G62/2.77938916853549</f>
         <v>-0.00123733492947623</v>
       </c>
-      <c r="H76" s="79" t="n">
+      <c r="H76" s="77" t="n">
         <f aca="false">H62/0.001996081508997</f>
         <v>-0.331541405304753</v>
       </c>
-      <c r="I76" s="79" t="n">
+      <c r="I76" s="77" t="n">
         <f aca="false">I62/0.005768856219016</f>
         <v>-0.541837320675245</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="78" t="n">
+      <c r="A77" s="74" t="n">
         <v>0.1</v>
       </c>
-      <c r="B77" s="79" t="n">
+      <c r="B77" s="77" t="n">
         <f aca="false">B63/2.78301018765889</f>
         <v>-0.00568991340647924</v>
       </c>
-      <c r="C77" s="79" t="n">
+      <c r="C77" s="77" t="n">
         <f aca="false">C63/2.78216724261881</f>
         <v>-0.00625744611140081</v>
       </c>
-      <c r="D77" s="79" t="n">
+      <c r="D77" s="77" t="n">
         <f aca="false">D63/0.001115089567007</f>
         <v>-0.623745155061218</v>
       </c>
-      <c r="E77" s="79" t="n">
+      <c r="E77" s="77" t="n">
         <f aca="false">E63/0.006561434337706</f>
         <v>-0.473812829371034</v>
       </c>
-      <c r="F77" s="79" t="n">
+      <c r="F77" s="77" t="n">
         <f aca="false">F63/2.75877874258439</f>
         <v>-0.00573864073976237</v>
       </c>
-      <c r="G77" s="79" t="n">
+      <c r="G77" s="77" t="n">
         <f aca="false">G63/2.77938916853549</f>
         <v>-0.00649467007474649</v>
       </c>
-      <c r="H77" s="79" t="n">
+      <c r="H77" s="78" t="n">
         <f aca="false">H63/0.001996081508997</f>
         <v>-0.331541405304753</v>
       </c>
-      <c r="I77" s="79" t="n">
+      <c r="I77" s="77" t="n">
         <f aca="false">I63/0.005768856219016</f>
         <v>-0.541837320675245</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="78"/>
+      <c r="A78" s="74"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="0" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B80" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="C80" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="D80" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="E80" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="F80" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="G80" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="H80" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="I80" s="71" t="s">
-        <v>61</v>
+        <v>75</v>
+      </c>
+      <c r="B80" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="C80" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="F80" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="G80" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="H80" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="I80" s="73" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="78" t="n">
+      <c r="A81" s="74" t="n">
         <v>10</v>
       </c>
-      <c r="B81" s="59" t="n">
+      <c r="B81" s="79" t="n">
         <v>-0.00207110417827738</v>
       </c>
-      <c r="C81" s="59" t="n">
+      <c r="C81" s="79" t="n">
         <v>-0.00376889927536114</v>
       </c>
-      <c r="D81" s="59" t="n">
+      <c r="D81" s="79" t="n">
         <v>-0.000694699210113574</v>
       </c>
-      <c r="E81" s="59" t="n">
+      <c r="E81" s="79" t="n">
         <v>-0.00309414453921313</v>
       </c>
-      <c r="F81" s="80" t="n">
+      <c r="F81" s="79" t="n">
         <v>-0.00213051899388586</v>
       </c>
-      <c r="G81" s="80" t="n">
+      <c r="G81" s="79" t="n">
         <v>-0.00398532663178225</v>
       </c>
-      <c r="H81" s="80" t="n">
+      <c r="H81" s="79" t="n">
         <v>-0.000663517226047069</v>
       </c>
-      <c r="I81" s="80" t="n">
+      <c r="I81" s="79" t="n">
         <v>-0.00310993400718929</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="32" t="n">
+      <c r="A82" s="74" t="n">
         <v>100</v>
       </c>
-      <c r="B82" s="61" t="n">
+      <c r="B82" s="79" t="n">
         <v>-0.00207110417827738</v>
       </c>
-      <c r="C82" s="61" t="n">
+      <c r="C82" s="79" t="n">
         <v>-0.00376889927536114</v>
       </c>
-      <c r="D82" s="61" t="n">
+      <c r="D82" s="79" t="n">
         <v>-0.000694699210113574</v>
       </c>
-      <c r="E82" s="61" t="n">
+      <c r="E82" s="79" t="n">
         <v>-0.00309414453921313</v>
       </c>
-      <c r="F82" s="81" t="n">
+      <c r="F82" s="79" t="n">
         <v>-0.00213051899388586</v>
       </c>
-      <c r="G82" s="81" t="n">
+      <c r="G82" s="79" t="n">
         <v>-0.00398532663178225</v>
       </c>
-      <c r="H82" s="81" t="n">
+      <c r="H82" s="79" t="n">
         <v>-0.000663517226047069</v>
       </c>
-      <c r="I82" s="81" t="n">
+      <c r="I82" s="79" t="n">
         <v>-0.00310993400718929</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="32" t="n">
+      <c r="A83" s="74" t="n">
         <v>1000</v>
       </c>
-      <c r="B83" s="61" t="n">
+      <c r="B83" s="79" t="n">
         <v>-0.00207110417827738</v>
       </c>
-      <c r="C83" s="61" t="n">
+      <c r="C83" s="79" t="n">
         <v>-0.00376889927536114</v>
       </c>
-      <c r="D83" s="61" t="n">
+      <c r="D83" s="79" t="n">
         <v>-0.000694699210113574</v>
       </c>
-      <c r="E83" s="61" t="n">
+      <c r="E83" s="79" t="n">
         <v>-0.00309414453921313</v>
       </c>
-      <c r="F83" s="81" t="n">
+      <c r="F83" s="79" t="n">
         <v>-0.00213051899388586</v>
       </c>
-      <c r="G83" s="81" t="n">
+      <c r="G83" s="79" t="n">
         <v>-0.00398532663178225</v>
       </c>
-      <c r="H83" s="81" t="n">
+      <c r="H83" s="79" t="n">
         <v>-0.000663517226047069</v>
       </c>
-      <c r="I83" s="81" t="n">
+      <c r="I83" s="79" t="n">
         <v>-0.00310993400718929</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="32" t="n">
+      <c r="A84" s="74" t="n">
         <v>10000</v>
       </c>
-      <c r="B84" s="61" t="n">
+      <c r="B84" s="79" t="n">
         <v>-0.00207110417827738</v>
       </c>
-      <c r="C84" s="61" t="n">
+      <c r="C84" s="79" t="n">
         <v>-0.00376889927536114</v>
       </c>
-      <c r="D84" s="61" t="n">
+      <c r="D84" s="79" t="n">
         <v>-0.000694699210113574</v>
       </c>
-      <c r="E84" s="61" t="n">
+      <c r="E84" s="79" t="n">
         <v>-0.00309414453921313</v>
       </c>
-      <c r="F84" s="81" t="n">
+      <c r="F84" s="79" t="n">
         <v>-0.00213051899388586</v>
       </c>
-      <c r="G84" s="81" t="n">
+      <c r="G84" s="79" t="n">
         <v>-0.00398532663178225</v>
       </c>
-      <c r="H84" s="81" t="n">
+      <c r="H84" s="79" t="n">
         <v>-0.000663517226047069</v>
       </c>
-      <c r="I84" s="81" t="n">
+      <c r="I84" s="79" t="n">
         <v>-0.00310993400718929</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="32" t="n">
+      <c r="A85" s="74" t="n">
         <v>100000</v>
       </c>
-      <c r="B85" s="61" t="n">
+      <c r="B85" s="79" t="n">
         <v>-0.00207110417827738</v>
       </c>
-      <c r="C85" s="61" t="n">
+      <c r="C85" s="79" t="n">
         <v>-0.00376889927536114</v>
       </c>
-      <c r="D85" s="61" t="n">
+      <c r="D85" s="79" t="n">
         <v>-0.000694699210113574</v>
       </c>
-      <c r="E85" s="61" t="n">
+      <c r="E85" s="79" t="n">
         <v>-0.00309414453921313</v>
       </c>
-      <c r="F85" s="81" t="n">
+      <c r="F85" s="79" t="n">
         <v>-0.00213051899388586</v>
       </c>
-      <c r="G85" s="81" t="n">
+      <c r="G85" s="79" t="n">
         <v>-0.00398532663178225</v>
       </c>
-      <c r="H85" s="81" t="n">
+      <c r="H85" s="79" t="n">
         <v>-0.000663517226047069</v>
       </c>
-      <c r="I85" s="81" t="n">
+      <c r="I85" s="79" t="n">
         <v>-0.00310993400718929</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="32" t="n">
+      <c r="A86" s="74" t="n">
         <v>1000000</v>
       </c>
-      <c r="B86" s="61" t="n">
+      <c r="B86" s="79" t="n">
         <v>-0.00207110417827738</v>
       </c>
-      <c r="C86" s="61" t="n">
+      <c r="C86" s="79" t="n">
         <v>-0.00376889927536114</v>
       </c>
-      <c r="D86" s="61" t="n">
+      <c r="D86" s="79" t="n">
         <v>-0.000694699210113574</v>
       </c>
-      <c r="E86" s="61" t="n">
+      <c r="E86" s="79" t="n">
         <v>-0.00309414453921313</v>
       </c>
-      <c r="F86" s="81" t="n">
+      <c r="F86" s="79" t="n">
         <v>-0.00213051899388586</v>
       </c>
-      <c r="G86" s="81" t="n">
+      <c r="G86" s="79" t="n">
         <v>-0.00398532663178225</v>
       </c>
-      <c r="H86" s="81" t="n">
+      <c r="H86" s="79" t="n">
         <v>-0.000663517226047069</v>
       </c>
-      <c r="I86" s="81" t="n">
+      <c r="I86" s="79" t="n">
         <v>-0.00310993400718929</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="32" t="n">
+      <c r="A87" s="74" t="n">
         <v>10000000</v>
       </c>
-      <c r="B87" s="62" t="n">
+      <c r="B87" s="79" t="n">
         <v>-0.00207110417827738</v>
       </c>
-      <c r="C87" s="62" t="n">
+      <c r="C87" s="79" t="n">
         <v>-0.00376889927536114</v>
       </c>
-      <c r="D87" s="62" t="n">
+      <c r="D87" s="79" t="n">
         <v>-0.000694699210113574</v>
       </c>
-      <c r="E87" s="62" t="n">
+      <c r="E87" s="79" t="n">
         <v>-0.00309414453921313</v>
       </c>
-      <c r="F87" s="82" t="n">
+      <c r="F87" s="79" t="n">
         <v>-0.00213051899388586</v>
       </c>
-      <c r="G87" s="82" t="n">
+      <c r="G87" s="79" t="n">
         <v>-0.00398532663178225</v>
       </c>
-      <c r="H87" s="82" t="n">
+      <c r="H87" s="79" t="n">
         <v>-0.000663517226047069</v>
       </c>
-      <c r="I87" s="82" t="n">
+      <c r="I87" s="79" t="n">
         <v>-0.00310993400718929</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B91" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="C91" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="D91" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="E91" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="F91" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="G91" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="H91" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="I91" s="71" t="s">
-        <v>61</v>
+        <v>75</v>
+      </c>
+      <c r="B91" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="C91" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="F91" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="G91" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="H91" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="I91" s="73" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="78" t="n">
+      <c r="A92" s="74" t="n">
         <v>10</v>
       </c>
-      <c r="B92" s="79" t="n">
+      <c r="B92" s="78" t="n">
         <f aca="false">B81/2.78301018765889</f>
         <v>-0.00074419568690822</v>
       </c>
-      <c r="C92" s="79" t="n">
+      <c r="C92" s="78" t="n">
         <f aca="false">C81/2.78216724261881</f>
         <v>-0.00135466309056731</v>
       </c>
-      <c r="D92" s="79" t="n">
+      <c r="D92" s="78" t="n">
         <f aca="false">D81/0.001115089567007</f>
         <v>-0.622998573987387</v>
       </c>
-      <c r="E92" s="0" t="n">
+      <c r="E92" s="78" t="n">
         <f aca="false">E81/0.006561434337706</f>
         <v>-0.471565267586736</v>
       </c>
-      <c r="F92" s="79" t="n">
+      <c r="F92" s="78" t="n">
         <f aca="false">F81/2.75877874258439</f>
         <v>-0.000772268888765619</v>
       </c>
-      <c r="G92" s="79" t="n">
+      <c r="G92" s="78" t="n">
         <f aca="false">G81/2.77938916853549</f>
         <v>-0.00143388578933054</v>
       </c>
-      <c r="H92" s="79" t="n">
+      <c r="H92" s="78" t="n">
         <f aca="false">H81/0.001996081508997</f>
         <v>-0.332409885596544</v>
       </c>
-      <c r="I92" s="0" t="n">
+      <c r="I92" s="78" t="n">
         <f aca="false">I81/0.005768856219016</f>
         <v>-0.53909022674858</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="32" t="n">
+      <c r="A93" s="74" t="n">
         <v>100</v>
       </c>
-      <c r="B93" s="79" t="n">
+      <c r="B93" s="77" t="n">
         <f aca="false">B82/2.78301018765889</f>
         <v>-0.00074419568690822</v>
       </c>
-      <c r="C93" s="79" t="n">
+      <c r="C93" s="77" t="n">
         <f aca="false">C82/2.78216724261881</f>
         <v>-0.00135466309056731</v>
       </c>
-      <c r="D93" s="79" t="n">
+      <c r="D93" s="77" t="n">
         <f aca="false">D82/0.001115089567007</f>
         <v>-0.622998573987387</v>
       </c>
-      <c r="E93" s="0" t="n">
+      <c r="E93" s="77" t="n">
         <f aca="false">E82/0.006561434337706</f>
         <v>-0.471565267586736</v>
       </c>
-      <c r="F93" s="79" t="n">
+      <c r="F93" s="77" t="n">
         <f aca="false">F82/2.75877874258439</f>
         <v>-0.000772268888765619</v>
       </c>
-      <c r="G93" s="79" t="n">
+      <c r="G93" s="77" t="n">
         <f aca="false">G82/2.77938916853549</f>
         <v>-0.00143388578933054</v>
       </c>
-      <c r="H93" s="79" t="n">
+      <c r="H93" s="77" t="n">
         <f aca="false">H82/0.001996081508997</f>
         <v>-0.332409885596544</v>
       </c>
-      <c r="I93" s="0" t="n">
+      <c r="I93" s="77" t="n">
         <f aca="false">I82/0.005768856219016</f>
         <v>-0.53909022674858</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="32" t="n">
+      <c r="A94" s="74" t="n">
         <v>1000</v>
       </c>
-      <c r="B94" s="79" t="n">
+      <c r="B94" s="77" t="n">
         <f aca="false">B83/2.78301018765889</f>
         <v>-0.00074419568690822</v>
       </c>
-      <c r="C94" s="79" t="n">
+      <c r="C94" s="77" t="n">
         <f aca="false">C83/2.78216724261881</f>
         <v>-0.00135466309056731</v>
       </c>
-      <c r="D94" s="79" t="n">
+      <c r="D94" s="77" t="n">
         <f aca="false">D83/0.001115089567007</f>
         <v>-0.622998573987387</v>
       </c>
-      <c r="E94" s="0" t="n">
+      <c r="E94" s="77" t="n">
         <f aca="false">E83/0.006561434337706</f>
         <v>-0.471565267586736</v>
       </c>
-      <c r="F94" s="79" t="n">
+      <c r="F94" s="77" t="n">
         <f aca="false">F83/2.75877874258439</f>
         <v>-0.000772268888765619</v>
       </c>
-      <c r="G94" s="79" t="n">
+      <c r="G94" s="77" t="n">
         <f aca="false">G83/2.77938916853549</f>
         <v>-0.00143388578933054</v>
       </c>
-      <c r="H94" s="79" t="n">
+      <c r="H94" s="77" t="n">
         <f aca="false">H83/0.001996081508997</f>
         <v>-0.332409885596544</v>
       </c>
-      <c r="I94" s="0" t="n">
+      <c r="I94" s="77" t="n">
         <f aca="false">I83/0.005768856219016</f>
         <v>-0.53909022674858</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="32" t="n">
+      <c r="A95" s="74" t="n">
         <v>10000</v>
       </c>
-      <c r="B95" s="79" t="n">
+      <c r="B95" s="77" t="n">
         <f aca="false">B84/2.78301018765889</f>
         <v>-0.00074419568690822</v>
       </c>
-      <c r="C95" s="79" t="n">
+      <c r="C95" s="77" t="n">
         <f aca="false">C84/2.78216724261881</f>
         <v>-0.00135466309056731</v>
       </c>
-      <c r="D95" s="79" t="n">
+      <c r="D95" s="77" t="n">
         <f aca="false">D84/0.001115089567007</f>
         <v>-0.622998573987387</v>
       </c>
-      <c r="E95" s="0" t="n">
+      <c r="E95" s="77" t="n">
         <f aca="false">E84/0.006561434337706</f>
         <v>-0.471565267586736</v>
       </c>
-      <c r="F95" s="79" t="n">
+      <c r="F95" s="77" t="n">
         <f aca="false">F84/2.75877874258439</f>
         <v>-0.000772268888765619</v>
       </c>
-      <c r="G95" s="79" t="n">
+      <c r="G95" s="77" t="n">
         <f aca="false">G84/2.77938916853549</f>
         <v>-0.00143388578933054</v>
       </c>
-      <c r="H95" s="79" t="n">
+      <c r="H95" s="77" t="n">
         <f aca="false">H84/0.001996081508997</f>
         <v>-0.332409885596544</v>
       </c>
-      <c r="I95" s="0" t="n">
+      <c r="I95" s="77" t="n">
         <f aca="false">I84/0.005768856219016</f>
         <v>-0.53909022674858</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="32" t="n">
+      <c r="A96" s="74" t="n">
         <v>100000</v>
       </c>
-      <c r="B96" s="79" t="n">
+      <c r="B96" s="77" t="n">
         <f aca="false">B85/2.78301018765889</f>
         <v>-0.00074419568690822</v>
       </c>
-      <c r="C96" s="79" t="n">
+      <c r="C96" s="77" t="n">
         <f aca="false">C85/2.78216724261881</f>
         <v>-0.00135466309056731</v>
       </c>
-      <c r="D96" s="79" t="n">
+      <c r="D96" s="77" t="n">
         <f aca="false">D85/0.001115089567007</f>
         <v>-0.622998573987387</v>
       </c>
-      <c r="E96" s="0" t="n">
+      <c r="E96" s="77" t="n">
         <f aca="false">E85/0.006561434337706</f>
         <v>-0.471565267586736</v>
       </c>
-      <c r="F96" s="79" t="n">
+      <c r="F96" s="77" t="n">
         <f aca="false">F85/2.75877874258439</f>
         <v>-0.000772268888765619</v>
       </c>
-      <c r="G96" s="79" t="n">
+      <c r="G96" s="77" t="n">
         <f aca="false">G85/2.77938916853549</f>
         <v>-0.00143388578933054</v>
       </c>
-      <c r="H96" s="79" t="n">
+      <c r="H96" s="77" t="n">
         <f aca="false">H85/0.001996081508997</f>
         <v>-0.332409885596544</v>
       </c>
-      <c r="I96" s="0" t="n">
+      <c r="I96" s="77" t="n">
         <f aca="false">I85/0.005768856219016</f>
         <v>-0.53909022674858</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="32" t="n">
+      <c r="A97" s="74" t="n">
         <v>1000000</v>
       </c>
-      <c r="B97" s="79" t="n">
+      <c r="B97" s="77" t="n">
         <f aca="false">B86/2.78301018765889</f>
         <v>-0.00074419568690822</v>
       </c>
-      <c r="C97" s="79" t="n">
+      <c r="C97" s="77" t="n">
         <f aca="false">C86/2.78216724261881</f>
         <v>-0.00135466309056731</v>
       </c>
-      <c r="D97" s="79" t="n">
+      <c r="D97" s="77" t="n">
         <f aca="false">D86/0.001115089567007</f>
         <v>-0.622998573987387</v>
       </c>
-      <c r="E97" s="0" t="n">
+      <c r="E97" s="77" t="n">
         <f aca="false">E86/0.006561434337706</f>
         <v>-0.471565267586736</v>
       </c>
-      <c r="F97" s="79" t="n">
+      <c r="F97" s="77" t="n">
         <f aca="false">F86/2.75877874258439</f>
         <v>-0.000772268888765619</v>
       </c>
-      <c r="G97" s="79" t="n">
+      <c r="G97" s="77" t="n">
         <f aca="false">G86/2.77938916853549</f>
         <v>-0.00143388578933054</v>
       </c>
-      <c r="H97" s="79" t="n">
+      <c r="H97" s="77" t="n">
         <f aca="false">H86/0.001996081508997</f>
         <v>-0.332409885596544</v>
       </c>
-      <c r="I97" s="0" t="n">
+      <c r="I97" s="77" t="n">
         <f aca="false">I86/0.005768856219016</f>
         <v>-0.53909022674858</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="32" t="n">
+      <c r="A98" s="74" t="n">
         <v>10000000</v>
       </c>
-      <c r="B98" s="79" t="n">
+      <c r="B98" s="77" t="n">
         <f aca="false">B87/2.78301018765889</f>
         <v>-0.00074419568690822</v>
       </c>
-      <c r="C98" s="79" t="n">
+      <c r="C98" s="77" t="n">
         <f aca="false">C87/2.78216724261881</f>
         <v>-0.00135466309056731</v>
       </c>
-      <c r="D98" s="79" t="n">
+      <c r="D98" s="77" t="n">
         <f aca="false">D87/0.001115089567007</f>
         <v>-0.622998573987387</v>
       </c>
-      <c r="E98" s="0" t="n">
+      <c r="E98" s="77" t="n">
         <f aca="false">E87/0.006561434337706</f>
         <v>-0.471565267586736</v>
       </c>
-      <c r="F98" s="79" t="n">
+      <c r="F98" s="77" t="n">
         <f aca="false">F87/2.75877874258439</f>
         <v>-0.000772268888765619</v>
       </c>
-      <c r="G98" s="79" t="n">
+      <c r="G98" s="77" t="n">
         <f aca="false">G87/2.77938916853549</f>
         <v>-0.00143388578933054</v>
       </c>
-      <c r="H98" s="79" t="n">
+      <c r="H98" s="77" t="n">
         <f aca="false">H87/0.001996081508997</f>
         <v>-0.332409885596544</v>
       </c>
-      <c r="I98" s="0" t="n">
+      <c r="I98" s="77" t="n">
         <f aca="false">I87/0.005768856219016</f>
         <v>-0.53909022674858</v>
       </c>
@@ -31125,319 +31964,319 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="71" width="10.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="71" width="16.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="71" width="9.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="71" width="7.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="71" width="10.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="71" width="9.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="71" width="9.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="71" width="9.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="71" width="7.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="71" width="10.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="71" width="9.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="71" width="7.05"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="15" style="71" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="73" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="73" width="16.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="73" width="9.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="73" width="7.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="73" width="10.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="73" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="73" width="9.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="73" width="9.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="73" width="7.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="73" width="10.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="73" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="73" width="7.05"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="15" style="73" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="83" t="s">
+      <c r="A1" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
     </row>
     <row r="2" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="84" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84" t="s">
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="84" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84" t="s">
+      <c r="I2" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="84" t="s">
+      <c r="N2" s="81" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="85" t="s">
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="85" t="s">
+      <c r="E3" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+    </row>
+    <row r="4" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>67</v>
-      </c>
-      <c r="F3" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-    </row>
-    <row r="4" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="71" t="s">
-        <v>58</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="71" t="n">
+      <c r="D4" s="73" t="n">
         <v>1000</v>
       </c>
-      <c r="E4" s="71" t="n">
+      <c r="E4" s="73" t="n">
         <v>100</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="71" t="s">
-        <v>72</v>
+        <v>82</v>
+      </c>
+      <c r="G4" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="73" t="s">
+        <v>84</v>
       </c>
       <c r="I4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="84"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="0"/>
-      <c r="C5" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="71" t="n">
+      <c r="C5" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="73" t="n">
         <v>1000</v>
       </c>
-      <c r="E5" s="71" t="n">
+      <c r="E5" s="73" t="n">
         <v>100</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="71" t="s">
-        <v>75</v>
+        <v>82</v>
+      </c>
+      <c r="G5" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="73" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0"/>
       <c r="B6" s="0"/>
-      <c r="C6" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="71" t="n">
+      <c r="C6" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="73" t="n">
         <v>1000</v>
       </c>
-      <c r="E6" s="71" t="n">
+      <c r="E6" s="73" t="n">
         <v>500</v>
       </c>
-      <c r="F6" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="71" t="s">
-        <v>79</v>
+      <c r="F6" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="73" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0"/>
       <c r="B7" s="0"/>
-      <c r="C7" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="71" t="n">
+      <c r="C7" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="73" t="n">
         <v>1000</v>
       </c>
-      <c r="E7" s="71" t="n">
+      <c r="E7" s="73" t="n">
         <v>100</v>
       </c>
-      <c r="F7" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" s="71" t="s">
-        <v>75</v>
+      <c r="F7" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="73" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="84"/>
-      <c r="B8" s="71" t="s">
-        <v>59</v>
+      <c r="A8" s="81"/>
+      <c r="B8" s="73" t="s">
+        <v>68</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="71" t="n">
+      <c r="D8" s="73" t="n">
         <v>1000</v>
       </c>
-      <c r="E8" s="71" t="n">
+      <c r="E8" s="73" t="n">
         <v>100</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="71" t="s">
-        <v>83</v>
+      <c r="G8" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="73" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0"/>
       <c r="B9" s="0"/>
-      <c r="C9" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="71" t="n">
+      <c r="C9" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="73" t="n">
         <v>1000</v>
       </c>
-      <c r="E9" s="71" t="n">
+      <c r="E9" s="73" t="n">
         <v>500</v>
       </c>
-      <c r="F9" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" s="71" t="s">
+      <c r="F9" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="81"/>
+      <c r="B10" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="73" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="73" t="n">
+        <v>100</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" s="73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="81"/>
+      <c r="C11" s="73" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="84"/>
-      <c r="B10" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="71" t="n">
+      <c r="D11" s="73" t="n">
         <v>1000</v>
       </c>
-      <c r="E10" s="71" t="n">
+      <c r="E11" s="73" t="n">
         <v>100</v>
       </c>
-      <c r="F10" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="84"/>
-      <c r="C11" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="71" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E11" s="71" t="n">
+      <c r="F11" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="71" t="s">
+      <c r="H11" s="73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="81"/>
+      <c r="C12" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="H11" s="71" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="84"/>
-      <c r="C12" s="71" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="84"/>
-      <c r="C13" s="71" t="s">
-        <v>80</v>
+      <c r="A13" s="81"/>
+      <c r="C13" s="73" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0"/>
-      <c r="B14" s="71" t="s">
-        <v>90</v>
+      <c r="B14" s="73" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="71" t="s">
-        <v>92</v>
+      <c r="A15" s="80" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="73" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="71" t="s">
-        <v>61</v>
+      <c r="B16" s="73" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Model Results.xlsx
+++ b/Model Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Findings" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="105">
   <si>
     <t xml:space="preserve">for finding prices 5 days (1 week) out:</t>
   </si>
@@ -196,10 +196,16 @@
     <t xml:space="preserve">Adj Close 1day pct_change cls</t>
   </si>
   <si>
-    <t xml:space="preserve">mean_train_score</t>
+    <t xml:space="preserve">Adj Close 5day pct_change cls</t>
   </si>
   <si>
-    <t xml:space="preserve">mean_test_score</t>
+    <t xml:space="preserve">Adj Close 10day pct_change cls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">train accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test accuracy</t>
   </si>
   <si>
     <t xml:space="preserve">param_learning_rate</t>
@@ -220,7 +226,7 @@
     <t xml:space="preserve"> mean_train_score</t>
   </si>
   <si>
-    <t xml:space="preserve">  mean_test_score</t>
+    <t xml:space="preserve">mean_test_score</t>
   </si>
   <si>
     <t xml:space="preserve">No PCA</t>
@@ -341,9 +347,6 @@
   </si>
   <si>
     <t xml:space="preserve">XGBoost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adj Close 5day pct_change cls</t>
   </si>
 </sst>
 </file>
@@ -698,7 +701,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -984,6 +987,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -28510,17 +28517,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B60" activeCellId="0" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="71" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="71" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28532,18 +28541,33 @@
       <c r="A2" s="0" t="s">
         <v>53</v>
       </c>
+      <c r="E2" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="71" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C4" s="71" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="71" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28556,6 +28580,15 @@
       <c r="C6" s="71" t="n">
         <v>0.500728</v>
       </c>
+      <c r="E6" s="0" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F6" s="71" t="n">
+        <v>0.643031</v>
+      </c>
+      <c r="G6" s="71" t="n">
+        <v>0.552944</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -28567,6 +28600,15 @@
       <c r="C7" s="71" t="n">
         <v>0.499956</v>
       </c>
+      <c r="E7" s="0" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="F7" s="71" t="n">
+        <v>0.642831</v>
+      </c>
+      <c r="G7" s="71" t="n">
+        <v>0.553311</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -28578,9 +28620,18 @@
       <c r="C8" s="71" t="n">
         <v>0.505897</v>
       </c>
+      <c r="E8" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F8" s="71" t="n">
+        <v>0.659948</v>
+      </c>
+      <c r="G8" s="71" t="n">
+        <v>0.558486</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="6" t="n">
         <v>0.001</v>
       </c>
       <c r="B9" s="71" t="n">
@@ -28588,6 +28639,15 @@
       </c>
       <c r="C9" s="71" t="n">
         <v>0.512216</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F9" s="71" t="n">
+        <v>0.708506</v>
+      </c>
+      <c r="G9" s="71" t="n">
+        <v>0.569682</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28600,6 +28660,15 @@
       <c r="C10" s="71" t="n">
         <v>0.506113</v>
       </c>
+      <c r="E10" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F10" s="71" t="n">
+        <v>0.849923</v>
+      </c>
+      <c r="G10" s="71" t="n">
+        <v>0.584887</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -28611,10 +28680,22 @@
       <c r="C11" s="71" t="n">
         <v>0.501643</v>
       </c>
+      <c r="E11" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="71" t="n">
+        <v>0.978032</v>
+      </c>
+      <c r="G11" s="71" t="n">
+        <v>0.587545</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28627,6 +28708,15 @@
       <c r="C14" s="71" t="n">
         <v>0.518221</v>
       </c>
+      <c r="E14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="71" t="n">
+        <v>0.633675</v>
+      </c>
+      <c r="G14" s="71" t="n">
+        <v>0.574318</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -28638,6 +28728,15 @@
       <c r="C15" s="71" t="n">
         <v>0.500709</v>
       </c>
+      <c r="E15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" s="71" t="n">
+        <v>0.669385</v>
+      </c>
+      <c r="G15" s="71" t="n">
+        <v>0.568615</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -28649,9 +28748,18 @@
       <c r="C16" s="71" t="n">
         <v>0.501953</v>
       </c>
+      <c r="E16" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" s="71" t="n">
+        <v>0.698253</v>
+      </c>
+      <c r="G16" s="71" t="n">
+        <v>0.573749</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="6" t="n">
         <v>5</v>
       </c>
       <c r="B17" s="71" t="n">
@@ -28659,6 +28767,15 @@
       </c>
       <c r="C17" s="71" t="n">
         <v>0.504602</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" s="71" t="n">
+        <v>0.721599</v>
+      </c>
+      <c r="G17" s="71" t="n">
+        <v>0.569462</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28671,6 +28788,15 @@
       <c r="C18" s="71" t="n">
         <v>0.49951</v>
       </c>
+      <c r="E18" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F18" s="71" t="n">
+        <v>0.747498</v>
+      </c>
+      <c r="G18" s="71" t="n">
+        <v>0.568817</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -28682,6 +28808,15 @@
       <c r="C19" s="71" t="n">
         <v>0.50157</v>
       </c>
+      <c r="E19" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F19" s="71" t="n">
+        <v>0.776206</v>
+      </c>
+      <c r="G19" s="71" t="n">
+        <v>0.568396</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -28693,6 +28828,15 @@
       <c r="C20" s="71" t="n">
         <v>0.505062</v>
       </c>
+      <c r="E20" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F20" s="71" t="n">
+        <v>0.800623</v>
+      </c>
+      <c r="G20" s="71" t="n">
+        <v>0.565908</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -28704,6 +28848,15 @@
       <c r="C21" s="71" t="n">
         <v>0.506495</v>
       </c>
+      <c r="E21" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F21" s="71" t="n">
+        <v>0.826188</v>
+      </c>
+      <c r="G21" s="71" t="n">
+        <v>0.564642</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -28715,10 +28868,22 @@
       <c r="C22" s="71" t="n">
         <v>0.501707</v>
       </c>
+      <c r="E22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" s="71" t="n">
+        <v>0.849978</v>
+      </c>
+      <c r="G22" s="71" t="n">
+        <v>0.556374</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28731,6 +28896,15 @@
       <c r="C25" s="71" t="n">
         <v>0.503777</v>
       </c>
+      <c r="E25" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="F25" s="71" t="n">
+        <v>0.736224</v>
+      </c>
+      <c r="G25" s="71" t="n">
+        <v>0.567152</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
@@ -28742,6 +28916,15 @@
       <c r="C26" s="71" t="n">
         <v>0.504159</v>
       </c>
+      <c r="E26" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F26" s="71" t="n">
+        <v>0.740041</v>
+      </c>
+      <c r="G26" s="71" t="n">
+        <v>0.567438</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
@@ -28753,6 +28936,15 @@
       <c r="C27" s="71" t="n">
         <v>0.504153</v>
       </c>
+      <c r="E27" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F27" s="71" t="n">
+        <v>0.743394</v>
+      </c>
+      <c r="G27" s="71" t="n">
+        <v>0.567862</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
@@ -28764,6 +28956,15 @@
       <c r="C28" s="71" t="n">
         <v>0.504089</v>
       </c>
+      <c r="E28" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F28" s="71" t="n">
+        <v>0.746341</v>
+      </c>
+      <c r="G28" s="71" t="n">
+        <v>0.567846</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
@@ -28775,6 +28976,15 @@
       <c r="C29" s="71" t="n">
         <v>0.504449</v>
       </c>
+      <c r="E29" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F29" s="71" t="n">
+        <v>0.749099</v>
+      </c>
+      <c r="G29" s="71" t="n">
+        <v>0.567797</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
@@ -28786,6 +28996,15 @@
       <c r="C30" s="71" t="n">
         <v>0.504785</v>
       </c>
+      <c r="E30" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F30" s="71" t="n">
+        <v>0.7516</v>
+      </c>
+      <c r="G30" s="71" t="n">
+        <v>0.567918</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
@@ -28797,9 +29016,18 @@
       <c r="C31" s="71" t="n">
         <v>0.504946</v>
       </c>
+      <c r="E31" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F31" s="71" t="n">
+        <v>0.753807</v>
+      </c>
+      <c r="G31" s="71" t="n">
+        <v>0.568104</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="6" t="n">
         <v>1300</v>
       </c>
       <c r="B32" s="71" t="n">
@@ -28808,10 +29036,22 @@
       <c r="C32" s="71" t="n">
         <v>0.505045</v>
       </c>
+      <c r="E32" s="6" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F32" s="71" t="n">
+        <v>0.755854</v>
+      </c>
+      <c r="G32" s="71" t="n">
+        <v>0.568357</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28824,9 +29064,18 @@
       <c r="C35" s="71" t="n">
         <v>0.504601</v>
       </c>
+      <c r="E35" s="0" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F35" s="71" t="n">
+        <v>0.746993</v>
+      </c>
+      <c r="G35" s="71" t="n">
+        <v>0.567928</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="6" t="n">
         <v>1E-005</v>
       </c>
       <c r="B36" s="71" t="n">
@@ -28834,6 +29083,15 @@
       </c>
       <c r="C36" s="71" t="n">
         <v>0.504644</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="F36" s="71" t="n">
+        <v>0.746955</v>
+      </c>
+      <c r="G36" s="71" t="n">
+        <v>0.567836</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28846,6 +29104,15 @@
       <c r="C37" s="71" t="n">
         <v>0.504482</v>
       </c>
+      <c r="E37" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F37" s="71" t="n">
+        <v>0.746909</v>
+      </c>
+      <c r="G37" s="71" t="n">
+        <v>0.568061</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
@@ -28857,6 +29124,15 @@
       <c r="C38" s="71" t="n">
         <v>0.504597</v>
       </c>
+      <c r="E38" s="6" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F38" s="71" t="n">
+        <v>0.74696</v>
+      </c>
+      <c r="G38" s="71" t="n">
+        <v>0.568064</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
@@ -28868,6 +29144,15 @@
       <c r="C39" s="71" t="n">
         <v>0.504353</v>
       </c>
+      <c r="E39" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F39" s="71" t="n">
+        <v>0.746912</v>
+      </c>
+      <c r="G39" s="71" t="n">
+        <v>0.567725</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
@@ -28879,10 +29164,19 @@
       <c r="C40" s="71" t="n">
         <v>0.503875</v>
       </c>
+      <c r="E40" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F40" s="71" t="n">
+        <v>0.747541</v>
+      </c>
+      <c r="G40" s="71" t="n">
+        <v>0.56724</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28892,15 +29186,24 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="71" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C48" s="71" t="s">
-        <v>62</v>
+        <v>57</v>
+      </c>
+      <c r="F48" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="G48" s="71" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28913,6 +29216,15 @@
       <c r="C50" s="71" t="n">
         <v>0.51098</v>
       </c>
+      <c r="E50" s="0" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F50" s="71" t="n">
+        <v>0.637471</v>
+      </c>
+      <c r="G50" s="71" t="n">
+        <v>0.544012</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
@@ -28924,6 +29236,15 @@
       <c r="C51" s="71" t="n">
         <v>0.512117</v>
       </c>
+      <c r="E51" s="0" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="F51" s="71" t="n">
+        <v>0.63716</v>
+      </c>
+      <c r="G51" s="71" t="n">
+        <v>0.543513</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
@@ -28935,9 +29256,18 @@
       <c r="C52" s="71" t="n">
         <v>0.512607</v>
       </c>
+      <c r="E52" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F52" s="71" t="n">
+        <v>0.649284</v>
+      </c>
+      <c r="G52" s="71" t="n">
+        <v>0.544568</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+      <c r="A53" s="6" t="n">
         <v>0.001</v>
       </c>
       <c r="B53" s="71" t="n">
@@ -28945,6 +29275,15 @@
       </c>
       <c r="C53" s="71" t="n">
         <v>0.515139</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F53" s="71" t="n">
+        <v>0.715528</v>
+      </c>
+      <c r="G53" s="71" t="n">
+        <v>0.545651</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28957,6 +29296,15 @@
       <c r="C54" s="71" t="n">
         <v>0.510075</v>
       </c>
+      <c r="E54" s="6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F54" s="71" t="n">
+        <v>0.847398</v>
+      </c>
+      <c r="G54" s="71" t="n">
+        <v>0.54774</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
@@ -28968,297 +29316,495 @@
       <c r="C55" s="71" t="n">
         <v>0.505715</v>
       </c>
+      <c r="E55" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F55" s="71" t="n">
+        <v>0.97091</v>
+      </c>
+      <c r="G55" s="71" t="n">
+        <v>0.542262</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" s="71" t="s">
-        <v>55</v>
+      <c r="A57" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>57</v>
+      <c r="A58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B58" s="71" t="n">
+        <v>0.600539</v>
+      </c>
+      <c r="C58" s="71" t="n">
+        <v>0.515303</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F58" s="71" t="n">
+        <v>0.623982</v>
+      </c>
+      <c r="G58" s="71" t="n">
+        <v>0.556673</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B59" s="71" t="n">
-        <v>0.600539</v>
+        <v>0.642894</v>
       </c>
       <c r="C59" s="71" t="n">
-        <v>0.515303</v>
+        <v>0.513368</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F59" s="71" t="n">
+        <v>0.665426</v>
+      </c>
+      <c r="G59" s="71" t="n">
+        <v>0.553122</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B60" s="71" t="n">
-        <v>0.642894</v>
+        <v>0.678683</v>
       </c>
       <c r="C60" s="71" t="n">
-        <v>0.513368</v>
+        <v>0.510288</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F60" s="71" t="n">
+        <v>0.696658</v>
+      </c>
+      <c r="G60" s="71" t="n">
+        <v>0.54995</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B61" s="71" t="n">
-        <v>0.678683</v>
+        <v>0.706406</v>
       </c>
       <c r="C61" s="71" t="n">
-        <v>0.510288</v>
+        <v>0.510719</v>
+      </c>
+      <c r="E61" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F61" s="71" t="n">
+        <v>0.721767</v>
+      </c>
+      <c r="G61" s="71" t="n">
+        <v>0.549915</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
-        <v>5</v>
+      <c r="A62" s="6" t="n">
+        <v>6</v>
       </c>
       <c r="B62" s="71" t="n">
-        <v>0.706406</v>
+        <v>0.735712</v>
       </c>
       <c r="C62" s="71" t="n">
-        <v>0.510719</v>
+        <v>0.512142</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F62" s="71" t="n">
+        <v>0.746556</v>
+      </c>
+      <c r="G62" s="71" t="n">
+        <v>0.545076</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B63" s="71" t="n">
-        <v>0.735712</v>
+        <v>0.763844</v>
       </c>
       <c r="C63" s="71" t="n">
-        <v>0.512142</v>
+        <v>0.509424</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F63" s="71" t="n">
+        <v>0.773377</v>
+      </c>
+      <c r="G63" s="71" t="n">
+        <v>0.544116</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B64" s="71" t="n">
-        <v>0.763844</v>
+        <v>0.786732</v>
       </c>
       <c r="C64" s="71" t="n">
-        <v>0.509424</v>
+        <v>0.511646</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F64" s="71" t="n">
+        <v>0.796501</v>
+      </c>
+      <c r="G64" s="71" t="n">
+        <v>0.538698</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B65" s="71" t="n">
-        <v>0.786732</v>
+        <v>0.809514</v>
       </c>
       <c r="C65" s="71" t="n">
-        <v>0.511646</v>
+        <v>0.506977</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F65" s="71" t="n">
+        <v>0.820086</v>
+      </c>
+      <c r="G65" s="71" t="n">
+        <v>0.532796</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B66" s="71" t="n">
-        <v>0.809514</v>
+        <v>0.828796</v>
       </c>
       <c r="C66" s="71" t="n">
-        <v>0.506977</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+        <v>0.510082</v>
+      </c>
+      <c r="E66" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B67" s="71" t="n">
-        <v>0.828796</v>
-      </c>
-      <c r="C67" s="71" t="n">
-        <v>0.510082</v>
+      <c r="F66" s="71" t="n">
+        <v>0.842276</v>
+      </c>
+      <c r="G66" s="71" t="n">
+        <v>0.531276</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="C69" s="71" t="s">
-        <v>55</v>
+      <c r="A69" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="B69" s="71" t="n">
+        <v>0.716045</v>
+      </c>
+      <c r="C69" s="71" t="n">
+        <v>0.511619</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="F69" s="71" t="n">
+        <v>0.731469</v>
+      </c>
+      <c r="G69" s="71" t="n">
+        <v>0.544695</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>58</v>
+      <c r="A70" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="B70" s="71" t="n">
+        <v>0.720636</v>
+      </c>
+      <c r="C70" s="71" t="n">
+        <v>0.511434</v>
+      </c>
+      <c r="E70" s="6" t="n">
+        <v>700</v>
+      </c>
+      <c r="F70" s="71" t="n">
+        <v>0.735492</v>
+      </c>
+      <c r="G70" s="71" t="n">
+        <v>0.544769</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="B71" s="71" t="n">
-        <v>0.716045</v>
+        <v>0.724447</v>
       </c>
       <c r="C71" s="71" t="n">
-        <v>0.511619</v>
+        <v>0.511322</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F71" s="71" t="n">
+        <v>0.739035</v>
+      </c>
+      <c r="G71" s="71" t="n">
+        <v>0.544668</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
-        <v>700</v>
+      <c r="A72" s="6" t="n">
+        <v>900</v>
       </c>
       <c r="B72" s="71" t="n">
-        <v>0.720636</v>
+        <v>0.727723</v>
       </c>
       <c r="C72" s="71" t="n">
-        <v>0.511434</v>
+        <v>0.511291</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F72" s="71" t="n">
+        <v>0.742262</v>
+      </c>
+      <c r="G72" s="71" t="n">
+        <v>0.544617</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="B73" s="71" t="n">
-        <v>0.724447</v>
+        <v>0.730453</v>
       </c>
       <c r="C73" s="71" t="n">
-        <v>0.511322</v>
+        <v>0.511138</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F73" s="71" t="n">
+        <v>0.745255</v>
+      </c>
+      <c r="G73" s="71" t="n">
+        <v>0.544683</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="B74" s="71" t="n">
-        <v>0.727723</v>
+        <v>0.732973</v>
       </c>
       <c r="C74" s="71" t="n">
-        <v>0.511291</v>
+        <v>0.51095</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F74" s="71" t="n">
+        <v>0.747847</v>
+      </c>
+      <c r="G74" s="71" t="n">
+        <v>0.544392</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="B75" s="71" t="n">
-        <v>0.730453</v>
+        <v>0.735325</v>
       </c>
       <c r="C75" s="71" t="n">
-        <v>0.511138</v>
+        <v>0.510597</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F75" s="71" t="n">
+        <v>0.750082</v>
+      </c>
+      <c r="G75" s="71" t="n">
+        <v>0.544511</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="B76" s="71" t="n">
-        <v>0.732973</v>
+        <v>0.737394</v>
       </c>
       <c r="C76" s="71" t="n">
-        <v>0.51095</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="B77" s="71" t="n">
-        <v>0.735325</v>
-      </c>
-      <c r="C77" s="71" t="n">
-        <v>0.510597</v>
+        <v>0.51049</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F76" s="71" t="n">
+        <v>0.752227</v>
+      </c>
+      <c r="G76" s="71" t="n">
+        <v>0.544662</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="B78" s="71" t="n">
-        <v>0.737394</v>
-      </c>
-      <c r="C78" s="71" t="n">
-        <v>0.51049</v>
+      <c r="A78" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="B79" s="71" t="n">
+        <v>0.727991</v>
+      </c>
+      <c r="C79" s="71" t="n">
+        <v>0.511221</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F79" s="71" t="n">
+        <v>0.742781</v>
+      </c>
+      <c r="G79" s="71" t="n">
+        <v>0.544727</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="C80" s="71" t="s">
-        <v>55</v>
+      <c r="A80" s="0" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="B80" s="71" t="n">
+        <v>0.728017</v>
+      </c>
+      <c r="C80" s="71" t="n">
+        <v>0.511195</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="F80" s="71" t="n">
+        <v>0.742816</v>
+      </c>
+      <c r="G80" s="71" t="n">
+        <v>0.544705</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>59</v>
+      <c r="A81" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="B81" s="71" t="n">
+        <v>0.728005</v>
+      </c>
+      <c r="C81" s="71" t="n">
+        <v>0.511049</v>
+      </c>
+      <c r="E81" s="6" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F81" s="71" t="n">
+        <v>0.742858</v>
+      </c>
+      <c r="G81" s="71" t="n">
+        <v>0.544834</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
-        <v>1E-006</v>
+        <v>0.001</v>
       </c>
       <c r="B82" s="71" t="n">
-        <v>0.727991</v>
+        <v>0.728005</v>
       </c>
       <c r="C82" s="71" t="n">
-        <v>0.511221</v>
+        <v>0.510945</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F82" s="71" t="n">
+        <v>0.742845</v>
+      </c>
+      <c r="G82" s="71" t="n">
+        <v>0.544858</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
-        <v>1E-005</v>
+        <v>0.01</v>
       </c>
       <c r="B83" s="71" t="n">
-        <v>0.728017</v>
+        <v>0.728257</v>
       </c>
       <c r="C83" s="71" t="n">
-        <v>0.511195</v>
+        <v>0.510797</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F83" s="71" t="n">
+        <v>0.742873</v>
+      </c>
+      <c r="G83" s="71" t="n">
+        <v>0.544588</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
-        <v>0.0001</v>
+        <v>0.1</v>
       </c>
       <c r="B84" s="71" t="n">
-        <v>0.728005</v>
-      </c>
-      <c r="C84" s="71" t="n">
-        <v>0.511049</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="B85" s="71" t="n">
-        <v>0.728005</v>
-      </c>
-      <c r="C85" s="71" t="n">
-        <v>0.510945</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="B86" s="71" t="n">
-        <v>0.728257</v>
-      </c>
-      <c r="C86" s="71" t="n">
-        <v>0.510797</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
+        <v>0.728471</v>
+      </c>
+      <c r="C84" s="72" t="n">
+        <v>0.511425</v>
+      </c>
+      <c r="E84" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="B87" s="71" t="n">
-        <v>0.728471</v>
-      </c>
-      <c r="C87" s="71" t="n">
-        <v>0.511425</v>
+      <c r="F84" s="71" t="n">
+        <v>0.74358</v>
+      </c>
+      <c r="G84" s="71" t="n">
+        <v>0.544035</v>
       </c>
     </row>
   </sheetData>
@@ -29279,8 +29825,8 @@
   </sheetPr>
   <dimension ref="A1:R98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N24" activeCellId="0" sqref="N24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29289,2653 +29835,2653 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="72" t="s">
-        <v>63</v>
+      <c r="A1" s="73" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="C3" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="73" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="73" t="s">
+      <c r="D3" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="73" t="s">
+      <c r="G3" s="74" t="s">
         <v>70</v>
       </c>
+      <c r="H3" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="74" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="74" t="n">
+      <c r="A4" s="75" t="n">
         <v>1E-010</v>
       </c>
-      <c r="B4" s="75" t="n">
+      <c r="B4" s="76" t="n">
         <v>-0.00111293540284043</v>
       </c>
-      <c r="C4" s="75" t="n">
+      <c r="C4" s="76" t="n">
         <v>-0.00282414495713061</v>
       </c>
-      <c r="D4" s="75" t="n">
+      <c r="D4" s="76" t="n">
         <v>-0.000697946339227086</v>
       </c>
-      <c r="E4" s="75" t="n">
+      <c r="E4" s="76" t="n">
         <v>-0.00304118617429148</v>
       </c>
-      <c r="F4" s="75" t="n">
+      <c r="F4" s="76" t="n">
         <v>-0.00135596626242466</v>
       </c>
-      <c r="G4" s="75" t="n">
+      <c r="G4" s="76" t="n">
         <v>-0.00291327737615589</v>
       </c>
-      <c r="H4" s="75" t="n">
+      <c r="H4" s="76" t="n">
         <v>-0.000742094377226566</v>
       </c>
-      <c r="I4" s="75" t="n">
+      <c r="I4" s="76" t="n">
         <v>-0.00266934612194859</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="74" t="n">
+      <c r="A5" s="75" t="n">
         <v>1E-009</v>
       </c>
-      <c r="B5" s="75" t="n">
+      <c r="B5" s="76" t="n">
         <v>-0.00111293371315058</v>
       </c>
-      <c r="C5" s="75" t="n">
+      <c r="C5" s="76" t="n">
         <v>-0.00282414319570515</v>
       </c>
-      <c r="D5" s="75" t="n">
+      <c r="D5" s="76" t="n">
         <v>-0.000697946354035176</v>
       </c>
-      <c r="E5" s="75" t="n">
+      <c r="E5" s="76" t="n">
         <v>-0.00304118618738589</v>
       </c>
-      <c r="F5" s="75" t="n">
+      <c r="F5" s="76" t="n">
         <v>-0.0013559640302148</v>
       </c>
-      <c r="G5" s="75" t="n">
+      <c r="G5" s="76" t="n">
         <v>-0.00291327494139364</v>
       </c>
-      <c r="H5" s="75" t="n">
+      <c r="H5" s="76" t="n">
         <v>-0.000742094205402627</v>
       </c>
-      <c r="I5" s="75" t="n">
+      <c r="I5" s="76" t="n">
         <v>-0.00266934514913159</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="74" t="n">
+      <c r="A6" s="75" t="n">
         <v>1E-008</v>
       </c>
-      <c r="B6" s="75" t="n">
+      <c r="B6" s="76" t="n">
         <v>-0.00111291681821082</v>
       </c>
-      <c r="C6" s="75" t="n">
+      <c r="C6" s="76" t="n">
         <v>-0.00282412559097047</v>
       </c>
-      <c r="D6" s="75" t="n">
+      <c r="D6" s="76" t="n">
         <v>-0.000697946509613028</v>
       </c>
-      <c r="E6" s="75" t="n">
+      <c r="E6" s="76" t="n">
         <v>-0.00304118632476938</v>
       </c>
-      <c r="F6" s="75" t="n">
+      <c r="F6" s="76" t="n">
         <v>-0.00135594171035305</v>
       </c>
-      <c r="G6" s="75" t="n">
+      <c r="G6" s="76" t="n">
         <v>-0.00291325060517979</v>
       </c>
-      <c r="H6" s="75" t="n">
+      <c r="H6" s="76" t="n">
         <v>-0.000742092494733002</v>
       </c>
-      <c r="I6" s="75" t="n">
+      <c r="I6" s="76" t="n">
         <v>-0.00266933542928393</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="74" t="n">
+      <c r="A7" s="75" t="n">
         <v>1E-007</v>
       </c>
-      <c r="B7" s="75" t="n">
+      <c r="B7" s="76" t="n">
         <v>-0.00111274884219232</v>
       </c>
-      <c r="C7" s="75" t="n">
+      <c r="C7" s="76" t="n">
         <v>-0.0028239506054595</v>
       </c>
-      <c r="D7" s="75" t="n">
+      <c r="D7" s="76" t="n">
         <v>-0.000697948815583526</v>
       </c>
-      <c r="E7" s="75" t="n">
+      <c r="E7" s="76" t="n">
         <v>-0.00304118834270706</v>
       </c>
-      <c r="F7" s="75" t="n">
+      <c r="F7" s="76" t="n">
         <v>-0.00135571798010367</v>
       </c>
-      <c r="G7" s="75" t="n">
+      <c r="G7" s="76" t="n">
         <v>-0.00291299676426354</v>
       </c>
-      <c r="H7" s="75" t="n">
+      <c r="H7" s="76" t="n">
         <v>-0.000742076142398709</v>
       </c>
-      <c r="I7" s="75" t="n">
+      <c r="I7" s="76" t="n">
         <v>-0.00266923909233181</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="74" t="n">
+      <c r="A8" s="75" t="n">
         <v>1E-006</v>
       </c>
-      <c r="B8" s="75" t="n">
+      <c r="B8" s="76" t="n">
         <v>-0.00111108689110401</v>
       </c>
-      <c r="C8" s="75" t="n">
+      <c r="C8" s="76" t="n">
         <v>-0.00282225287629909</v>
       </c>
-      <c r="D8" s="75" t="n">
+      <c r="D8" s="76" t="n">
         <v>-0.000698037407777804</v>
       </c>
-      <c r="E8" s="75" t="n">
+      <c r="E8" s="76" t="n">
         <v>-0.00304125295274483</v>
       </c>
-      <c r="F8" s="75" t="n">
+      <c r="F8" s="76" t="n">
         <v>-0.00135357087357215</v>
       </c>
-      <c r="G8" s="75" t="n">
+      <c r="G8" s="76" t="n">
         <v>-0.00291096081902446</v>
       </c>
-      <c r="H8" s="75" t="n">
+      <c r="H8" s="76" t="n">
         <v>-0.000742027158295506</v>
       </c>
-      <c r="I8" s="75" t="n">
+      <c r="I8" s="76" t="n">
         <v>-0.0026684512193998</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="74" t="n">
+      <c r="A9" s="75" t="n">
         <v>1E-005</v>
       </c>
-      <c r="B9" s="75" t="n">
+      <c r="B9" s="76" t="n">
         <v>-0.00109545216856461</v>
       </c>
-      <c r="C9" s="75" t="n">
+      <c r="C9" s="76" t="n">
         <v>-0.00280667914358119</v>
       </c>
-      <c r="D9" s="75" t="n">
+      <c r="D9" s="76" t="n">
         <v>-0.000699040313410207</v>
       </c>
-      <c r="E9" s="75" t="n">
+      <c r="E9" s="76" t="n">
         <v>-0.00304296287503557</v>
       </c>
-      <c r="F9" s="75" t="n">
+      <c r="F9" s="76" t="n">
         <v>-0.00133376043969365</v>
       </c>
-      <c r="G9" s="75" t="n">
+      <c r="G9" s="76" t="n">
         <v>-0.0028930388719619</v>
       </c>
-      <c r="H9" s="75" t="n">
+      <c r="H9" s="76" t="n">
         <v>-0.000742015114884388</v>
       </c>
-      <c r="I9" s="75" t="n">
+      <c r="I9" s="76" t="n">
         <v>-0.00266689726104487</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="74" t="n">
+      <c r="A10" s="75" t="n">
         <v>0.0001</v>
       </c>
-      <c r="B10" s="75" t="n">
+      <c r="B10" s="76" t="n">
         <v>-0.000951001585219408</v>
       </c>
-      <c r="C10" s="75" t="n">
+      <c r="C10" s="76" t="n">
         <v>-0.00266549852838807</v>
       </c>
-      <c r="D10" s="75" t="n">
+      <c r="D10" s="76" t="n">
         <v>-0.000700097847035075</v>
       </c>
-      <c r="E10" s="75" t="n">
+      <c r="E10" s="76" t="n">
         <v>-0.00305321724402439</v>
       </c>
-      <c r="F10" s="75" t="n">
+      <c r="F10" s="76" t="n">
         <v>-0.00114910275528798</v>
       </c>
-      <c r="G10" s="75" t="n">
+      <c r="G10" s="76" t="n">
         <v>-0.00274525988528818</v>
       </c>
-      <c r="H10" s="75" t="n">
+      <c r="H10" s="76" t="n">
         <v>-0.000741866903437737</v>
       </c>
-      <c r="I10" s="75" t="n">
+      <c r="I10" s="76" t="n">
         <v>-0.00266680781006204</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="74" t="n">
+      <c r="A11" s="75" t="n">
         <v>0.001</v>
       </c>
-      <c r="B11" s="75" t="n">
+      <c r="B11" s="76" t="n">
         <v>-0.000420641696961403</v>
       </c>
-      <c r="C11" s="75" t="n">
+      <c r="C11" s="76" t="n">
         <v>-0.00214803263901152</v>
       </c>
-      <c r="D11" s="75" t="n">
+      <c r="D11" s="76" t="n">
         <v>-0.000702725810807464</v>
       </c>
-      <c r="E11" s="75" t="n">
+      <c r="E11" s="76" t="n">
         <v>-0.00306807339859227</v>
       </c>
-      <c r="F11" s="75" t="n">
+      <c r="F11" s="76" t="n">
         <v>-0.000531390052225809</v>
       </c>
-      <c r="G11" s="75" t="n">
+      <c r="G11" s="76" t="n">
         <v>-0.002253331687501</v>
       </c>
-      <c r="H11" s="75" t="n">
+      <c r="H11" s="76" t="n">
         <v>-0.000742084078181588</v>
       </c>
-      <c r="I11" s="75" t="n">
+      <c r="I11" s="76" t="n">
         <v>-0.00267147142199126</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="74" t="n">
+      <c r="A12" s="75" t="n">
         <v>0.01</v>
       </c>
-      <c r="B12" s="75" t="n">
+      <c r="B12" s="76" t="n">
         <v>-0.000449769312716028</v>
       </c>
-      <c r="C12" s="75" t="n">
+      <c r="C12" s="76" t="n">
         <v>-0.00218689107338826</v>
       </c>
-      <c r="D12" s="75" t="n">
+      <c r="D12" s="76" t="n">
         <v>-0.000702725810807464</v>
       </c>
-      <c r="E12" s="75" t="n">
+      <c r="E12" s="76" t="n">
         <v>-0.00306964567825532</v>
       </c>
-      <c r="F12" s="75" t="n">
+      <c r="F12" s="76" t="n">
         <v>-0.000564639024443468</v>
       </c>
-      <c r="G12" s="75" t="n">
+      <c r="G12" s="76" t="n">
         <v>-0.00229396302026837</v>
       </c>
-      <c r="H12" s="75" t="n">
+      <c r="H12" s="76" t="n">
         <v>-0.000742084078181588</v>
       </c>
-      <c r="I12" s="75" t="n">
+      <c r="I12" s="76" t="n">
         <v>-0.00267163595460066</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="74" t="n">
+      <c r="A13" s="75" t="n">
         <v>0.1</v>
       </c>
-      <c r="B13" s="75" t="n">
+      <c r="B13" s="76" t="n">
         <v>-0.00468758048692385</v>
       </c>
-      <c r="C13" s="75" t="n">
+      <c r="C13" s="76" t="n">
         <v>-0.00650323234156696</v>
       </c>
-      <c r="D13" s="75" t="n">
+      <c r="D13" s="76" t="n">
         <v>-0.000702725810807464</v>
       </c>
-      <c r="E13" s="75" t="n">
+      <c r="E13" s="76" t="n">
         <v>-0.00306964567825532</v>
       </c>
-      <c r="F13" s="75" t="n">
+      <c r="F13" s="76" t="n">
         <v>-0.00486270378259332</v>
       </c>
-      <c r="G13" s="75" t="n">
+      <c r="G13" s="76" t="n">
         <v>-0.00658565108550885</v>
       </c>
-      <c r="H13" s="75" t="n">
+      <c r="H13" s="76" t="n">
         <v>-0.000742084078181588</v>
       </c>
-      <c r="I13" s="75" t="n">
+      <c r="I13" s="76" t="n">
         <v>-0.00267163595460066</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="73" t="s">
+      <c r="B17" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="73" t="s">
+      <c r="C17" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="73" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="73" t="s">
+      <c r="D17" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="I17" s="73" t="s">
+      <c r="G17" s="74" t="s">
         <v>70</v>
       </c>
+      <c r="H17" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="74" t="s">
+        <v>72</v>
+      </c>
       <c r="K17" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="76"/>
+        <v>74</v>
+      </c>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="77"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="74" t="n">
+      <c r="A18" s="75" t="n">
         <v>1E-010</v>
       </c>
-      <c r="B18" s="77" t="n">
+      <c r="B18" s="78" t="n">
         <f aca="false">B4/2.78594350245436</f>
         <v>-0.00039948240223104</v>
       </c>
-      <c r="C18" s="77" t="n">
+      <c r="C18" s="78" t="n">
         <f aca="false">C4/2.78913990345228</f>
         <v>-0.00101255048326368</v>
       </c>
-      <c r="D18" s="77" t="n">
+      <c r="D18" s="78" t="n">
         <f aca="false">D4/0.001137033158201</f>
         <v>-0.613831121980091</v>
       </c>
-      <c r="E18" s="77" t="n">
+      <c r="E18" s="78" t="n">
         <f aca="false">E4/0.006986039944106</f>
         <v>-0.435323330330694</v>
       </c>
-      <c r="F18" s="77" t="n">
+      <c r="F18" s="78" t="n">
         <f aca="false">F4/2.78594350245436</f>
         <v>-0.000486717071336904</v>
       </c>
-      <c r="G18" s="77" t="n">
+      <c r="G18" s="78" t="n">
         <f aca="false">G4/2.78913990345228</f>
         <v>-0.00104450743849384</v>
       </c>
-      <c r="H18" s="77" t="n">
+      <c r="H18" s="78" t="n">
         <f aca="false">H4/0.001137033158201</f>
         <v>-0.65265851912419</v>
       </c>
-      <c r="I18" s="77" t="n">
+      <c r="I18" s="78" t="n">
         <f aca="false">I4/0.006986039944106</f>
         <v>-0.382097174265467</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="L18" s="74"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
+        <v>75</v>
+      </c>
+      <c r="L18" s="75"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="74" t="n">
+      <c r="A19" s="75" t="n">
         <v>1E-009</v>
       </c>
-      <c r="B19" s="77" t="n">
+      <c r="B19" s="78" t="n">
         <f aca="false">B5/2.78594350245436</f>
         <v>-0.000399481795725616</v>
       </c>
-      <c r="C19" s="77" t="n">
+      <c r="C19" s="78" t="n">
         <f aca="false">C5/2.78913990345228</f>
         <v>-0.0010125498517337</v>
       </c>
-      <c r="D19" s="77" t="n">
+      <c r="D19" s="78" t="n">
         <f aca="false">D5/0.001137033158201</f>
         <v>-0.613831135003537</v>
       </c>
-      <c r="E19" s="77" t="n">
+      <c r="E19" s="78" t="n">
         <f aca="false">E5/0.006986039944106</f>
         <v>-0.435323332205062</v>
       </c>
-      <c r="F19" s="77" t="n">
+      <c r="F19" s="78" t="n">
         <f aca="false">F5/2.78594350245436</f>
         <v>-0.000486716270096728</v>
       </c>
-      <c r="G19" s="77" t="n">
+      <c r="G19" s="78" t="n">
         <f aca="false">G5/2.78913990345228</f>
         <v>-0.00104450656555009</v>
       </c>
-      <c r="H19" s="77" t="n">
+      <c r="H19" s="78" t="n">
         <f aca="false">H5/0.001137033158201</f>
         <v>-0.652658368008158</v>
       </c>
-      <c r="I19" s="77" t="n">
+      <c r="I19" s="78" t="n">
         <f aca="false">I5/0.006986039944106</f>
         <v>-0.382097035013902</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="L19" s="74"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
+        <v>76</v>
+      </c>
+      <c r="L19" s="75"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="78"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="74" t="n">
+      <c r="A20" s="75" t="n">
         <v>1E-008</v>
       </c>
-      <c r="B20" s="77" t="n">
+      <c r="B20" s="78" t="n">
         <f aca="false">B6/2.78594350245436</f>
         <v>-0.000399475731374438</v>
       </c>
-      <c r="C20" s="77" t="n">
+      <c r="C20" s="78" t="n">
         <f aca="false">C6/2.78913990345228</f>
         <v>-0.00101254353984714</v>
       </c>
-      <c r="D20" s="77" t="n">
+      <c r="D20" s="78" t="n">
         <f aca="false">D6/0.001137033158201</f>
         <v>-0.613831271831431</v>
       </c>
-      <c r="E20" s="77" t="n">
+      <c r="E20" s="78" t="n">
         <f aca="false">E6/0.006986039944106</f>
         <v>-0.435323351870493</v>
       </c>
-      <c r="F20" s="77" t="n">
+      <c r="F20" s="78" t="n">
         <f aca="false">F6/2.78594350245436</f>
         <v>-0.00048670825849788</v>
       </c>
-      <c r="G20" s="77" t="n">
+      <c r="G20" s="78" t="n">
         <f aca="false">G6/2.78913990345228</f>
         <v>-0.00104449784020296</v>
       </c>
-      <c r="H20" s="77" t="n">
+      <c r="H20" s="78" t="n">
         <f aca="false">H6/0.001137033158201</f>
         <v>-0.65265686350531</v>
       </c>
-      <c r="I20" s="77" t="n">
+      <c r="I20" s="78" t="n">
         <f aca="false">I6/0.006986039944106</f>
         <v>-0.382095643689526</v>
       </c>
-      <c r="L20" s="74"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="74" t="n">
+      <c r="A21" s="75" t="n">
         <v>1E-007</v>
       </c>
-      <c r="B21" s="77" t="n">
+      <c r="B21" s="78" t="n">
         <f aca="false">B7/2.78594350245436</f>
         <v>-0.000399415437252053</v>
       </c>
-      <c r="C21" s="77" t="n">
+      <c r="C21" s="78" t="n">
         <f aca="false">C7/2.78913990345228</f>
         <v>-0.00101248080168518</v>
       </c>
-      <c r="D21" s="78" t="n">
+      <c r="D21" s="79" t="n">
         <f aca="false">D7/0.001137033158201</f>
         <v>-0.613833299890579</v>
       </c>
-      <c r="E21" s="78" t="n">
+      <c r="E21" s="79" t="n">
         <f aca="false">E7/0.006986039944106</f>
         <v>-0.435323640723362</v>
       </c>
-      <c r="F21" s="77" t="n">
+      <c r="F21" s="78" t="n">
         <f aca="false">F7/2.78594350245436</f>
         <v>-0.000486627951682908</v>
       </c>
-      <c r="G21" s="77" t="n">
+      <c r="G21" s="78" t="n">
         <f aca="false">G7/2.78913990345228</f>
         <v>-0.00104440682973915</v>
       </c>
-      <c r="H21" s="77" t="n">
+      <c r="H21" s="78" t="n">
         <f aca="false">H7/0.001137033158201</f>
         <v>-0.652642481924461</v>
       </c>
-      <c r="I21" s="77" t="n">
+      <c r="I21" s="78" t="n">
         <f aca="false">I7/0.006986039944106</f>
         <v>-0.38208185376664</v>
       </c>
-      <c r="L21" s="74"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="77"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="78"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="74" t="n">
+      <c r="A22" s="75" t="n">
         <v>1E-006</v>
       </c>
-      <c r="B22" s="77" t="n">
+      <c r="B22" s="78" t="n">
         <f aca="false">B8/2.78594350245436</f>
         <v>-0.000398818888511259</v>
       </c>
-      <c r="C22" s="77" t="n">
+      <c r="C22" s="78" t="n">
         <f aca="false">C8/2.78913990345228</f>
         <v>-0.00101187210896299</v>
       </c>
-      <c r="D22" s="77" t="n">
+      <c r="D22" s="78" t="n">
         <f aca="false">D8/0.001137033158201</f>
         <v>-0.613911215115512</v>
       </c>
-      <c r="E22" s="77" t="n">
+      <c r="E22" s="78" t="n">
         <f aca="false">E8/0.006986039944106</f>
         <v>-0.435332889172882</v>
       </c>
-      <c r="F22" s="77" t="n">
+      <c r="F22" s="78" t="n">
         <f aca="false">F8/2.78594350245436</f>
         <v>-0.000485857258906968</v>
       </c>
-      <c r="G22" s="77" t="n">
+      <c r="G22" s="78" t="n">
         <f aca="false">G8/2.78913990345228</f>
         <v>-0.00104367687523362</v>
       </c>
-      <c r="H22" s="78" t="n">
+      <c r="H22" s="79" t="n">
         <f aca="false">H8/0.001137033158201</f>
         <v>-0.652599401295854</v>
       </c>
-      <c r="I22" s="78" t="n">
+      <c r="I22" s="79" t="n">
         <f aca="false">I8/0.006986039944106</f>
         <v>-0.381969075577806</v>
       </c>
-      <c r="L22" s="74"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="78"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="74" t="n">
+      <c r="A23" s="75" t="n">
         <v>1E-005</v>
       </c>
-      <c r="B23" s="77" t="n">
+      <c r="B23" s="78" t="n">
         <f aca="false">B9/2.78594350245436</f>
         <v>-0.000393206885781976</v>
       </c>
-      <c r="C23" s="77" t="n">
+      <c r="C23" s="78" t="n">
         <f aca="false">C9/2.78913990345228</f>
         <v>-0.0010062884045749</v>
       </c>
-      <c r="D23" s="77" t="n">
+      <c r="D23" s="78" t="n">
         <f aca="false">D9/0.001137033158201</f>
         <v>-0.614793252393994</v>
       </c>
-      <c r="E23" s="77" t="n">
+      <c r="E23" s="78" t="n">
         <f aca="false">E9/0.006986039944106</f>
         <v>-0.435577651914639</v>
       </c>
-      <c r="F23" s="77" t="n">
+      <c r="F23" s="78" t="n">
         <f aca="false">F9/2.78594350245436</f>
         <v>-0.00047874640620624</v>
       </c>
-      <c r="G23" s="77" t="n">
+      <c r="G23" s="78" t="n">
         <f aca="false">G9/2.78913990345228</f>
         <v>-0.00103725125741488</v>
       </c>
-      <c r="H23" s="77" t="n">
+      <c r="H23" s="78" t="n">
         <f aca="false">H9/0.001137033158201</f>
         <v>-0.652588809334633</v>
       </c>
-      <c r="I23" s="77" t="n">
+      <c r="I23" s="78" t="n">
         <f aca="false">I9/0.006986039944106</f>
         <v>-0.381746637921085</v>
       </c>
-      <c r="L23" s="74"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="77"/>
-      <c r="P23" s="77"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="78"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="74" t="n">
+      <c r="A24" s="75" t="n">
         <v>0.0001</v>
       </c>
-      <c r="B24" s="77" t="n">
+      <c r="B24" s="78" t="n">
         <f aca="false">B10/2.78594350245436</f>
         <v>-0.000341357096574857</v>
       </c>
-      <c r="C24" s="77" t="n">
+      <c r="C24" s="78" t="n">
         <f aca="false">C10/2.78913990345228</f>
         <v>-0.000955670429112871</v>
       </c>
-      <c r="D24" s="77" t="n">
+      <c r="D24" s="78" t="n">
         <f aca="false">D10/0.001137033158201</f>
         <v>-0.615723333999126</v>
       </c>
-      <c r="E24" s="77" t="n">
+      <c r="E24" s="78" t="n">
         <f aca="false">E10/0.006986039944106</f>
         <v>-0.437045489068572</v>
       </c>
-      <c r="F24" s="77" t="n">
+      <c r="F24" s="78" t="n">
         <f aca="false">F10/2.78594350245436</f>
         <v>-0.000412464486187765</v>
       </c>
-      <c r="G24" s="77" t="n">
+      <c r="G24" s="78" t="n">
         <f aca="false">G10/2.78913990345228</f>
         <v>-0.000984267544948252</v>
       </c>
-      <c r="H24" s="77" t="n">
+      <c r="H24" s="78" t="n">
         <f aca="false">H10/0.001137033158201</f>
         <v>-0.652458460060663</v>
       </c>
-      <c r="I24" s="77" t="n">
+      <c r="I24" s="78" t="n">
         <f aca="false">I10/0.006986039944106</f>
         <v>-0.381733833673822</v>
       </c>
-      <c r="L24" s="74"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="77"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="78"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="74" t="n">
+      <c r="A25" s="75" t="n">
         <v>0.001</v>
       </c>
-      <c r="B25" s="78" t="n">
+      <c r="B25" s="79" t="n">
         <f aca="false">B11/2.78594350245436</f>
         <v>-0.000150987159858348</v>
       </c>
-      <c r="C25" s="78" t="n">
+      <c r="C25" s="79" t="n">
         <f aca="false">C11/2.78913990345228</f>
         <v>-0.000770141589653776</v>
       </c>
-      <c r="D25" s="77" t="n">
+      <c r="D25" s="78" t="n">
         <f aca="false">D11/0.001137033158201</f>
         <v>-0.618034580380495</v>
       </c>
-      <c r="E25" s="77" t="n">
+      <c r="E25" s="78" t="n">
         <f aca="false">E11/0.006986039944106</f>
         <v>-0.439172037826773</v>
       </c>
-      <c r="F25" s="78" t="n">
+      <c r="F25" s="79" t="n">
         <f aca="false">F11/2.78594350245436</f>
         <v>-0.000190739708740563</v>
       </c>
-      <c r="G25" s="78" t="n">
+      <c r="G25" s="79" t="n">
         <f aca="false">G11/2.78913990345228</f>
         <v>-0.000807894822598148</v>
       </c>
-      <c r="H25" s="77" t="n">
+      <c r="H25" s="78" t="n">
         <f aca="false">H11/0.001137033158201</f>
         <v>-0.652649461301291</v>
       </c>
-      <c r="I25" s="77" t="n">
+      <c r="I25" s="78" t="n">
         <f aca="false">I11/0.006986039944106</f>
         <v>-0.382401395263297</v>
       </c>
-      <c r="L25" s="74"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="77"/>
-      <c r="O25" s="77"/>
-      <c r="P25" s="77"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="78"/>
+      <c r="N25" s="78"/>
+      <c r="O25" s="78"/>
+      <c r="P25" s="78"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="74" t="n">
+      <c r="A26" s="75" t="n">
         <v>0.01</v>
       </c>
-      <c r="B26" s="77" t="n">
+      <c r="B26" s="78" t="n">
         <f aca="false">B12/2.78594350245436</f>
         <v>-0.000161442366767234</v>
       </c>
-      <c r="C26" s="77" t="n">
+      <c r="C26" s="78" t="n">
         <f aca="false">C12/2.78913990345228</f>
         <v>-0.000784073638859569</v>
       </c>
-      <c r="D26" s="77" t="n">
+      <c r="D26" s="78" t="n">
         <f aca="false">D12/0.001137033158201</f>
         <v>-0.618034580380495</v>
       </c>
-      <c r="E26" s="77" t="n">
+      <c r="E26" s="78" t="n">
         <f aca="false">E12/0.006986039944106</f>
         <v>-0.439397098043381</v>
       </c>
-      <c r="F26" s="77" t="n">
+      <c r="F26" s="78" t="n">
         <f aca="false">F12/2.78594350245436</f>
         <v>-0.000202674255219473</v>
       </c>
-      <c r="G26" s="77" t="n">
+      <c r="G26" s="78" t="n">
         <f aca="false">G12/2.78913990345228</f>
         <v>-0.000822462515210871</v>
       </c>
-      <c r="H26" s="77" t="n">
+      <c r="H26" s="78" t="n">
         <f aca="false">H12/0.001137033158201</f>
         <v>-0.652649461301291</v>
       </c>
-      <c r="I26" s="77" t="n">
+      <c r="I26" s="78" t="n">
         <f aca="false">I12/0.006986039944106</f>
         <v>-0.382424946890644</v>
       </c>
-      <c r="L26" s="74"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="77"/>
-      <c r="P26" s="77"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="78"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="74" t="n">
+      <c r="A27" s="75" t="n">
         <v>0.1</v>
       </c>
-      <c r="B27" s="77" t="n">
+      <c r="B27" s="78" t="n">
         <f aca="false">B13/2.78594350245436</f>
         <v>-0.00168258275259142</v>
       </c>
-      <c r="C27" s="77" t="n">
+      <c r="C27" s="78" t="n">
         <f aca="false">C13/2.78913990345228</f>
         <v>-0.00233162643921789</v>
       </c>
-      <c r="D27" s="77" t="n">
+      <c r="D27" s="78" t="n">
         <f aca="false">D13/0.001137033158201</f>
         <v>-0.618034580380495</v>
       </c>
-      <c r="E27" s="77" t="n">
+      <c r="E27" s="78" t="n">
         <f aca="false">E13/0.006986039944106</f>
         <v>-0.439397098043381</v>
       </c>
-      <c r="F27" s="77" t="n">
+      <c r="F27" s="78" t="n">
         <f aca="false">F13/2.78594350245436</f>
         <v>-0.00174544235312359</v>
       </c>
-      <c r="G27" s="77" t="n">
+      <c r="G27" s="78" t="n">
         <f aca="false">G13/2.78913990345228</f>
         <v>-0.00236117631724296</v>
       </c>
-      <c r="H27" s="77" t="n">
+      <c r="H27" s="78" t="n">
         <f aca="false">H13/0.001137033158201</f>
         <v>-0.652649461301291</v>
       </c>
-      <c r="I27" s="77" t="n">
+      <c r="I27" s="78" t="n">
         <f aca="false">I13/0.006986039944106</f>
         <v>-0.382424946890644</v>
       </c>
-      <c r="L27" s="74"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="77"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="78"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="74"/>
+      <c r="A28" s="75"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="73" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="73" t="s">
+      <c r="C30" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" s="73" t="s">
-        <v>68</v>
-      </c>
-      <c r="H30" s="73" t="s">
+      <c r="D30" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="I30" s="73" t="s">
+      <c r="G30" s="74" t="s">
         <v>70</v>
       </c>
+      <c r="H30" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="I30" s="74" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="74" t="n">
+      <c r="A31" s="75" t="n">
         <v>10</v>
       </c>
-      <c r="B31" s="75" t="n">
+      <c r="B31" s="76" t="n">
         <v>-0.00418950155250626</v>
       </c>
-      <c r="C31" s="75" t="n">
+      <c r="C31" s="76" t="n">
         <v>-0.00589857300792563</v>
       </c>
-      <c r="D31" s="75" t="n">
+      <c r="D31" s="76" t="n">
         <v>-0.000699821673541167</v>
       </c>
-      <c r="E31" s="75" t="n">
+      <c r="E31" s="76" t="n">
         <v>-0.00305221798475555</v>
       </c>
-      <c r="F31" s="75" t="n">
+      <c r="F31" s="76" t="n">
         <v>-0.00491784416144387</v>
       </c>
-      <c r="G31" s="75" t="n">
+      <c r="G31" s="76" t="n">
         <v>-0.00579954664786253</v>
       </c>
-      <c r="H31" s="75" t="n">
+      <c r="H31" s="76" t="n">
         <v>-0.000741851591458169</v>
       </c>
-      <c r="I31" s="75" t="n">
+      <c r="I31" s="76" t="n">
         <v>-0.00266995951679102</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="74" t="n">
+      <c r="A32" s="75" t="n">
         <v>100</v>
       </c>
-      <c r="B32" s="75" t="n">
+      <c r="B32" s="76" t="n">
         <v>-0.000837907548335361</v>
       </c>
-      <c r="C32" s="75" t="n">
+      <c r="C32" s="76" t="n">
         <v>-0.00256726731164869</v>
       </c>
-      <c r="D32" s="75" t="n">
+      <c r="D32" s="76" t="n">
         <v>-0.000699794208077064</v>
       </c>
-      <c r="E32" s="75" t="n">
+      <c r="E32" s="76" t="n">
         <v>-0.00305112837241017</v>
       </c>
-      <c r="F32" s="75" t="n">
+      <c r="F32" s="76" t="n">
         <v>-0.000955880946032487</v>
       </c>
-      <c r="G32" s="75" t="n">
+      <c r="G32" s="76" t="n">
         <v>-0.00268912328761873</v>
       </c>
-      <c r="H32" s="75" t="n">
+      <c r="H32" s="76" t="n">
         <v>-0.00074196961743598</v>
       </c>
-      <c r="I32" s="75" t="n">
+      <c r="I32" s="76" t="n">
         <v>-0.0026687965932604</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="74" t="n">
+      <c r="A33" s="75" t="n">
         <v>1000</v>
       </c>
-      <c r="B33" s="75" t="n">
+      <c r="B33" s="76" t="n">
         <v>-0.000837907548335361</v>
       </c>
-      <c r="C33" s="75" t="n">
+      <c r="C33" s="76" t="n">
         <v>-0.00256700491974116</v>
       </c>
-      <c r="D33" s="75" t="n">
+      <c r="D33" s="76" t="n">
         <v>-0.000699761455773573</v>
       </c>
-      <c r="E33" s="75" t="n">
+      <c r="E33" s="76" t="n">
         <v>-0.00305073323066833</v>
       </c>
-      <c r="F33" s="75" t="n">
+      <c r="F33" s="76" t="n">
         <v>-0.000955880946032487</v>
       </c>
-      <c r="G33" s="75" t="n">
+      <c r="G33" s="76" t="n">
         <v>-0.00268896243097585</v>
       </c>
-      <c r="H33" s="75" t="n">
+      <c r="H33" s="76" t="n">
         <v>-0.000742167641530625</v>
       </c>
-      <c r="I33" s="75" t="n">
+      <c r="I33" s="76" t="n">
         <v>-0.0026687082011818</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="74" t="n">
+      <c r="A34" s="75" t="n">
         <v>10000</v>
       </c>
-      <c r="B34" s="75" t="n">
+      <c r="B34" s="76" t="n">
         <v>-0.000837907548335361</v>
       </c>
-      <c r="C34" s="75" t="n">
+      <c r="C34" s="76" t="n">
         <v>-0.00256694475062215</v>
       </c>
-      <c r="D34" s="75" t="n">
+      <c r="D34" s="76" t="n">
         <v>-0.000699719777918008</v>
       </c>
-      <c r="E34" s="75" t="n">
+      <c r="E34" s="76" t="n">
         <v>-0.00305069965316976</v>
       </c>
-      <c r="F34" s="75" t="n">
+      <c r="F34" s="76" t="n">
         <v>-0.000955880946032487</v>
       </c>
-      <c r="G34" s="75" t="n">
+      <c r="G34" s="76" t="n">
         <v>-0.00268902315871548</v>
       </c>
-      <c r="H34" s="75" t="n">
+      <c r="H34" s="76" t="n">
         <v>-0.000742201423760159</v>
       </c>
-      <c r="I34" s="75" t="n">
+      <c r="I34" s="76" t="n">
         <v>-0.00266903302312579</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="74" t="n">
+      <c r="A35" s="75" t="n">
         <v>100000</v>
       </c>
-      <c r="B35" s="75" t="n">
+      <c r="B35" s="76" t="n">
         <v>-0.000837907548335361</v>
       </c>
-      <c r="C35" s="75" t="n">
+      <c r="C35" s="76" t="n">
         <v>-0.00256682666912852</v>
       </c>
-      <c r="D35" s="75" t="n">
+      <c r="D35" s="76" t="n">
         <v>-0.000699635575564522</v>
       </c>
-      <c r="E35" s="75" t="n">
+      <c r="E35" s="76" t="n">
         <v>-0.00305063541544027</v>
       </c>
-      <c r="F35" s="75" t="n">
+      <c r="F35" s="76" t="n">
         <v>-0.000955880946032487</v>
       </c>
-      <c r="G35" s="75" t="n">
+      <c r="G35" s="76" t="n">
         <v>-0.00268925408557493</v>
       </c>
-      <c r="H35" s="75" t="n">
+      <c r="H35" s="76" t="n">
         <v>-0.000742064946149555</v>
       </c>
-      <c r="I35" s="75" t="n">
+      <c r="I35" s="76" t="n">
         <v>-0.00266973552061847</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="74" t="n">
+      <c r="A36" s="75" t="n">
         <v>1000000</v>
       </c>
-      <c r="B36" s="75" t="n">
+      <c r="B36" s="76" t="n">
         <v>-0.000837907548335361</v>
       </c>
-      <c r="C36" s="75" t="n">
+      <c r="C36" s="76" t="n">
         <v>-0.00256682450349221</v>
       </c>
-      <c r="D36" s="75" t="n">
+      <c r="D36" s="76" t="n">
         <v>-0.000699633011249336</v>
       </c>
-      <c r="E36" s="75" t="n">
+      <c r="E36" s="76" t="n">
         <v>-0.00305063337139949</v>
       </c>
-      <c r="F36" s="75" t="n">
+      <c r="F36" s="76" t="n">
         <v>-0.000955880946032487</v>
       </c>
-      <c r="G36" s="75" t="n">
+      <c r="G36" s="76" t="n">
         <v>-0.00268929696441721</v>
       </c>
-      <c r="H36" s="75" t="n">
+      <c r="H36" s="76" t="n">
         <v>-0.000742053910655911</v>
       </c>
-      <c r="I36" s="75" t="n">
+      <c r="I36" s="76" t="n">
         <v>-0.00266984146754958</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="74" t="n">
+      <c r="A37" s="75" t="n">
         <v>10000000</v>
       </c>
-      <c r="B37" s="75" t="n">
+      <c r="B37" s="76" t="n">
         <v>-0.000837907548335361</v>
       </c>
-      <c r="C37" s="75" t="n">
+      <c r="C37" s="76" t="n">
         <v>-0.00256682450349221</v>
       </c>
-      <c r="D37" s="75" t="n">
+      <c r="D37" s="76" t="n">
         <v>-0.000699633011249336</v>
       </c>
-      <c r="E37" s="75" t="n">
+      <c r="E37" s="76" t="n">
         <v>-0.00305063337139949</v>
       </c>
-      <c r="F37" s="75" t="n">
+      <c r="F37" s="76" t="n">
         <v>-0.000955880946032487</v>
       </c>
-      <c r="G37" s="75" t="n">
+      <c r="G37" s="76" t="n">
         <v>-0.00268929696441721</v>
       </c>
-      <c r="H37" s="75" t="n">
+      <c r="H37" s="76" t="n">
         <v>-0.000742053910655911</v>
       </c>
-      <c r="I37" s="75" t="n">
+      <c r="I37" s="76" t="n">
         <v>-0.00266984146754958</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="73" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="E41" s="73" t="s">
+      <c r="C41" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="F41" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G41" s="73" t="s">
-        <v>68</v>
-      </c>
-      <c r="H41" s="73" t="s">
+      <c r="D41" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="I41" s="73" t="s">
+      <c r="G41" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="L41" s="76"/>
-      <c r="M41" s="76"/>
-      <c r="N41" s="76"/>
+      <c r="H41" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="I41" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="L41" s="77"/>
+      <c r="M41" s="77"/>
+      <c r="N41" s="77"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="74" t="n">
+      <c r="A42" s="75" t="n">
         <v>10</v>
       </c>
-      <c r="B42" s="77" t="n">
+      <c r="B42" s="78" t="n">
         <f aca="false">B31/2.78594350245436</f>
         <v>-0.00150379989716783</v>
       </c>
-      <c r="C42" s="77" t="n">
+      <c r="C42" s="78" t="n">
         <f aca="false">C31/2.78913990345228</f>
         <v>-0.00211483583187226</v>
       </c>
-      <c r="D42" s="77" t="n">
+      <c r="D42" s="78" t="n">
         <f aca="false">D31/0.001137033158201</f>
         <v>-0.615480444429972</v>
       </c>
-      <c r="E42" s="77" t="n">
+      <c r="E42" s="78" t="n">
         <f aca="false">E31/0.006986039944106</f>
         <v>-0.4369024524875</v>
       </c>
-      <c r="F42" s="77" t="n">
+      <c r="F42" s="78" t="n">
         <f aca="false">F31/2.78594350245436</f>
         <v>-0.00176523470670218</v>
       </c>
-      <c r="G42" s="77" t="n">
+      <c r="G42" s="78" t="n">
         <f aca="false">G31/2.78913990345228</f>
         <v>-0.00207933156765786</v>
       </c>
-      <c r="H42" s="78" t="n">
+      <c r="H42" s="79" t="n">
         <f aca="false">H31/0.001137033158201</f>
         <v>-0.652444993452889</v>
       </c>
-      <c r="I42" s="77" t="n">
+      <c r="I42" s="78" t="n">
         <f aca="false">I31/0.006986039944106</f>
         <v>-0.38218497720495</v>
       </c>
-      <c r="M42" s="77"/>
-      <c r="N42" s="77"/>
-      <c r="O42" s="77"/>
-      <c r="P42" s="77"/>
-      <c r="Q42" s="77"/>
-      <c r="R42" s="77"/>
+      <c r="M42" s="78"/>
+      <c r="N42" s="78"/>
+      <c r="O42" s="78"/>
+      <c r="P42" s="78"/>
+      <c r="Q42" s="78"/>
+      <c r="R42" s="78"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="74" t="n">
+      <c r="A43" s="75" t="n">
         <v>100</v>
       </c>
-      <c r="B43" s="78" t="n">
+      <c r="B43" s="79" t="n">
         <f aca="false">B32/2.78594350245436</f>
         <v>-0.000300762577416656</v>
       </c>
-      <c r="C43" s="78" t="n">
+      <c r="C43" s="79" t="n">
         <f aca="false">C32/2.78913990345228</f>
         <v>-0.000920451250391218</v>
       </c>
-      <c r="D43" s="77" t="n">
+      <c r="D43" s="78" t="n">
         <f aca="false">D32/0.001137033158201</f>
         <v>-0.615456289053408</v>
       </c>
-      <c r="E43" s="78" t="n">
+      <c r="E43" s="79" t="n">
         <f aca="false">E32/0.006986039944106</f>
         <v>-0.436746482531115</v>
       </c>
-      <c r="F43" s="78" t="n">
+      <c r="F43" s="79" t="n">
         <f aca="false">F32/2.78594350245436</f>
         <v>-0.000343108517882856</v>
       </c>
-      <c r="G43" s="78" t="n">
+      <c r="G43" s="79" t="n">
         <f aca="false">G32/2.78913990345228</f>
         <v>-0.000964140695950838</v>
       </c>
-      <c r="H43" s="77" t="n">
+      <c r="H43" s="78" t="n">
         <f aca="false">H32/0.001137033158201</f>
         <v>-0.652548795155557</v>
       </c>
-      <c r="I43" s="78" t="n">
+      <c r="I43" s="79" t="n">
         <f aca="false">I32/0.006986039944106</f>
         <v>-0.382018513294075</v>
       </c>
-      <c r="M43" s="77"/>
-      <c r="N43" s="77"/>
-      <c r="O43" s="77"/>
-      <c r="P43" s="77"/>
-      <c r="Q43" s="77"/>
-      <c r="R43" s="77"/>
+      <c r="M43" s="78"/>
+      <c r="N43" s="78"/>
+      <c r="O43" s="78"/>
+      <c r="P43" s="78"/>
+      <c r="Q43" s="78"/>
+      <c r="R43" s="78"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="74" t="n">
+      <c r="A44" s="75" t="n">
         <v>1000</v>
       </c>
-      <c r="B44" s="77" t="n">
+      <c r="B44" s="78" t="n">
         <f aca="false">B33/2.78594350245436</f>
         <v>-0.000300762577416656</v>
       </c>
-      <c r="C44" s="77" t="n">
+      <c r="C44" s="78" t="n">
         <f aca="false">C33/2.78913990345228</f>
         <v>-0.000920357174110853</v>
       </c>
-      <c r="D44" s="77" t="n">
+      <c r="D44" s="78" t="n">
         <f aca="false">D33/0.001137033158201</f>
         <v>-0.615427483997676</v>
       </c>
-      <c r="E44" s="77" t="n">
+      <c r="E44" s="78" t="n">
         <f aca="false">E33/0.006986039944106</f>
         <v>-0.436689920910369</v>
       </c>
-      <c r="F44" s="77" t="n">
+      <c r="F44" s="78" t="n">
         <f aca="false">F33/2.78594350245436</f>
         <v>-0.000343108517882856</v>
       </c>
-      <c r="G44" s="77" t="n">
+      <c r="G44" s="78" t="n">
         <f aca="false">G33/2.78913990345228</f>
         <v>-0.000964083023460949</v>
       </c>
-      <c r="H44" s="77" t="n">
+      <c r="H44" s="78" t="n">
         <f aca="false">H33/0.001137033158201</f>
         <v>-0.652722953748221</v>
       </c>
-      <c r="I44" s="77" t="n">
+      <c r="I44" s="78" t="n">
         <f aca="false">I33/0.006986039944106</f>
         <v>-0.382005860621129</v>
       </c>
-      <c r="M44" s="77"/>
-      <c r="N44" s="77"/>
-      <c r="O44" s="77"/>
-      <c r="P44" s="77"/>
-      <c r="Q44" s="77"/>
-      <c r="R44" s="77"/>
+      <c r="M44" s="78"/>
+      <c r="N44" s="78"/>
+      <c r="O44" s="78"/>
+      <c r="P44" s="78"/>
+      <c r="Q44" s="78"/>
+      <c r="R44" s="78"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="74" t="n">
+      <c r="A45" s="75" t="n">
         <v>10000</v>
       </c>
-      <c r="B45" s="77" t="n">
+      <c r="B45" s="78" t="n">
         <f aca="false">B34/2.78594350245436</f>
         <v>-0.000300762577416656</v>
       </c>
-      <c r="C45" s="77" t="n">
+      <c r="C45" s="78" t="n">
         <f aca="false">C34/2.78913990345228</f>
         <v>-0.000920335601467998</v>
       </c>
-      <c r="D45" s="77" t="n">
+      <c r="D45" s="78" t="n">
         <f aca="false">D34/0.001137033158201</f>
         <v>-0.615390829081094</v>
       </c>
-      <c r="E45" s="77" t="n">
+      <c r="E45" s="78" t="n">
         <f aca="false">E34/0.006986039944106</f>
         <v>-0.436685114539544</v>
       </c>
-      <c r="F45" s="77" t="n">
+      <c r="F45" s="78" t="n">
         <f aca="false">F34/2.78594350245436</f>
         <v>-0.000343108517882856</v>
       </c>
-      <c r="G45" s="77" t="n">
+      <c r="G45" s="78" t="n">
         <f aca="false">G34/2.78913990345228</f>
         <v>-0.00096410479638799</v>
       </c>
-      <c r="H45" s="77" t="n">
+      <c r="H45" s="78" t="n">
         <f aca="false">H34/0.001137033158201</f>
         <v>-0.652752664605191</v>
       </c>
-      <c r="I45" s="77" t="n">
+      <c r="I45" s="78" t="n">
         <f aca="false">I34/0.006986039944106</f>
         <v>-0.382052356482388</v>
       </c>
-      <c r="M45" s="77"/>
-      <c r="N45" s="77"/>
-      <c r="O45" s="77"/>
-      <c r="P45" s="77"/>
-      <c r="Q45" s="77"/>
-      <c r="R45" s="77"/>
+      <c r="M45" s="78"/>
+      <c r="N45" s="78"/>
+      <c r="O45" s="78"/>
+      <c r="P45" s="78"/>
+      <c r="Q45" s="78"/>
+      <c r="R45" s="78"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="74" t="n">
+      <c r="A46" s="75" t="n">
         <v>100000</v>
       </c>
-      <c r="B46" s="77" t="n">
+      <c r="B46" s="78" t="n">
         <f aca="false">B35/2.78594350245436</f>
         <v>-0.000300762577416656</v>
       </c>
-      <c r="C46" s="77" t="n">
+      <c r="C46" s="78" t="n">
         <f aca="false">C35/2.78913990345228</f>
         <v>-0.000920293265300681</v>
       </c>
-      <c r="D46" s="78" t="n">
+      <c r="D46" s="79" t="n">
         <f aca="false">D35/0.001137033158201</f>
         <v>-0.615316774641363</v>
       </c>
-      <c r="E46" s="77" t="n">
+      <c r="E46" s="78" t="n">
         <f aca="false">E35/0.006986039944106</f>
         <v>-0.436675919383203</v>
       </c>
-      <c r="F46" s="77" t="n">
+      <c r="F46" s="78" t="n">
         <f aca="false">F35/2.78594350245436</f>
         <v>-0.000343108517882856</v>
       </c>
-      <c r="G46" s="77" t="n">
+      <c r="G46" s="78" t="n">
         <f aca="false">G35/2.78913990345228</f>
         <v>-0.000964187591395572</v>
       </c>
-      <c r="H46" s="77" t="n">
+      <c r="H46" s="78" t="n">
         <f aca="false">H35/0.001137033158201</f>
         <v>-0.652632635026793</v>
       </c>
-      <c r="I46" s="77" t="n">
+      <c r="I46" s="78" t="n">
         <f aca="false">I35/0.006986039944106</f>
         <v>-0.382152913807898</v>
       </c>
-      <c r="M46" s="77"/>
-      <c r="N46" s="77"/>
-      <c r="O46" s="77"/>
-      <c r="P46" s="77"/>
-      <c r="Q46" s="77"/>
-      <c r="R46" s="77"/>
+      <c r="M46" s="78"/>
+      <c r="N46" s="78"/>
+      <c r="O46" s="78"/>
+      <c r="P46" s="78"/>
+      <c r="Q46" s="78"/>
+      <c r="R46" s="78"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="74" t="n">
+      <c r="A47" s="75" t="n">
         <v>1000000</v>
       </c>
-      <c r="B47" s="77" t="n">
+      <c r="B47" s="78" t="n">
         <f aca="false">B36/2.78594350245436</f>
         <v>-0.000300762577416656</v>
       </c>
-      <c r="C47" s="77" t="n">
+      <c r="C47" s="78" t="n">
         <f aca="false">C36/2.78913990345228</f>
         <v>-0.000920292488847585</v>
       </c>
-      <c r="D47" s="77" t="n">
+      <c r="D47" s="78" t="n">
         <f aca="false">D36/0.001137033158201</f>
         <v>-0.615314519372757</v>
       </c>
-      <c r="E47" s="77" t="n">
+      <c r="E47" s="78" t="n">
         <f aca="false">E36/0.006986039944106</f>
         <v>-0.436675626793868</v>
       </c>
-      <c r="F47" s="77" t="n">
+      <c r="F47" s="78" t="n">
         <f aca="false">F36/2.78594350245436</f>
         <v>-0.000343108517882856</v>
       </c>
-      <c r="G47" s="77" t="n">
+      <c r="G47" s="78" t="n">
         <f aca="false">G36/2.78913990345228</f>
         <v>-0.000964202964895561</v>
       </c>
-      <c r="H47" s="77" t="n">
+      <c r="H47" s="78" t="n">
         <f aca="false">H36/0.001137033158201</f>
         <v>-0.652622929510674</v>
       </c>
-      <c r="I47" s="77" t="n">
+      <c r="I47" s="78" t="n">
         <f aca="false">I36/0.006986039944106</f>
         <v>-0.382168079328271</v>
       </c>
-      <c r="M47" s="77"/>
-      <c r="N47" s="77"/>
-      <c r="O47" s="77"/>
-      <c r="P47" s="77"/>
-      <c r="Q47" s="77"/>
-      <c r="R47" s="77"/>
+      <c r="M47" s="78"/>
+      <c r="N47" s="78"/>
+      <c r="O47" s="78"/>
+      <c r="P47" s="78"/>
+      <c r="Q47" s="78"/>
+      <c r="R47" s="78"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="74" t="n">
+      <c r="A48" s="75" t="n">
         <v>10000000</v>
       </c>
-      <c r="B48" s="77" t="n">
+      <c r="B48" s="78" t="n">
         <f aca="false">B37/2.78594350245436</f>
         <v>-0.000300762577416656</v>
       </c>
-      <c r="C48" s="77" t="n">
+      <c r="C48" s="78" t="n">
         <f aca="false">C37/2.78913990345228</f>
         <v>-0.000920292488847585</v>
       </c>
-      <c r="D48" s="77" t="n">
+      <c r="D48" s="78" t="n">
         <f aca="false">D37/0.001137033158201</f>
         <v>-0.615314519372757</v>
       </c>
-      <c r="E48" s="77" t="n">
+      <c r="E48" s="78" t="n">
         <f aca="false">E37/0.006986039944106</f>
         <v>-0.436675626793868</v>
       </c>
-      <c r="F48" s="77" t="n">
+      <c r="F48" s="78" t="n">
         <f aca="false">F37/2.78594350245436</f>
         <v>-0.000343108517882856</v>
       </c>
-      <c r="G48" s="77" t="n">
+      <c r="G48" s="78" t="n">
         <f aca="false">G37/2.78913990345228</f>
         <v>-0.000964202964895561</v>
       </c>
-      <c r="H48" s="77" t="n">
+      <c r="H48" s="78" t="n">
         <f aca="false">H37/0.001137033158201</f>
         <v>-0.652622929510674</v>
       </c>
-      <c r="I48" s="77" t="n">
+      <c r="I48" s="78" t="n">
         <f aca="false">I37/0.006986039944106</f>
         <v>-0.382168079328271</v>
       </c>
-      <c r="M48" s="77"/>
-      <c r="N48" s="77"/>
-      <c r="O48" s="77"/>
-      <c r="P48" s="77"/>
-      <c r="Q48" s="77"/>
-      <c r="R48" s="77"/>
+      <c r="M48" s="78"/>
+      <c r="N48" s="78"/>
+      <c r="O48" s="78"/>
+      <c r="P48" s="78"/>
+      <c r="Q48" s="78"/>
+      <c r="R48" s="78"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="72" t="s">
-        <v>60</v>
+      <c r="A51" s="73" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B53" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="D53" s="73" t="s">
+      <c r="B53" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="E53" s="73" t="s">
+      <c r="C53" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="F53" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G53" s="73" t="s">
-        <v>68</v>
-      </c>
-      <c r="H53" s="73" t="s">
+      <c r="D53" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="F53" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="I53" s="73" t="s">
+      <c r="G53" s="74" t="s">
         <v>70</v>
       </c>
+      <c r="H53" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="I53" s="74" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="74" t="n">
+      <c r="A54" s="75" t="n">
         <v>1E-010</v>
       </c>
-      <c r="B54" s="79" t="n">
+      <c r="B54" s="80" t="n">
         <v>-0.000405996000266245</v>
       </c>
-      <c r="C54" s="79" t="n">
+      <c r="C54" s="80" t="n">
         <v>-0.00210695018623318</v>
       </c>
-      <c r="D54" s="79" t="n">
+      <c r="D54" s="80" t="n">
         <v>-0.000694249132928277</v>
       </c>
-      <c r="E54" s="79" t="n">
+      <c r="E54" s="80" t="n">
         <v>-0.00308672889512076</v>
       </c>
-      <c r="F54" s="79" t="n">
+      <c r="F54" s="80" t="n">
         <v>-0.000473225198945218</v>
       </c>
-      <c r="G54" s="79" t="n">
+      <c r="G54" s="80" t="n">
         <v>-0.00224827227833021</v>
       </c>
-      <c r="H54" s="79" t="n">
+      <c r="H54" s="80" t="n">
         <v>-0.000664809402421442</v>
       </c>
-      <c r="I54" s="79" t="n">
+      <c r="I54" s="80" t="n">
         <v>-0.00310177077550035</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="74" t="n">
+      <c r="A55" s="75" t="n">
         <v>1E-009</v>
       </c>
-      <c r="B55" s="79" t="n">
+      <c r="B55" s="80" t="n">
         <v>-0.000405996000269856</v>
       </c>
-      <c r="C55" s="79" t="n">
+      <c r="C55" s="80" t="n">
         <v>-0.00210695018623432</v>
       </c>
-      <c r="D55" s="79" t="n">
+      <c r="D55" s="80" t="n">
         <v>-0.000694249132929411</v>
       </c>
-      <c r="E55" s="79" t="n">
+      <c r="E55" s="80" t="n">
         <v>-0.00308672889512208</v>
       </c>
-      <c r="F55" s="79" t="n">
+      <c r="F55" s="80" t="n">
         <v>-0.00047322521584036</v>
       </c>
-      <c r="G55" s="79" t="n">
+      <c r="G55" s="80" t="n">
         <v>-0.00224827242883179</v>
       </c>
-      <c r="H55" s="79" t="n">
+      <c r="H55" s="80" t="n">
         <v>-0.000664809302669281</v>
       </c>
-      <c r="I55" s="79" t="n">
+      <c r="I55" s="80" t="n">
         <v>-0.00310177069540761</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="74" t="n">
+      <c r="A56" s="75" t="n">
         <v>1E-008</v>
       </c>
-      <c r="B56" s="79" t="n">
+      <c r="B56" s="80" t="n">
         <v>-0.000405996000543468</v>
       </c>
-      <c r="C56" s="79" t="n">
+      <c r="C56" s="80" t="n">
         <v>-0.00210695018634899</v>
       </c>
-      <c r="D56" s="79" t="n">
+      <c r="D56" s="80" t="n">
         <v>-0.000694249133042866</v>
       </c>
-      <c r="E56" s="79" t="n">
+      <c r="E56" s="80" t="n">
         <v>-0.0030867288952535</v>
       </c>
-      <c r="F56" s="79" t="n">
+      <c r="F56" s="80" t="n">
         <v>-0.000473225385076913</v>
       </c>
-      <c r="G56" s="79" t="n">
+      <c r="G56" s="80" t="n">
         <v>-0.00224827393304793</v>
       </c>
-      <c r="H56" s="79" t="n">
+      <c r="H56" s="80" t="n">
         <v>-0.000664808305233137</v>
       </c>
-      <c r="I56" s="79" t="n">
+      <c r="I56" s="80" t="n">
         <v>-0.00310176989481622</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="74" t="n">
+      <c r="A57" s="75" t="n">
         <v>1E-007</v>
       </c>
-      <c r="B57" s="79" t="n">
+      <c r="B57" s="80" t="n">
         <v>-0.000405996027029902</v>
       </c>
-      <c r="C57" s="79" t="n">
+      <c r="C57" s="80" t="n">
         <v>-0.00210695019782497</v>
       </c>
-      <c r="D57" s="79" t="n">
+      <c r="D57" s="80" t="n">
         <v>-0.000694249144388348</v>
       </c>
-      <c r="E57" s="79" t="n">
+      <c r="E57" s="80" t="n">
         <v>-0.00308672890839525</v>
       </c>
-      <c r="F57" s="79" t="n">
+      <c r="F57" s="80" t="n">
         <v>-0.000473227105955835</v>
       </c>
-      <c r="G57" s="79" t="n">
+      <c r="G57" s="80" t="n">
         <v>-0.00224828877352045</v>
       </c>
-      <c r="H57" s="79" t="n">
+      <c r="H57" s="80" t="n">
         <v>-0.000664798338833684</v>
       </c>
-      <c r="I57" s="79" t="n">
+      <c r="I57" s="80" t="n">
         <v>-0.0031017619164212</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="74" t="n">
+      <c r="A58" s="75" t="n">
         <v>1E-006</v>
       </c>
-      <c r="B58" s="79" t="n">
+      <c r="B58" s="80" t="n">
         <v>-0.000405998666913694</v>
       </c>
-      <c r="C58" s="79" t="n">
+      <c r="C58" s="80" t="n">
         <v>-0.00210695134437133</v>
       </c>
-      <c r="D58" s="79" t="n">
+      <c r="D58" s="80" t="n">
         <v>-0.000694250154098719</v>
       </c>
-      <c r="E58" s="79" t="n">
+      <c r="E58" s="80" t="n">
         <v>-0.00308673022251637</v>
       </c>
-      <c r="F58" s="79" t="n">
+      <c r="F58" s="80" t="n">
         <v>-0.000473247168444011</v>
       </c>
-      <c r="G58" s="79" t="n">
+      <c r="G58" s="80" t="n">
         <v>-0.00224844063761824</v>
       </c>
-      <c r="H58" s="79" t="n">
+      <c r="H58" s="80" t="n">
         <v>-0.000664708393184906</v>
       </c>
-      <c r="I58" s="79" t="n">
+      <c r="I58" s="80" t="n">
         <v>-0.00310168498553079</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="74" t="n">
+      <c r="A59" s="75" t="n">
         <v>1E-005</v>
       </c>
-      <c r="B59" s="79" t="n">
+      <c r="B59" s="80" t="n">
         <v>-0.000406107426137982</v>
       </c>
-      <c r="C59" s="79" t="n">
+      <c r="C59" s="80" t="n">
         <v>-0.00210706597122042</v>
       </c>
-      <c r="D59" s="79" t="n">
+      <c r="D59" s="80" t="n">
         <v>-0.000694334349357489</v>
       </c>
-      <c r="E59" s="79" t="n">
+      <c r="E59" s="80" t="n">
         <v>-0.00308686164148339</v>
       </c>
-      <c r="F59" s="79" t="n">
+      <c r="F59" s="80" t="n">
         <v>-0.000473555016583991</v>
       </c>
-      <c r="G59" s="79" t="n">
+      <c r="G59" s="80" t="n">
         <v>-0.00225003374690476</v>
       </c>
-      <c r="H59" s="79" t="n">
+      <c r="H59" s="80" t="n">
         <v>-0.000663838893360779</v>
       </c>
-      <c r="I59" s="79" t="n">
+      <c r="I59" s="80" t="n">
         <v>-0.00310120378730034</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="74" t="n">
+      <c r="A60" s="75" t="n">
         <v>0.0001</v>
       </c>
-      <c r="B60" s="79" t="n">
+      <c r="B60" s="80" t="n">
         <v>-0.000412733122966253</v>
       </c>
-      <c r="C60" s="79" t="n">
+      <c r="C60" s="80" t="n">
         <v>-0.00211764596185014</v>
       </c>
-      <c r="D60" s="79" t="n">
+      <c r="D60" s="80" t="n">
         <v>-0.000694815909750847</v>
       </c>
-      <c r="E60" s="79" t="n">
+      <c r="E60" s="80" t="n">
         <v>-0.00309531366537313</v>
       </c>
-      <c r="F60" s="79" t="n">
+      <c r="F60" s="80" t="n">
         <v>-0.000482141663327276</v>
       </c>
-      <c r="G60" s="79" t="n">
+      <c r="G60" s="80" t="n">
         <v>-0.00227361714250838</v>
       </c>
-      <c r="H60" s="79" t="n">
+      <c r="H60" s="80" t="n">
         <v>-0.000662048618980374</v>
       </c>
-      <c r="I60" s="79" t="n">
+      <c r="I60" s="80" t="n">
         <v>-0.00311204955332386</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="74" t="n">
+      <c r="A61" s="75" t="n">
         <v>0.001</v>
       </c>
-      <c r="B61" s="79" t="n">
+      <c r="B61" s="80" t="n">
         <v>-0.000559880029657381</v>
       </c>
-      <c r="C61" s="79" t="n">
+      <c r="C61" s="80" t="n">
         <v>-0.00233626147465881</v>
       </c>
-      <c r="D61" s="79" t="n">
+      <c r="D61" s="80" t="n">
         <v>-0.000695531714879928</v>
       </c>
-      <c r="E61" s="79" t="n">
+      <c r="E61" s="80" t="n">
         <v>-0.00310784073230535</v>
       </c>
-      <c r="F61" s="79" t="n">
+      <c r="F61" s="80" t="n">
         <v>-0.000626854569880979</v>
       </c>
-      <c r="G61" s="79" t="n">
+      <c r="G61" s="80" t="n">
         <v>-0.00259781641726194</v>
       </c>
-      <c r="H61" s="79" t="n">
+      <c r="H61" s="80" t="n">
         <v>-0.000661783668595696</v>
       </c>
-      <c r="I61" s="79" t="n">
+      <c r="I61" s="80" t="n">
         <v>-0.00312576526944782</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="74" t="n">
+      <c r="A62" s="75" t="n">
         <v>0.01</v>
       </c>
-      <c r="B62" s="79" t="n">
+      <c r="B62" s="80" t="n">
         <v>-0.00146725153186042</v>
       </c>
-      <c r="C62" s="79" t="n">
+      <c r="C62" s="80" t="n">
         <v>-0.00318400565127745</v>
       </c>
-      <c r="D62" s="79" t="n">
+      <c r="D62" s="80" t="n">
         <v>-0.000695531714879928</v>
       </c>
-      <c r="E62" s="79" t="n">
+      <c r="E62" s="80" t="n">
         <v>-0.00310889176828074</v>
       </c>
-      <c r="F62" s="79" t="n">
+      <c r="F62" s="80" t="n">
         <v>-0.00152484853061883</v>
       </c>
-      <c r="G62" s="79" t="n">
+      <c r="G62" s="80" t="n">
         <v>-0.00343903530083687</v>
       </c>
-      <c r="H62" s="79" t="n">
+      <c r="H62" s="80" t="n">
         <v>-0.000661783668595696</v>
       </c>
-      <c r="I62" s="79" t="n">
+      <c r="I62" s="80" t="n">
         <v>-0.00312578159707235</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="74" t="n">
+      <c r="A63" s="75" t="n">
         <v>0.1</v>
       </c>
-      <c r="B63" s="79" t="n">
+      <c r="B63" s="80" t="n">
         <v>-0.0158350869771286</v>
       </c>
-      <c r="C63" s="79" t="n">
+      <c r="C63" s="80" t="n">
         <v>-0.0174092615935918</v>
       </c>
-      <c r="D63" s="79" t="n">
+      <c r="D63" s="80" t="n">
         <v>-0.000695531714879928</v>
       </c>
-      <c r="E63" s="79" t="n">
+      <c r="E63" s="80" t="n">
         <v>-0.00310889176828074</v>
       </c>
-      <c r="F63" s="79" t="n">
+      <c r="F63" s="80" t="n">
         <v>-0.0158316400841852</v>
       </c>
-      <c r="G63" s="79" t="n">
+      <c r="G63" s="80" t="n">
         <v>-0.018051215658962</v>
       </c>
-      <c r="H63" s="79" t="n">
+      <c r="H63" s="80" t="n">
         <v>-0.000661783668595696</v>
       </c>
-      <c r="I63" s="79" t="n">
+      <c r="I63" s="80" t="n">
         <v>-0.00312578159707235</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="D67" s="73" t="s">
+      <c r="B67" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="E67" s="73" t="s">
+      <c r="C67" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="F67" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G67" s="73" t="s">
-        <v>68</v>
-      </c>
-      <c r="H67" s="73" t="s">
+      <c r="D67" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="E67" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="F67" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="I67" s="73" t="s">
+      <c r="G67" s="74" t="s">
         <v>70</v>
       </c>
+      <c r="H67" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="I67" s="74" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="74" t="n">
+      <c r="A68" s="75" t="n">
         <v>1E-010</v>
       </c>
-      <c r="B68" s="77" t="n">
+      <c r="B68" s="78" t="n">
         <f aca="false">B54/2.78301018765889</f>
         <v>-0.000145883763583264</v>
       </c>
-      <c r="C68" s="77" t="n">
+      <c r="C68" s="78" t="n">
         <f aca="false">C54/2.78216724261881</f>
         <v>-0.000757305367541435</v>
       </c>
-      <c r="D68" s="77" t="n">
+      <c r="D68" s="78" t="n">
         <f aca="false">D54/0.001115089567007</f>
         <v>-0.622594949741754</v>
       </c>
-      <c r="E68" s="77" t="n">
+      <c r="E68" s="78" t="n">
         <f aca="false">E54/0.006561434337706</f>
         <v>-0.470435081150251</v>
       </c>
-      <c r="F68" s="77" t="n">
+      <c r="F68" s="78" t="n">
         <f aca="false">F54/2.75877874258439</f>
         <v>-0.000171534306699024</v>
       </c>
-      <c r="G68" s="77" t="n">
+      <c r="G68" s="78" t="n">
         <f aca="false">G54/2.77938916853549</f>
         <v>-0.000808908771676211</v>
       </c>
-      <c r="H68" s="77" t="n">
+      <c r="H68" s="78" t="n">
         <f aca="false">H54/0.001996081508997</f>
         <v>-0.333057242114075</v>
       </c>
-      <c r="I68" s="77" t="n">
+      <c r="I68" s="78" t="n">
         <f aca="false">I54/0.005768856219016</f>
         <v>-0.537675174721103</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="74" t="n">
+      <c r="A69" s="75" t="n">
         <v>1E-009</v>
       </c>
-      <c r="B69" s="77" t="n">
+      <c r="B69" s="78" t="n">
         <f aca="false">B55/2.78301018765889</f>
         <v>-0.000145883763584562</v>
       </c>
-      <c r="C69" s="77" t="n">
+      <c r="C69" s="78" t="n">
         <f aca="false">C55/2.78216724261881</f>
         <v>-0.000757305367541847</v>
       </c>
-      <c r="D69" s="77" t="n">
+      <c r="D69" s="78" t="n">
         <f aca="false">D55/0.001115089567007</f>
         <v>-0.622594949742771</v>
       </c>
-      <c r="E69" s="77" t="n">
+      <c r="E69" s="78" t="n">
         <f aca="false">E55/0.006561434337706</f>
         <v>-0.470435081150451</v>
       </c>
-      <c r="F69" s="77" t="n">
+      <c r="F69" s="78" t="n">
         <f aca="false">F55/2.75877874258439</f>
         <v>-0.000171534312823162</v>
       </c>
-      <c r="G69" s="77" t="n">
+      <c r="G69" s="78" t="n">
         <f aca="false">G55/2.77938916853549</f>
         <v>-0.000808908825825368</v>
       </c>
-      <c r="H69" s="77" t="n">
+      <c r="H69" s="78" t="n">
         <f aca="false">H55/0.001996081508997</f>
         <v>-0.333057192140083</v>
       </c>
-      <c r="I69" s="77" t="n">
+      <c r="I69" s="78" t="n">
         <f aca="false">I55/0.005768856219016</f>
         <v>-0.53767516083746</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="74" t="n">
+      <c r="A70" s="75" t="n">
         <v>1E-008</v>
       </c>
-      <c r="B70" s="77" t="n">
+      <c r="B70" s="78" t="n">
         <f aca="false">B56/2.78301018765889</f>
         <v>-0.000145883763682877</v>
       </c>
-      <c r="C70" s="77" t="n">
+      <c r="C70" s="78" t="n">
         <f aca="false">C56/2.78216724261881</f>
         <v>-0.000757305367583061</v>
       </c>
-      <c r="D70" s="77" t="n">
+      <c r="D70" s="78" t="n">
         <f aca="false">D56/0.001115089567007</f>
         <v>-0.622594949844516</v>
       </c>
-      <c r="E70" s="77" t="n">
+      <c r="E70" s="78" t="n">
         <f aca="false">E56/0.006561434337706</f>
         <v>-0.47043508117048</v>
       </c>
-      <c r="F70" s="77" t="n">
+      <c r="F70" s="78" t="n">
         <f aca="false">F56/2.75877874258439</f>
         <v>-0.000171534374167898</v>
       </c>
-      <c r="G70" s="77" t="n">
+      <c r="G70" s="78" t="n">
         <f aca="false">G56/2.77938916853549</f>
         <v>-0.000808909367029227</v>
       </c>
-      <c r="H70" s="77" t="n">
+      <c r="H70" s="78" t="n">
         <f aca="false">H56/0.001996081508997</f>
         <v>-0.333056692442982</v>
       </c>
-      <c r="I70" s="77" t="n">
+      <c r="I70" s="78" t="n">
         <f aca="false">I56/0.005768856219016</f>
         <v>-0.537675022059276</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="74" t="n">
+      <c r="A71" s="75" t="n">
         <v>1E-007</v>
       </c>
-      <c r="B71" s="77" t="n">
+      <c r="B71" s="78" t="n">
         <f aca="false">B57/2.78301018765889</f>
         <v>-0.000145883773200066</v>
       </c>
-      <c r="C71" s="77" t="n">
+      <c r="C71" s="78" t="n">
         <f aca="false">C57/2.78216724261881</f>
         <v>-0.000757305371707898</v>
       </c>
-      <c r="D71" s="77" t="n">
+      <c r="D71" s="78" t="n">
         <f aca="false">D57/0.001115089567007</f>
         <v>-0.622594960019019</v>
       </c>
-      <c r="E71" s="77" t="n">
+      <c r="E71" s="78" t="n">
         <f aca="false">E57/0.006561434337706</f>
         <v>-0.470435083173358</v>
       </c>
-      <c r="F71" s="77" t="n">
+      <c r="F71" s="78" t="n">
         <f aca="false">F57/2.75877874258439</f>
         <v>-0.000171534997950768</v>
       </c>
-      <c r="G71" s="77" t="n">
+      <c r="G71" s="78" t="n">
         <f aca="false">G57/2.77938916853549</f>
         <v>-0.0008089147065019</v>
       </c>
-      <c r="H71" s="77" t="n">
+      <c r="H71" s="78" t="n">
         <f aca="false">H57/0.001996081508997</f>
         <v>-0.333051699460778</v>
       </c>
-      <c r="I71" s="77" t="n">
+      <c r="I71" s="78" t="n">
         <f aca="false">I57/0.005768856219016</f>
         <v>-0.537673639047684</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="74" t="n">
+      <c r="A72" s="75" t="n">
         <v>1E-006</v>
       </c>
-      <c r="B72" s="77" t="n">
+      <c r="B72" s="78" t="n">
         <f aca="false">B58/2.78301018765889</f>
         <v>-0.000145884721771438</v>
       </c>
-      <c r="C72" s="77" t="n">
+      <c r="C72" s="78" t="n">
         <f aca="false">C58/2.78216724261881</f>
         <v>-0.000757305783813375</v>
       </c>
-      <c r="D72" s="78" t="n">
+      <c r="D72" s="79" t="n">
         <f aca="false">D58/0.001115089567007</f>
         <v>-0.622595865516121</v>
       </c>
-      <c r="E72" s="78" t="n">
+      <c r="E72" s="79" t="n">
         <f aca="false">E58/0.006561434337706</f>
         <v>-0.470435283452908</v>
       </c>
-      <c r="F72" s="77" t="n">
+      <c r="F72" s="78" t="n">
         <f aca="false">F58/2.75877874258439</f>
         <v>-0.000171542270186075</v>
       </c>
-      <c r="G72" s="77" t="n">
+      <c r="G72" s="78" t="n">
         <f aca="false">G58/2.77938916853549</f>
         <v>-0.000808969345880765</v>
       </c>
-      <c r="H72" s="77" t="n">
+      <c r="H72" s="78" t="n">
         <f aca="false">H58/0.001996081508997</f>
         <v>-0.333006638350611</v>
       </c>
-      <c r="I72" s="77" t="n">
+      <c r="I72" s="78" t="n">
         <f aca="false">I58/0.005768856219016</f>
         <v>-0.537660303494242</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="74" t="n">
+      <c r="A73" s="75" t="n">
         <v>1E-005</v>
       </c>
-      <c r="B73" s="77" t="n">
+      <c r="B73" s="78" t="n">
         <f aca="false">B59/2.78301018765889</f>
         <v>-0.000145923801479004</v>
       </c>
-      <c r="C73" s="77" t="n">
+      <c r="C73" s="78" t="n">
         <f aca="false">C59/2.78216724261881</f>
         <v>-0.000757346984373617</v>
       </c>
-      <c r="D73" s="77" t="n">
+      <c r="D73" s="78" t="n">
         <f aca="false">D59/0.001115089567007</f>
         <v>-0.62267137089368</v>
       </c>
-      <c r="E73" s="77" t="n">
+      <c r="E73" s="78" t="n">
         <f aca="false">E59/0.006561434337706</f>
         <v>-0.470455312452707</v>
       </c>
-      <c r="F73" s="77" t="n">
+      <c r="F73" s="78" t="n">
         <f aca="false">F59/2.75877874258439</f>
         <v>-0.000171653858743442</v>
       </c>
-      <c r="G73" s="77" t="n">
+      <c r="G73" s="78" t="n">
         <f aca="false">G59/2.77938916853549</f>
         <v>-0.000809542532717842</v>
       </c>
-      <c r="H73" s="77" t="n">
+      <c r="H73" s="78" t="n">
         <f aca="false">H59/0.001996081508997</f>
         <v>-0.332571034984612</v>
       </c>
-      <c r="I73" s="78" t="n">
+      <c r="I73" s="79" t="n">
         <f aca="false">I59/0.005768856219016</f>
         <v>-0.537576890385615</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="74" t="n">
+      <c r="A74" s="75" t="n">
         <v>0.0001</v>
       </c>
-      <c r="B74" s="78" t="n">
+      <c r="B74" s="79" t="n">
         <f aca="false">B60/2.78301018765889</f>
         <v>-0.000148304567764968</v>
       </c>
-      <c r="C74" s="78" t="n">
+      <c r="C74" s="79" t="n">
         <f aca="false">C60/2.78216724261881</f>
         <v>-0.00076114977180769</v>
       </c>
-      <c r="D74" s="77" t="n">
+      <c r="D74" s="78" t="n">
         <f aca="false">D60/0.001115089567007</f>
         <v>-0.623103228932359</v>
       </c>
-      <c r="E74" s="77" t="n">
+      <c r="E74" s="78" t="n">
         <f aca="false">E60/0.006561434337706</f>
         <v>-0.471743449078743</v>
       </c>
-      <c r="F74" s="78" t="n">
+      <c r="F74" s="79" t="n">
         <f aca="false">F60/2.75877874258439</f>
         <v>-0.000174766339860808</v>
       </c>
-      <c r="G74" s="78" t="n">
+      <c r="G74" s="79" t="n">
         <f aca="false">G60/2.77938916853549</f>
         <v>-0.00081802763292281</v>
       </c>
-      <c r="H74" s="77" t="n">
+      <c r="H74" s="78" t="n">
         <f aca="false">H60/0.001996081508997</f>
         <v>-0.331674140558039</v>
       </c>
-      <c r="I74" s="77" t="n">
+      <c r="I74" s="78" t="n">
         <f aca="false">I60/0.005768856219016</f>
         <v>-0.539456945220016</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="74" t="n">
+      <c r="A75" s="75" t="n">
         <v>0.001</v>
       </c>
-      <c r="B75" s="77" t="n">
+      <c r="B75" s="78" t="n">
         <f aca="false">B61/2.78301018765889</f>
         <v>-0.000201177858471428</v>
       </c>
-      <c r="C75" s="77" t="n">
+      <c r="C75" s="78" t="n">
         <f aca="false">C61/2.78216724261881</f>
         <v>-0.000839727187809071</v>
       </c>
-      <c r="D75" s="77" t="n">
+      <c r="D75" s="78" t="n">
         <f aca="false">D61/0.001115089567007</f>
         <v>-0.623745155061218</v>
       </c>
-      <c r="E75" s="77" t="n">
+      <c r="E75" s="78" t="n">
         <f aca="false">E61/0.006561434337706</f>
         <v>-0.473652645496397</v>
       </c>
-      <c r="F75" s="77" t="n">
+      <c r="F75" s="78" t="n">
         <f aca="false">F61/2.75877874258439</f>
         <v>-0.000227221763095706</v>
       </c>
-      <c r="G75" s="77" t="n">
+      <c r="G75" s="78" t="n">
         <f aca="false">G61/2.77938916853549</f>
         <v>-0.000934671706528516</v>
       </c>
-      <c r="H75" s="77" t="n">
+      <c r="H75" s="78" t="n">
         <f aca="false">H61/0.001996081508997</f>
         <v>-0.331541405304753</v>
       </c>
-      <c r="I75" s="77" t="n">
+      <c r="I75" s="78" t="n">
         <f aca="false">I61/0.005768856219016</f>
         <v>-0.541834490369909</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="74" t="n">
+      <c r="A76" s="75" t="n">
         <v>0.01</v>
       </c>
-      <c r="B76" s="77" t="n">
+      <c r="B76" s="78" t="n">
         <f aca="false">B62/2.78301018765889</f>
         <v>-0.000527217449065356</v>
       </c>
-      <c r="C76" s="77" t="n">
+      <c r="C76" s="78" t="n">
         <f aca="false">C62/2.78216724261881</f>
         <v>-0.00114443359209434</v>
       </c>
-      <c r="D76" s="77" t="n">
+      <c r="D76" s="78" t="n">
         <f aca="false">D62/0.001115089567007</f>
         <v>-0.623745155061218</v>
       </c>
-      <c r="E76" s="77" t="n">
+      <c r="E76" s="78" t="n">
         <f aca="false">E62/0.006561434337706</f>
         <v>-0.473812829371034</v>
       </c>
-      <c r="F76" s="77" t="n">
+      <c r="F76" s="78" t="n">
         <f aca="false">F62/2.75877874258439</f>
         <v>-0.000552725924366943</v>
       </c>
-      <c r="G76" s="77" t="n">
+      <c r="G76" s="78" t="n">
         <f aca="false">G62/2.77938916853549</f>
         <v>-0.00123733492947623</v>
       </c>
-      <c r="H76" s="77" t="n">
+      <c r="H76" s="78" t="n">
         <f aca="false">H62/0.001996081508997</f>
         <v>-0.331541405304753</v>
       </c>
-      <c r="I76" s="77" t="n">
+      <c r="I76" s="78" t="n">
         <f aca="false">I62/0.005768856219016</f>
         <v>-0.541837320675245</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="74" t="n">
+      <c r="A77" s="75" t="n">
         <v>0.1</v>
       </c>
-      <c r="B77" s="77" t="n">
+      <c r="B77" s="78" t="n">
         <f aca="false">B63/2.78301018765889</f>
         <v>-0.00568991340647924</v>
       </c>
-      <c r="C77" s="77" t="n">
+      <c r="C77" s="78" t="n">
         <f aca="false">C63/2.78216724261881</f>
         <v>-0.00625744611140081</v>
       </c>
-      <c r="D77" s="77" t="n">
+      <c r="D77" s="78" t="n">
         <f aca="false">D63/0.001115089567007</f>
         <v>-0.623745155061218</v>
       </c>
-      <c r="E77" s="77" t="n">
+      <c r="E77" s="78" t="n">
         <f aca="false">E63/0.006561434337706</f>
         <v>-0.473812829371034</v>
       </c>
-      <c r="F77" s="77" t="n">
+      <c r="F77" s="78" t="n">
         <f aca="false">F63/2.75877874258439</f>
         <v>-0.00573864073976237</v>
       </c>
-      <c r="G77" s="77" t="n">
+      <c r="G77" s="78" t="n">
         <f aca="false">G63/2.77938916853549</f>
         <v>-0.00649467007474649</v>
       </c>
-      <c r="H77" s="78" t="n">
+      <c r="H77" s="79" t="n">
         <f aca="false">H63/0.001996081508997</f>
         <v>-0.331541405304753</v>
       </c>
-      <c r="I77" s="77" t="n">
+      <c r="I77" s="78" t="n">
         <f aca="false">I63/0.005768856219016</f>
         <v>-0.541837320675245</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="74"/>
+      <c r="A78" s="75"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B80" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="C80" s="73" t="s">
-        <v>68</v>
-      </c>
-      <c r="D80" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="E80" s="73" t="s">
+      <c r="C80" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="F80" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G80" s="73" t="s">
-        <v>68</v>
-      </c>
-      <c r="H80" s="73" t="s">
+      <c r="D80" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="E80" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="F80" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="I80" s="73" t="s">
+      <c r="G80" s="74" t="s">
         <v>70</v>
       </c>
+      <c r="H80" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="I80" s="74" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="74" t="n">
+      <c r="A81" s="75" t="n">
         <v>10</v>
       </c>
-      <c r="B81" s="79" t="n">
+      <c r="B81" s="80" t="n">
         <v>-0.00207110417827738</v>
       </c>
-      <c r="C81" s="79" t="n">
+      <c r="C81" s="80" t="n">
         <v>-0.00376889927536114</v>
       </c>
-      <c r="D81" s="79" t="n">
+      <c r="D81" s="80" t="n">
         <v>-0.000694699210113574</v>
       </c>
-      <c r="E81" s="79" t="n">
+      <c r="E81" s="80" t="n">
         <v>-0.00309414453921313</v>
       </c>
-      <c r="F81" s="79" t="n">
+      <c r="F81" s="80" t="n">
         <v>-0.00213051899388586</v>
       </c>
-      <c r="G81" s="79" t="n">
+      <c r="G81" s="80" t="n">
         <v>-0.00398532663178225</v>
       </c>
-      <c r="H81" s="79" t="n">
+      <c r="H81" s="80" t="n">
         <v>-0.000663517226047069</v>
       </c>
-      <c r="I81" s="79" t="n">
+      <c r="I81" s="80" t="n">
         <v>-0.00310993400718929</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="74" t="n">
+      <c r="A82" s="75" t="n">
         <v>100</v>
       </c>
-      <c r="B82" s="79" t="n">
+      <c r="B82" s="80" t="n">
         <v>-0.00207110417827738</v>
       </c>
-      <c r="C82" s="79" t="n">
+      <c r="C82" s="80" t="n">
         <v>-0.00376889927536114</v>
       </c>
-      <c r="D82" s="79" t="n">
+      <c r="D82" s="80" t="n">
         <v>-0.000694699210113574</v>
       </c>
-      <c r="E82" s="79" t="n">
+      <c r="E82" s="80" t="n">
         <v>-0.00309414453921313</v>
       </c>
-      <c r="F82" s="79" t="n">
+      <c r="F82" s="80" t="n">
         <v>-0.00213051899388586</v>
       </c>
-      <c r="G82" s="79" t="n">
+      <c r="G82" s="80" t="n">
         <v>-0.00398532663178225</v>
       </c>
-      <c r="H82" s="79" t="n">
+      <c r="H82" s="80" t="n">
         <v>-0.000663517226047069</v>
       </c>
-      <c r="I82" s="79" t="n">
+      <c r="I82" s="80" t="n">
         <v>-0.00310993400718929</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="74" t="n">
+      <c r="A83" s="75" t="n">
         <v>1000</v>
       </c>
-      <c r="B83" s="79" t="n">
+      <c r="B83" s="80" t="n">
         <v>-0.00207110417827738</v>
       </c>
-      <c r="C83" s="79" t="n">
+      <c r="C83" s="80" t="n">
         <v>-0.00376889927536114</v>
       </c>
-      <c r="D83" s="79" t="n">
+      <c r="D83" s="80" t="n">
         <v>-0.000694699210113574</v>
       </c>
-      <c r="E83" s="79" t="n">
+      <c r="E83" s="80" t="n">
         <v>-0.00309414453921313</v>
       </c>
-      <c r="F83" s="79" t="n">
+      <c r="F83" s="80" t="n">
         <v>-0.00213051899388586</v>
       </c>
-      <c r="G83" s="79" t="n">
+      <c r="G83" s="80" t="n">
         <v>-0.00398532663178225</v>
       </c>
-      <c r="H83" s="79" t="n">
+      <c r="H83" s="80" t="n">
         <v>-0.000663517226047069</v>
       </c>
-      <c r="I83" s="79" t="n">
+      <c r="I83" s="80" t="n">
         <v>-0.00310993400718929</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="74" t="n">
+      <c r="A84" s="75" t="n">
         <v>10000</v>
       </c>
-      <c r="B84" s="79" t="n">
+      <c r="B84" s="80" t="n">
         <v>-0.00207110417827738</v>
       </c>
-      <c r="C84" s="79" t="n">
+      <c r="C84" s="80" t="n">
         <v>-0.00376889927536114</v>
       </c>
-      <c r="D84" s="79" t="n">
+      <c r="D84" s="80" t="n">
         <v>-0.000694699210113574</v>
       </c>
-      <c r="E84" s="79" t="n">
+      <c r="E84" s="80" t="n">
         <v>-0.00309414453921313</v>
       </c>
-      <c r="F84" s="79" t="n">
+      <c r="F84" s="80" t="n">
         <v>-0.00213051899388586</v>
       </c>
-      <c r="G84" s="79" t="n">
+      <c r="G84" s="80" t="n">
         <v>-0.00398532663178225</v>
       </c>
-      <c r="H84" s="79" t="n">
+      <c r="H84" s="80" t="n">
         <v>-0.000663517226047069</v>
       </c>
-      <c r="I84" s="79" t="n">
+      <c r="I84" s="80" t="n">
         <v>-0.00310993400718929</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="74" t="n">
+      <c r="A85" s="75" t="n">
         <v>100000</v>
       </c>
-      <c r="B85" s="79" t="n">
+      <c r="B85" s="80" t="n">
         <v>-0.00207110417827738</v>
       </c>
-      <c r="C85" s="79" t="n">
+      <c r="C85" s="80" t="n">
         <v>-0.00376889927536114</v>
       </c>
-      <c r="D85" s="79" t="n">
+      <c r="D85" s="80" t="n">
         <v>-0.000694699210113574</v>
       </c>
-      <c r="E85" s="79" t="n">
+      <c r="E85" s="80" t="n">
         <v>-0.00309414453921313</v>
       </c>
-      <c r="F85" s="79" t="n">
+      <c r="F85" s="80" t="n">
         <v>-0.00213051899388586</v>
       </c>
-      <c r="G85" s="79" t="n">
+      <c r="G85" s="80" t="n">
         <v>-0.00398532663178225</v>
       </c>
-      <c r="H85" s="79" t="n">
+      <c r="H85" s="80" t="n">
         <v>-0.000663517226047069</v>
       </c>
-      <c r="I85" s="79" t="n">
+      <c r="I85" s="80" t="n">
         <v>-0.00310993400718929</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="74" t="n">
+      <c r="A86" s="75" t="n">
         <v>1000000</v>
       </c>
-      <c r="B86" s="79" t="n">
+      <c r="B86" s="80" t="n">
         <v>-0.00207110417827738</v>
       </c>
-      <c r="C86" s="79" t="n">
+      <c r="C86" s="80" t="n">
         <v>-0.00376889927536114</v>
       </c>
-      <c r="D86" s="79" t="n">
+      <c r="D86" s="80" t="n">
         <v>-0.000694699210113574</v>
       </c>
-      <c r="E86" s="79" t="n">
+      <c r="E86" s="80" t="n">
         <v>-0.00309414453921313</v>
       </c>
-      <c r="F86" s="79" t="n">
+      <c r="F86" s="80" t="n">
         <v>-0.00213051899388586</v>
       </c>
-      <c r="G86" s="79" t="n">
+      <c r="G86" s="80" t="n">
         <v>-0.00398532663178225</v>
       </c>
-      <c r="H86" s="79" t="n">
+      <c r="H86" s="80" t="n">
         <v>-0.000663517226047069</v>
       </c>
-      <c r="I86" s="79" t="n">
+      <c r="I86" s="80" t="n">
         <v>-0.00310993400718929</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="74" t="n">
+      <c r="A87" s="75" t="n">
         <v>10000000</v>
       </c>
-      <c r="B87" s="79" t="n">
+      <c r="B87" s="80" t="n">
         <v>-0.00207110417827738</v>
       </c>
-      <c r="C87" s="79" t="n">
+      <c r="C87" s="80" t="n">
         <v>-0.00376889927536114</v>
       </c>
-      <c r="D87" s="79" t="n">
+      <c r="D87" s="80" t="n">
         <v>-0.000694699210113574</v>
       </c>
-      <c r="E87" s="79" t="n">
+      <c r="E87" s="80" t="n">
         <v>-0.00309414453921313</v>
       </c>
-      <c r="F87" s="79" t="n">
+      <c r="F87" s="80" t="n">
         <v>-0.00213051899388586</v>
       </c>
-      <c r="G87" s="79" t="n">
+      <c r="G87" s="80" t="n">
         <v>-0.00398532663178225</v>
       </c>
-      <c r="H87" s="79" t="n">
+      <c r="H87" s="80" t="n">
         <v>-0.000663517226047069</v>
       </c>
-      <c r="I87" s="79" t="n">
+      <c r="I87" s="80" t="n">
         <v>-0.00310993400718929</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B91" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="C91" s="73" t="s">
-        <v>68</v>
-      </c>
-      <c r="D91" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B91" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="E91" s="73" t="s">
+      <c r="C91" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="F91" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G91" s="73" t="s">
-        <v>68</v>
-      </c>
-      <c r="H91" s="73" t="s">
+      <c r="D91" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="E91" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="F91" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="I91" s="73" t="s">
+      <c r="G91" s="74" t="s">
         <v>70</v>
       </c>
+      <c r="H91" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="I91" s="74" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="74" t="n">
+      <c r="A92" s="75" t="n">
         <v>10</v>
       </c>
-      <c r="B92" s="78" t="n">
+      <c r="B92" s="79" t="n">
         <f aca="false">B81/2.78301018765889</f>
         <v>-0.00074419568690822</v>
       </c>
-      <c r="C92" s="78" t="n">
+      <c r="C92" s="79" t="n">
         <f aca="false">C81/2.78216724261881</f>
         <v>-0.00135466309056731</v>
       </c>
-      <c r="D92" s="78" t="n">
+      <c r="D92" s="79" t="n">
         <f aca="false">D81/0.001115089567007</f>
         <v>-0.622998573987387</v>
       </c>
-      <c r="E92" s="78" t="n">
+      <c r="E92" s="79" t="n">
         <f aca="false">E81/0.006561434337706</f>
         <v>-0.471565267586736</v>
       </c>
-      <c r="F92" s="78" t="n">
+      <c r="F92" s="79" t="n">
         <f aca="false">F81/2.75877874258439</f>
         <v>-0.000772268888765619</v>
       </c>
-      <c r="G92" s="78" t="n">
+      <c r="G92" s="79" t="n">
         <f aca="false">G81/2.77938916853549</f>
         <v>-0.00143388578933054</v>
       </c>
-      <c r="H92" s="78" t="n">
+      <c r="H92" s="79" t="n">
         <f aca="false">H81/0.001996081508997</f>
         <v>-0.332409885596544</v>
       </c>
-      <c r="I92" s="78" t="n">
+      <c r="I92" s="79" t="n">
         <f aca="false">I81/0.005768856219016</f>
         <v>-0.53909022674858</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="74" t="n">
+      <c r="A93" s="75" t="n">
         <v>100</v>
       </c>
-      <c r="B93" s="77" t="n">
+      <c r="B93" s="78" t="n">
         <f aca="false">B82/2.78301018765889</f>
         <v>-0.00074419568690822</v>
       </c>
-      <c r="C93" s="77" t="n">
+      <c r="C93" s="78" t="n">
         <f aca="false">C82/2.78216724261881</f>
         <v>-0.00135466309056731</v>
       </c>
-      <c r="D93" s="77" t="n">
+      <c r="D93" s="78" t="n">
         <f aca="false">D82/0.001115089567007</f>
         <v>-0.622998573987387</v>
       </c>
-      <c r="E93" s="77" t="n">
+      <c r="E93" s="78" t="n">
         <f aca="false">E82/0.006561434337706</f>
         <v>-0.471565267586736</v>
       </c>
-      <c r="F93" s="77" t="n">
+      <c r="F93" s="78" t="n">
         <f aca="false">F82/2.75877874258439</f>
         <v>-0.000772268888765619</v>
       </c>
-      <c r="G93" s="77" t="n">
+      <c r="G93" s="78" t="n">
         <f aca="false">G82/2.77938916853549</f>
         <v>-0.00143388578933054</v>
       </c>
-      <c r="H93" s="77" t="n">
+      <c r="H93" s="78" t="n">
         <f aca="false">H82/0.001996081508997</f>
         <v>-0.332409885596544</v>
       </c>
-      <c r="I93" s="77" t="n">
+      <c r="I93" s="78" t="n">
         <f aca="false">I82/0.005768856219016</f>
         <v>-0.53909022674858</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="74" t="n">
+      <c r="A94" s="75" t="n">
         <v>1000</v>
       </c>
-      <c r="B94" s="77" t="n">
+      <c r="B94" s="78" t="n">
         <f aca="false">B83/2.78301018765889</f>
         <v>-0.00074419568690822</v>
       </c>
-      <c r="C94" s="77" t="n">
+      <c r="C94" s="78" t="n">
         <f aca="false">C83/2.78216724261881</f>
         <v>-0.00135466309056731</v>
       </c>
-      <c r="D94" s="77" t="n">
+      <c r="D94" s="78" t="n">
         <f aca="false">D83/0.001115089567007</f>
         <v>-0.622998573987387</v>
       </c>
-      <c r="E94" s="77" t="n">
+      <c r="E94" s="78" t="n">
         <f aca="false">E83/0.006561434337706</f>
         <v>-0.471565267586736</v>
       </c>
-      <c r="F94" s="77" t="n">
+      <c r="F94" s="78" t="n">
         <f aca="false">F83/2.75877874258439</f>
         <v>-0.000772268888765619</v>
       </c>
-      <c r="G94" s="77" t="n">
+      <c r="G94" s="78" t="n">
         <f aca="false">G83/2.77938916853549</f>
         <v>-0.00143388578933054</v>
       </c>
-      <c r="H94" s="77" t="n">
+      <c r="H94" s="78" t="n">
         <f aca="false">H83/0.001996081508997</f>
         <v>-0.332409885596544</v>
       </c>
-      <c r="I94" s="77" t="n">
+      <c r="I94" s="78" t="n">
         <f aca="false">I83/0.005768856219016</f>
         <v>-0.53909022674858</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="74" t="n">
+      <c r="A95" s="75" t="n">
         <v>10000</v>
       </c>
-      <c r="B95" s="77" t="n">
+      <c r="B95" s="78" t="n">
         <f aca="false">B84/2.78301018765889</f>
         <v>-0.00074419568690822</v>
       </c>
-      <c r="C95" s="77" t="n">
+      <c r="C95" s="78" t="n">
         <f aca="false">C84/2.78216724261881</f>
         <v>-0.00135466309056731</v>
       </c>
-      <c r="D95" s="77" t="n">
+      <c r="D95" s="78" t="n">
         <f aca="false">D84/0.001115089567007</f>
         <v>-0.622998573987387</v>
       </c>
-      <c r="E95" s="77" t="n">
+      <c r="E95" s="78" t="n">
         <f aca="false">E84/0.006561434337706</f>
         <v>-0.471565267586736</v>
       </c>
-      <c r="F95" s="77" t="n">
+      <c r="F95" s="78" t="n">
         <f aca="false">F84/2.75877874258439</f>
         <v>-0.000772268888765619</v>
       </c>
-      <c r="G95" s="77" t="n">
+      <c r="G95" s="78" t="n">
         <f aca="false">G84/2.77938916853549</f>
         <v>-0.00143388578933054</v>
       </c>
-      <c r="H95" s="77" t="n">
+      <c r="H95" s="78" t="n">
         <f aca="false">H84/0.001996081508997</f>
         <v>-0.332409885596544</v>
       </c>
-      <c r="I95" s="77" t="n">
+      <c r="I95" s="78" t="n">
         <f aca="false">I84/0.005768856219016</f>
         <v>-0.53909022674858</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="74" t="n">
+      <c r="A96" s="75" t="n">
         <v>100000</v>
       </c>
-      <c r="B96" s="77" t="n">
+      <c r="B96" s="78" t="n">
         <f aca="false">B85/2.78301018765889</f>
         <v>-0.00074419568690822</v>
       </c>
-      <c r="C96" s="77" t="n">
+      <c r="C96" s="78" t="n">
         <f aca="false">C85/2.78216724261881</f>
         <v>-0.00135466309056731</v>
       </c>
-      <c r="D96" s="77" t="n">
+      <c r="D96" s="78" t="n">
         <f aca="false">D85/0.001115089567007</f>
         <v>-0.622998573987387</v>
       </c>
-      <c r="E96" s="77" t="n">
+      <c r="E96" s="78" t="n">
         <f aca="false">E85/0.006561434337706</f>
         <v>-0.471565267586736</v>
       </c>
-      <c r="F96" s="77" t="n">
+      <c r="F96" s="78" t="n">
         <f aca="false">F85/2.75877874258439</f>
         <v>-0.000772268888765619</v>
       </c>
-      <c r="G96" s="77" t="n">
+      <c r="G96" s="78" t="n">
         <f aca="false">G85/2.77938916853549</f>
         <v>-0.00143388578933054</v>
       </c>
-      <c r="H96" s="77" t="n">
+      <c r="H96" s="78" t="n">
         <f aca="false">H85/0.001996081508997</f>
         <v>-0.332409885596544</v>
       </c>
-      <c r="I96" s="77" t="n">
+      <c r="I96" s="78" t="n">
         <f aca="false">I85/0.005768856219016</f>
         <v>-0.53909022674858</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="74" t="n">
+      <c r="A97" s="75" t="n">
         <v>1000000</v>
       </c>
-      <c r="B97" s="77" t="n">
+      <c r="B97" s="78" t="n">
         <f aca="false">B86/2.78301018765889</f>
         <v>-0.00074419568690822</v>
       </c>
-      <c r="C97" s="77" t="n">
+      <c r="C97" s="78" t="n">
         <f aca="false">C86/2.78216724261881</f>
         <v>-0.00135466309056731</v>
       </c>
-      <c r="D97" s="77" t="n">
+      <c r="D97" s="78" t="n">
         <f aca="false">D86/0.001115089567007</f>
         <v>-0.622998573987387</v>
       </c>
-      <c r="E97" s="77" t="n">
+      <c r="E97" s="78" t="n">
         <f aca="false">E86/0.006561434337706</f>
         <v>-0.471565267586736</v>
       </c>
-      <c r="F97" s="77" t="n">
+      <c r="F97" s="78" t="n">
         <f aca="false">F86/2.75877874258439</f>
         <v>-0.000772268888765619</v>
       </c>
-      <c r="G97" s="77" t="n">
+      <c r="G97" s="78" t="n">
         <f aca="false">G86/2.77938916853549</f>
         <v>-0.00143388578933054</v>
       </c>
-      <c r="H97" s="77" t="n">
+      <c r="H97" s="78" t="n">
         <f aca="false">H86/0.001996081508997</f>
         <v>-0.332409885596544</v>
       </c>
-      <c r="I97" s="77" t="n">
+      <c r="I97" s="78" t="n">
         <f aca="false">I86/0.005768856219016</f>
         <v>-0.53909022674858</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="74" t="n">
+      <c r="A98" s="75" t="n">
         <v>10000000</v>
       </c>
-      <c r="B98" s="77" t="n">
+      <c r="B98" s="78" t="n">
         <f aca="false">B87/2.78301018765889</f>
         <v>-0.00074419568690822</v>
       </c>
-      <c r="C98" s="77" t="n">
+      <c r="C98" s="78" t="n">
         <f aca="false">C87/2.78216724261881</f>
         <v>-0.00135466309056731</v>
       </c>
-      <c r="D98" s="77" t="n">
+      <c r="D98" s="78" t="n">
         <f aca="false">D87/0.001115089567007</f>
         <v>-0.622998573987387</v>
       </c>
-      <c r="E98" s="77" t="n">
+      <c r="E98" s="78" t="n">
         <f aca="false">E87/0.006561434337706</f>
         <v>-0.471565267586736</v>
       </c>
-      <c r="F98" s="77" t="n">
+      <c r="F98" s="78" t="n">
         <f aca="false">F87/2.75877874258439</f>
         <v>-0.000772268888765619</v>
       </c>
-      <c r="G98" s="77" t="n">
+      <c r="G98" s="78" t="n">
         <f aca="false">G87/2.77938916853549</f>
         <v>-0.00143388578933054</v>
       </c>
-      <c r="H98" s="77" t="n">
+      <c r="H98" s="78" t="n">
         <f aca="false">H87/0.001996081508997</f>
         <v>-0.332409885596544</v>
       </c>
-      <c r="I98" s="77" t="n">
+      <c r="I98" s="78" t="n">
         <f aca="false">I87/0.005768856219016</f>
         <v>-0.53909022674858</v>
       </c>
@@ -31964,319 +32510,319 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="73" width="10.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="73" width="16.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="73" width="9.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="73" width="7.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="73" width="10.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="73" width="9.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="73" width="9.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="73" width="9.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="73" width="7.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="73" width="10.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="73" width="9.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="73" width="7.05"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="15" style="73" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="74" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="74" width="16.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="74" width="9.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="74" width="7.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="74" width="10.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="74" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="74" width="9.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="74" width="9.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="74" width="7.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="74" width="10.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="74" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="74" width="7.05"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="15" style="74" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="80" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="80" t="s">
+      <c r="A1" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
     </row>
     <row r="2" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81" t="s">
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81" t="s">
+      <c r="I2" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="81" t="s">
+      <c r="N2" s="82" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="82" t="s">
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="82" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="82" t="s">
+      <c r="E3" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="82" t="s">
+      <c r="J3" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="L3" s="82" t="s">
-        <v>80</v>
-      </c>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
+      <c r="K3" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
     </row>
     <row r="4" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="73" t="s">
-        <v>67</v>
+      <c r="A4" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>69</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="73" t="n">
+      <c r="D4" s="74" t="n">
         <v>1000</v>
       </c>
-      <c r="E4" s="73" t="n">
+      <c r="E4" s="74" t="n">
         <v>100</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="73" t="s">
         <v>84</v>
       </c>
+      <c r="G4" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="74" t="s">
+        <v>86</v>
+      </c>
       <c r="I4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="81"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="0"/>
-      <c r="C5" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="73" t="n">
+      <c r="C5" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="74" t="n">
         <v>1000</v>
       </c>
-      <c r="E5" s="73" t="n">
+      <c r="E5" s="74" t="n">
         <v>100</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="73" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="73" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="G5" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="74" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0"/>
       <c r="B6" s="0"/>
-      <c r="C6" s="73" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="73" t="n">
+      <c r="C6" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="74" t="n">
         <v>1000</v>
       </c>
-      <c r="E6" s="73" t="n">
+      <c r="E6" s="74" t="n">
         <v>500</v>
       </c>
-      <c r="F6" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" s="73" t="s">
+      <c r="F6" s="74" t="s">
         <v>91</v>
+      </c>
+      <c r="G6" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="74" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0"/>
       <c r="B7" s="0"/>
-      <c r="C7" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="73" t="n">
+      <c r="C7" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="74" t="n">
         <v>1000</v>
       </c>
-      <c r="E7" s="73" t="n">
+      <c r="E7" s="74" t="n">
         <v>100</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="73" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" s="73" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="81"/>
-      <c r="B8" s="73" t="s">
-        <v>68</v>
+      <c r="A8" s="82"/>
+      <c r="B8" s="74" t="s">
+        <v>70</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="73" t="n">
+      <c r="D8" s="74" t="n">
         <v>1000</v>
       </c>
-      <c r="E8" s="73" t="n">
+      <c r="E8" s="74" t="n">
         <v>100</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" s="73" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" s="73" t="s">
-        <v>95</v>
+        <v>84</v>
+      </c>
+      <c r="G8" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="74" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0"/>
       <c r="B9" s="0"/>
-      <c r="C9" s="73" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="73" t="n">
+      <c r="C9" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="74" t="n">
         <v>1000</v>
       </c>
-      <c r="E9" s="73" t="n">
+      <c r="E9" s="74" t="n">
         <v>500</v>
       </c>
-      <c r="F9" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="73" t="s">
-        <v>96</v>
-      </c>
-      <c r="H9" s="73" t="s">
-        <v>97</v>
+      <c r="F9" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="74" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="81"/>
-      <c r="B10" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="73" t="s">
+      <c r="A10" s="82"/>
+      <c r="B10" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="73" t="n">
+      <c r="D10" s="74" t="n">
         <v>1000</v>
       </c>
-      <c r="E10" s="73" t="n">
+      <c r="E10" s="74" t="n">
         <v>100</v>
       </c>
-      <c r="F10" s="73" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="73" t="s">
-        <v>98</v>
-      </c>
-      <c r="H10" s="73" t="s">
-        <v>99</v>
+      <c r="F10" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="74" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="81"/>
-      <c r="C11" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="73" t="n">
+      <c r="A11" s="82"/>
+      <c r="C11" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="74" t="n">
         <v>1000</v>
       </c>
-      <c r="E11" s="73" t="n">
+      <c r="E11" s="74" t="n">
         <v>100</v>
       </c>
-      <c r="F11" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="H11" s="73" t="s">
-        <v>101</v>
+      <c r="F11" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="74" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="81"/>
-      <c r="C12" s="73" t="s">
-        <v>88</v>
+      <c r="A12" s="82"/>
+      <c r="C12" s="74" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="81"/>
-      <c r="C13" s="73" t="s">
-        <v>92</v>
+      <c r="A13" s="82"/>
+      <c r="C13" s="74" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0"/>
-      <c r="B14" s="73" t="s">
-        <v>70</v>
+      <c r="B14" s="74" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="80" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="73" t="s">
+      <c r="A15" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="74" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="73" t="s">
-        <v>103</v>
+      <c r="B16" s="74" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Model Results.xlsx
+++ b/Model Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Findings" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="105">
   <si>
     <t xml:space="preserve">for finding prices 5 days (1 week) out:</t>
   </si>
@@ -361,7 +361,7 @@
     <numFmt numFmtId="168" formatCode="0.0000"/>
     <numFmt numFmtId="169" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -389,6 +389,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1069,7 +1074,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -1100,10 +1105,10 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -1114,6 +1119,391 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LSTM Model Summary'!$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>training error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'LSTM Model Summary'!$B$42:$H$42</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'LSTM Model Summary'!$B$54:$H$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0457291</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0459124</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0326236</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0292324</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0326041</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.030956</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0327057</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LSTM Model Summary'!$A$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testing error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'LSTM Model Summary'!$B$42:$H$42</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'LSTM Model Summary'!$B$67:$H$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0168092</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0154849</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0145865</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0147008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0185102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0265924</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0150265</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="48689626"/>
+        <c:axId val="83384776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="48689626"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83384776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="83384776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="48689626"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>518400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>232200</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>58680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6367680" y="9494640"/>
+        <a:ext cx="5762880" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28519,7 +28909,7 @@
   </sheetPr>
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B60" activeCellId="0" sqref="B60"/>
     </sheetView>
   </sheetViews>
@@ -29825,8 +30215,8 @@
   </sheetPr>
   <dimension ref="A1:R98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32502,10 +32892,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32825,6 +33215,615 @@
         <v>54</v>
       </c>
     </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="C42" s="74" t="n">
+        <v>50</v>
+      </c>
+      <c r="D42" s="74" t="n">
+        <v>100</v>
+      </c>
+      <c r="E42" s="74" t="n">
+        <v>250</v>
+      </c>
+      <c r="F42" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="G42" s="74" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H42" s="74" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="B43" s="74" t="n">
+        <v>0.02833</v>
+      </c>
+      <c r="C43" s="74" t="n">
+        <v>0.02814</v>
+      </c>
+      <c r="D43" s="74" t="n">
+        <v>0.028126</v>
+      </c>
+      <c r="E43" s="74" t="n">
+        <v>0.028126</v>
+      </c>
+      <c r="F43" s="74" t="n">
+        <v>0.036522</v>
+      </c>
+      <c r="G43" s="74" t="n">
+        <v>0.028126</v>
+      </c>
+      <c r="H43" s="74" t="n">
+        <v>0.028126</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" s="74" t="n">
+        <v>0.080614</v>
+      </c>
+      <c r="C44" s="74" t="n">
+        <v>0.028199</v>
+      </c>
+      <c r="D44" s="74" t="n">
+        <v>0.028126</v>
+      </c>
+      <c r="E44" s="74" t="n">
+        <v>0.028126</v>
+      </c>
+      <c r="F44" s="74" t="n">
+        <v>0.02837</v>
+      </c>
+      <c r="G44" s="74" t="n">
+        <v>0.028126</v>
+      </c>
+      <c r="H44" s="74" t="n">
+        <v>0.028126</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="B45" s="74" t="n">
+        <v>0.028126</v>
+      </c>
+      <c r="C45" s="74" t="n">
+        <v>0.028126</v>
+      </c>
+      <c r="D45" s="74" t="n">
+        <v>0.028044</v>
+      </c>
+      <c r="E45" s="74" t="n">
+        <v>0.028215</v>
+      </c>
+      <c r="F45" s="74" t="n">
+        <v>0.036798</v>
+      </c>
+      <c r="G45" s="74" t="n">
+        <v>0.03302</v>
+      </c>
+      <c r="H45" s="74" t="n">
+        <v>0.036603</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="74" t="n">
+        <v>3</v>
+      </c>
+      <c r="B46" s="74" t="n">
+        <v>0.080458</v>
+      </c>
+      <c r="C46" s="74" t="n">
+        <v>0.028156</v>
+      </c>
+      <c r="D46" s="74" t="n">
+        <v>0.03354</v>
+      </c>
+      <c r="E46" s="74" t="n">
+        <v>0.028126</v>
+      </c>
+      <c r="F46" s="74" t="n">
+        <v>0.028123</v>
+      </c>
+      <c r="G46" s="74" t="n">
+        <v>0.032551</v>
+      </c>
+      <c r="H46" s="74" t="n">
+        <v>0.028249</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="74" t="n">
+        <v>4</v>
+      </c>
+      <c r="B47" s="74" t="n">
+        <v>0.029231</v>
+      </c>
+      <c r="C47" s="74" t="n">
+        <v>0.069067</v>
+      </c>
+      <c r="D47" s="74" t="n">
+        <v>0.0344</v>
+      </c>
+      <c r="E47" s="74" t="n">
+        <v>0.028126</v>
+      </c>
+      <c r="F47" s="74" t="n">
+        <v>0.036373</v>
+      </c>
+      <c r="G47" s="74" t="n">
+        <v>0.028156</v>
+      </c>
+      <c r="H47" s="74" t="n">
+        <v>0.035853</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B48" s="74" t="n">
+        <v>0.028125</v>
+      </c>
+      <c r="C48" s="74" t="n">
+        <v>0.028125</v>
+      </c>
+      <c r="D48" s="74" t="n">
+        <v>0.028119</v>
+      </c>
+      <c r="E48" s="74" t="n">
+        <v>0.038939</v>
+      </c>
+      <c r="F48" s="74" t="n">
+        <v>0.028126</v>
+      </c>
+      <c r="G48" s="74" t="n">
+        <v>0.028126</v>
+      </c>
+      <c r="H48" s="74" t="n">
+        <v>0.039457</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="74" t="n">
+        <v>6</v>
+      </c>
+      <c r="B49" s="74" t="n">
+        <v>0.028116</v>
+      </c>
+      <c r="C49" s="74" t="n">
+        <v>0.088619</v>
+      </c>
+      <c r="D49" s="74" t="n">
+        <v>0.028265</v>
+      </c>
+      <c r="E49" s="74" t="n">
+        <v>0.028215</v>
+      </c>
+      <c r="F49" s="74" t="n">
+        <v>0.028126</v>
+      </c>
+      <c r="G49" s="74" t="n">
+        <v>0.028126</v>
+      </c>
+      <c r="H49" s="74" t="n">
+        <v>0.028131</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="74" t="n">
+        <v>7</v>
+      </c>
+      <c r="B50" s="74" t="n">
+        <v>0.028126</v>
+      </c>
+      <c r="C50" s="74" t="n">
+        <v>0.10432</v>
+      </c>
+      <c r="D50" s="74" t="n">
+        <v>0.061364</v>
+      </c>
+      <c r="E50" s="74" t="n">
+        <v>0.028211</v>
+      </c>
+      <c r="F50" s="74" t="n">
+        <v>0.028126</v>
+      </c>
+      <c r="G50" s="74" t="n">
+        <v>0.042408</v>
+      </c>
+      <c r="H50" s="74" t="n">
+        <v>0.04624</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="74" t="n">
+        <v>8</v>
+      </c>
+      <c r="B51" s="74" t="n">
+        <v>0.098039</v>
+      </c>
+      <c r="C51" s="74" t="n">
+        <v>0.028246</v>
+      </c>
+      <c r="D51" s="74" t="n">
+        <v>0.028126</v>
+      </c>
+      <c r="E51" s="74" t="n">
+        <v>0.028084</v>
+      </c>
+      <c r="F51" s="74" t="n">
+        <v>0.044039</v>
+      </c>
+      <c r="G51" s="74" t="n">
+        <v>0.032711</v>
+      </c>
+      <c r="H51" s="74" t="n">
+        <v>0.028126</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="74" t="n">
+        <v>9</v>
+      </c>
+      <c r="B52" s="74" t="n">
+        <v>0.028126</v>
+      </c>
+      <c r="C52" s="74" t="n">
+        <v>0.028126</v>
+      </c>
+      <c r="D52" s="74" t="n">
+        <v>0.028126</v>
+      </c>
+      <c r="E52" s="74" t="n">
+        <v>0.028156</v>
+      </c>
+      <c r="F52" s="74" t="n">
+        <v>0.031438</v>
+      </c>
+      <c r="G52" s="74" t="n">
+        <v>0.02821</v>
+      </c>
+      <c r="H52" s="74" t="n">
+        <v>0.028146</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="74" t="n">
+        <f aca="false">AVERAGE(B43:B52)</f>
+        <v>0.0457291</v>
+      </c>
+      <c r="C54" s="74" t="n">
+        <f aca="false">AVERAGE(C43:C52)</f>
+        <v>0.0459124</v>
+      </c>
+      <c r="D54" s="74" t="n">
+        <f aca="false">AVERAGE(D43:D52)</f>
+        <v>0.0326236</v>
+      </c>
+      <c r="E54" s="74" t="n">
+        <f aca="false">AVERAGE(E43:E52)</f>
+        <v>0.0292324</v>
+      </c>
+      <c r="F54" s="74" t="n">
+        <f aca="false">AVERAGE(F43:F52)</f>
+        <v>0.0326041</v>
+      </c>
+      <c r="G54" s="74" t="n">
+        <f aca="false">AVERAGE(G43:G52)</f>
+        <v>0.030956</v>
+      </c>
+      <c r="H54" s="74" t="n">
+        <f aca="false">AVERAGE(H43:H52)</f>
+        <v>0.0327057</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="B56" s="74" t="n">
+        <v>0.014387</v>
+      </c>
+      <c r="C56" s="74" t="n">
+        <v>0.015725</v>
+      </c>
+      <c r="D56" s="74" t="n">
+        <v>0.014463</v>
+      </c>
+      <c r="E56" s="74" t="n">
+        <v>0.01444</v>
+      </c>
+      <c r="F56" s="74" t="n">
+        <v>0.014454</v>
+      </c>
+      <c r="G56" s="74" t="n">
+        <v>0.01444</v>
+      </c>
+      <c r="H56" s="74" t="n">
+        <v>0.01444</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" s="74" t="n">
+        <v>0.016235</v>
+      </c>
+      <c r="C57" s="74" t="n">
+        <v>0.014709</v>
+      </c>
+      <c r="D57" s="74" t="n">
+        <v>0.01444</v>
+      </c>
+      <c r="E57" s="74" t="n">
+        <v>0.014449</v>
+      </c>
+      <c r="F57" s="74" t="n">
+        <v>0.014527</v>
+      </c>
+      <c r="G57" s="74" t="n">
+        <v>0.01444</v>
+      </c>
+      <c r="H57" s="74" t="n">
+        <v>0.01444</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="B58" s="74" t="n">
+        <v>0.01444</v>
+      </c>
+      <c r="C58" s="74" t="n">
+        <v>0.01444</v>
+      </c>
+      <c r="D58" s="74" t="n">
+        <v>0.014447</v>
+      </c>
+      <c r="E58" s="74" t="n">
+        <v>0.015715</v>
+      </c>
+      <c r="F58" s="74" t="n">
+        <v>0.014383</v>
+      </c>
+      <c r="G58" s="74" t="n">
+        <v>0.014451</v>
+      </c>
+      <c r="H58" s="74" t="n">
+        <v>0.014484</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="74" t="n">
+        <v>3</v>
+      </c>
+      <c r="B59" s="74" t="n">
+        <v>0.02234</v>
+      </c>
+      <c r="C59" s="74" t="n">
+        <v>0.016193</v>
+      </c>
+      <c r="D59" s="74" t="n">
+        <v>0.014435</v>
+      </c>
+      <c r="E59" s="74" t="n">
+        <v>0.01444</v>
+      </c>
+      <c r="F59" s="74" t="n">
+        <v>0.014443</v>
+      </c>
+      <c r="G59" s="74" t="n">
+        <v>0.01444</v>
+      </c>
+      <c r="H59" s="74" t="n">
+        <v>0.019651</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="74" t="n">
+        <v>4</v>
+      </c>
+      <c r="B60" s="74" t="n">
+        <v>0.014414</v>
+      </c>
+      <c r="C60" s="74" t="n">
+        <v>0.014638</v>
+      </c>
+      <c r="D60" s="74" t="n">
+        <v>0.01444</v>
+      </c>
+      <c r="E60" s="74" t="n">
+        <v>0.014618</v>
+      </c>
+      <c r="F60" s="74" t="n">
+        <v>0.052725</v>
+      </c>
+      <c r="G60" s="74" t="n">
+        <v>0.014525</v>
+      </c>
+      <c r="H60" s="74" t="n">
+        <v>0.014637</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B61" s="74" t="n">
+        <v>0.022387</v>
+      </c>
+      <c r="C61" s="74" t="n">
+        <v>0.01444</v>
+      </c>
+      <c r="D61" s="74" t="n">
+        <v>0.01444</v>
+      </c>
+      <c r="E61" s="74" t="n">
+        <v>0.014522</v>
+      </c>
+      <c r="F61" s="74" t="n">
+        <v>0.01444</v>
+      </c>
+      <c r="G61" s="74" t="n">
+        <v>0.01444</v>
+      </c>
+      <c r="H61" s="74" t="n">
+        <v>0.014515</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="74" t="n">
+        <v>6</v>
+      </c>
+      <c r="B62" s="74" t="n">
+        <v>0.014442</v>
+      </c>
+      <c r="C62" s="74" t="n">
+        <v>0.016691</v>
+      </c>
+      <c r="D62" s="74" t="n">
+        <v>0.014667</v>
+      </c>
+      <c r="E62" s="74" t="n">
+        <v>0.014718</v>
+      </c>
+      <c r="F62" s="74" t="n">
+        <v>0.01444</v>
+      </c>
+      <c r="G62" s="74" t="n">
+        <v>0.01444</v>
+      </c>
+      <c r="H62" s="74" t="n">
+        <v>0.01446</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="74" t="n">
+        <v>7</v>
+      </c>
+      <c r="B63" s="74" t="n">
+        <v>0.01444</v>
+      </c>
+      <c r="C63" s="74" t="n">
+        <v>0.019091</v>
+      </c>
+      <c r="D63" s="74" t="n">
+        <v>0.015517</v>
+      </c>
+      <c r="E63" s="74" t="n">
+        <v>0.014727</v>
+      </c>
+      <c r="F63" s="74" t="n">
+        <v>0.014611</v>
+      </c>
+      <c r="G63" s="74" t="n">
+        <v>0.134489</v>
+      </c>
+      <c r="H63" s="74" t="n">
+        <v>0.014674</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="74" t="n">
+        <v>8</v>
+      </c>
+      <c r="B64" s="74" t="n">
+        <v>0.020567</v>
+      </c>
+      <c r="C64" s="74" t="n">
+        <v>0.014482</v>
+      </c>
+      <c r="D64" s="74" t="n">
+        <v>0.014503</v>
+      </c>
+      <c r="E64" s="74" t="n">
+        <v>0.014854</v>
+      </c>
+      <c r="F64" s="74" t="n">
+        <v>0.016596</v>
+      </c>
+      <c r="G64" s="74" t="n">
+        <v>0.01444</v>
+      </c>
+      <c r="H64" s="74" t="n">
+        <v>0.01444</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="74" t="n">
+        <v>9</v>
+      </c>
+      <c r="B65" s="74" t="n">
+        <v>0.01444</v>
+      </c>
+      <c r="C65" s="74" t="n">
+        <v>0.01444</v>
+      </c>
+      <c r="D65" s="74" t="n">
+        <v>0.014513</v>
+      </c>
+      <c r="E65" s="74" t="n">
+        <v>0.014525</v>
+      </c>
+      <c r="F65" s="74" t="n">
+        <v>0.014483</v>
+      </c>
+      <c r="G65" s="74" t="n">
+        <v>0.015819</v>
+      </c>
+      <c r="H65" s="74" t="n">
+        <v>0.014524</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="74" t="n">
+        <f aca="false">AVERAGE(B56:B65)</f>
+        <v>0.0168092</v>
+      </c>
+      <c r="C67" s="74" t="n">
+        <f aca="false">AVERAGE(C56:C65)</f>
+        <v>0.0154849</v>
+      </c>
+      <c r="D67" s="74" t="n">
+        <f aca="false">AVERAGE(D56:D65)</f>
+        <v>0.0145865</v>
+      </c>
+      <c r="E67" s="74" t="n">
+        <f aca="false">AVERAGE(E56:E65)</f>
+        <v>0.0147008</v>
+      </c>
+      <c r="F67" s="74" t="n">
+        <f aca="false">AVERAGE(F56:F65)</f>
+        <v>0.0185102</v>
+      </c>
+      <c r="G67" s="74" t="n">
+        <f aca="false">AVERAGE(G56:G65)</f>
+        <v>0.0265924</v>
+      </c>
+      <c r="H67" s="74" t="n">
+        <f aca="false">AVERAGE(H56:H65)</f>
+        <v>0.0150265</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A1:A3"/>
@@ -32845,5 +33844,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Model Results.xlsx
+++ b/Model Results.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="107">
   <si>
     <t xml:space="preserve">for finding prices 5 days (1 week) out:</t>
   </si>
@@ -347,6 +347,12 @@
   </si>
   <si>
     <t xml:space="preserve">XGBoost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epochs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuron</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1127,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1344,11 +1350,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="48689626"/>
-        <c:axId val="83384776"/>
+        <c:axId val="26040118"/>
+        <c:axId val="66009402"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="48689626"/>
+        <c:axId val="26040118"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1383,14 +1389,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83384776"/>
+        <c:crossAx val="66009402"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83384776"/>
+        <c:axId val="66009402"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1434,7 +1440,393 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48689626"/>
+        <c:crossAx val="26040118"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>train</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'LSTM Model Summary'!$B$74:$K$74</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'LSTM Model Summary'!$B$90:$K$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.060303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0519143333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0487313333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.061029</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0727306666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.074754</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0554596666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0829643333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.056543</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0558636666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'LSTM Model Summary'!$B$74:$K$74</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'LSTM Model Summary'!$B$114:$K$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0150163333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.014533</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.014581</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0157726666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0359723333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.015442</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.017229</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0317283333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0327083333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0204486666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="76693369"/>
+        <c:axId val="89486080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="76693369"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="89486080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="89486080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="76693369"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1498,6 +1890,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>462240</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>145080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>480600</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>51480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8251560" y="15837120"/>
+        <a:ext cx="5753160" cy="3240000"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -32892,10 +33314,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:Q117"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C55" activeCellId="0" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33824,6 +34246,1444 @@
         <v>0.0150265</v>
       </c>
     </row>
+    <row r="73" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="B74" s="74" t="n">
+        <v>50</v>
+      </c>
+      <c r="C74" s="74" t="n">
+        <v>100</v>
+      </c>
+      <c r="D74" s="74" t="n">
+        <v>150</v>
+      </c>
+      <c r="E74" s="74" t="n">
+        <v>200</v>
+      </c>
+      <c r="F74" s="74" t="n">
+        <v>250</v>
+      </c>
+      <c r="G74" s="74" t="n">
+        <v>300</v>
+      </c>
+      <c r="H74" s="74" t="n">
+        <v>350</v>
+      </c>
+      <c r="I74" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="J74" s="74" t="n">
+        <v>450</v>
+      </c>
+      <c r="K74" s="74" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B75" s="74" t="n">
+        <v>0.041825</v>
+      </c>
+      <c r="C75" s="74" t="n">
+        <v>0.066963</v>
+      </c>
+      <c r="D75" s="74" t="n">
+        <v>0.034672</v>
+      </c>
+      <c r="E75" s="74" t="n">
+        <v>0.060426</v>
+      </c>
+      <c r="F75" s="74" t="n">
+        <v>0.041484</v>
+      </c>
+      <c r="G75" s="74" t="n">
+        <v>0.128101</v>
+      </c>
+      <c r="H75" s="74" t="n">
+        <v>0.036792</v>
+      </c>
+      <c r="I75" s="74" t="n">
+        <v>0.106291</v>
+      </c>
+      <c r="J75" s="74" t="n">
+        <v>0.050515</v>
+      </c>
+      <c r="K75" s="74" t="n">
+        <v>0.07392</v>
+      </c>
+      <c r="L75" s="0"/>
+      <c r="M75" s="0"/>
+      <c r="N75" s="0"/>
+      <c r="O75" s="0"/>
+      <c r="P75" s="0"/>
+      <c r="Q75" s="0"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="74" t="n">
+        <v>0.060234</v>
+      </c>
+      <c r="C76" s="74" t="n">
+        <v>0.051417</v>
+      </c>
+      <c r="D76" s="74" t="n">
+        <v>0.046023</v>
+      </c>
+      <c r="E76" s="74" t="n">
+        <v>0.07014</v>
+      </c>
+      <c r="F76" s="74" t="n">
+        <v>0.070388</v>
+      </c>
+      <c r="G76" s="74" t="n">
+        <v>0.059395</v>
+      </c>
+      <c r="H76" s="74" t="n">
+        <v>0.073575</v>
+      </c>
+      <c r="I76" s="74" t="n">
+        <v>0.054523</v>
+      </c>
+      <c r="J76" s="74" t="n">
+        <v>0.083121</v>
+      </c>
+      <c r="K76" s="74" t="n">
+        <v>0.03039</v>
+      </c>
+      <c r="L76" s="0"/>
+      <c r="M76" s="0"/>
+      <c r="N76" s="0"/>
+      <c r="O76" s="0"/>
+      <c r="P76" s="0"/>
+      <c r="Q76" s="0"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="74" t="n">
+        <v>0.07885</v>
+      </c>
+      <c r="C77" s="74" t="n">
+        <v>0.037363</v>
+      </c>
+      <c r="D77" s="74" t="n">
+        <v>0.065499</v>
+      </c>
+      <c r="E77" s="74" t="n">
+        <v>0.052521</v>
+      </c>
+      <c r="F77" s="74" t="n">
+        <v>0.10632</v>
+      </c>
+      <c r="G77" s="74" t="n">
+        <v>0.036766</v>
+      </c>
+      <c r="H77" s="74" t="n">
+        <v>0.056012</v>
+      </c>
+      <c r="I77" s="74" t="n">
+        <v>0.088079</v>
+      </c>
+      <c r="J77" s="74" t="n">
+        <v>0.035993</v>
+      </c>
+      <c r="K77" s="74" t="n">
+        <v>0.063281</v>
+      </c>
+      <c r="L77" s="0"/>
+      <c r="M77" s="0"/>
+      <c r="N77" s="0"/>
+      <c r="O77" s="0"/>
+      <c r="P77" s="0"/>
+      <c r="Q77" s="0"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B78" s="74" t="n">
+        <v>0.041825</v>
+      </c>
+      <c r="C78" s="74" t="n">
+        <v>0.066963</v>
+      </c>
+      <c r="D78" s="74" t="n">
+        <v>0.034672</v>
+      </c>
+      <c r="E78" s="74" t="n">
+        <v>0.060426</v>
+      </c>
+      <c r="F78" s="74" t="n">
+        <v>0.041484</v>
+      </c>
+      <c r="G78" s="74" t="n">
+        <v>0.128101</v>
+      </c>
+      <c r="H78" s="74" t="n">
+        <v>0.036792</v>
+      </c>
+      <c r="I78" s="74" t="n">
+        <v>0.106291</v>
+      </c>
+      <c r="J78" s="74" t="n">
+        <v>0.050515</v>
+      </c>
+      <c r="K78" s="74" t="n">
+        <v>0.07392</v>
+      </c>
+      <c r="L78" s="0"/>
+      <c r="M78" s="0"/>
+      <c r="N78" s="0"/>
+      <c r="O78" s="0"/>
+      <c r="P78" s="0"/>
+      <c r="Q78" s="0"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="74" t="n">
+        <v>0.060234</v>
+      </c>
+      <c r="C79" s="74" t="n">
+        <v>0.051417</v>
+      </c>
+      <c r="D79" s="74" t="n">
+        <v>0.046023</v>
+      </c>
+      <c r="E79" s="74" t="n">
+        <v>0.07014</v>
+      </c>
+      <c r="F79" s="74" t="n">
+        <v>0.070388</v>
+      </c>
+      <c r="G79" s="74" t="n">
+        <v>0.059395</v>
+      </c>
+      <c r="H79" s="74" t="n">
+        <v>0.073575</v>
+      </c>
+      <c r="I79" s="74" t="n">
+        <v>0.054523</v>
+      </c>
+      <c r="J79" s="74" t="n">
+        <v>0.083121</v>
+      </c>
+      <c r="K79" s="74" t="n">
+        <v>0.03039</v>
+      </c>
+      <c r="L79" s="0"/>
+      <c r="M79" s="0"/>
+      <c r="N79" s="0"/>
+      <c r="O79" s="0"/>
+      <c r="P79" s="0"/>
+      <c r="Q79" s="0"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="74" t="n">
+        <v>0.07885</v>
+      </c>
+      <c r="C80" s="74" t="n">
+        <v>0.037363</v>
+      </c>
+      <c r="D80" s="74" t="n">
+        <v>0.065499</v>
+      </c>
+      <c r="E80" s="74" t="n">
+        <v>0.052521</v>
+      </c>
+      <c r="F80" s="74" t="n">
+        <v>0.10632</v>
+      </c>
+      <c r="G80" s="74" t="n">
+        <v>0.036766</v>
+      </c>
+      <c r="H80" s="74" t="n">
+        <v>0.056012</v>
+      </c>
+      <c r="I80" s="74" t="n">
+        <v>0.088079</v>
+      </c>
+      <c r="J80" s="74" t="n">
+        <v>0.035993</v>
+      </c>
+      <c r="K80" s="74" t="n">
+        <v>0.063281</v>
+      </c>
+      <c r="L80" s="0"/>
+      <c r="M80" s="0"/>
+      <c r="N80" s="0"/>
+      <c r="O80" s="0"/>
+      <c r="P80" s="0"/>
+      <c r="Q80" s="0"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="B81" s="74" t="n">
+        <v>0.041825</v>
+      </c>
+      <c r="C81" s="74" t="n">
+        <v>0.066963</v>
+      </c>
+      <c r="D81" s="74" t="n">
+        <v>0.034672</v>
+      </c>
+      <c r="E81" s="74" t="n">
+        <v>0.060426</v>
+      </c>
+      <c r="F81" s="74" t="n">
+        <v>0.041484</v>
+      </c>
+      <c r="G81" s="74" t="n">
+        <v>0.128101</v>
+      </c>
+      <c r="H81" s="74" t="n">
+        <v>0.036792</v>
+      </c>
+      <c r="I81" s="74" t="n">
+        <v>0.106291</v>
+      </c>
+      <c r="J81" s="74" t="n">
+        <v>0.050515</v>
+      </c>
+      <c r="K81" s="74" t="n">
+        <v>0.07392</v>
+      </c>
+      <c r="L81" s="0"/>
+      <c r="M81" s="0"/>
+      <c r="N81" s="0"/>
+      <c r="O81" s="0"/>
+      <c r="P81" s="0"/>
+      <c r="Q81" s="0"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="74" t="n">
+        <v>0.060234</v>
+      </c>
+      <c r="C82" s="74" t="n">
+        <v>0.051417</v>
+      </c>
+      <c r="D82" s="74" t="n">
+        <v>0.046023</v>
+      </c>
+      <c r="E82" s="74" t="n">
+        <v>0.07014</v>
+      </c>
+      <c r="F82" s="74" t="n">
+        <v>0.070388</v>
+      </c>
+      <c r="G82" s="74" t="n">
+        <v>0.059395</v>
+      </c>
+      <c r="H82" s="74" t="n">
+        <v>0.073575</v>
+      </c>
+      <c r="I82" s="74" t="n">
+        <v>0.054523</v>
+      </c>
+      <c r="J82" s="74" t="n">
+        <v>0.083121</v>
+      </c>
+      <c r="K82" s="74" t="n">
+        <v>0.03039</v>
+      </c>
+      <c r="L82" s="0"/>
+      <c r="M82" s="0"/>
+      <c r="N82" s="0"/>
+      <c r="O82" s="0"/>
+      <c r="P82" s="0"/>
+      <c r="Q82" s="0"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="74" t="n">
+        <v>0.07885</v>
+      </c>
+      <c r="C83" s="74" t="n">
+        <v>0.037363</v>
+      </c>
+      <c r="D83" s="74" t="n">
+        <v>0.065499</v>
+      </c>
+      <c r="E83" s="74" t="n">
+        <v>0.052521</v>
+      </c>
+      <c r="F83" s="74" t="n">
+        <v>0.10632</v>
+      </c>
+      <c r="G83" s="74" t="n">
+        <v>0.036766</v>
+      </c>
+      <c r="H83" s="74" t="n">
+        <v>0.056012</v>
+      </c>
+      <c r="I83" s="74" t="n">
+        <v>0.088079</v>
+      </c>
+      <c r="J83" s="74" t="n">
+        <v>0.035993</v>
+      </c>
+      <c r="K83" s="74" t="n">
+        <v>0.063281</v>
+      </c>
+      <c r="L83" s="0"/>
+      <c r="M83" s="0"/>
+      <c r="N83" s="0"/>
+      <c r="O83" s="0"/>
+      <c r="P83" s="0"/>
+      <c r="Q83" s="0"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="74" t="n">
+        <v>20</v>
+      </c>
+      <c r="B84" s="74" t="n">
+        <v>0.041825</v>
+      </c>
+      <c r="C84" s="74" t="n">
+        <v>0.066963</v>
+      </c>
+      <c r="D84" s="74" t="n">
+        <v>0.034672</v>
+      </c>
+      <c r="E84" s="74" t="n">
+        <v>0.060426</v>
+      </c>
+      <c r="F84" s="74" t="n">
+        <v>0.041484</v>
+      </c>
+      <c r="G84" s="74" t="n">
+        <v>0.128101</v>
+      </c>
+      <c r="H84" s="74" t="n">
+        <v>0.036792</v>
+      </c>
+      <c r="I84" s="74" t="n">
+        <v>0.106291</v>
+      </c>
+      <c r="J84" s="74" t="n">
+        <v>0.050515</v>
+      </c>
+      <c r="K84" s="74" t="n">
+        <v>0.07392</v>
+      </c>
+      <c r="L84" s="0"/>
+      <c r="M84" s="0"/>
+      <c r="N84" s="0"/>
+      <c r="O84" s="0"/>
+      <c r="P84" s="0"/>
+      <c r="Q84" s="0"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="74" t="n">
+        <v>0.060234</v>
+      </c>
+      <c r="C85" s="74" t="n">
+        <v>0.051417</v>
+      </c>
+      <c r="D85" s="74" t="n">
+        <v>0.046023</v>
+      </c>
+      <c r="E85" s="74" t="n">
+        <v>0.07014</v>
+      </c>
+      <c r="F85" s="74" t="n">
+        <v>0.070388</v>
+      </c>
+      <c r="G85" s="74" t="n">
+        <v>0.059395</v>
+      </c>
+      <c r="H85" s="74" t="n">
+        <v>0.073575</v>
+      </c>
+      <c r="I85" s="74" t="n">
+        <v>0.054523</v>
+      </c>
+      <c r="J85" s="74" t="n">
+        <v>0.083121</v>
+      </c>
+      <c r="K85" s="74" t="n">
+        <v>0.03039</v>
+      </c>
+      <c r="L85" s="0"/>
+      <c r="M85" s="0"/>
+      <c r="N85" s="0"/>
+      <c r="O85" s="0"/>
+      <c r="P85" s="0"/>
+      <c r="Q85" s="0"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="74" t="n">
+        <v>0.07885</v>
+      </c>
+      <c r="C86" s="74" t="n">
+        <v>0.037363</v>
+      </c>
+      <c r="D86" s="74" t="n">
+        <v>0.065499</v>
+      </c>
+      <c r="E86" s="74" t="n">
+        <v>0.052521</v>
+      </c>
+      <c r="F86" s="74" t="n">
+        <v>0.10632</v>
+      </c>
+      <c r="G86" s="74" t="n">
+        <v>0.036766</v>
+      </c>
+      <c r="H86" s="74" t="n">
+        <v>0.056012</v>
+      </c>
+      <c r="I86" s="74" t="n">
+        <v>0.088079</v>
+      </c>
+      <c r="J86" s="74" t="n">
+        <v>0.035993</v>
+      </c>
+      <c r="K86" s="74" t="n">
+        <v>0.063281</v>
+      </c>
+      <c r="L86" s="0"/>
+      <c r="M86" s="0"/>
+      <c r="N86" s="0"/>
+      <c r="O86" s="0"/>
+      <c r="P86" s="0"/>
+      <c r="Q86" s="0"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0"/>
+      <c r="B87" s="0"/>
+      <c r="C87" s="0"/>
+      <c r="D87" s="0"/>
+      <c r="E87" s="0"/>
+      <c r="F87" s="0"/>
+      <c r="G87" s="0"/>
+      <c r="H87" s="0"/>
+      <c r="I87" s="0"/>
+      <c r="J87" s="0"/>
+      <c r="L87" s="0"/>
+      <c r="M87" s="0"/>
+      <c r="N87" s="0"/>
+      <c r="O87" s="0"/>
+      <c r="P87" s="0"/>
+      <c r="Q87" s="0"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0"/>
+      <c r="B88" s="0"/>
+      <c r="C88" s="0"/>
+      <c r="D88" s="0"/>
+      <c r="E88" s="0"/>
+      <c r="F88" s="0"/>
+      <c r="G88" s="0"/>
+      <c r="H88" s="0"/>
+      <c r="I88" s="0"/>
+      <c r="J88" s="0"/>
+      <c r="L88" s="0"/>
+      <c r="M88" s="0"/>
+      <c r="N88" s="0"/>
+      <c r="O88" s="0"/>
+      <c r="P88" s="0"/>
+      <c r="Q88" s="0"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0"/>
+      <c r="B89" s="0"/>
+      <c r="C89" s="0"/>
+      <c r="D89" s="0"/>
+      <c r="E89" s="0"/>
+      <c r="F89" s="0"/>
+      <c r="G89" s="0"/>
+      <c r="H89" s="0"/>
+      <c r="I89" s="0"/>
+      <c r="J89" s="0"/>
+      <c r="L89" s="0"/>
+      <c r="M89" s="0"/>
+      <c r="N89" s="0"/>
+      <c r="O89" s="0"/>
+      <c r="P89" s="0"/>
+      <c r="Q89" s="0"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0"/>
+      <c r="B90" s="0" t="n">
+        <f aca="false">AVERAGE(B75:B77)</f>
+        <v>0.060303</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <f aca="false">AVERAGE(C75:C77)</f>
+        <v>0.0519143333333333</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <f aca="false">AVERAGE(D75:D77)</f>
+        <v>0.0487313333333333</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <f aca="false">AVERAGE(E75:E77)</f>
+        <v>0.061029</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <f aca="false">AVERAGE(F75:F77)</f>
+        <v>0.0727306666666667</v>
+      </c>
+      <c r="G90" s="0" t="n">
+        <f aca="false">AVERAGE(G75:G77)</f>
+        <v>0.074754</v>
+      </c>
+      <c r="H90" s="0" t="n">
+        <f aca="false">AVERAGE(H75:H77)</f>
+        <v>0.0554596666666667</v>
+      </c>
+      <c r="I90" s="0" t="n">
+        <f aca="false">AVERAGE(I75:I77)</f>
+        <v>0.0829643333333333</v>
+      </c>
+      <c r="J90" s="0" t="n">
+        <f aca="false">AVERAGE(J75:J77)</f>
+        <v>0.056543</v>
+      </c>
+      <c r="K90" s="0" t="n">
+        <f aca="false">AVERAGE(K75:K77)</f>
+        <v>0.0558636666666667</v>
+      </c>
+      <c r="L90" s="0"/>
+      <c r="M90" s="0"/>
+      <c r="N90" s="0"/>
+      <c r="O90" s="0"/>
+      <c r="P90" s="0"/>
+      <c r="Q90" s="0"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0"/>
+      <c r="B91" s="0" t="n">
+        <f aca="false">AVERAGE(B78:B80)</f>
+        <v>0.060303</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <f aca="false">AVERAGE(C78:C80)</f>
+        <v>0.0519143333333333</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <f aca="false">AVERAGE(D78:D80)</f>
+        <v>0.0487313333333333</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <f aca="false">AVERAGE(E78:E80)</f>
+        <v>0.061029</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <f aca="false">AVERAGE(F78:F80)</f>
+        <v>0.0727306666666667</v>
+      </c>
+      <c r="G91" s="0" t="n">
+        <f aca="false">AVERAGE(G78:G80)</f>
+        <v>0.074754</v>
+      </c>
+      <c r="H91" s="0" t="n">
+        <f aca="false">AVERAGE(H78:H80)</f>
+        <v>0.0554596666666667</v>
+      </c>
+      <c r="I91" s="0" t="n">
+        <f aca="false">AVERAGE(I78:I80)</f>
+        <v>0.0829643333333333</v>
+      </c>
+      <c r="J91" s="0" t="n">
+        <f aca="false">AVERAGE(J78:J80)</f>
+        <v>0.056543</v>
+      </c>
+      <c r="K91" s="0" t="n">
+        <f aca="false">AVERAGE(K78:K80)</f>
+        <v>0.0558636666666667</v>
+      </c>
+      <c r="L91" s="0"/>
+      <c r="M91" s="0"/>
+      <c r="N91" s="0"/>
+      <c r="O91" s="0"/>
+      <c r="P91" s="0"/>
+      <c r="Q91" s="0"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0"/>
+      <c r="B92" s="0" t="n">
+        <f aca="false">AVERAGE(B81:B83)</f>
+        <v>0.060303</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <f aca="false">AVERAGE(C81:C83)</f>
+        <v>0.0519143333333333</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <f aca="false">AVERAGE(D81:D83)</f>
+        <v>0.0487313333333333</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <f aca="false">AVERAGE(E81:E83)</f>
+        <v>0.061029</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <f aca="false">AVERAGE(F81:F83)</f>
+        <v>0.0727306666666667</v>
+      </c>
+      <c r="G92" s="0" t="n">
+        <f aca="false">AVERAGE(G81:G83)</f>
+        <v>0.074754</v>
+      </c>
+      <c r="H92" s="0" t="n">
+        <f aca="false">AVERAGE(H81:H83)</f>
+        <v>0.0554596666666667</v>
+      </c>
+      <c r="I92" s="0" t="n">
+        <f aca="false">AVERAGE(I81:I83)</f>
+        <v>0.0829643333333333</v>
+      </c>
+      <c r="J92" s="0" t="n">
+        <f aca="false">AVERAGE(J81:J83)</f>
+        <v>0.056543</v>
+      </c>
+      <c r="K92" s="0" t="n">
+        <f aca="false">AVERAGE(K81:K83)</f>
+        <v>0.0558636666666667</v>
+      </c>
+      <c r="L92" s="0"/>
+      <c r="M92" s="0"/>
+      <c r="N92" s="0"/>
+      <c r="O92" s="0"/>
+      <c r="P92" s="0"/>
+      <c r="Q92" s="0"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0"/>
+      <c r="B93" s="0" t="n">
+        <f aca="false">AVERAGE(B84:B86)</f>
+        <v>0.060303</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <f aca="false">AVERAGE(C84:C86)</f>
+        <v>0.0519143333333333</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <f aca="false">AVERAGE(D84:D86)</f>
+        <v>0.0487313333333333</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <f aca="false">AVERAGE(E84:E86)</f>
+        <v>0.061029</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <f aca="false">AVERAGE(F84:F86)</f>
+        <v>0.0727306666666667</v>
+      </c>
+      <c r="G93" s="0" t="n">
+        <f aca="false">AVERAGE(G84:G86)</f>
+        <v>0.074754</v>
+      </c>
+      <c r="H93" s="0" t="n">
+        <f aca="false">AVERAGE(H84:H86)</f>
+        <v>0.0554596666666667</v>
+      </c>
+      <c r="I93" s="0" t="n">
+        <f aca="false">AVERAGE(I84:I86)</f>
+        <v>0.0829643333333333</v>
+      </c>
+      <c r="J93" s="0" t="n">
+        <f aca="false">AVERAGE(J84:J86)</f>
+        <v>0.056543</v>
+      </c>
+      <c r="K93" s="0" t="n">
+        <f aca="false">AVERAGE(K84:K86)</f>
+        <v>0.0558636666666667</v>
+      </c>
+      <c r="L93" s="0"/>
+      <c r="M93" s="0"/>
+      <c r="N93" s="0"/>
+      <c r="O93" s="0"/>
+      <c r="P93" s="0"/>
+      <c r="Q93" s="0"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F94" s="0"/>
+      <c r="G94" s="0"/>
+      <c r="H94" s="0"/>
+      <c r="I94" s="0"/>
+      <c r="J94" s="0"/>
+      <c r="K94" s="0"/>
+      <c r="L94" s="0"/>
+      <c r="M94" s="0"/>
+      <c r="N94" s="0"/>
+      <c r="O94" s="0"/>
+      <c r="P94" s="0"/>
+      <c r="Q94" s="0"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F95" s="0"/>
+      <c r="G95" s="0"/>
+      <c r="H95" s="0"/>
+      <c r="I95" s="0"/>
+      <c r="J95" s="0"/>
+      <c r="K95" s="0"/>
+      <c r="L95" s="0"/>
+      <c r="M95" s="0"/>
+      <c r="N95" s="0"/>
+      <c r="O95" s="0"/>
+      <c r="P95" s="0"/>
+      <c r="Q95" s="0"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="B98" s="74" t="n">
+        <v>50</v>
+      </c>
+      <c r="C98" s="74" t="n">
+        <v>100</v>
+      </c>
+      <c r="D98" s="74" t="n">
+        <v>150</v>
+      </c>
+      <c r="E98" s="74" t="n">
+        <v>200</v>
+      </c>
+      <c r="F98" s="74" t="n">
+        <v>250</v>
+      </c>
+      <c r="G98" s="74" t="n">
+        <v>300</v>
+      </c>
+      <c r="H98" s="74" t="n">
+        <v>350</v>
+      </c>
+      <c r="I98" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="J98" s="74" t="n">
+        <v>450</v>
+      </c>
+      <c r="K98" s="74" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B99" s="74" t="n">
+        <v>0.01454</v>
+      </c>
+      <c r="C99" s="74" t="n">
+        <v>0.014449</v>
+      </c>
+      <c r="D99" s="74" t="n">
+        <v>0.014696</v>
+      </c>
+      <c r="E99" s="74" t="n">
+        <v>0.016965</v>
+      </c>
+      <c r="F99" s="74" t="n">
+        <v>0.074963</v>
+      </c>
+      <c r="G99" s="74" t="n">
+        <v>0.016488</v>
+      </c>
+      <c r="H99" s="74" t="n">
+        <v>0.014524</v>
+      </c>
+      <c r="I99" s="74" t="n">
+        <v>0.065197</v>
+      </c>
+      <c r="J99" s="74" t="n">
+        <v>0.014612</v>
+      </c>
+      <c r="K99" s="74" t="n">
+        <v>0.030353</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="74" t="n">
+        <v>0.015427</v>
+      </c>
+      <c r="C100" s="74" t="n">
+        <v>0.014667</v>
+      </c>
+      <c r="D100" s="74" t="n">
+        <v>0.014655</v>
+      </c>
+      <c r="E100" s="74" t="n">
+        <v>0.015793</v>
+      </c>
+      <c r="F100" s="74" t="n">
+        <v>0.014604</v>
+      </c>
+      <c r="G100" s="74" t="n">
+        <v>0.015309</v>
+      </c>
+      <c r="H100" s="74" t="n">
+        <v>0.022296</v>
+      </c>
+      <c r="I100" s="74" t="n">
+        <v>0.014665</v>
+      </c>
+      <c r="J100" s="74" t="n">
+        <v>0.068903</v>
+      </c>
+      <c r="K100" s="74" t="n">
+        <v>0.014517</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="74" t="n">
+        <v>0.015082</v>
+      </c>
+      <c r="C101" s="74" t="n">
+        <v>0.014483</v>
+      </c>
+      <c r="D101" s="74" t="n">
+        <v>0.014392</v>
+      </c>
+      <c r="E101" s="74" t="n">
+        <v>0.01456</v>
+      </c>
+      <c r="F101" s="74" t="n">
+        <v>0.01835</v>
+      </c>
+      <c r="G101" s="74" t="n">
+        <v>0.014529</v>
+      </c>
+      <c r="H101" s="74" t="n">
+        <v>0.014867</v>
+      </c>
+      <c r="I101" s="74" t="n">
+        <v>0.015323</v>
+      </c>
+      <c r="J101" s="74" t="n">
+        <v>0.01461</v>
+      </c>
+      <c r="K101" s="74" t="n">
+        <v>0.016476</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B102" s="74" t="n">
+        <v>0.01454</v>
+      </c>
+      <c r="C102" s="74" t="n">
+        <v>0.014449</v>
+      </c>
+      <c r="D102" s="74" t="n">
+        <v>0.014696</v>
+      </c>
+      <c r="E102" s="74" t="n">
+        <v>0.016965</v>
+      </c>
+      <c r="F102" s="74" t="n">
+        <v>0.074963</v>
+      </c>
+      <c r="G102" s="74" t="n">
+        <v>0.016488</v>
+      </c>
+      <c r="H102" s="74" t="n">
+        <v>0.014524</v>
+      </c>
+      <c r="I102" s="74" t="n">
+        <v>0.065197</v>
+      </c>
+      <c r="J102" s="74" t="n">
+        <v>0.014612</v>
+      </c>
+      <c r="K102" s="74" t="n">
+        <v>0.030353</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="74" t="n">
+        <v>0.015427</v>
+      </c>
+      <c r="C103" s="74" t="n">
+        <v>0.014667</v>
+      </c>
+      <c r="D103" s="74" t="n">
+        <v>0.014655</v>
+      </c>
+      <c r="E103" s="74" t="n">
+        <v>0.015793</v>
+      </c>
+      <c r="F103" s="74" t="n">
+        <v>0.014604</v>
+      </c>
+      <c r="G103" s="74" t="n">
+        <v>0.015309</v>
+      </c>
+      <c r="H103" s="74" t="n">
+        <v>0.022296</v>
+      </c>
+      <c r="I103" s="74" t="n">
+        <v>0.014665</v>
+      </c>
+      <c r="J103" s="74" t="n">
+        <v>0.068903</v>
+      </c>
+      <c r="K103" s="74" t="n">
+        <v>0.014517</v>
+      </c>
+      <c r="L103" s="0"/>
+      <c r="M103" s="0"/>
+      <c r="N103" s="0"/>
+      <c r="O103" s="0"/>
+      <c r="P103" s="0"/>
+      <c r="Q103" s="0"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="74" t="n">
+        <v>0.015082</v>
+      </c>
+      <c r="C104" s="74" t="n">
+        <v>0.014483</v>
+      </c>
+      <c r="D104" s="74" t="n">
+        <v>0.014392</v>
+      </c>
+      <c r="E104" s="74" t="n">
+        <v>0.01456</v>
+      </c>
+      <c r="F104" s="74" t="n">
+        <v>0.01835</v>
+      </c>
+      <c r="G104" s="74" t="n">
+        <v>0.014529</v>
+      </c>
+      <c r="H104" s="74" t="n">
+        <v>0.014867</v>
+      </c>
+      <c r="I104" s="74" t="n">
+        <v>0.015323</v>
+      </c>
+      <c r="J104" s="74" t="n">
+        <v>0.01461</v>
+      </c>
+      <c r="K104" s="74" t="n">
+        <v>0.016476</v>
+      </c>
+      <c r="L104" s="0"/>
+      <c r="M104" s="0"/>
+      <c r="N104" s="0"/>
+      <c r="O104" s="0"/>
+      <c r="P104" s="0"/>
+      <c r="Q104" s="0"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="B105" s="74" t="n">
+        <v>0.01454</v>
+      </c>
+      <c r="C105" s="74" t="n">
+        <v>0.014449</v>
+      </c>
+      <c r="D105" s="74" t="n">
+        <v>0.014696</v>
+      </c>
+      <c r="E105" s="74" t="n">
+        <v>0.016965</v>
+      </c>
+      <c r="F105" s="74" t="n">
+        <v>0.074963</v>
+      </c>
+      <c r="G105" s="74" t="n">
+        <v>0.016488</v>
+      </c>
+      <c r="H105" s="74" t="n">
+        <v>0.014524</v>
+      </c>
+      <c r="I105" s="74" t="n">
+        <v>0.065197</v>
+      </c>
+      <c r="J105" s="74" t="n">
+        <v>0.014612</v>
+      </c>
+      <c r="K105" s="74" t="n">
+        <v>0.030353</v>
+      </c>
+      <c r="L105" s="0"/>
+      <c r="M105" s="0"/>
+      <c r="N105" s="0"/>
+      <c r="O105" s="0"/>
+      <c r="P105" s="0"/>
+      <c r="Q105" s="0"/>
+    </row>
+    <row r="106" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="74" t="n">
+        <v>0.015427</v>
+      </c>
+      <c r="C106" s="74" t="n">
+        <v>0.014667</v>
+      </c>
+      <c r="D106" s="74" t="n">
+        <v>0.014655</v>
+      </c>
+      <c r="E106" s="74" t="n">
+        <v>0.015793</v>
+      </c>
+      <c r="F106" s="74" t="n">
+        <v>0.014604</v>
+      </c>
+      <c r="G106" s="74" t="n">
+        <v>0.015309</v>
+      </c>
+      <c r="H106" s="74" t="n">
+        <v>0.022296</v>
+      </c>
+      <c r="I106" s="74" t="n">
+        <v>0.014665</v>
+      </c>
+      <c r="J106" s="74" t="n">
+        <v>0.068903</v>
+      </c>
+      <c r="K106" s="74" t="n">
+        <v>0.014517</v>
+      </c>
+      <c r="L106" s="0"/>
+      <c r="M106" s="0"/>
+      <c r="N106" s="0"/>
+      <c r="O106" s="0"/>
+      <c r="P106" s="0"/>
+      <c r="Q106" s="0"/>
+    </row>
+    <row r="107" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="74" t="n">
+        <v>0.015082</v>
+      </c>
+      <c r="C107" s="74" t="n">
+        <v>0.014483</v>
+      </c>
+      <c r="D107" s="74" t="n">
+        <v>0.014392</v>
+      </c>
+      <c r="E107" s="74" t="n">
+        <v>0.01456</v>
+      </c>
+      <c r="F107" s="74" t="n">
+        <v>0.01835</v>
+      </c>
+      <c r="G107" s="74" t="n">
+        <v>0.014529</v>
+      </c>
+      <c r="H107" s="74" t="n">
+        <v>0.014867</v>
+      </c>
+      <c r="I107" s="74" t="n">
+        <v>0.015323</v>
+      </c>
+      <c r="J107" s="74" t="n">
+        <v>0.01461</v>
+      </c>
+      <c r="K107" s="74" t="n">
+        <v>0.016476</v>
+      </c>
+      <c r="L107" s="0"/>
+      <c r="M107" s="0"/>
+      <c r="N107" s="0"/>
+      <c r="O107" s="0"/>
+      <c r="P107" s="0"/>
+      <c r="Q107" s="0"/>
+    </row>
+    <row r="108" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="74" t="n">
+        <v>20</v>
+      </c>
+      <c r="B108" s="74" t="n">
+        <v>0.01454</v>
+      </c>
+      <c r="C108" s="74" t="n">
+        <v>0.014449</v>
+      </c>
+      <c r="D108" s="74" t="n">
+        <v>0.014696</v>
+      </c>
+      <c r="E108" s="74" t="n">
+        <v>0.016965</v>
+      </c>
+      <c r="F108" s="74" t="n">
+        <v>0.074963</v>
+      </c>
+      <c r="G108" s="74" t="n">
+        <v>0.016488</v>
+      </c>
+      <c r="H108" s="74" t="n">
+        <v>0.014524</v>
+      </c>
+      <c r="I108" s="74" t="n">
+        <v>0.065197</v>
+      </c>
+      <c r="J108" s="74" t="n">
+        <v>0.014612</v>
+      </c>
+      <c r="K108" s="74" t="n">
+        <v>0.030353</v>
+      </c>
+      <c r="L108" s="0"/>
+      <c r="M108" s="0"/>
+      <c r="N108" s="0"/>
+      <c r="O108" s="0"/>
+      <c r="P108" s="0"/>
+      <c r="Q108" s="0"/>
+    </row>
+    <row r="109" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="74" t="n">
+        <v>0.015427</v>
+      </c>
+      <c r="C109" s="74" t="n">
+        <v>0.014667</v>
+      </c>
+      <c r="D109" s="74" t="n">
+        <v>0.014655</v>
+      </c>
+      <c r="E109" s="74" t="n">
+        <v>0.015793</v>
+      </c>
+      <c r="F109" s="74" t="n">
+        <v>0.014604</v>
+      </c>
+      <c r="G109" s="74" t="n">
+        <v>0.015309</v>
+      </c>
+      <c r="H109" s="74" t="n">
+        <v>0.022296</v>
+      </c>
+      <c r="I109" s="74" t="n">
+        <v>0.014665</v>
+      </c>
+      <c r="J109" s="74" t="n">
+        <v>0.068903</v>
+      </c>
+      <c r="K109" s="74" t="n">
+        <v>0.014517</v>
+      </c>
+      <c r="L109" s="0"/>
+      <c r="M109" s="0"/>
+      <c r="N109" s="0"/>
+      <c r="O109" s="0"/>
+      <c r="P109" s="0"/>
+      <c r="Q109" s="0"/>
+    </row>
+    <row r="110" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="74" t="n">
+        <v>0.015082</v>
+      </c>
+      <c r="C110" s="74" t="n">
+        <v>0.014483</v>
+      </c>
+      <c r="D110" s="74" t="n">
+        <v>0.014392</v>
+      </c>
+      <c r="E110" s="74" t="n">
+        <v>0.01456</v>
+      </c>
+      <c r="F110" s="74" t="n">
+        <v>0.01835</v>
+      </c>
+      <c r="G110" s="74" t="n">
+        <v>0.014529</v>
+      </c>
+      <c r="H110" s="74" t="n">
+        <v>0.014867</v>
+      </c>
+      <c r="I110" s="74" t="n">
+        <v>0.015323</v>
+      </c>
+      <c r="J110" s="74" t="n">
+        <v>0.01461</v>
+      </c>
+      <c r="K110" s="74" t="n">
+        <v>0.016476</v>
+      </c>
+      <c r="L110" s="0"/>
+      <c r="M110" s="0"/>
+      <c r="N110" s="0"/>
+      <c r="O110" s="0"/>
+      <c r="P110" s="0"/>
+      <c r="Q110" s="0"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="0" t="n">
+        <f aca="false">AVERAGE(B99:B101)</f>
+        <v>0.0150163333333333</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <f aca="false">AVERAGE(C99:C101)</f>
+        <v>0.014533</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <f aca="false">AVERAGE(D99:D101)</f>
+        <v>0.014581</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <f aca="false">AVERAGE(E99:E101)</f>
+        <v>0.0157726666666667</v>
+      </c>
+      <c r="F114" s="0" t="n">
+        <f aca="false">AVERAGE(F99:F101)</f>
+        <v>0.0359723333333333</v>
+      </c>
+      <c r="G114" s="0" t="n">
+        <f aca="false">AVERAGE(G99:G101)</f>
+        <v>0.015442</v>
+      </c>
+      <c r="H114" s="0" t="n">
+        <f aca="false">AVERAGE(H99:H101)</f>
+        <v>0.017229</v>
+      </c>
+      <c r="I114" s="0" t="n">
+        <f aca="false">AVERAGE(I99:I101)</f>
+        <v>0.0317283333333333</v>
+      </c>
+      <c r="J114" s="0" t="n">
+        <f aca="false">AVERAGE(J99:J101)</f>
+        <v>0.0327083333333333</v>
+      </c>
+      <c r="K114" s="0" t="n">
+        <f aca="false">AVERAGE(K99:K101)</f>
+        <v>0.0204486666666667</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="0" t="n">
+        <f aca="false">AVERAGE(B102:B104)</f>
+        <v>0.0150163333333333</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <f aca="false">AVERAGE(C102:C104)</f>
+        <v>0.014533</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <f aca="false">AVERAGE(D102:D104)</f>
+        <v>0.014581</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <f aca="false">AVERAGE(E102:E104)</f>
+        <v>0.0157726666666667</v>
+      </c>
+      <c r="F115" s="0" t="n">
+        <f aca="false">AVERAGE(F102:F104)</f>
+        <v>0.0359723333333333</v>
+      </c>
+      <c r="G115" s="0" t="n">
+        <f aca="false">AVERAGE(G102:G104)</f>
+        <v>0.015442</v>
+      </c>
+      <c r="H115" s="0" t="n">
+        <f aca="false">AVERAGE(H102:H104)</f>
+        <v>0.017229</v>
+      </c>
+      <c r="I115" s="0" t="n">
+        <f aca="false">AVERAGE(I102:I104)</f>
+        <v>0.0317283333333333</v>
+      </c>
+      <c r="J115" s="0" t="n">
+        <f aca="false">AVERAGE(J102:J104)</f>
+        <v>0.0327083333333333</v>
+      </c>
+      <c r="K115" s="0" t="n">
+        <f aca="false">AVERAGE(K102:K104)</f>
+        <v>0.0204486666666667</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="0" t="n">
+        <f aca="false">AVERAGE(B105:B107)</f>
+        <v>0.0150163333333333</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <f aca="false">AVERAGE(C105:C107)</f>
+        <v>0.014533</v>
+      </c>
+      <c r="D116" s="0" t="n">
+        <f aca="false">AVERAGE(D105:D107)</f>
+        <v>0.014581</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <f aca="false">AVERAGE(E105:E107)</f>
+        <v>0.0157726666666667</v>
+      </c>
+      <c r="F116" s="0" t="n">
+        <f aca="false">AVERAGE(F105:F107)</f>
+        <v>0.0359723333333333</v>
+      </c>
+      <c r="G116" s="0" t="n">
+        <f aca="false">AVERAGE(G105:G107)</f>
+        <v>0.015442</v>
+      </c>
+      <c r="H116" s="0" t="n">
+        <f aca="false">AVERAGE(H105:H107)</f>
+        <v>0.017229</v>
+      </c>
+      <c r="I116" s="0" t="n">
+        <f aca="false">AVERAGE(I105:I107)</f>
+        <v>0.0317283333333333</v>
+      </c>
+      <c r="J116" s="0" t="n">
+        <f aca="false">AVERAGE(J105:J107)</f>
+        <v>0.0327083333333333</v>
+      </c>
+      <c r="K116" s="0" t="n">
+        <f aca="false">AVERAGE(K105:K107)</f>
+        <v>0.0204486666666667</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="0" t="n">
+        <f aca="false">AVERAGE(B108:B110)</f>
+        <v>0.0150163333333333</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <f aca="false">AVERAGE(C108:C110)</f>
+        <v>0.014533</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <f aca="false">AVERAGE(D108:D110)</f>
+        <v>0.014581</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <f aca="false">AVERAGE(E108:E110)</f>
+        <v>0.0157726666666667</v>
+      </c>
+      <c r="F117" s="0" t="n">
+        <f aca="false">AVERAGE(F108:F110)</f>
+        <v>0.0359723333333333</v>
+      </c>
+      <c r="G117" s="0" t="n">
+        <f aca="false">AVERAGE(G108:G110)</f>
+        <v>0.015442</v>
+      </c>
+      <c r="H117" s="0" t="n">
+        <f aca="false">AVERAGE(H108:H110)</f>
+        <v>0.017229</v>
+      </c>
+      <c r="I117" s="0" t="n">
+        <f aca="false">AVERAGE(I108:I110)</f>
+        <v>0.0317283333333333</v>
+      </c>
+      <c r="J117" s="0" t="n">
+        <f aca="false">AVERAGE(J108:J110)</f>
+        <v>0.0327083333333333</v>
+      </c>
+      <c r="K117" s="0" t="n">
+        <f aca="false">AVERAGE(K108:K110)</f>
+        <v>0.0204486666666667</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A1:A3"/>

--- a/Model Results.xlsx
+++ b/Model Results.xlsx
@@ -1127,7 +1127,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1350,11 +1350,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="26040118"/>
-        <c:axId val="66009402"/>
+        <c:axId val="48706031"/>
+        <c:axId val="52946531"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="26040118"/>
+        <c:axId val="48706031"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1389,14 +1389,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66009402"/>
+        <c:crossAx val="52946531"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66009402"/>
+        <c:axId val="52946531"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1440,7 +1440,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26040118"/>
+        <c:crossAx val="48706031"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1477,7 +1477,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1736,11 +1736,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="76693369"/>
-        <c:axId val="89486080"/>
+        <c:axId val="64482331"/>
+        <c:axId val="56333786"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76693369"/>
+        <c:axId val="64482331"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1775,14 +1775,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89486080"/>
+        <c:crossAx val="56333786"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89486080"/>
+        <c:axId val="56333786"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1826,7 +1826,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76693369"/>
+        <c:crossAx val="64482331"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -33317,7 +33317,7 @@
   <dimension ref="A1:Q117"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C55" activeCellId="0" sqref="C55"/>
+      <selection pane="topLeft" activeCell="O42" activeCellId="0" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Model Results.xlsx
+++ b/Model Results.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="121">
   <si>
     <t xml:space="preserve">for finding prices 5 days (1 week) out:</t>
   </si>
@@ -353,6 +353,48 @@
   </si>
   <si>
     <t xml:space="preserve">neuron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-150-100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na</t>
+  </si>
+  <si>
+    <t xml:space="preserve">me: 150, dt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ype: float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150-100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150-500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-150-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-150-500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150-50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150-250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-150-250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-150-50</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1169,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1350,11 +1392,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="48706031"/>
-        <c:axId val="52946531"/>
+        <c:axId val="64610594"/>
+        <c:axId val="60325443"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="48706031"/>
+        <c:axId val="64610594"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1389,14 +1431,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52946531"/>
+        <c:crossAx val="60325443"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52946531"/>
+        <c:axId val="60325443"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1440,7 +1482,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48706031"/>
+        <c:crossAx val="64610594"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1477,7 +1519,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1736,11 +1778,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="64482331"/>
-        <c:axId val="56333786"/>
+        <c:axId val="94589059"/>
+        <c:axId val="78047122"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64482331"/>
+        <c:axId val="94589059"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1775,14 +1817,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56333786"/>
+        <c:crossAx val="78047122"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56333786"/>
+        <c:axId val="78047122"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1826,7 +1868,242 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64482331"/>
+        <c:crossAx val="94589059"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>train</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'LSTM Model Summary'!$C$123:$G$123</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'LSTM Model Summary'!$C$133:$G$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0356666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0356666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0356666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0356666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0356666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="40697322"/>
+        <c:axId val="56849403"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="40697322"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="56849403"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="56849403"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="40697322"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1920,6 +2197,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>36360</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>9000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6120</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>60840</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="782280" y="16871760"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -33314,10 +33621,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q117"/>
+  <dimension ref="A1:Q187"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O42" activeCellId="0" sqref="O42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A116" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A136" activeCellId="0" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35684,6 +35991,886 @@
         <v>0.0204486666666667</v>
       </c>
     </row>
+    <row r="122" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C122" s="74" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="C123" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="D123" s="74" t="n">
+        <v>50</v>
+      </c>
+      <c r="E123" s="74" t="n">
+        <v>100</v>
+      </c>
+      <c r="F123" s="74" t="n">
+        <v>250</v>
+      </c>
+      <c r="G123" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="H123" s="0"/>
+      <c r="I123" s="0"/>
+      <c r="J123" s="0"/>
+      <c r="K123" s="0"/>
+      <c r="L123" s="0"/>
+    </row>
+    <row r="124" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C124" s="74" t="n">
+        <v>0.04253</v>
+      </c>
+      <c r="D124" s="74" t="n">
+        <v>0.04253</v>
+      </c>
+      <c r="E124" s="74" t="n">
+        <v>0.04253</v>
+      </c>
+      <c r="F124" s="74" t="n">
+        <v>0.04253</v>
+      </c>
+      <c r="G124" s="74" t="n">
+        <v>0.04253</v>
+      </c>
+      <c r="H124" s="0"/>
+      <c r="I124" s="0"/>
+      <c r="J124" s="0"/>
+      <c r="K124" s="0"/>
+      <c r="L124" s="0"/>
+    </row>
+    <row r="125" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C125" s="74" t="n">
+        <v>0.036234</v>
+      </c>
+      <c r="D125" s="74" t="n">
+        <v>0.036234</v>
+      </c>
+      <c r="E125" s="74" t="n">
+        <v>0.036234</v>
+      </c>
+      <c r="F125" s="74" t="n">
+        <v>0.036234</v>
+      </c>
+      <c r="G125" s="74" t="n">
+        <v>0.036234</v>
+      </c>
+      <c r="H125" s="0"/>
+      <c r="I125" s="0"/>
+      <c r="J125" s="0"/>
+      <c r="K125" s="0"/>
+      <c r="L125" s="0"/>
+    </row>
+    <row r="126" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C126" s="74" t="n">
+        <v>0.028236</v>
+      </c>
+      <c r="D126" s="74" t="n">
+        <v>0.028236</v>
+      </c>
+      <c r="E126" s="74" t="n">
+        <v>0.028236</v>
+      </c>
+      <c r="F126" s="74" t="n">
+        <v>0.028236</v>
+      </c>
+      <c r="G126" s="74" t="n">
+        <v>0.028236</v>
+      </c>
+      <c r="H126" s="0"/>
+      <c r="I126" s="0"/>
+      <c r="J126" s="0"/>
+      <c r="K126" s="0"/>
+      <c r="L126" s="0"/>
+    </row>
+    <row r="127" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="C127" s="74" t="n">
+        <v>0.04253</v>
+      </c>
+      <c r="D127" s="74" t="n">
+        <v>0.04253</v>
+      </c>
+      <c r="E127" s="74" t="n">
+        <v>0.04253</v>
+      </c>
+      <c r="F127" s="74" t="n">
+        <v>0.04253</v>
+      </c>
+      <c r="G127" s="74" t="n">
+        <v>0.04253</v>
+      </c>
+      <c r="H127" s="0"/>
+      <c r="I127" s="0"/>
+      <c r="J127" s="0"/>
+      <c r="K127" s="0"/>
+      <c r="L127" s="0"/>
+    </row>
+    <row r="128" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C128" s="74" t="n">
+        <v>0.036234</v>
+      </c>
+      <c r="D128" s="74" t="n">
+        <v>0.036234</v>
+      </c>
+      <c r="E128" s="74" t="n">
+        <v>0.036234</v>
+      </c>
+      <c r="F128" s="74" t="n">
+        <v>0.036234</v>
+      </c>
+      <c r="G128" s="74" t="n">
+        <v>0.036234</v>
+      </c>
+      <c r="H128" s="0"/>
+      <c r="I128" s="0"/>
+      <c r="J128" s="0"/>
+      <c r="K128" s="0"/>
+      <c r="L128" s="0"/>
+    </row>
+    <row r="129" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C129" s="74" t="n">
+        <v>0.028236</v>
+      </c>
+      <c r="D129" s="74" t="n">
+        <v>0.028236</v>
+      </c>
+      <c r="E129" s="74" t="n">
+        <v>0.028236</v>
+      </c>
+      <c r="F129" s="74" t="n">
+        <v>0.028236</v>
+      </c>
+      <c r="G129" s="74" t="n">
+        <v>0.028236</v>
+      </c>
+      <c r="H129" s="0"/>
+      <c r="I129" s="0"/>
+      <c r="J129" s="0"/>
+      <c r="K129" s="0"/>
+      <c r="L129" s="0"/>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H130" s="0"/>
+      <c r="I130" s="0"/>
+      <c r="J130" s="0"/>
+      <c r="K130" s="0"/>
+      <c r="L130" s="0"/>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H131" s="0"/>
+      <c r="I131" s="0"/>
+      <c r="J131" s="0"/>
+      <c r="K131" s="0"/>
+      <c r="L131" s="0"/>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H132" s="0"/>
+      <c r="I132" s="0"/>
+      <c r="J132" s="0"/>
+      <c r="K132" s="0"/>
+      <c r="L132" s="0"/>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C133" s="0" t="n">
+        <f aca="false">AVERAGE(C124:C126)</f>
+        <v>0.0356666666666667</v>
+      </c>
+      <c r="D133" s="0" t="n">
+        <f aca="false">AVERAGE(D124:D126)</f>
+        <v>0.0356666666666667</v>
+      </c>
+      <c r="E133" s="0" t="n">
+        <f aca="false">AVERAGE(E124:E126)</f>
+        <v>0.0356666666666667</v>
+      </c>
+      <c r="F133" s="0" t="n">
+        <f aca="false">AVERAGE(F124:F126)</f>
+        <v>0.0356666666666667</v>
+      </c>
+      <c r="G133" s="0" t="n">
+        <f aca="false">AVERAGE(G124:G126)</f>
+        <v>0.0356666666666667</v>
+      </c>
+      <c r="H133" s="0"/>
+      <c r="I133" s="0"/>
+      <c r="J133" s="0"/>
+      <c r="K133" s="0"/>
+      <c r="L133" s="0"/>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C134" s="0" t="n">
+        <f aca="false">AVERAGE(C127:C129)</f>
+        <v>0.0356666666666667</v>
+      </c>
+      <c r="D134" s="0" t="n">
+        <f aca="false">AVERAGE(D127:D129)</f>
+        <v>0.0356666666666667</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <f aca="false">AVERAGE(E127:E129)</f>
+        <v>0.0356666666666667</v>
+      </c>
+      <c r="F134" s="0" t="n">
+        <f aca="false">AVERAGE(F127:F129)</f>
+        <v>0.0356666666666667</v>
+      </c>
+      <c r="G134" s="0" t="n">
+        <f aca="false">AVERAGE(G127:G129)</f>
+        <v>0.0356666666666667</v>
+      </c>
+      <c r="H134" s="0"/>
+      <c r="I134" s="0"/>
+      <c r="J134" s="0"/>
+      <c r="K134" s="0"/>
+      <c r="L134" s="0"/>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H135" s="0"/>
+      <c r="I135" s="0"/>
+      <c r="J135" s="0"/>
+      <c r="K135" s="0"/>
+      <c r="L135" s="0"/>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H136" s="0"/>
+      <c r="I136" s="0"/>
+      <c r="J136" s="0"/>
+      <c r="K136" s="0"/>
+      <c r="L136" s="0"/>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H137" s="0"/>
+      <c r="I137" s="0"/>
+      <c r="J137" s="0"/>
+      <c r="K137" s="0"/>
+      <c r="L137" s="0"/>
+    </row>
+    <row r="138" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C138" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="H138" s="0"/>
+      <c r="I138" s="0"/>
+      <c r="J138" s="0"/>
+      <c r="K138" s="0"/>
+      <c r="L138" s="0"/>
+    </row>
+    <row r="139" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="C139" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="D139" s="74" t="n">
+        <v>50</v>
+      </c>
+      <c r="E139" s="74" t="n">
+        <v>100</v>
+      </c>
+      <c r="F139" s="74" t="n">
+        <v>250</v>
+      </c>
+      <c r="G139" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="H139" s="0"/>
+      <c r="I139" s="0"/>
+      <c r="J139" s="0"/>
+      <c r="K139" s="0"/>
+      <c r="L139" s="0"/>
+    </row>
+    <row r="140" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C140" s="74" t="n">
+        <v>0.014728</v>
+      </c>
+      <c r="D140" s="74" t="n">
+        <v>0.014728</v>
+      </c>
+      <c r="E140" s="74" t="n">
+        <v>0.014728</v>
+      </c>
+      <c r="F140" s="74" t="n">
+        <v>0.014728</v>
+      </c>
+      <c r="G140" s="74" t="n">
+        <v>0.014728</v>
+      </c>
+      <c r="H140" s="0"/>
+      <c r="I140" s="0"/>
+      <c r="J140" s="0"/>
+      <c r="K140" s="0"/>
+      <c r="L140" s="0"/>
+    </row>
+    <row r="141" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C141" s="74" t="n">
+        <v>0.014417</v>
+      </c>
+      <c r="D141" s="74" t="n">
+        <v>0.014417</v>
+      </c>
+      <c r="E141" s="74" t="n">
+        <v>0.014417</v>
+      </c>
+      <c r="F141" s="74" t="n">
+        <v>0.014417</v>
+      </c>
+      <c r="G141" s="74" t="n">
+        <v>0.014417</v>
+      </c>
+      <c r="H141" s="0"/>
+      <c r="I141" s="0"/>
+      <c r="J141" s="0"/>
+      <c r="K141" s="0"/>
+      <c r="L141" s="0"/>
+    </row>
+    <row r="142" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C142" s="74" t="n">
+        <v>0.014683</v>
+      </c>
+      <c r="D142" s="74" t="n">
+        <v>0.014683</v>
+      </c>
+      <c r="E142" s="74" t="n">
+        <v>0.014683</v>
+      </c>
+      <c r="F142" s="74" t="n">
+        <v>0.014683</v>
+      </c>
+      <c r="G142" s="74" t="n">
+        <v>0.014683</v>
+      </c>
+      <c r="H142" s="0"/>
+      <c r="I142" s="0"/>
+      <c r="J142" s="0"/>
+      <c r="K142" s="0"/>
+      <c r="L142" s="0"/>
+    </row>
+    <row r="143" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="C143" s="74" t="n">
+        <v>0.014728</v>
+      </c>
+      <c r="D143" s="74" t="n">
+        <v>0.014728</v>
+      </c>
+      <c r="E143" s="74" t="n">
+        <v>0.014728</v>
+      </c>
+      <c r="F143" s="74" t="n">
+        <v>0.014728</v>
+      </c>
+      <c r="G143" s="74" t="n">
+        <v>0.014728</v>
+      </c>
+      <c r="H143" s="0"/>
+      <c r="I143" s="0"/>
+      <c r="J143" s="0"/>
+      <c r="K143" s="0"/>
+      <c r="L143" s="0"/>
+    </row>
+    <row r="144" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C144" s="74" t="n">
+        <v>0.014417</v>
+      </c>
+      <c r="D144" s="74" t="n">
+        <v>0.014417</v>
+      </c>
+      <c r="E144" s="74" t="n">
+        <v>0.014417</v>
+      </c>
+      <c r="F144" s="74" t="n">
+        <v>0.014417</v>
+      </c>
+      <c r="G144" s="74" t="n">
+        <v>0.014417</v>
+      </c>
+      <c r="H144" s="0"/>
+      <c r="I144" s="0"/>
+      <c r="J144" s="0"/>
+      <c r="K144" s="0"/>
+      <c r="L144" s="0"/>
+    </row>
+    <row r="145" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C145" s="74" t="n">
+        <v>0.014683</v>
+      </c>
+      <c r="D145" s="74" t="n">
+        <v>0.014683</v>
+      </c>
+      <c r="E145" s="74" t="n">
+        <v>0.014683</v>
+      </c>
+      <c r="F145" s="74" t="n">
+        <v>0.014683</v>
+      </c>
+      <c r="G145" s="74" t="n">
+        <v>0.014683</v>
+      </c>
+      <c r="H145" s="0"/>
+      <c r="I145" s="0"/>
+      <c r="J145" s="0"/>
+      <c r="K145" s="0"/>
+      <c r="L145" s="0"/>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H146" s="0"/>
+      <c r="I146" s="0"/>
+      <c r="J146" s="0"/>
+      <c r="K146" s="0"/>
+      <c r="L146" s="0"/>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H147" s="0"/>
+      <c r="I147" s="0"/>
+      <c r="J147" s="0"/>
+      <c r="K147" s="0"/>
+      <c r="L147" s="0"/>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H148" s="0"/>
+      <c r="I148" s="0"/>
+      <c r="J148" s="0"/>
+      <c r="K148" s="0"/>
+      <c r="L148" s="0"/>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C149" s="0" t="n">
+        <f aca="false">AVERAGE(C140:C142)</f>
+        <v>0.0146093333333333</v>
+      </c>
+      <c r="D149" s="0" t="n">
+        <f aca="false">AVERAGE(D140:D142)</f>
+        <v>0.0146093333333333</v>
+      </c>
+      <c r="E149" s="0" t="n">
+        <f aca="false">AVERAGE(E140:E142)</f>
+        <v>0.0146093333333333</v>
+      </c>
+      <c r="F149" s="0" t="n">
+        <f aca="false">AVERAGE(F140:F142)</f>
+        <v>0.0146093333333333</v>
+      </c>
+      <c r="G149" s="0" t="n">
+        <f aca="false">AVERAGE(G140:G142)</f>
+        <v>0.0146093333333333</v>
+      </c>
+      <c r="H149" s="0"/>
+      <c r="I149" s="0"/>
+      <c r="J149" s="0"/>
+      <c r="K149" s="0"/>
+      <c r="L149" s="0"/>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C150" s="0" t="n">
+        <f aca="false">AVERAGE(C143:C145)</f>
+        <v>0.0146093333333333</v>
+      </c>
+      <c r="D150" s="0" t="n">
+        <f aca="false">AVERAGE(D143:D145)</f>
+        <v>0.0146093333333333</v>
+      </c>
+      <c r="E150" s="0" t="n">
+        <f aca="false">AVERAGE(E143:E145)</f>
+        <v>0.0146093333333333</v>
+      </c>
+      <c r="F150" s="0" t="n">
+        <f aca="false">AVERAGE(F143:F145)</f>
+        <v>0.0146093333333333</v>
+      </c>
+      <c r="G150" s="0" t="n">
+        <f aca="false">AVERAGE(G143:G145)</f>
+        <v>0.0146093333333333</v>
+      </c>
+      <c r="H150" s="0"/>
+      <c r="I150" s="0"/>
+      <c r="J150" s="0"/>
+      <c r="K150" s="0"/>
+      <c r="L150" s="0"/>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G151" s="0"/>
+      <c r="H151" s="0"/>
+      <c r="I151" s="0"/>
+      <c r="J151" s="0"/>
+      <c r="K151" s="0"/>
+      <c r="L151" s="0"/>
+    </row>
+    <row r="157" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I157" s="74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B158" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="H158" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="I158" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="J158" s="74" t="n">
+        <v>50</v>
+      </c>
+      <c r="K158" s="74" t="n">
+        <v>100</v>
+      </c>
+      <c r="L158" s="74" t="n">
+        <v>250</v>
+      </c>
+      <c r="M158" s="74" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="B159" s="74" t="n">
+        <v>0.02903</v>
+      </c>
+      <c r="H159" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="I159" s="74" t="n">
+        <v>0.027493</v>
+      </c>
+      <c r="J159" s="74" t="n">
+        <v>0.027493</v>
+      </c>
+      <c r="K159" s="74" t="n">
+        <v>0.027493</v>
+      </c>
+      <c r="L159" s="74" t="n">
+        <v>0.027493</v>
+      </c>
+      <c r="M159" s="74" t="n">
+        <v>0.027493</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="B160" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="C160" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="D160" s="74" t="n">
+        <v>64</v>
+      </c>
+      <c r="H160" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="I160" s="74" t="n">
+        <v>0.015811</v>
+      </c>
+      <c r="J160" s="74" t="n">
+        <v>0.015811</v>
+      </c>
+      <c r="K160" s="74" t="n">
+        <v>0.015811</v>
+      </c>
+      <c r="L160" s="74" t="n">
+        <v>0.015811</v>
+      </c>
+      <c r="M160" s="74" t="n">
+        <v>0.015811</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="74" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B161" s="74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="B162" s="74" t="n">
+        <v>0.02903</v>
+      </c>
+      <c r="H162" s="0"/>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="B163" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="C163" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="D163" s="74" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="74" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B164" s="74" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="B165" s="74" t="n">
+        <v>0.02903</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="B166" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="C166" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="D166" s="74" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B167" s="74" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="B168" s="74" t="n">
+        <v>0.02903</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="B169" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="C169" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="D169" s="74" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B170" s="74" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="B171" s="74" t="n">
+        <v>0.02903</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="B172" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="C172" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="D172" s="74" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="74" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B173" s="74" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="B174" s="74" t="n">
+        <v>0.02903</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="B175" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="C175" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="D175" s="74" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="74" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B176" s="74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="B177" s="74" t="n">
+        <v>0.02903</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="B178" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="C178" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="D178" s="74" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B179" s="74" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="B180" s="74" t="n">
+        <v>0.02903</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="B181" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="C181" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="D181" s="74" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="74" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B182" s="74" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="B183" s="74" t="n">
+        <v>0.02903</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="B184" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="C184" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="D184" s="74" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B185" s="74" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="B186" s="74" t="n">
+        <v>0.02903</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="B187" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="C187" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="D187" s="74" t="n">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A1:A3"/>

--- a/Model Results.xlsx
+++ b/Model Results.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="120">
   <si>
     <t xml:space="preserve">for finding prices 5 days (1 week) out:</t>
   </si>
@@ -387,16 +387,13 @@
     <t xml:space="preserve">Average - test error</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t xml:space="preserve">500</t>
   </si>
   <si>
-    <t xml:space="preserve">250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Average - train error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Average - test error</t>
+    <t xml:space="preserve">400</t>
   </si>
 </sst>
 </file>
@@ -473,7 +470,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="43">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -747,6 +744,34 @@
       <bottom style="medium"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -791,7 +816,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="145">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1240,10 +1265,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="17" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1304,7 +1325,75 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="22" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="37" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="36" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="37" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="19" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="27" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="39" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="19" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="40" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="41" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="42" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="39" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1386,7 +1475,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1622,11 +1711,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="32699431"/>
-        <c:axId val="18304384"/>
+        <c:axId val="45859400"/>
+        <c:axId val="65435284"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="32699431"/>
+        <c:axId val="45859400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1661,14 +1750,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18304384"/>
+        <c:crossAx val="65435284"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="18304384"/>
+        <c:axId val="65435284"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1712,7 +1801,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32699431"/>
+        <c:crossAx val="45859400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1757,7 +1846,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2029,11 +2118,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="27869205"/>
-        <c:axId val="65600726"/>
+        <c:axId val="58370709"/>
+        <c:axId val="25808834"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="27869205"/>
+        <c:axId val="58370709"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2068,14 +2157,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65600726"/>
+        <c:crossAx val="25808834"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65600726"/>
+        <c:axId val="25808834"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2119,7 +2208,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27869205"/>
+        <c:crossAx val="58370709"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2164,7 +2253,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2376,11 +2465,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="29092161"/>
-        <c:axId val="9501576"/>
+        <c:axId val="3029186"/>
+        <c:axId val="14987403"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="29092161"/>
+        <c:axId val="3029186"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2415,14 +2504,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9501576"/>
+        <c:crossAx val="14987403"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="9501576"/>
+        <c:axId val="14987403"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2466,7 +2555,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29092161"/>
+        <c:crossAx val="3029186"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5285,205 +5374,205 @@
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="81">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A109:F190" sheet="LSTM Model Summary"/>
+    <worksheetSource ref="A192:F273" sheet="LSTM Model Summary"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Layer 1" numFmtId="0">
       <sharedItems count="3" containsMixedTypes="0" containsSemiMixedTypes="0" containsString="0" containsNumber="1">
         <n v="5"/>
-        <n v="100"/>
-        <n v="200"/>
+        <n v="10"/>
+        <n v="15"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Layer 2" numFmtId="0">
       <sharedItems count="3" containsMixedTypes="0" containsSemiMixedTypes="0" containsString="0" containsNumber="1">
         <n v="5"/>
-        <n v="100"/>
-        <n v="200"/>
+        <n v="10"/>
+        <n v="15"/>
       </sharedItems>
     </cacheField>
     <cacheField name="epochs" numFmtId="0">
       <sharedItems count="3" containsMixedTypes="0" containsSemiMixedTypes="0" containsString="0" containsNumber="1">
-        <n v="50"/>
-        <n v="150"/>
-        <n v="250"/>
+        <n v="200"/>
+        <n v="300"/>
+        <n v="400"/>
       </sharedItems>
     </cacheField>
     <cacheField name="batch_size" numFmtId="0">
       <sharedItems count="3" containsMixedTypes="0" containsSemiMixedTypes="0" containsString="0" containsNumber="1">
-        <n v="100"/>
-        <n v="250"/>
+        <n v="400"/>
         <n v="500"/>
+        <n v="600"/>
       </sharedItems>
     </cacheField>
     <cacheField name="train error" numFmtId="0">
       <sharedItems count="81" containsMixedTypes="0" containsSemiMixedTypes="0" containsString="0" containsNumber="1">
-        <n v="0.0272065054889437"/>
-        <n v="0.0272209969858319"/>
-        <n v="0.0272214129949313"/>
-        <n v="0.0272302600978663"/>
-        <n v="0.0272335154469437"/>
-        <n v="0.0272350196025248"/>
-        <n v="0.0272354505464678"/>
-        <n v="0.0272355064953294"/>
-        <n v="0.0272377569689874"/>
-        <n v="0.0272515089731327"/>
-        <n v="0.0272585240704172"/>
-        <n v="0.0272635930501846"/>
-        <n v="0.0272640409606607"/>
-        <n v="0.0272691545365854"/>
-        <n v="0.0272693830605323"/>
-        <n v="0.0272703426992574"/>
-        <n v="0.0272709646264066"/>
-        <n v="0.0272755466267592"/>
-        <n v="0.0272779181318615"/>
-        <n v="0.0272792315428739"/>
-        <n v="0.0272809202528401"/>
-        <n v="0.027285534352261"/>
-        <n v="0.0272934618492123"/>
-        <n v="0.0272969396953199"/>
-        <n v="0.0272984651174741"/>
-        <n v="0.0272990046718147"/>
-        <n v="0.0273185415282283"/>
-        <n v="0.0273219236613738"/>
-        <n v="0.0273256610855934"/>
-        <n v="0.0273351927256876"/>
-        <n v="0.0273392195604861"/>
-        <n v="0.0273445572916669"/>
-        <n v="0.0273478868832364"/>
-        <n v="0.0273544537518659"/>
-        <n v="0.0273552685972334"/>
-        <n v="0.0273646832369971"/>
-        <n v="0.027365722909352"/>
-        <n v="0.0274061332919906"/>
-        <n v="0.0274238627310136"/>
-        <n v="0.0274521532417963"/>
-        <n v="0.0274522227695689"/>
-        <n v="0.0274707288594973"/>
-        <n v="0.0275419643225268"/>
-        <n v="0.0276106720643442"/>
-        <n v="0.0277128449782957"/>
-        <n v="0.0277528204062096"/>
-        <n v="0.0277767351864871"/>
-        <n v="0.0277913201424675"/>
-        <n v="0.02779894416183"/>
-        <n v="0.0278017895927491"/>
-        <n v="0.0278061539955832"/>
-        <n v="0.0278522589432458"/>
-        <n v="0.0279028740207298"/>
-        <n v="0.0279145247398856"/>
-        <n v="0.0279901559930906"/>
-        <n v="0.0280065928181823"/>
-        <n v="0.0280360952073744"/>
-        <n v="0.0280480463435267"/>
-        <n v="0.0280533702114766"/>
-        <n v="0.0281789483566831"/>
-        <n v="0.0282824168626586"/>
-        <n v="0.0284972134708762"/>
-        <n v="0.0285073804287791"/>
-        <n v="0.0294055325152909"/>
-        <n v="0.0295773775351717"/>
-        <n v="0.0296352590972941"/>
-        <n v="0.0303005333844776"/>
-        <n v="0.0311630932233325"/>
-        <n v="0.0312970137295476"/>
-        <n v="0.0317331008866493"/>
-        <n v="0.0317971412355243"/>
-        <n v="0.0320739926975223"/>
-        <n v="0.0358210581354495"/>
-        <n v="0.0368397698884037"/>
-        <n v="0.0389497513644492"/>
-        <n v="0.039335213352485"/>
-        <n v="0.0449479188326848"/>
-        <n v="0.0455083275254972"/>
-        <n v="0.0533123980500741"/>
-        <n v="0.0633155538847759"/>
-        <n v="0.0736203524780101"/>
+        <n v="0.0271518106329575"/>
+        <n v="0.0272125604602303"/>
+        <n v="0.0272158467188324"/>
+        <n v="0.0272165003166818"/>
+        <n v="0.0272176386166153"/>
+        <n v="0.0272529773626372"/>
+        <n v="0.0272586871352166"/>
+        <n v="0.0272646346878384"/>
+        <n v="0.0272657333347741"/>
+        <n v="0.0272665363842072"/>
+        <n v="0.027295362988569"/>
+        <n v="0.0273043879412292"/>
+        <n v="0.0273051667088274"/>
+        <n v="0.0273053628853176"/>
+        <n v="0.0273060852930813"/>
+        <n v="0.0273089049360908"/>
+        <n v="0.0273247498138547"/>
+        <n v="0.027356920053565"/>
+        <n v="0.0273683398064657"/>
+        <n v="0.0273701311001188"/>
+        <n v="0.0273786645058657"/>
+        <n v="0.0273790312592369"/>
+        <n v="0.027487302185228"/>
+        <n v="0.0276663858624463"/>
+        <n v="0.0276757637049803"/>
+        <n v="0.0276779780809594"/>
+        <n v="0.0276824073742217"/>
+        <n v="0.0276900660968758"/>
+        <n v="0.027690100844877"/>
+        <n v="0.0276915940591702"/>
+        <n v="0.0276937340335798"/>
+        <n v="0.0276964748558608"/>
+        <n v="0.0277019951349735"/>
+        <n v="0.0277024746583089"/>
+        <n v="0.0277175303354732"/>
+        <n v="0.0277268761976726"/>
+        <n v="0.0277320560480617"/>
+        <n v="0.0277333989059793"/>
+        <n v="0.027733973046727"/>
+        <n v="0.0277366060793134"/>
+        <n v="0.0277371586088751"/>
+        <n v="0.0277425010147322"/>
+        <n v="0.0277505237748832"/>
+        <n v="0.0277514009752104"/>
+        <n v="0.0277531030510179"/>
+        <n v="0.0277550542727464"/>
+        <n v="0.0277553616674744"/>
+        <n v="0.0277603267167707"/>
+        <n v="0.0277606145767714"/>
+        <n v="0.0277668783301186"/>
+        <n v="0.0277700110639005"/>
+        <n v="0.027770511232103"/>
+        <n v="0.0277726083903836"/>
+        <n v="0.0277747590940481"/>
+        <n v="0.0277761435152246"/>
+        <n v="0.0277773462332775"/>
+        <n v="0.0277810733875579"/>
+        <n v="0.0277828978231535"/>
+        <n v="0.0277831732658871"/>
+        <n v="0.0277932846262325"/>
+        <n v="0.0277943996366322"/>
+        <n v="0.0277981288577423"/>
+        <n v="0.0277981416468563"/>
+        <n v="0.0278023212572681"/>
+        <n v="0.0278027096699477"/>
+        <n v="0.0278050211434735"/>
+        <n v="0.0278074471434338"/>
+        <n v="0.0278078167612897"/>
+        <n v="0.0278093531209519"/>
+        <n v="0.0278153513650753"/>
+        <n v="0.0278248932349117"/>
+        <n v="0.0278287982505812"/>
+        <n v="0.0278709661161988"/>
+        <n v="0.0278794815104737"/>
+        <n v="0.027893601286958"/>
+        <n v="0.0279109589248243"/>
+        <n v="0.0279257951748146"/>
+        <n v="0.0279948252467428"/>
+        <n v="0.0280526200881892"/>
+        <n v="0.028720556953706"/>
+        <n v="0.0296861445609495"/>
       </sharedItems>
     </cacheField>
     <cacheField name="test error" numFmtId="0">
       <sharedItems count="81" containsMixedTypes="0" containsSemiMixedTypes="0" containsString="0" containsNumber="1">
-        <n v="0.0124289011974595"/>
-        <n v="0.0124849115003355"/>
-        <n v="0.0124893038665277"/>
-        <n v="0.0124893482068401"/>
-        <n v="0.0125226079926572"/>
-        <n v="0.0125342325096674"/>
-        <n v="0.0125371525608608"/>
-        <n v="0.0125466987406911"/>
-        <n v="0.0125516333272871"/>
-        <n v="0.0125668499049907"/>
-        <n v="0.012576419198419"/>
-        <n v="0.0125902147946494"/>
-        <n v="0.0125940674975925"/>
-        <n v="0.0126022494267417"/>
-        <n v="0.0126208281203498"/>
-        <n v="0.0126879370834801"/>
-        <n v="0.0126976508511742"/>
-        <n v="0.012704343593809"/>
-        <n v="0.0127060594733748"/>
-        <n v="0.0128022346260483"/>
-        <n v="0.0128215332591325"/>
-        <n v="0.0129453730286626"/>
-        <n v="0.0130040030099412"/>
-        <n v="0.0130388105008857"/>
-        <n v="0.0132260054284554"/>
-        <n v="0.0140127349216021"/>
-        <n v="0.0142552893773083"/>
-        <n v="0.0142561479292723"/>
-        <n v="0.0142718014607585"/>
-        <n v="0.0142976608267818"/>
-        <n v="0.0143103628031221"/>
-        <n v="0.0143417168203758"/>
-        <n v="0.0143473320382373"/>
-        <n v="0.0143809121504855"/>
-        <n v="0.0144017721844569"/>
-        <n v="0.0144129311382408"/>
-        <n v="0.0144264254293205"/>
-        <n v="0.0144317038335937"/>
-        <n v="0.0144336986530901"/>
-        <n v="0.0144427742917483"/>
-        <n v="0.0144429518942074"/>
-        <n v="0.0144458748802765"/>
-        <n v="0.0144523326816405"/>
-        <n v="0.0144770802544975"/>
-        <n v="0.0144846701105474"/>
-        <n v="0.0145201279170436"/>
-        <n v="0.014524229174075"/>
-        <n v="0.0145253688546531"/>
-        <n v="0.0145475792778464"/>
-        <n v="0.0145485020633269"/>
-        <n v="0.0145663361034824"/>
-        <n v="0.014569540254397"/>
-        <n v="0.0145712736989678"/>
-        <n v="0.0145926921310113"/>
-        <n v="0.0146181219473787"/>
-        <n v="0.0146699658078308"/>
-        <n v="0.0146723626248758"/>
-        <n v="0.0147291317437829"/>
-        <n v="0.0147531827919433"/>
-        <n v="0.0147662520806502"/>
-        <n v="0.0147721191544922"/>
-        <n v="0.0147795307790086"/>
-        <n v="0.0147809306140652"/>
-        <n v="0.0149150972334863"/>
-        <n v="0.0150418928181687"/>
-        <n v="0.0150433709789416"/>
-        <n v="0.0151766220967037"/>
-        <n v="0.0154341458448654"/>
-        <n v="0.015543903177036"/>
-        <n v="0.0157658943901425"/>
-        <n v="0.0159273510067355"/>
-        <n v="0.0161769522485603"/>
-        <n v="0.0162157743406281"/>
-        <n v="0.0164210650312511"/>
-        <n v="0.0166188395362948"/>
-        <n v="0.0167477947970245"/>
-        <n v="0.0167659088508354"/>
-        <n v="0.0182459229609542"/>
-        <n v="0.0205680443174734"/>
-        <n v="0.0299677386419533"/>
-        <n v="0.040263458514095"/>
+        <n v="0.0124626718123526"/>
+        <n v="0.0124709825464683"/>
+        <n v="0.0125179051917055"/>
+        <n v="0.0125304374284825"/>
+        <n v="0.0125526970280986"/>
+        <n v="0.012553507352753"/>
+        <n v="0.0125593682039823"/>
+        <n v="0.0125619461670006"/>
+        <n v="0.0125839403117134"/>
+        <n v="0.0126006877706183"/>
+        <n v="0.0126134575699191"/>
+        <n v="0.0126195881608499"/>
+        <n v="0.0126226019950381"/>
+        <n v="0.0126598859582523"/>
+        <n v="0.0127112741427428"/>
+        <n v="0.0127119074393845"/>
+        <n v="0.0128308424597175"/>
+        <n v="0.0128473896259296"/>
+        <n v="0.0128531800817593"/>
+        <n v="0.0129181685606768"/>
+        <n v="0.0129613077507679"/>
+        <n v="0.0130195443703591"/>
+        <n v="0.0130994176227148"/>
+        <n v="0.0131886148885506"/>
+        <n v="0.0134529846877591"/>
+        <n v="0.0134692429531631"/>
+        <n v="0.0134712177900632"/>
+        <n v="0.0134735112809735"/>
+        <n v="0.0134995784610357"/>
+        <n v="0.013506162062234"/>
+        <n v="0.0135071830550466"/>
+        <n v="0.0135326311566118"/>
+        <n v="0.0135403040432141"/>
+        <n v="0.013577586437554"/>
+        <n v="0.0135933831360492"/>
+        <n v="0.0136020486090205"/>
+        <n v="0.0136192856959921"/>
+        <n v="0.0136398821003798"/>
+        <n v="0.0136635224431527"/>
+        <n v="0.0136895347200016"/>
+        <n v="0.0136914905091539"/>
+        <n v="0.0137131169687583"/>
+        <n v="0.0137985504603507"/>
+        <n v="0.0138159171622351"/>
+        <n v="0.0139182999004304"/>
+        <n v="0.0139352669511624"/>
+        <n v="0.0141643402888762"/>
+        <n v="0.0144243801639859"/>
+        <n v="0.0144284699817252"/>
+        <n v="0.0144442701130392"/>
+        <n v="0.014447679417254"/>
+        <n v="0.0144944724806178"/>
+        <n v="0.0144967973288582"/>
+        <n v="0.0145086924098168"/>
+        <n v="0.0145150336399124"/>
+        <n v="0.0145155320563741"/>
+        <n v="0.0145309769772272"/>
+        <n v="0.0145415368437708"/>
+        <n v="0.0145438559051414"/>
+        <n v="0.0145491358906348"/>
+        <n v="0.0145700433128921"/>
+        <n v="0.0145827983693263"/>
+        <n v="0.0145834620931173"/>
+        <n v="0.0145924929424003"/>
+        <n v="0.0146138642072471"/>
+        <n v="0.0146182713817412"/>
+        <n v="0.0146285546792296"/>
+        <n v="0.0146555958641398"/>
+        <n v="0.0146663835881702"/>
+        <n v="0.0146769484786268"/>
+        <n v="0.0146773956393"/>
+        <n v="0.0147249158496426"/>
+        <n v="0.014737372536367"/>
+        <n v="0.0147712236902055"/>
+        <n v="0.0150204530639004"/>
+        <n v="0.015054577629523"/>
+        <n v="0.0156678641775377"/>
+        <n v="0.0164513402044849"/>
+        <n v="0.0169496831740034"/>
+        <n v="0.0179188500308673"/>
+        <n v="0.0186199659372583"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -11407,652 +11496,652 @@
 <file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="81">
   <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="68"/>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="54"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="64"/>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
     <x v="6"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="38"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="80"/>
-    <x v="80"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="24"/>
-    <x v="19"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="65"/>
-    <x v="66"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="79"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="74"/>
+    <x v="73"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="59"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="58"/>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="43"/>
+    <x v="68"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="47"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="67"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="26"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
     <x v="59"/>
-    <x v="68"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="44"/>
-    <x v="50"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="12"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="14"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="32"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="25"/>
+    <x v="71"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="29"/>
-    <x v="31"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="49"/>
-    <x v="37"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="46"/>
-    <x v="42"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="25"/>
-    <x v="48"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="48"/>
-    <x v="49"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="50"/>
-    <x v="36"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="60"/>
-    <x v="41"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="74"/>
-    <x v="76"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="20"/>
-    <x v="29"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="79"/>
-    <x v="65"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="70"/>
-    <x v="77"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="62"/>
-    <x v="64"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="68"/>
-    <x v="75"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="40"/>
-    <x v="46"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="58"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="53"/>
-    <x v="43"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="31"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="11"/>
-    <x v="21"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="28"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="21"/>
-    <x v="39"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="76"/>
-    <x v="67"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="36"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="33"/>
-    <x v="22"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="73"/>
-    <x v="52"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="35"/>
-    <x v="27"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="55"/>
-    <x v="20"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="51"/>
-    <x v="54"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="47"/>
-    <x v="44"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="22"/>
-    <x v="35"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="17"/>
-    <x v="25"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="58"/>
-    <x v="61"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="4"/>
     <x v="23"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="41"/>
-    <x v="40"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="42"/>
-    <x v="45"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="77"/>
-    <x v="69"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="30"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="26"/>
-    <x v="53"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="9"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="18"/>
-    <x v="24"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="57"/>
-    <x v="56"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="72"/>
-    <x v="74"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="43"/>
-    <x v="47"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="16"/>
-    <x v="15"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="63"/>
-    <x v="70"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="37"/>
-    <x v="18"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="69"/>
-    <x v="59"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="34"/>
-    <x v="33"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="66"/>
-    <x v="78"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="30"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="28"/>
-    <x v="32"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="71"/>
-    <x v="71"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="67"/>
-    <x v="57"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="15"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="39"/>
-    <x v="16"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="1"/>
     <x v="78"/>
     <x v="79"/>
   </r>
   <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="75"/>
-    <x v="73"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="50"/>
+    <x v="70"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="33"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="13"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="19"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="62"/>
+    <x v="66"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="22"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="23"/>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="53"/>
     <x v="61"/>
-    <x v="55"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="45"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="66"/>
+    <x v="65"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="41"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="38"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="19"/>
-    <x v="34"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
+    <x v="69"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="56"/>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="36"/>
+    <x v="74"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="42"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="17"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="31"/>
+    <x v="62"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="10"/>
-    <x v="17"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="23"/>
-    <x v="51"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="56"/>
-    <x v="60"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="64"/>
-    <x v="62"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="54"/>
-    <x v="63"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
     <x v="52"/>
     <x v="72"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="34"/>
+    <x v="64"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="65"/>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="14"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="76"/>
+    <x v="75"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="20"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="39"/>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="49"/>
+    <x v="48"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="61"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="28"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="55"/>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="77"/>
+    <x v="78"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="57"/>
+    <x v="67"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="12"/>
     <x v="7"/>
   </r>
   <r>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="72"/>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="35"/>
+    <x v="63"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="18"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="37"/>
+    <x v="52"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="70"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="44"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="75"/>
+    <x v="77"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="24"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="51"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="32"/>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="46"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="73"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="21"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="80"/>
+    <x v="76"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="30"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="48"/>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="40"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="71"/>
+    <x v="80"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="60"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="63"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="0"/>
     <x v="2"/>
     <x v="2"/>
     <x v="27"/>
-    <x v="1"/>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="15"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="69"/>
+    <x v="29"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -12122,28 +12211,27 @@
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="1" outlineData="1">
-  <location ref="A6:I12" firstHeaderRow="2" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <location ref="A6:E11" firstHeaderRow="2" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0"/>
     <pivotField axis="axisCol" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0"/>
     <pivotField axis="axisPage" showAll="0"/>
     <pivotField axis="axisPage" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="1"/>
+    <field x="0"/>
   </rowFields>
   <colFields count="2">
-    <field x="0"/>
+    <field x="1"/>
     <field x="-2"/>
   </colFields>
   <pageFields count="2">
     <pageField fld="3" hier="-1"/>
     <pageField fld="2" hier="-1"/>
   </pageFields>
-  <dataFields count="2">
-    <dataField fld="4" subtotal="average"/>
+  <dataFields count="1">
     <dataField fld="5" subtotal="average"/>
   </dataFields>
 </pivotTableDefinition>
@@ -12271,10 +12359,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:I12"/>
+  <dimension ref="A3:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12286,193 +12374,112 @@
       <c r="A3" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="128" t="s">
-        <v>117</v>
+      <c r="B3" s="138" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="128" t="s">
-        <v>118</v>
+      <c r="B4" s="138" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="57"/>
+      <c r="A6" s="57" t="s">
+        <v>116</v>
+      </c>
       <c r="B6" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="140"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="58"/>
-      <c r="B7" s="16" t="n">
+      <c r="B7" s="141" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="16" t="n">
-        <v>100</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="16" t="n">
-        <v>200</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>120</v>
+      <c r="C7" s="142" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" s="142" t="n">
+        <v>15</v>
+      </c>
+      <c r="E7" s="143" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="23"/>
+      <c r="A8" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="59" t="n">
+        <v>0.0125526970280986</v>
+      </c>
+      <c r="C8" s="29" t="n">
+        <v>0.0124626718123526</v>
+      </c>
+      <c r="D8" s="27" t="n">
+        <v>0.0127112741427428</v>
+      </c>
+      <c r="E8" s="31" t="n">
+        <v>0.0125755476610647</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="59" t="n">
-        <v>0.0273219236613738</v>
-      </c>
-      <c r="C9" s="27" t="n">
-        <v>0.0124849115003355</v>
-      </c>
-      <c r="D9" s="37" t="n">
-        <v>0.0272065054889437</v>
-      </c>
-      <c r="E9" s="37" t="n">
-        <v>0.012576419198419</v>
-      </c>
-      <c r="F9" s="59" t="n">
-        <v>0.0272350196025248</v>
-      </c>
-      <c r="G9" s="27" t="n">
-        <v>0.0125466987406911</v>
-      </c>
-      <c r="H9" s="60" t="n">
-        <v>0.0272544829176141</v>
-      </c>
-      <c r="I9" s="31" t="n">
-        <v>0.0125360098131485</v>
+      <c r="A9" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" s="61" t="n">
+        <v>0.0126134575699191</v>
+      </c>
+      <c r="C9" s="37" t="n">
+        <v>0.0128531800817593</v>
+      </c>
+      <c r="D9" s="35" t="n">
+        <v>0.0127119074393845</v>
+      </c>
+      <c r="E9" s="39" t="n">
+        <v>0.012726181697021</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="32" t="n">
-        <v>100</v>
-      </c>
-      <c r="B10" s="61" t="n">
-        <v>0.0274238627310136</v>
-      </c>
-      <c r="C10" s="35" t="n">
-        <v>0.0125516333272871</v>
-      </c>
-      <c r="D10" s="37" t="n">
-        <v>0.0280065928181823</v>
-      </c>
-      <c r="E10" s="37" t="n">
-        <v>0.0128215332591325</v>
-      </c>
-      <c r="F10" s="61" t="n">
-        <v>0.0272640409606607</v>
-      </c>
-      <c r="G10" s="35" t="n">
-        <v>0.0125226079926572</v>
-      </c>
-      <c r="H10" s="60" t="n">
-        <v>0.0275648321699522</v>
-      </c>
-      <c r="I10" s="39" t="n">
-        <v>0.0126319248596923</v>
+        <v>15</v>
+      </c>
+      <c r="B10" s="62" t="n">
+        <v>0.0130195443703591</v>
+      </c>
+      <c r="C10" s="45" t="n">
+        <v>0.0125619461670006</v>
+      </c>
+      <c r="D10" s="43" t="n">
+        <v>0.0126006877706183</v>
+      </c>
+      <c r="E10" s="47" t="n">
+        <v>0.012727392769326</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="32" t="n">
-        <v>200</v>
-      </c>
-      <c r="B11" s="62" t="n">
-        <v>0.0274061332919906</v>
-      </c>
-      <c r="C11" s="43" t="n">
-        <v>0.0127060594733748</v>
-      </c>
-      <c r="D11" s="37" t="n">
-        <v>0.027365722909352</v>
-      </c>
-      <c r="E11" s="37" t="n">
-        <v>0.0125668499049907</v>
-      </c>
-      <c r="F11" s="62" t="n">
-        <v>0.0272377569689874</v>
-      </c>
-      <c r="G11" s="43" t="n">
-        <v>0.0124893482068401</v>
-      </c>
-      <c r="H11" s="60" t="n">
-        <v>0.0273365377234433</v>
-      </c>
-      <c r="I11" s="47" t="n">
-        <v>0.0125874191950685</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="63" t="s">
+      <c r="A11" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="64" t="n">
-        <v>0.027383973228126</v>
-      </c>
-      <c r="C12" s="54" t="n">
-        <v>0.0125808681003325</v>
-      </c>
-      <c r="D12" s="64" t="n">
-        <v>0.027526273738826</v>
-      </c>
-      <c r="E12" s="54" t="n">
-        <v>0.0126549341208474</v>
-      </c>
-      <c r="F12" s="64" t="n">
-        <v>0.0272456058440576</v>
-      </c>
-      <c r="G12" s="54" t="n">
-        <v>0.0125195516467294</v>
-      </c>
-      <c r="H12" s="65" t="n">
-        <v>0.0273852842703365</v>
-      </c>
-      <c r="I12" s="56" t="n">
-        <v>0.0125851179559698</v>
+      <c r="B11" s="64" t="n">
+        <v>0.0127285663227923</v>
+      </c>
+      <c r="C11" s="144" t="n">
+        <v>0.0126259326870375</v>
+      </c>
+      <c r="D11" s="54" t="n">
+        <v>0.0126746231175818</v>
+      </c>
+      <c r="E11" s="56" t="n">
+        <v>0.0126763740424705</v>
       </c>
     </row>
   </sheetData>
@@ -35102,10 +35109,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q190"/>
+  <dimension ref="A1:Q273"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A102" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K149" activeCellId="0" sqref="K149"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A176" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E202" activeCellId="0" sqref="E202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38520,15 +38527,15 @@
       </c>
       <c r="G138" s="0"/>
       <c r="H138" s="103"/>
-      <c r="I138" s="0"/>
+      <c r="I138" s="104" t="s">
+        <v>113</v>
+      </c>
       <c r="J138" s="104" t="s">
-        <v>112</v>
-      </c>
-      <c r="K138" s="104" t="s">
         <v>32</v>
       </c>
+      <c r="K138" s="105"/>
       <c r="L138" s="105"/>
-      <c r="M138" s="105"/>
+      <c r="M138" s="0"/>
       <c r="N138" s="105"/>
       <c r="O138" s="105"/>
       <c r="P138" s="105"/>
@@ -38555,21 +38562,21 @@
       </c>
       <c r="G139" s="0"/>
       <c r="H139" s="107" t="s">
-        <v>113</v>
-      </c>
-      <c r="I139" s="0"/>
+        <v>112</v>
+      </c>
+      <c r="I139" s="16" t="n">
+        <v>5</v>
+      </c>
       <c r="J139" s="16" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="K139" s="16" t="n">
-        <v>100</v>
-      </c>
-      <c r="L139" s="16" t="n">
         <v>200</v>
       </c>
-      <c r="M139" s="108" t="s">
+      <c r="L139" s="108" t="s">
         <v>37</v>
       </c>
+      <c r="M139" s="0"/>
       <c r="N139" s="0"/>
       <c r="O139" s="109"/>
       <c r="P139" s="110"/>
@@ -38598,25 +38605,23 @@
       <c r="H140" s="85" t="n">
         <v>5</v>
       </c>
-      <c r="I140" s="112" t="s">
-        <v>115</v>
+      <c r="I140" s="112" t="n">
+        <v>0.0273219236613738</v>
       </c>
       <c r="J140" s="113" t="n">
-        <v>0.0273219236613738</v>
-      </c>
-      <c r="K140" s="114" t="n">
         <v>0.0272065054889437</v>
       </c>
-      <c r="L140" s="99" t="n">
+      <c r="K140" s="99" t="n">
         <v>0.0272350196025248</v>
       </c>
-      <c r="M140" s="115" t="n">
+      <c r="L140" s="114" t="n">
         <v>0.0272544829176141</v>
       </c>
+      <c r="M140" s="0"/>
       <c r="N140" s="0"/>
       <c r="O140" s="0"/>
-      <c r="P140" s="116"/>
-      <c r="Q140" s="117"/>
+      <c r="P140" s="115"/>
+      <c r="Q140" s="116"/>
     </row>
     <row r="141" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="74" t="n">
@@ -38641,21 +38646,19 @@
       <c r="H141" s="32" t="n">
         <v>100</v>
       </c>
-      <c r="I141" s="112" t="s">
-        <v>115</v>
-      </c>
-      <c r="J141" s="88" t="n">
+      <c r="I141" s="88" t="n">
         <v>0.0274238627310136</v>
       </c>
-      <c r="K141" s="114" t="n">
+      <c r="J141" s="113" t="n">
         <v>0.0280065928181823</v>
       </c>
-      <c r="L141" s="88" t="n">
+      <c r="K141" s="88" t="n">
         <v>0.0272640409606607</v>
       </c>
-      <c r="M141" s="115" t="n">
+      <c r="L141" s="114" t="n">
         <v>0.0275648321699522</v>
       </c>
+      <c r="M141" s="0"/>
       <c r="N141" s="0"/>
       <c r="O141" s="0"/>
       <c r="P141" s="0"/>
@@ -38684,21 +38687,19 @@
       <c r="H142" s="32" t="n">
         <v>200</v>
       </c>
-      <c r="I142" s="112" t="s">
-        <v>115</v>
-      </c>
-      <c r="J142" s="101" t="n">
+      <c r="I142" s="101" t="n">
         <v>0.0274061332919906</v>
       </c>
-      <c r="K142" s="114" t="n">
+      <c r="J142" s="113" t="n">
         <v>0.027365722909352</v>
       </c>
-      <c r="L142" s="101" t="n">
+      <c r="K142" s="101" t="n">
         <v>0.0272377569689874</v>
       </c>
-      <c r="M142" s="115" t="n">
+      <c r="L142" s="114" t="n">
         <v>0.0273365377234433</v>
       </c>
+      <c r="M142" s="0"/>
       <c r="N142" s="0"/>
       <c r="O142" s="0"/>
       <c r="P142" s="0"/>
@@ -38727,21 +38728,19 @@
       <c r="H143" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="I143" s="112" t="s">
-        <v>115</v>
+      <c r="I143" s="93" t="n">
+        <v>0.027383973228126</v>
       </c>
       <c r="J143" s="93" t="n">
-        <v>0.027383973228126</v>
+        <v>0.027526273738826</v>
       </c>
       <c r="K143" s="93" t="n">
-        <v>0.027526273738826</v>
-      </c>
-      <c r="L143" s="93" t="n">
         <v>0.0272456058440576</v>
       </c>
-      <c r="M143" s="118" t="n">
+      <c r="L143" s="117" t="n">
         <v>0.0273852842703365</v>
       </c>
+      <c r="M143" s="0"/>
       <c r="N143" s="0"/>
       <c r="O143" s="0"/>
       <c r="P143" s="0"/>
@@ -38830,15 +38829,15 @@
       </c>
       <c r="G146" s="0"/>
       <c r="H146" s="103"/>
-      <c r="I146" s="0"/>
+      <c r="I146" s="104" t="s">
+        <v>113</v>
+      </c>
       <c r="J146" s="104" t="s">
-        <v>112</v>
-      </c>
-      <c r="K146" s="104" t="s">
         <v>32</v>
       </c>
+      <c r="K146" s="105"/>
       <c r="L146" s="105"/>
-      <c r="M146" s="105"/>
+      <c r="M146" s="0"/>
       <c r="N146" s="0"/>
       <c r="O146" s="0"/>
       <c r="P146" s="0"/>
@@ -38865,21 +38864,21 @@
       </c>
       <c r="G147" s="0"/>
       <c r="H147" s="107" t="s">
-        <v>113</v>
-      </c>
-      <c r="I147" s="0"/>
+        <v>112</v>
+      </c>
+      <c r="I147" s="16" t="n">
+        <v>5</v>
+      </c>
       <c r="J147" s="16" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="K147" s="16" t="n">
-        <v>100</v>
-      </c>
-      <c r="L147" s="16" t="n">
         <v>200</v>
       </c>
-      <c r="M147" s="108" t="s">
+      <c r="L147" s="108" t="s">
         <v>37</v>
       </c>
+      <c r="M147" s="0"/>
       <c r="O147" s="0"/>
       <c r="P147" s="0"/>
       <c r="Q147" s="0"/>
@@ -38907,21 +38906,19 @@
       <c r="H148" s="85" t="n">
         <v>5</v>
       </c>
-      <c r="I148" s="109" t="s">
-        <v>116</v>
-      </c>
-      <c r="J148" s="119" t="n">
+      <c r="I148" s="118" t="n">
         <v>0.0124849115003355</v>
       </c>
-      <c r="K148" s="114" t="n">
+      <c r="J148" s="113" t="n">
         <v>0.012576419198419</v>
       </c>
+      <c r="K148" s="119" t="n">
+        <v>0.0125466987406911</v>
+      </c>
       <c r="L148" s="120" t="n">
-        <v>0.0125466987406911</v>
-      </c>
-      <c r="M148" s="121" t="n">
         <v>0.0125360098131485</v>
       </c>
+      <c r="M148" s="0"/>
       <c r="N148" s="0"/>
       <c r="O148" s="0"/>
       <c r="P148" s="0"/>
@@ -38949,21 +38946,19 @@
       <c r="H149" s="32" t="n">
         <v>100</v>
       </c>
-      <c r="I149" s="109" t="s">
-        <v>116</v>
-      </c>
-      <c r="J149" s="122" t="n">
+      <c r="I149" s="121" t="n">
         <v>0.0125516333272871</v>
       </c>
-      <c r="K149" s="114" t="n">
+      <c r="J149" s="113" t="n">
         <v>0.0128215332591325</v>
       </c>
+      <c r="K149" s="121" t="n">
+        <v>0.0125226079926572</v>
+      </c>
       <c r="L149" s="122" t="n">
-        <v>0.0125226079926572</v>
-      </c>
-      <c r="M149" s="123" t="n">
         <v>0.0126319248596923</v>
       </c>
+      <c r="M149" s="0"/>
       <c r="N149" s="0"/>
     </row>
     <row r="150" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38989,21 +38984,19 @@
       <c r="H150" s="32" t="n">
         <v>200</v>
       </c>
-      <c r="I150" s="109" t="s">
-        <v>116</v>
-      </c>
-      <c r="J150" s="124" t="n">
+      <c r="I150" s="123" t="n">
         <v>0.0127060594733748</v>
       </c>
-      <c r="K150" s="114" t="n">
+      <c r="J150" s="113" t="n">
         <v>0.0125668499049907</v>
       </c>
+      <c r="K150" s="123" t="n">
+        <v>0.0124893482068401</v>
+      </c>
       <c r="L150" s="124" t="n">
-        <v>0.0124893482068401</v>
-      </c>
-      <c r="M150" s="125" t="n">
         <v>0.0125874191950685</v>
       </c>
+      <c r="M150" s="0"/>
       <c r="N150" s="0"/>
     </row>
     <row r="151" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39029,21 +39022,19 @@
       <c r="H151" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="I151" s="109" t="s">
-        <v>116</v>
-      </c>
-      <c r="J151" s="126" t="n">
+      <c r="I151" s="125" t="n">
         <v>0.0125808681003325</v>
       </c>
-      <c r="K151" s="126" t="n">
+      <c r="J151" s="125" t="n">
         <v>0.0126549341208474</v>
       </c>
+      <c r="K151" s="125" t="n">
+        <v>0.0125195516467294</v>
+      </c>
       <c r="L151" s="126" t="n">
-        <v>0.0125195516467294</v>
-      </c>
-      <c r="M151" s="127" t="n">
         <v>0.0125851179559698</v>
       </c>
+      <c r="M151" s="0"/>
       <c r="N151" s="0"/>
     </row>
     <row r="152" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39972,6 +39963,2323 @@
       <c r="G190" s="0"/>
       <c r="M190" s="0"/>
       <c r="N190" s="0"/>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B191" s="0"/>
+      <c r="C191" s="0"/>
+      <c r="D191" s="0"/>
+      <c r="E191" s="0"/>
+      <c r="F191" s="0"/>
+      <c r="G191" s="0"/>
+      <c r="M191" s="0"/>
+      <c r="N191" s="0"/>
+    </row>
+    <row r="192" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="B192" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="C192" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="D192" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="E192" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="F192" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="G192" s="0"/>
+      <c r="M192" s="0"/>
+      <c r="N192" s="0"/>
+    </row>
+    <row r="193" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B193" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C193" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D193" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E193" s="0" t="n">
+        <v>0.0278093531209519</v>
+      </c>
+      <c r="F193" s="74" t="n">
+        <v>0.0144944724806178</v>
+      </c>
+      <c r="G193" s="0"/>
+      <c r="L193" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M193" s="0"/>
+      <c r="N193" s="0"/>
+    </row>
+    <row r="194" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B194" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C194" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D194" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E194" s="0" t="n">
+        <v>0.0277761435152246</v>
+      </c>
+      <c r="F194" s="74" t="n">
+        <v>0.0136635224431527</v>
+      </c>
+      <c r="G194" s="0"/>
+      <c r="L194" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M194" s="0"/>
+      <c r="N194" s="0"/>
+    </row>
+    <row r="195" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B195" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C195" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D195" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E195" s="0" t="n">
+        <v>0.0278027096699477</v>
+      </c>
+      <c r="F195" s="74" t="n">
+        <v>0.0144442701130392</v>
+      </c>
+      <c r="G195" s="0"/>
+      <c r="H195" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="I195" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="J195" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="K195" s="0"/>
+      <c r="L195" s="0"/>
+      <c r="N195" s="0"/>
+    </row>
+    <row r="196" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B196" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C196" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="D196" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E196" s="0" t="n">
+        <v>0.0272586871352166</v>
+      </c>
+      <c r="F196" s="74" t="n">
+        <v>0.0124626718123526</v>
+      </c>
+      <c r="G196" s="0"/>
+      <c r="H196" s="85" t="n">
+        <v>400</v>
+      </c>
+      <c r="I196" s="86" t="n">
+        <v>0.0278094296388933</v>
+      </c>
+      <c r="J196" s="87" t="n">
+        <v>0.0145895475922837</v>
+      </c>
+      <c r="K196" s="0"/>
+      <c r="L196" s="0"/>
+      <c r="N196" s="0"/>
+    </row>
+    <row r="197" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B197" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C197" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D197" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E197" s="0" t="n">
+        <v>0.028720556953706</v>
+      </c>
+      <c r="F197" s="74" t="n">
+        <v>0.0145700433128921</v>
+      </c>
+      <c r="G197" s="0"/>
+      <c r="H197" s="90" t="n">
+        <v>500</v>
+      </c>
+      <c r="I197" s="127" t="n">
+        <v>0.0273786504619397</v>
+      </c>
+      <c r="J197" s="128" t="n">
+        <v>0.0130957724060765</v>
+      </c>
+      <c r="K197" s="0"/>
+      <c r="L197" s="0"/>
+      <c r="N197" s="0"/>
+    </row>
+    <row r="198" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="B198" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="C198" s="74" t="n">
+        <v>200</v>
+      </c>
+      <c r="D198" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="E198" s="74" t="n">
+        <v>0.027893601286958</v>
+      </c>
+      <c r="F198" s="74" t="n">
+        <v>0.0147712236902055</v>
+      </c>
+      <c r="G198" s="0"/>
+      <c r="H198" s="32" t="n">
+        <v>600</v>
+      </c>
+      <c r="I198" s="101" t="n">
+        <v>0.0278380981961415</v>
+      </c>
+      <c r="J198" s="102" t="n">
+        <v>0.0140979857561359</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B199" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="C199" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="D199" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="E199" s="74" t="n">
+        <v>0.0277932846262325</v>
+      </c>
+      <c r="F199" s="74" t="n">
+        <v>0.0145415368437708</v>
+      </c>
+      <c r="G199" s="0"/>
+      <c r="H199" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="I199" s="93" t="n">
+        <v>0.0276753927656582</v>
+      </c>
+      <c r="J199" s="94" t="n">
+        <v>0.013927768584832</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B200" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="C200" s="74" t="n">
+        <v>300</v>
+      </c>
+      <c r="D200" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E200" s="74" t="n">
+        <v>0.0272529773626372</v>
+      </c>
+      <c r="F200" s="74" t="n">
+        <v>0.0129613077507679</v>
+      </c>
+      <c r="G200" s="0"/>
+      <c r="I200" s="95"/>
+      <c r="J200" s="95"/>
+    </row>
+    <row r="201" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B201" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C201" s="74" t="n">
+        <v>300</v>
+      </c>
+      <c r="D201" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E201" s="74" t="n">
+        <v>0.0273247498138547</v>
+      </c>
+      <c r="F201" s="74" t="n">
+        <v>0.0141643402888762</v>
+      </c>
+      <c r="G201" s="0"/>
+      <c r="I201" s="95"/>
+      <c r="J201" s="95"/>
+    </row>
+    <row r="202" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B202" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C202" s="74" t="n">
+        <v>300</v>
+      </c>
+      <c r="D202" s="74" t="n">
+        <v>600</v>
+      </c>
+      <c r="E202" s="74" t="n">
+        <v>0.0277831732658871</v>
+      </c>
+      <c r="F202" s="74" t="n">
+        <v>0.0139352669511624</v>
+      </c>
+      <c r="G202" s="0"/>
+      <c r="H202" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I202" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="J202" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="M202" s="0"/>
+    </row>
+    <row r="203" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B203" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="C203" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="D203" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="E203" s="74" t="n">
+        <v>0.0277514009752104</v>
+      </c>
+      <c r="F203" s="74" t="n">
+        <v>0.0146663835881702</v>
+      </c>
+      <c r="G203" s="0"/>
+      <c r="H203" s="129" t="n">
+        <v>200</v>
+      </c>
+      <c r="I203" s="112" t="n">
+        <v>0.0276897360017143</v>
+      </c>
+      <c r="J203" s="130" t="n">
+        <v>0.0137611730277449</v>
+      </c>
+      <c r="K203" s="0"/>
+      <c r="L203" s="0"/>
+      <c r="M203" s="0"/>
+    </row>
+    <row r="204" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="B204" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="C204" s="74" t="n">
+        <v>200</v>
+      </c>
+      <c r="D204" s="74" t="n">
+        <v>600</v>
+      </c>
+      <c r="E204" s="74" t="n">
+        <v>0.0277603267167707</v>
+      </c>
+      <c r="F204" s="74" t="n">
+        <v>0.0136192856959921</v>
+      </c>
+      <c r="G204" s="0"/>
+      <c r="H204" s="131" t="n">
+        <v>300</v>
+      </c>
+      <c r="I204" s="132" t="n">
+        <v>0.0277088995982071</v>
+      </c>
+      <c r="J204" s="133" t="n">
+        <v>0.0143475438655268</v>
+      </c>
+      <c r="K204" s="0"/>
+      <c r="L204" s="0"/>
+      <c r="M204" s="0"/>
+    </row>
+    <row r="205" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="B205" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="C205" s="74" t="n">
+        <v>300</v>
+      </c>
+      <c r="D205" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E205" s="74" t="n">
+        <v>0.0272165003166818</v>
+      </c>
+      <c r="F205" s="74" t="n">
+        <v>0.0125179051917055</v>
+      </c>
+      <c r="G205" s="0"/>
+      <c r="H205" s="90" t="n">
+        <v>400</v>
+      </c>
+      <c r="I205" s="91" t="n">
+        <v>0.027627542697053</v>
+      </c>
+      <c r="J205" s="92" t="n">
+        <v>0.0136745888612243</v>
+      </c>
+      <c r="K205" s="0"/>
+      <c r="L205" s="0"/>
+      <c r="M205" s="0"/>
+    </row>
+    <row r="206" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B206" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="C206" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="D206" s="74" t="n">
+        <v>600</v>
+      </c>
+      <c r="E206" s="74" t="n">
+        <v>0.0278078167612897</v>
+      </c>
+      <c r="F206" s="74" t="n">
+        <v>0.0134995784610357</v>
+      </c>
+      <c r="G206" s="0"/>
+      <c r="H206" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="I206" s="93" t="n">
+        <v>0.0276753927656582</v>
+      </c>
+      <c r="J206" s="94" t="n">
+        <v>0.013927768584832</v>
+      </c>
+      <c r="K206" s="0"/>
+      <c r="L206" s="0"/>
+      <c r="M206" s="0"/>
+    </row>
+    <row r="207" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="B207" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C207" s="74" t="n">
+        <v>300</v>
+      </c>
+      <c r="D207" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E207" s="74" t="n">
+        <v>0.0271518106329575</v>
+      </c>
+      <c r="F207" s="74" t="n">
+        <v>0.0128308424597175</v>
+      </c>
+      <c r="G207" s="0"/>
+      <c r="I207" s="95"/>
+      <c r="J207" s="95"/>
+      <c r="M207" s="0"/>
+    </row>
+    <row r="208" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="B208" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="C208" s="74" t="n">
+        <v>300</v>
+      </c>
+      <c r="D208" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="E208" s="74" t="n">
+        <v>0.0276824073742217</v>
+      </c>
+      <c r="F208" s="74" t="n">
+        <v>0.0145491358906348</v>
+      </c>
+      <c r="G208" s="0"/>
+      <c r="I208" s="95"/>
+      <c r="J208" s="95"/>
+      <c r="M208" s="0"/>
+    </row>
+    <row r="209" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B209" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C209" s="74" t="n">
+        <v>300</v>
+      </c>
+      <c r="D209" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="E209" s="74" t="n">
+        <v>0.0276779780809594</v>
+      </c>
+      <c r="F209" s="74" t="n">
+        <v>0.0147249158496426</v>
+      </c>
+      <c r="G209" s="0"/>
+      <c r="H209" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="I209" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="J209" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="M209" s="0"/>
+    </row>
+    <row r="210" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B210" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="C210" s="74" t="n">
+        <v>200</v>
+      </c>
+      <c r="D210" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E210" s="74" t="n">
+        <v>0.0276915940591702</v>
+      </c>
+      <c r="F210" s="74" t="n">
+        <v>0.0131886148885506</v>
+      </c>
+      <c r="G210" s="0"/>
+      <c r="H210" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="I210" s="86" t="n">
+        <v>0.0276950645205097</v>
+      </c>
+      <c r="J210" s="87" t="n">
+        <v>0.0139410199778784</v>
+      </c>
+      <c r="M210" s="0"/>
+    </row>
+    <row r="211" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B211" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C211" s="74" t="n">
+        <v>300</v>
+      </c>
+      <c r="D211" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E211" s="74" t="n">
+        <v>0.0280526200881892</v>
+      </c>
+      <c r="F211" s="74" t="n">
+        <v>0.0179188500308673</v>
+      </c>
+      <c r="G211" s="0"/>
+      <c r="H211" s="90" t="n">
+        <v>10</v>
+      </c>
+      <c r="I211" s="127" t="n">
+        <v>0.0277262747361297</v>
+      </c>
+      <c r="J211" s="128" t="n">
+        <v>0.0137923450444142</v>
+      </c>
+      <c r="M211" s="0"/>
+    </row>
+    <row r="212" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="B212" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C212" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="D212" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E212" s="74" t="n">
+        <v>0.0272125604602303</v>
+      </c>
+      <c r="F212" s="74" t="n">
+        <v>0.0130195443703591</v>
+      </c>
+      <c r="G212" s="0"/>
+      <c r="H212" s="32" t="n">
+        <v>15</v>
+      </c>
+      <c r="I212" s="101" t="n">
+        <v>0.0276048390403351</v>
+      </c>
+      <c r="J212" s="102" t="n">
+        <v>0.0140499407322035</v>
+      </c>
+      <c r="M212" s="0"/>
+    </row>
+    <row r="213" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="B213" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C213" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="D213" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="E213" s="74" t="n">
+        <v>0.0277700110639005</v>
+      </c>
+      <c r="F213" s="74" t="n">
+        <v>0.0146773956393</v>
+      </c>
+      <c r="G213" s="0"/>
+      <c r="H213" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="I213" s="93" t="n">
+        <v>0.0276753927656582</v>
+      </c>
+      <c r="J213" s="94" t="n">
+        <v>0.013927768584832</v>
+      </c>
+      <c r="M213" s="0"/>
+    </row>
+    <row r="214" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B214" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="C214" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="D214" s="74" t="n">
+        <v>600</v>
+      </c>
+      <c r="E214" s="74" t="n">
+        <v>0.0277024746583089</v>
+      </c>
+      <c r="F214" s="74" t="n">
+        <v>0.0135933831360492</v>
+      </c>
+      <c r="G214" s="0"/>
+      <c r="I214" s="95"/>
+      <c r="J214" s="95"/>
+      <c r="M214" s="0"/>
+    </row>
+    <row r="215" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B215" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C215" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="D215" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E215" s="74" t="n">
+        <v>0.0273053628853176</v>
+      </c>
+      <c r="F215" s="74" t="n">
+        <v>0.0125526970280986</v>
+      </c>
+      <c r="G215" s="0"/>
+      <c r="I215" s="95"/>
+      <c r="J215" s="95"/>
+      <c r="M215" s="0"/>
+    </row>
+    <row r="216" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B216" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="C216" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="D216" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E216" s="74" t="n">
+        <v>0.0277550542727464</v>
+      </c>
+      <c r="F216" s="74" t="n">
+        <v>0.0127112741427428</v>
+      </c>
+      <c r="G216" s="0"/>
+      <c r="H216" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="I216" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="J216" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="M216" s="0"/>
+    </row>
+    <row r="217" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B217" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C217" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="D217" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E217" s="74" t="n">
+        <v>0.0273701311001188</v>
+      </c>
+      <c r="F217" s="74" t="n">
+        <v>0.0126134575699191</v>
+      </c>
+      <c r="G217" s="0"/>
+      <c r="H217" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="I217" s="86" t="n">
+        <v>0.0276577471559041</v>
+      </c>
+      <c r="J217" s="87" t="n">
+        <v>0.0142029345720774</v>
+      </c>
+      <c r="M217" s="0"/>
+    </row>
+    <row r="218" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B218" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C218" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="D218" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="E218" s="74" t="n">
+        <v>0.0277981416468563</v>
+      </c>
+      <c r="F218" s="74" t="n">
+        <v>0.0146285546792296</v>
+      </c>
+      <c r="G218" s="0"/>
+      <c r="H218" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="I218" s="88" t="n">
+        <v>0.0277317565588921</v>
+      </c>
+      <c r="J218" s="89" t="n">
+        <v>0.0138793923649663</v>
+      </c>
+      <c r="M218" s="0"/>
+    </row>
+    <row r="219" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B219" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="C219" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="D219" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E219" s="74" t="n">
+        <v>0.027487302185228</v>
+      </c>
+      <c r="F219" s="74" t="n">
+        <v>0.0128531800817593</v>
+      </c>
+      <c r="G219" s="0"/>
+      <c r="H219" s="90" t="n">
+        <v>15</v>
+      </c>
+      <c r="I219" s="91" t="n">
+        <v>0.0276366745821783</v>
+      </c>
+      <c r="J219" s="92" t="n">
+        <v>0.0137009788174524</v>
+      </c>
+      <c r="M219" s="0"/>
+    </row>
+    <row r="220" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B220" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="C220" s="74" t="n">
+        <v>200</v>
+      </c>
+      <c r="D220" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="E220" s="74" t="n">
+        <v>0.0276663858624463</v>
+      </c>
+      <c r="F220" s="74" t="n">
+        <v>0.014447679417254</v>
+      </c>
+      <c r="G220" s="0"/>
+      <c r="H220" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="I220" s="93" t="n">
+        <v>0.0276753927656582</v>
+      </c>
+      <c r="J220" s="94" t="n">
+        <v>0.013927768584832</v>
+      </c>
+      <c r="M220" s="0"/>
+    </row>
+    <row r="221" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="B221" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="C221" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="D221" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E221" s="74" t="n">
+        <v>0.0272665363842072</v>
+      </c>
+      <c r="F221" s="74" t="n">
+        <v>0.0126006877706183</v>
+      </c>
+      <c r="G221" s="0"/>
+      <c r="H221" s="0"/>
+      <c r="I221" s="0"/>
+      <c r="J221" s="0"/>
+      <c r="M221" s="0"/>
+    </row>
+    <row r="222" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="B222" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="C222" s="74" t="n">
+        <v>300</v>
+      </c>
+      <c r="D222" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="E222" s="74" t="n">
+        <v>0.0277747590940481</v>
+      </c>
+      <c r="F222" s="74" t="n">
+        <v>0.0145827983693263</v>
+      </c>
+      <c r="G222" s="0"/>
+      <c r="M222" s="0"/>
+    </row>
+    <row r="223" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B223" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="C223" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="D223" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="E223" s="74" t="n">
+        <v>0.0278074471434338</v>
+      </c>
+      <c r="F223" s="74" t="n">
+        <v>0.0146182713817412</v>
+      </c>
+      <c r="G223" s="0"/>
+      <c r="H223" s="103"/>
+      <c r="I223" s="104" t="s">
+        <v>113</v>
+      </c>
+      <c r="J223" s="104" t="s">
+        <v>32</v>
+      </c>
+      <c r="K223" s="105"/>
+      <c r="L223" s="105"/>
+      <c r="M223" s="0"/>
+    </row>
+    <row r="224" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B224" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="C224" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="D224" s="74" t="n">
+        <v>600</v>
+      </c>
+      <c r="E224" s="74" t="n">
+        <v>0.0277425010147322</v>
+      </c>
+      <c r="F224" s="74" t="n">
+        <v>0.013577586437554</v>
+      </c>
+      <c r="G224" s="0"/>
+      <c r="H224" s="107" t="s">
+        <v>112</v>
+      </c>
+      <c r="I224" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J224" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K224" s="16" t="n">
+        <v>15</v>
+      </c>
+      <c r="L224" s="108" t="s">
+        <v>37</v>
+      </c>
+      <c r="M224" s="0"/>
+    </row>
+    <row r="225" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="B225" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="C225" s="74" t="n">
+        <v>200</v>
+      </c>
+      <c r="D225" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E225" s="74" t="n">
+        <v>0.0272176386166153</v>
+      </c>
+      <c r="F225" s="74" t="n">
+        <v>0.0129181685606768</v>
+      </c>
+      <c r="G225" s="0"/>
+      <c r="H225" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="I225" s="86" t="n">
+        <v>0.0273053628853176</v>
+      </c>
+      <c r="J225" s="134" t="n">
+        <v>0.0272586871352166</v>
+      </c>
+      <c r="K225" s="119" t="n">
+        <v>0.0277550542727464</v>
+      </c>
+      <c r="L225" s="120" t="n">
+        <v>0.0274397014310935</v>
+      </c>
+      <c r="M225" s="0"/>
+    </row>
+    <row r="226" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B226" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C226" s="74" t="n">
+        <v>300</v>
+      </c>
+      <c r="D226" s="74" t="n">
+        <v>600</v>
+      </c>
+      <c r="E226" s="74" t="n">
+        <v>0.027733973046727</v>
+      </c>
+      <c r="F226" s="74" t="n">
+        <v>0.0146769484786268</v>
+      </c>
+      <c r="G226" s="0"/>
+      <c r="H226" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="I226" s="88" t="n">
+        <v>0.0273701311001188</v>
+      </c>
+      <c r="J226" s="113" t="n">
+        <v>0.027487302185228</v>
+      </c>
+      <c r="K226" s="121" t="n">
+        <v>0.0273786645058657</v>
+      </c>
+      <c r="L226" s="122" t="n">
+        <v>0.0274120325970708</v>
+      </c>
+      <c r="M226" s="0"/>
+    </row>
+    <row r="227" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B227" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="C227" s="74" t="n">
+        <v>300</v>
+      </c>
+      <c r="D227" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="E227" s="74" t="n">
+        <v>0.0277810733875579</v>
+      </c>
+      <c r="F227" s="74" t="n">
+        <v>0.0144243801639859</v>
+      </c>
+      <c r="G227" s="0"/>
+      <c r="H227" s="32" t="n">
+        <v>15</v>
+      </c>
+      <c r="I227" s="91" t="n">
+        <v>0.0272125604602303</v>
+      </c>
+      <c r="J227" s="135" t="n">
+        <v>0.0273051667088274</v>
+      </c>
+      <c r="K227" s="123" t="n">
+        <v>0.0272665363842072</v>
+      </c>
+      <c r="L227" s="124" t="n">
+        <v>0.0272614211844216</v>
+      </c>
+      <c r="M227" s="0"/>
+    </row>
+    <row r="228" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B228" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="C228" s="74" t="n">
+        <v>300</v>
+      </c>
+      <c r="D228" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E228" s="74" t="n">
+        <v>0.0272646346878384</v>
+      </c>
+      <c r="F228" s="74" t="n">
+        <v>0.012553507352753</v>
+      </c>
+      <c r="G228" s="0"/>
+      <c r="H228" s="108" t="s">
+        <v>37</v>
+      </c>
+      <c r="I228" s="93" t="n">
+        <v>0.0272960181485556</v>
+      </c>
+      <c r="J228" s="136" t="n">
+        <v>0.0273503853430907</v>
+      </c>
+      <c r="K228" s="125" t="n">
+        <v>0.0274667517209397</v>
+      </c>
+      <c r="L228" s="126" t="n">
+        <v>0.0273710517375287</v>
+      </c>
+      <c r="M228" s="0"/>
+    </row>
+    <row r="229" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="B229" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="C229" s="74" t="n">
+        <v>300</v>
+      </c>
+      <c r="D229" s="74" t="n">
+        <v>600</v>
+      </c>
+      <c r="E229" s="74" t="n">
+        <v>0.0277320560480617</v>
+      </c>
+      <c r="F229" s="74" t="n">
+        <v>0.0150204530639004</v>
+      </c>
+      <c r="G229" s="0"/>
+      <c r="H229" s="0"/>
+      <c r="I229" s="0"/>
+      <c r="J229" s="0"/>
+      <c r="K229" s="0"/>
+      <c r="L229" s="0"/>
+      <c r="M229" s="0"/>
+    </row>
+    <row r="230" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B230" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="C230" s="74" t="n">
+        <v>300</v>
+      </c>
+      <c r="D230" s="74" t="n">
+        <v>600</v>
+      </c>
+      <c r="E230" s="74" t="n">
+        <v>0.0277505237748832</v>
+      </c>
+      <c r="F230" s="74" t="n">
+        <v>0.0135403040432141</v>
+      </c>
+      <c r="G230" s="0"/>
+      <c r="H230" s="0"/>
+      <c r="I230" s="0"/>
+      <c r="J230" s="0"/>
+      <c r="K230" s="0"/>
+      <c r="L230" s="0"/>
+      <c r="M230" s="0"/>
+    </row>
+    <row r="231" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="B231" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="C231" s="74" t="n">
+        <v>300</v>
+      </c>
+      <c r="D231" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E231" s="74" t="n">
+        <v>0.027356920053565</v>
+      </c>
+      <c r="F231" s="74" t="n">
+        <v>0.0125839403117134</v>
+      </c>
+      <c r="G231" s="0"/>
+      <c r="H231" s="103"/>
+      <c r="I231" s="104" t="s">
+        <v>113</v>
+      </c>
+      <c r="J231" s="104" t="s">
+        <v>32</v>
+      </c>
+      <c r="K231" s="105"/>
+      <c r="L231" s="105"/>
+      <c r="M231" s="0"/>
+    </row>
+    <row r="232" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B232" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="C232" s="74" t="n">
+        <v>300</v>
+      </c>
+      <c r="D232" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="E232" s="74" t="n">
+        <v>0.0276964748558608</v>
+      </c>
+      <c r="F232" s="74" t="n">
+        <v>0.0145834620931173</v>
+      </c>
+      <c r="G232" s="0"/>
+      <c r="H232" s="107" t="s">
+        <v>112</v>
+      </c>
+      <c r="I232" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J232" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K232" s="16" t="n">
+        <v>15</v>
+      </c>
+      <c r="L232" s="108" t="s">
+        <v>37</v>
+      </c>
+      <c r="M232" s="0"/>
+    </row>
+    <row r="233" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B233" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="C233" s="74" t="n">
+        <v>200</v>
+      </c>
+      <c r="D233" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E233" s="74" t="n">
+        <v>0.027295362988569</v>
+      </c>
+      <c r="F233" s="74" t="n">
+        <v>0.0125593682039823</v>
+      </c>
+      <c r="G233" s="0"/>
+      <c r="H233" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="I233" s="86" t="n">
+        <v>0.0125526970280986</v>
+      </c>
+      <c r="J233" s="137" t="n">
+        <v>0.0124626718123526</v>
+      </c>
+      <c r="K233" s="119" t="n">
+        <v>0.0127112741427428</v>
+      </c>
+      <c r="L233" s="120" t="n">
+        <v>0.0125755476610647</v>
+      </c>
+      <c r="M233" s="0"/>
+    </row>
+    <row r="234" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="B234" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="C234" s="74" t="n">
+        <v>200</v>
+      </c>
+      <c r="D234" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E234" s="74" t="n">
+        <v>0.0273043879412292</v>
+      </c>
+      <c r="F234" s="74" t="n">
+        <v>0.0130994176227148</v>
+      </c>
+      <c r="G234" s="0"/>
+      <c r="H234" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="I234" s="88" t="n">
+        <v>0.0126134575699191</v>
+      </c>
+      <c r="J234" s="113" t="n">
+        <v>0.0128531800817593</v>
+      </c>
+      <c r="K234" s="121" t="n">
+        <v>0.0127119074393845</v>
+      </c>
+      <c r="L234" s="122" t="n">
+        <v>0.012726181697021</v>
+      </c>
+      <c r="M234" s="0"/>
+    </row>
+    <row r="235" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="B235" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="C235" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="D235" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="E235" s="74" t="n">
+        <v>0.0277726083903836</v>
+      </c>
+      <c r="F235" s="74" t="n">
+        <v>0.014737372536367</v>
+      </c>
+      <c r="G235" s="0"/>
+      <c r="H235" s="32" t="n">
+        <v>15</v>
+      </c>
+      <c r="I235" s="101" t="n">
+        <v>0.0130195443703591</v>
+      </c>
+      <c r="J235" s="135" t="n">
+        <v>0.0125619461670006</v>
+      </c>
+      <c r="K235" s="123" t="n">
+        <v>0.0126006877706183</v>
+      </c>
+      <c r="L235" s="124" t="n">
+        <v>0.012727392769326</v>
+      </c>
+      <c r="M235" s="0"/>
+    </row>
+    <row r="236" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="B236" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="C236" s="74" t="n">
+        <v>200</v>
+      </c>
+      <c r="D236" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="E236" s="74" t="n">
+        <v>0.0277175303354732</v>
+      </c>
+      <c r="F236" s="74" t="n">
+        <v>0.0146138642072471</v>
+      </c>
+      <c r="G236" s="0"/>
+      <c r="H236" s="108" t="s">
+        <v>37</v>
+      </c>
+      <c r="I236" s="93" t="n">
+        <v>0.0127285663227923</v>
+      </c>
+      <c r="J236" s="136" t="n">
+        <v>0.0126259326870375</v>
+      </c>
+      <c r="K236" s="125" t="n">
+        <v>0.0126746231175818</v>
+      </c>
+      <c r="L236" s="126" t="n">
+        <v>0.0126763740424705</v>
+      </c>
+      <c r="M236" s="0"/>
+    </row>
+    <row r="237" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B237" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C237" s="74" t="n">
+        <v>200</v>
+      </c>
+      <c r="D237" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E237" s="74" t="n">
+        <v>0.0272657333347741</v>
+      </c>
+      <c r="F237" s="74" t="n">
+        <v>0.0126195881608499</v>
+      </c>
+      <c r="G237" s="0"/>
+      <c r="L237" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M237" s="0"/>
+    </row>
+    <row r="238" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B238" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C238" s="74" t="n">
+        <v>200</v>
+      </c>
+      <c r="D238" s="74" t="n">
+        <v>600</v>
+      </c>
+      <c r="E238" s="74" t="n">
+        <v>0.0278050211434735</v>
+      </c>
+      <c r="F238" s="74" t="n">
+        <v>0.0136398821003798</v>
+      </c>
+      <c r="G238" s="0"/>
+      <c r="L238" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M238" s="0"/>
+    </row>
+    <row r="239" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B239" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="C239" s="74" t="n">
+        <v>300</v>
+      </c>
+      <c r="D239" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E239" s="74" t="n">
+        <v>0.0273060852930813</v>
+      </c>
+      <c r="F239" s="74" t="n">
+        <v>0.0126598859582523</v>
+      </c>
+      <c r="G239" s="0"/>
+      <c r="L239" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M239" s="0"/>
+    </row>
+    <row r="240" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="B240" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="C240" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="D240" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="E240" s="74" t="n">
+        <v>0.0279257951748146</v>
+      </c>
+      <c r="F240" s="74" t="n">
+        <v>0.015054577629523</v>
+      </c>
+      <c r="G240" s="0"/>
+      <c r="L240" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M240" s="0"/>
+    </row>
+    <row r="241" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B241" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="C241" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="D241" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E241" s="74" t="n">
+        <v>0.0273786645058657</v>
+      </c>
+      <c r="F241" s="74" t="n">
+        <v>0.0127119074393845</v>
+      </c>
+      <c r="G241" s="0"/>
+      <c r="L241" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M241" s="0"/>
+    </row>
+    <row r="242" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="B242" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C242" s="74" t="n">
+        <v>300</v>
+      </c>
+      <c r="D242" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="E242" s="74" t="n">
+        <v>0.0277366060793134</v>
+      </c>
+      <c r="F242" s="74" t="n">
+        <v>0.0145150336399124</v>
+      </c>
+      <c r="G242" s="0"/>
+      <c r="L242" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M242" s="0"/>
+    </row>
+    <row r="243" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B243" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C243" s="74" t="n">
+        <v>300</v>
+      </c>
+      <c r="D243" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="E243" s="74" t="n">
+        <v>0.0277668783301186</v>
+      </c>
+      <c r="F243" s="74" t="n">
+        <v>0.0144284699817252</v>
+      </c>
+      <c r="G243" s="0"/>
+      <c r="L243" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M243" s="0"/>
+    </row>
+    <row r="244" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B244" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="C244" s="74" t="n">
+        <v>200</v>
+      </c>
+      <c r="D244" s="74" t="n">
+        <v>600</v>
+      </c>
+      <c r="E244" s="74" t="n">
+        <v>0.0277981288577423</v>
+      </c>
+      <c r="F244" s="74" t="n">
+        <v>0.0134735112809735</v>
+      </c>
+      <c r="G244" s="0"/>
+      <c r="L244" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M244" s="0"/>
+    </row>
+    <row r="245" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B245" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C245" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="D245" s="74" t="n">
+        <v>600</v>
+      </c>
+      <c r="E245" s="74" t="n">
+        <v>0.027690100844877</v>
+      </c>
+      <c r="F245" s="74" t="n">
+        <v>0.0136895347200016</v>
+      </c>
+      <c r="G245" s="0"/>
+      <c r="L245" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M245" s="0"/>
+    </row>
+    <row r="246" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B246" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="C246" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="D246" s="74" t="n">
+        <v>600</v>
+      </c>
+      <c r="E246" s="74" t="n">
+        <v>0.0277773462332775</v>
+      </c>
+      <c r="F246" s="74" t="n">
+        <v>0.0139182999004304</v>
+      </c>
+      <c r="G246" s="0"/>
+      <c r="L246" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M246" s="0"/>
+    </row>
+    <row r="247" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="B247" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C247" s="74" t="n">
+        <v>300</v>
+      </c>
+      <c r="D247" s="74" t="n">
+        <v>600</v>
+      </c>
+      <c r="E247" s="74" t="n">
+        <v>0.0279948252467428</v>
+      </c>
+      <c r="F247" s="74" t="n">
+        <v>0.0169496831740034</v>
+      </c>
+      <c r="G247" s="0"/>
+      <c r="L247" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M247" s="0"/>
+    </row>
+    <row r="248" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B248" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="C248" s="74" t="n">
+        <v>300</v>
+      </c>
+      <c r="D248" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="E248" s="74" t="n">
+        <v>0.0277828978231535</v>
+      </c>
+      <c r="F248" s="74" t="n">
+        <v>0.0146555958641398</v>
+      </c>
+      <c r="G248" s="0"/>
+      <c r="L248" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M248" s="0"/>
+    </row>
+    <row r="249" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="B249" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="C249" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="D249" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E249" s="74" t="n">
+        <v>0.0273051667088274</v>
+      </c>
+      <c r="F249" s="74" t="n">
+        <v>0.0125619461670006</v>
+      </c>
+      <c r="G249" s="0"/>
+      <c r="L249" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M249" s="0"/>
+    </row>
+    <row r="250" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B250" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="C250" s="74" t="n">
+        <v>300</v>
+      </c>
+      <c r="D250" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="E250" s="74" t="n">
+        <v>0.0278709661161988</v>
+      </c>
+      <c r="F250" s="74" t="n">
+        <v>0.0145309769772272</v>
+      </c>
+      <c r="G250" s="0"/>
+      <c r="L250" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M250" s="0"/>
+    </row>
+    <row r="251" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B251" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C251" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="D251" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="E251" s="74" t="n">
+        <v>0.0277268761976726</v>
+      </c>
+      <c r="F251" s="74" t="n">
+        <v>0.0145924929424003</v>
+      </c>
+      <c r="G251" s="0"/>
+      <c r="L251" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M251" s="0"/>
+    </row>
+    <row r="252" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B252" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="C252" s="74" t="n">
+        <v>200</v>
+      </c>
+      <c r="D252" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E252" s="74" t="n">
+        <v>0.0273683398064657</v>
+      </c>
+      <c r="F252" s="74" t="n">
+        <v>0.0124709825464683</v>
+      </c>
+      <c r="G252" s="0"/>
+      <c r="L252" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M252" s="0"/>
+    </row>
+    <row r="253" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B253" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="C253" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="D253" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="E253" s="74" t="n">
+        <v>0.0277333989059793</v>
+      </c>
+      <c r="F253" s="74" t="n">
+        <v>0.0144967973288582</v>
+      </c>
+      <c r="G253" s="0"/>
+      <c r="L253" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M253" s="0"/>
+    </row>
+    <row r="254" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="B254" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C254" s="74" t="n">
+        <v>200</v>
+      </c>
+      <c r="D254" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E254" s="74" t="n">
+        <v>0.0272158467188324</v>
+      </c>
+      <c r="F254" s="74" t="n">
+        <v>0.0126226019950381</v>
+      </c>
+      <c r="G254" s="0"/>
+      <c r="L254" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M254" s="0"/>
+    </row>
+    <row r="255" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B255" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C255" s="74" t="n">
+        <v>200</v>
+      </c>
+      <c r="D255" s="74" t="n">
+        <v>600</v>
+      </c>
+      <c r="E255" s="74" t="n">
+        <v>0.0278248932349117</v>
+      </c>
+      <c r="F255" s="74" t="n">
+        <v>0.0134529846877591</v>
+      </c>
+      <c r="G255" s="0"/>
+      <c r="L255" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M255" s="0"/>
+    </row>
+    <row r="256" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B256" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="C256" s="74" t="n">
+        <v>300</v>
+      </c>
+      <c r="D256" s="74" t="n">
+        <v>600</v>
+      </c>
+      <c r="E256" s="74" t="n">
+        <v>0.0277531030510179</v>
+      </c>
+      <c r="F256" s="74" t="n">
+        <v>0.0134692429531631</v>
+      </c>
+      <c r="G256" s="0"/>
+      <c r="L256" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M256" s="0"/>
+    </row>
+    <row r="257" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B257" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C257" s="74" t="n">
+        <v>200</v>
+      </c>
+      <c r="D257" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E257" s="74" t="n">
+        <v>0.0279109589248243</v>
+      </c>
+      <c r="F257" s="74" t="n">
+        <v>0.0164513402044849</v>
+      </c>
+      <c r="G257" s="0"/>
+      <c r="L257" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M257" s="0"/>
+    </row>
+    <row r="258" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="B258" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="C258" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="D258" s="74" t="n">
+        <v>600</v>
+      </c>
+      <c r="E258" s="74" t="n">
+        <v>0.0276757637049803</v>
+      </c>
+      <c r="F258" s="74" t="n">
+        <v>0.0135071830550466</v>
+      </c>
+      <c r="G258" s="0"/>
+      <c r="L258" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M258" s="0"/>
+    </row>
+    <row r="259" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="B259" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="C259" s="74" t="n">
+        <v>200</v>
+      </c>
+      <c r="D259" s="74" t="n">
+        <v>600</v>
+      </c>
+      <c r="E259" s="74" t="n">
+        <v>0.027770511232103</v>
+      </c>
+      <c r="F259" s="74" t="n">
+        <v>0.0136914905091539</v>
+      </c>
+      <c r="G259" s="0"/>
+      <c r="L259" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M259" s="0"/>
+    </row>
+    <row r="260" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="B260" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="C260" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="D260" s="74" t="n">
+        <v>600</v>
+      </c>
+      <c r="E260" s="74" t="n">
+        <v>0.0277019951349735</v>
+      </c>
+      <c r="F260" s="74" t="n">
+        <v>0.0137131169687583</v>
+      </c>
+      <c r="G260" s="0"/>
+      <c r="L260" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M260" s="0"/>
+    </row>
+    <row r="261" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B261" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C261" s="74" t="n">
+        <v>200</v>
+      </c>
+      <c r="D261" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="E261" s="74" t="n">
+        <v>0.0277553616674744</v>
+      </c>
+      <c r="F261" s="74" t="n">
+        <v>0.0145438559051414</v>
+      </c>
+      <c r="G261" s="0"/>
+      <c r="L261" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M261" s="0"/>
+    </row>
+    <row r="262" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="B262" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C262" s="74" t="n">
+        <v>200</v>
+      </c>
+      <c r="D262" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="E262" s="74" t="n">
+        <v>0.0278794815104737</v>
+      </c>
+      <c r="F262" s="74" t="n">
+        <v>0.0145086924098168</v>
+      </c>
+      <c r="G262" s="0"/>
+      <c r="L262" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M262" s="0"/>
+    </row>
+    <row r="263" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B263" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="C263" s="74" t="n">
+        <v>300</v>
+      </c>
+      <c r="D263" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E263" s="74" t="n">
+        <v>0.0273790312592369</v>
+      </c>
+      <c r="F263" s="74" t="n">
+        <v>0.0128473896259296</v>
+      </c>
+      <c r="G263" s="0"/>
+      <c r="L263" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M263" s="0"/>
+    </row>
+    <row r="264" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B264" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="C264" s="74" t="n">
+        <v>300</v>
+      </c>
+      <c r="D264" s="74" t="n">
+        <v>600</v>
+      </c>
+      <c r="E264" s="74" t="n">
+        <v>0.0296861445609495</v>
+      </c>
+      <c r="F264" s="74" t="n">
+        <v>0.0156678641775377</v>
+      </c>
+      <c r="G264" s="0"/>
+      <c r="L264" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M264" s="0"/>
+    </row>
+    <row r="265" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B265" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="C265" s="74" t="n">
+        <v>200</v>
+      </c>
+      <c r="D265" s="74" t="n">
+        <v>600</v>
+      </c>
+      <c r="E265" s="74" t="n">
+        <v>0.0276937340335798</v>
+      </c>
+      <c r="F265" s="74" t="n">
+        <v>0.0136020486090205</v>
+      </c>
+      <c r="G265" s="0"/>
+      <c r="L265" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M265" s="0"/>
+    </row>
+    <row r="266" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B266" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="C266" s="74" t="n">
+        <v>200</v>
+      </c>
+      <c r="D266" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="E266" s="74" t="n">
+        <v>0.0277606145767714</v>
+      </c>
+      <c r="F266" s="74" t="n">
+        <v>0.0145155320563741</v>
+      </c>
+      <c r="G266" s="0"/>
+      <c r="L266" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M266" s="0"/>
+    </row>
+    <row r="267" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B267" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C267" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="D267" s="74" t="n">
+        <v>600</v>
+      </c>
+      <c r="E267" s="74" t="n">
+        <v>0.0277371586088751</v>
+      </c>
+      <c r="F267" s="74" t="n">
+        <v>0.0138159171622351</v>
+      </c>
+      <c r="G267" s="0"/>
+      <c r="L267" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M267" s="0"/>
+    </row>
+    <row r="268" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="B268" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="C268" s="74" t="n">
+        <v>300</v>
+      </c>
+      <c r="D268" s="74" t="n">
+        <v>600</v>
+      </c>
+      <c r="E268" s="74" t="n">
+        <v>0.0278287982505812</v>
+      </c>
+      <c r="F268" s="74" t="n">
+        <v>0.0186199659372583</v>
+      </c>
+      <c r="G268" s="0"/>
+      <c r="L268" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M268" s="0"/>
+    </row>
+    <row r="269" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B269" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="C269" s="74" t="n">
+        <v>200</v>
+      </c>
+      <c r="D269" s="74" t="n">
+        <v>600</v>
+      </c>
+      <c r="E269" s="74" t="n">
+        <v>0.0277943996366322</v>
+      </c>
+      <c r="F269" s="74" t="n">
+        <v>0.0135326311566118</v>
+      </c>
+      <c r="G269" s="0"/>
+      <c r="L269" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M269" s="0"/>
+    </row>
+    <row r="270" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B270" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="C270" s="74" t="n">
+        <v>300</v>
+      </c>
+      <c r="D270" s="74" t="n">
+        <v>600</v>
+      </c>
+      <c r="E270" s="74" t="n">
+        <v>0.0278023212572681</v>
+      </c>
+      <c r="F270" s="74" t="n">
+        <v>0.0134712177900632</v>
+      </c>
+      <c r="G270" s="0"/>
+      <c r="L270" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M270" s="0"/>
+    </row>
+    <row r="271" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="B271" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C271" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="D271" s="74" t="n">
+        <v>600</v>
+      </c>
+      <c r="E271" s="74" t="n">
+        <v>0.0276900660968758</v>
+      </c>
+      <c r="F271" s="74" t="n">
+        <v>0.0137985504603507</v>
+      </c>
+      <c r="G271" s="0"/>
+      <c r="L271" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M271" s="0"/>
+    </row>
+    <row r="272" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B272" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="C272" s="74" t="n">
+        <v>200</v>
+      </c>
+      <c r="D272" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E272" s="74" t="n">
+        <v>0.0273089049360908</v>
+      </c>
+      <c r="F272" s="74" t="n">
+        <v>0.0125304374284825</v>
+      </c>
+      <c r="G272" s="0"/>
+      <c r="L272" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M272" s="0"/>
+    </row>
+    <row r="273" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B273" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="C273" s="74" t="n">
+        <v>200</v>
+      </c>
+      <c r="D273" s="74" t="n">
+        <v>600</v>
+      </c>
+      <c r="E273" s="74" t="n">
+        <v>0.0278153513650753</v>
+      </c>
+      <c r="F273" s="74" t="n">
+        <v>0.013506162062234</v>
+      </c>
+      <c r="G273" s="0"/>
+      <c r="L273" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M273" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Model Results.xlsx
+++ b/Model Results.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Classification Model Summary" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Regression Model Summary" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="LSTM Model Summary" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Pivot Table_LSTM Model Summary_1" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Pivot Table_LSTM Model Summary_2" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <pivotCaches>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="118">
   <si>
     <t xml:space="preserve">for finding prices 5 days (1 week) out:</t>
   </si>
@@ -389,25 +389,18 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
-  <si>
-    <t xml:space="preserve">500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">400</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="0.00E+00"/>
     <numFmt numFmtId="167" formatCode="0.0000%"/>
     <numFmt numFmtId="168" formatCode="0.0000"/>
     <numFmt numFmtId="169" formatCode="0.00%"/>
-    <numFmt numFmtId="170" formatCode="@"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -470,7 +463,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="41">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -753,22 +746,8 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
       <right style="medium"/>
       <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -816,7 +795,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="143">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1369,31 +1348,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="40" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="41" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="42" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="39" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="38" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1475,7 +1446,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1711,11 +1682,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="45859400"/>
-        <c:axId val="65435284"/>
+        <c:axId val="11683401"/>
+        <c:axId val="14167068"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="45859400"/>
+        <c:axId val="11683401"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1750,14 +1721,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65435284"/>
+        <c:crossAx val="14167068"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65435284"/>
+        <c:axId val="14167068"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1801,7 +1772,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45859400"/>
+        <c:crossAx val="11683401"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1846,7 +1817,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2118,11 +2089,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="58370709"/>
-        <c:axId val="25808834"/>
+        <c:axId val="25973738"/>
+        <c:axId val="50079471"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58370709"/>
+        <c:axId val="25973738"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2157,14 +2128,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25808834"/>
+        <c:crossAx val="50079471"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="25808834"/>
+        <c:axId val="50079471"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2208,7 +2179,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58370709"/>
+        <c:crossAx val="25973738"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2253,7 +2224,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2465,11 +2436,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="3029186"/>
-        <c:axId val="14987403"/>
+        <c:axId val="95003084"/>
+        <c:axId val="11829460"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="3029186"/>
+        <c:axId val="95003084"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2504,14 +2475,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14987403"/>
+        <c:crossAx val="11829460"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="14987403"/>
+        <c:axId val="11829460"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2555,7 +2526,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3029186"/>
+        <c:crossAx val="95003084"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5372,207 +5343,248 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="81">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="100">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A192:F273" sheet="LSTM Model Summary"/>
+    <worksheetSource ref="A287:F387" sheet="LSTM Model Summary"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Layer 1" numFmtId="0">
-      <sharedItems count="3" containsMixedTypes="0" containsSemiMixedTypes="0" containsString="0" containsNumber="1">
+      <sharedItems count="5" containsMixedTypes="0" containsSemiMixedTypes="0" containsString="0" containsNumber="1">
         <n v="5"/>
         <n v="10"/>
         <n v="15"/>
+        <n v="20"/>
+        <n v="25"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Layer 2" numFmtId="0">
-      <sharedItems count="3" containsMixedTypes="0" containsSemiMixedTypes="0" containsString="0" containsNumber="1">
+      <sharedItems count="5" containsMixedTypes="0" containsSemiMixedTypes="0" containsString="0" containsNumber="1">
         <n v="5"/>
         <n v="10"/>
         <n v="15"/>
+        <n v="20"/>
+        <n v="25"/>
       </sharedItems>
     </cacheField>
     <cacheField name="epochs" numFmtId="0">
-      <sharedItems count="3" containsMixedTypes="0" containsSemiMixedTypes="0" containsString="0" containsNumber="1">
-        <n v="200"/>
-        <n v="300"/>
+      <sharedItems count="4" containsMixedTypes="0" containsSemiMixedTypes="0" containsString="0" containsNumber="1">
         <n v="400"/>
+        <n v="600"/>
+        <n v="800"/>
+        <n v="1000"/>
       </sharedItems>
     </cacheField>
     <cacheField name="batch_size" numFmtId="0">
-      <sharedItems count="3" containsMixedTypes="0" containsSemiMixedTypes="0" containsString="0" containsNumber="1">
-        <n v="400"/>
+      <sharedItems count="1" containsMixedTypes="0" containsSemiMixedTypes="0" containsString="0" containsNumber="1">
         <n v="500"/>
-        <n v="600"/>
       </sharedItems>
     </cacheField>
     <cacheField name="train error" numFmtId="0">
-      <sharedItems count="81" containsMixedTypes="0" containsSemiMixedTypes="0" containsString="0" containsNumber="1">
-        <n v="0.0271518106329575"/>
-        <n v="0.0272125604602303"/>
-        <n v="0.0272158467188324"/>
-        <n v="0.0272165003166818"/>
-        <n v="0.0272176386166153"/>
-        <n v="0.0272529773626372"/>
-        <n v="0.0272586871352166"/>
-        <n v="0.0272646346878384"/>
-        <n v="0.0272657333347741"/>
-        <n v="0.0272665363842072"/>
-        <n v="0.027295362988569"/>
-        <n v="0.0273043879412292"/>
-        <n v="0.0273051667088274"/>
-        <n v="0.0273053628853176"/>
-        <n v="0.0273060852930813"/>
-        <n v="0.0273089049360908"/>
-        <n v="0.0273247498138547"/>
-        <n v="0.027356920053565"/>
-        <n v="0.0273683398064657"/>
-        <n v="0.0273701311001188"/>
-        <n v="0.0273786645058657"/>
-        <n v="0.0273790312592369"/>
-        <n v="0.027487302185228"/>
-        <n v="0.0276663858624463"/>
-        <n v="0.0276757637049803"/>
-        <n v="0.0276779780809594"/>
-        <n v="0.0276824073742217"/>
-        <n v="0.0276900660968758"/>
-        <n v="0.027690100844877"/>
-        <n v="0.0276915940591702"/>
-        <n v="0.0276937340335798"/>
-        <n v="0.0276964748558608"/>
-        <n v="0.0277019951349735"/>
-        <n v="0.0277024746583089"/>
-        <n v="0.0277175303354732"/>
-        <n v="0.0277268761976726"/>
-        <n v="0.0277320560480617"/>
-        <n v="0.0277333989059793"/>
-        <n v="0.027733973046727"/>
-        <n v="0.0277366060793134"/>
-        <n v="0.0277371586088751"/>
-        <n v="0.0277425010147322"/>
-        <n v="0.0277505237748832"/>
-        <n v="0.0277514009752104"/>
-        <n v="0.0277531030510179"/>
-        <n v="0.0277550542727464"/>
-        <n v="0.0277553616674744"/>
-        <n v="0.0277603267167707"/>
-        <n v="0.0277606145767714"/>
-        <n v="0.0277668783301186"/>
-        <n v="0.0277700110639005"/>
-        <n v="0.027770511232103"/>
-        <n v="0.0277726083903836"/>
-        <n v="0.0277747590940481"/>
-        <n v="0.0277761435152246"/>
-        <n v="0.0277773462332775"/>
-        <n v="0.0277810733875579"/>
-        <n v="0.0277828978231535"/>
-        <n v="0.0277831732658871"/>
-        <n v="0.0277932846262325"/>
-        <n v="0.0277943996366322"/>
-        <n v="0.0277981288577423"/>
-        <n v="0.0277981416468563"/>
-        <n v="0.0278023212572681"/>
-        <n v="0.0278027096699477"/>
-        <n v="0.0278050211434735"/>
-        <n v="0.0278074471434338"/>
-        <n v="0.0278078167612897"/>
-        <n v="0.0278093531209519"/>
-        <n v="0.0278153513650753"/>
-        <n v="0.0278248932349117"/>
-        <n v="0.0278287982505812"/>
-        <n v="0.0278709661161988"/>
-        <n v="0.0278794815104737"/>
-        <n v="0.027893601286958"/>
-        <n v="0.0279109589248243"/>
-        <n v="0.0279257951748146"/>
-        <n v="0.0279948252467428"/>
-        <n v="0.0280526200881892"/>
-        <n v="0.028720556953706"/>
-        <n v="0.0296861445609495"/>
+      <sharedItems count="100" containsMixedTypes="0" containsSemiMixedTypes="0" containsString="0" containsNumber="1">
+        <n v="0.0264340101374757"/>
+        <n v="0.0266204301854062"/>
+        <n v="0.0268638350924724"/>
+        <n v="0.0269489172259486"/>
+        <n v="0.0269561279292822"/>
+        <n v="0.027004279068097"/>
+        <n v="0.0270232049981044"/>
+        <n v="0.0270359307134937"/>
+        <n v="0.027047705573212"/>
+        <n v="0.0270637571999201"/>
+        <n v="0.0271209581452295"/>
+        <n v="0.0271324159659263"/>
+        <n v="0.0271383314701658"/>
+        <n v="0.0271397636297129"/>
+        <n v="0.0271442593337774"/>
+        <n v="0.0271468508286893"/>
+        <n v="0.027148631946805"/>
+        <n v="0.0271487618643772"/>
+        <n v="0.0271579907833019"/>
+        <n v="0.0271594791695935"/>
+        <n v="0.027162535990137"/>
+        <n v="0.0271641780579856"/>
+        <n v="0.0271718649987658"/>
+        <n v="0.0271749833931097"/>
+        <n v="0.0271840963534526"/>
+        <n v="0.0271845090033409"/>
+        <n v="0.0271851063220836"/>
+        <n v="0.0271861092486925"/>
+        <n v="0.0271926701362212"/>
+        <n v="0.0271984866611941"/>
+        <n v="0.0272006499464067"/>
+        <n v="0.0272030192197244"/>
+        <n v="0.0272041883398165"/>
+        <n v="0.0272074792927777"/>
+        <n v="0.0272097562031668"/>
+        <n v="0.0272102313051806"/>
+        <n v="0.0272126502104759"/>
+        <n v="0.0272164524690665"/>
+        <n v="0.0272170140682453"/>
+        <n v="0.0272194246186294"/>
+        <n v="0.0272196881859122"/>
+        <n v="0.027219828792157"/>
+        <n v="0.0272202192336435"/>
+        <n v="0.0272203894755963"/>
+        <n v="0.0272207092597296"/>
+        <n v="0.0272208080994068"/>
+        <n v="0.0272208443728329"/>
+        <n v="0.0272230290290456"/>
+        <n v="0.0272231717420133"/>
+        <n v="0.0272237697838078"/>
+        <n v="0.0272251801989211"/>
+        <n v="0.0272267321779275"/>
+        <n v="0.0272294986186955"/>
+        <n v="0.027229541518922"/>
+        <n v="0.0272324747878921"/>
+        <n v="0.0272339528163793"/>
+        <n v="0.0272353143554483"/>
+        <n v="0.0272403788439777"/>
+        <n v="0.0272443607217251"/>
+        <n v="0.0272450721845087"/>
+        <n v="0.0272453355517233"/>
+        <n v="0.0272496623946095"/>
+        <n v="0.0272522930506778"/>
+        <n v="0.0272682466671283"/>
+        <n v="0.0272757894151649"/>
+        <n v="0.0272775879258799"/>
+        <n v="0.0272825004367433"/>
+        <n v="0.0272956770874494"/>
+        <n v="0.0272980171920418"/>
+        <n v="0.0273143164542905"/>
+        <n v="0.0273145613352002"/>
+        <n v="0.0273155719218788"/>
+        <n v="0.027321558654144"/>
+        <n v="0.0273269630920341"/>
+        <n v="0.0273281680810793"/>
+        <n v="0.02734110962849"/>
+        <n v="0.0273614028832171"/>
+        <n v="0.0273638145402698"/>
+        <n v="0.0273738833568537"/>
+        <n v="0.027379819793401"/>
+        <n v="0.0273843479030494"/>
+        <n v="0.0273885440190985"/>
+        <n v="0.0273911563535529"/>
+        <n v="0.0274092084999433"/>
+        <n v="0.0274097847995539"/>
+        <n v="0.027412060829993"/>
+        <n v="0.02744401569752"/>
+        <n v="0.0274645510081096"/>
+        <n v="0.0274781446304043"/>
+        <n v="0.0274813610351779"/>
+        <n v="0.0274972700269679"/>
+        <n v="0.027506832078264"/>
+        <n v="0.0275086193872398"/>
+        <n v="0.0275637873512777"/>
+        <n v="0.0276050555349675"/>
+        <n v="0.0276203581483222"/>
+        <n v="0.0277620661766068"/>
+        <n v="0.027788057946221"/>
+        <n v="0.0298403221689202"/>
+        <n v="0.0337923119051988"/>
       </sharedItems>
     </cacheField>
     <cacheField name="test error" numFmtId="0">
-      <sharedItems count="81" containsMixedTypes="0" containsSemiMixedTypes="0" containsString="0" containsNumber="1">
-        <n v="0.0124626718123526"/>
-        <n v="0.0124709825464683"/>
-        <n v="0.0125179051917055"/>
-        <n v="0.0125304374284825"/>
-        <n v="0.0125526970280986"/>
-        <n v="0.012553507352753"/>
-        <n v="0.0125593682039823"/>
-        <n v="0.0125619461670006"/>
-        <n v="0.0125839403117134"/>
-        <n v="0.0126006877706183"/>
-        <n v="0.0126134575699191"/>
-        <n v="0.0126195881608499"/>
-        <n v="0.0126226019950381"/>
-        <n v="0.0126598859582523"/>
-        <n v="0.0127112741427428"/>
-        <n v="0.0127119074393845"/>
-        <n v="0.0128308424597175"/>
-        <n v="0.0128473896259296"/>
-        <n v="0.0128531800817593"/>
-        <n v="0.0129181685606768"/>
-        <n v="0.0129613077507679"/>
-        <n v="0.0130195443703591"/>
-        <n v="0.0130994176227148"/>
-        <n v="0.0131886148885506"/>
-        <n v="0.0134529846877591"/>
-        <n v="0.0134692429531631"/>
-        <n v="0.0134712177900632"/>
-        <n v="0.0134735112809735"/>
-        <n v="0.0134995784610357"/>
-        <n v="0.013506162062234"/>
-        <n v="0.0135071830550466"/>
-        <n v="0.0135326311566118"/>
-        <n v="0.0135403040432141"/>
-        <n v="0.013577586437554"/>
-        <n v="0.0135933831360492"/>
-        <n v="0.0136020486090205"/>
-        <n v="0.0136192856959921"/>
-        <n v="0.0136398821003798"/>
-        <n v="0.0136635224431527"/>
-        <n v="0.0136895347200016"/>
-        <n v="0.0136914905091539"/>
-        <n v="0.0137131169687583"/>
-        <n v="0.0137985504603507"/>
-        <n v="0.0138159171622351"/>
-        <n v="0.0139182999004304"/>
-        <n v="0.0139352669511624"/>
-        <n v="0.0141643402888762"/>
-        <n v="0.0144243801639859"/>
-        <n v="0.0144284699817252"/>
-        <n v="0.0144442701130392"/>
-        <n v="0.014447679417254"/>
-        <n v="0.0144944724806178"/>
-        <n v="0.0144967973288582"/>
-        <n v="0.0145086924098168"/>
-        <n v="0.0145150336399124"/>
-        <n v="0.0145155320563741"/>
-        <n v="0.0145309769772272"/>
-        <n v="0.0145415368437708"/>
-        <n v="0.0145438559051414"/>
-        <n v="0.0145491358906348"/>
-        <n v="0.0145700433128921"/>
-        <n v="0.0145827983693263"/>
-        <n v="0.0145834620931173"/>
-        <n v="0.0145924929424003"/>
-        <n v="0.0146138642072471"/>
-        <n v="0.0146182713817412"/>
-        <n v="0.0146285546792296"/>
-        <n v="0.0146555958641398"/>
-        <n v="0.0146663835881702"/>
-        <n v="0.0146769484786268"/>
-        <n v="0.0146773956393"/>
-        <n v="0.0147249158496426"/>
-        <n v="0.014737372536367"/>
-        <n v="0.0147712236902055"/>
-        <n v="0.0150204530639004"/>
-        <n v="0.015054577629523"/>
-        <n v="0.0156678641775377"/>
-        <n v="0.0164513402044849"/>
-        <n v="0.0169496831740034"/>
-        <n v="0.0179188500308673"/>
-        <n v="0.0186199659372583"/>
+      <sharedItems count="100" containsMixedTypes="0" containsSemiMixedTypes="0" containsString="0" containsNumber="1">
+        <n v="0.0124343364585715"/>
+        <n v="0.0124779808745092"/>
+        <n v="0.0124796180821531"/>
+        <n v="0.0124819903909896"/>
+        <n v="0.0124831778444825"/>
+        <n v="0.0124896977261677"/>
+        <n v="0.0124932598585598"/>
+        <n v="0.0125036994988169"/>
+        <n v="0.0125041915304598"/>
+        <n v="0.0125102484850861"/>
+        <n v="0.0125134561710879"/>
+        <n v="0.0125178469314913"/>
+        <n v="0.0125193567048618"/>
+        <n v="0.0125229890655065"/>
+        <n v="0.01252493095449"/>
+        <n v="0.0125264228120534"/>
+        <n v="0.0125325213503217"/>
+        <n v="0.0125363040090725"/>
+        <n v="0.0125404974638329"/>
+        <n v="0.0125416753985848"/>
+        <n v="0.0125432233196698"/>
+        <n v="0.0125634950959043"/>
+        <n v="0.0125648525527317"/>
+        <n v="0.0125700588716432"/>
+        <n v="0.0125719125652616"/>
+        <n v="0.0125745167983707"/>
+        <n v="0.0125786915777514"/>
+        <n v="0.0125840051495073"/>
+        <n v="0.0125841345479853"/>
+        <n v="0.0125856690450786"/>
+        <n v="0.0125857171919697"/>
+        <n v="0.0125878860072548"/>
+        <n v="0.0126024362917651"/>
+        <n v="0.0126070268123409"/>
+        <n v="0.0126078301700107"/>
+        <n v="0.012610335811116"/>
+        <n v="0.0126114301726121"/>
+        <n v="0.0126133281170494"/>
+        <n v="0.0126162861415399"/>
+        <n v="0.0126313326740281"/>
+        <n v="0.0126323705601221"/>
+        <n v="0.0126347448702584"/>
+        <n v="0.0126365523176607"/>
+        <n v="0.0126433330755966"/>
+        <n v="0.0126517081020976"/>
+        <n v="0.0126575412753845"/>
+        <n v="0.012657792244098"/>
+        <n v="0.0126597183798832"/>
+        <n v="0.0126604381236739"/>
+        <n v="0.0126634894591041"/>
+        <n v="0.0126707125559529"/>
+        <n v="0.0126748975533765"/>
+        <n v="0.0126827984307157"/>
+        <n v="0.0126831872588889"/>
+        <n v="0.0126849181500778"/>
+        <n v="0.0126865141324746"/>
+        <n v="0.0127072493796958"/>
+        <n v="0.0127206373278375"/>
+        <n v="0.0127400531931046"/>
+        <n v="0.012744887530726"/>
+        <n v="0.012760468554835"/>
+        <n v="0.0127833036530905"/>
+        <n v="0.0128192002223724"/>
+        <n v="0.012833012360393"/>
+        <n v="0.0128383392376259"/>
+        <n v="0.0128396235309207"/>
+        <n v="0.0128452638595767"/>
+        <n v="0.0128614330872221"/>
+        <n v="0.0128838608631167"/>
+        <n v="0.0129233435349313"/>
+        <n v="0.012931448457034"/>
+        <n v="0.0129686387188121"/>
+        <n v="0.0130055759523334"/>
+        <n v="0.0130236777180021"/>
+        <n v="0.0130349961899488"/>
+        <n v="0.0130478887446968"/>
+        <n v="0.0130708071435599"/>
+        <n v="0.0131204343943837"/>
+        <n v="0.0131313720213083"/>
+        <n v="0.0131314105941187"/>
+        <n v="0.0131514447311332"/>
+        <n v="0.013235782586402"/>
+        <n v="0.0132607315575299"/>
+        <n v="0.0133339648430716"/>
+        <n v="0.0133340504636721"/>
+        <n v="0.0133866059477988"/>
+        <n v="0.0134596603398057"/>
+        <n v="0.0134804245105135"/>
+        <n v="0.0134860109724899"/>
+        <n v="0.0135383551567242"/>
+        <n v="0.0136635869251637"/>
+        <n v="0.0136657693640739"/>
+        <n v="0.0141740444540796"/>
+        <n v="0.0145974672332472"/>
+        <n v="0.0148353570869095"/>
+        <n v="0.0151720396537959"/>
+        <n v="0.0151982516430664"/>
+        <n v="0.0155871654613079"/>
+        <n v="0.0177738379605069"/>
+        <n v="0.0196163489387901"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -11494,170 +11506,290 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="81">
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="68"/>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="100">
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="51"/>
-  </r>
-  <r>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="3"/>
     <x v="2"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="38"/>
+    <x v="74"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="97"/>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
     <x v="2"/>
-    <x v="54"/>
-    <x v="38"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="18"/>
     <x v="64"/>
-    <x v="49"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="29"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="79"/>
-    <x v="60"/>
-  </r>
-  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="69"/>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="74"/>
-    <x v="73"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="77"/>
+    <x v="66"/>
+  </r>
+  <r>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="59"/>
-    <x v="57"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="20"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="16"/>
-    <x v="46"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="58"/>
-    <x v="45"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="43"/>
-    <x v="68"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="47"/>
-    <x v="36"/>
+    <x v="0"/>
+    <x v="71"/>
+    <x v="62"/>
   </r>
   <r>
     <x v="2"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="89"/>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="40"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="22"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="43"/>
+    <x v="12"/>
+  </r>
+  <r>
     <x v="3"/>
     <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="45"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="84"/>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="20"/>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="54"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="78"/>
+    <x v="93"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="95"/>
+    <x v="65"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="53"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="62"/>
+    <x v="76"/>
+  </r>
+  <r>
     <x v="2"/>
     <x v="2"/>
-    <x v="67"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="48"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="96"/>
+    <x v="85"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="27"/>
+    <x v="69"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="57"/>
+    <x v="90"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="26"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="76"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="66"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="9"/>
     <x v="28"/>
   </r>
   <r>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="21"/>
+    <x v="89"/>
+  </r>
+  <r>
+    <x v="0"/>
     <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="16"/>
-  </r>
-  <r>
     <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="26"/>
-    <x v="59"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="25"/>
-    <x v="71"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="30"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="72"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="42"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
     <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="29"/>
-    <x v="23"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="78"/>
-    <x v="79"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="21"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
     <x v="2"/>
     <x v="0"/>
     <x v="50"/>
@@ -11666,482 +11798,514 @@
   <r>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="87"/>
+    <x v="48"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="24"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="90"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="46"/>
+    <x v="71"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="58"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="92"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="70"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="15"/>
+    <x v="68"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="79"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="79"/>
+    <x v="92"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="75"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="34"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="85"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="82"/>
+    <x v="72"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="33"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="32"/>
+    <x v="78"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="74"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="81"/>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="94"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="28"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="44"/>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="35"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="75"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="3"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="33"/>
-    <x v="34"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="56"/>
+    <x v="88"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="88"/>
+    <x v="84"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="37"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="65"/>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="47"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="99"/>
+    <x v="99"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="41"/>
+    <x v="52"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="93"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <x v="13"/>
+    <x v="0"/>
+    <x v="80"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <x v="1"/>
     <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="49"/>
+    <x v="7"/>
+  </r>
+  <r>
     <x v="2"/>
     <x v="2"/>
     <x v="1"/>
-    <x v="45"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="59"/>
+    <x v="73"/>
+  </r>
+  <r>
     <x v="2"/>
-    <x v="1"/>
-    <x v="19"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="60"/>
+    <x v="96"/>
+  </r>
+  <r>
     <x v="2"/>
-    <x v="0"/>
-    <x v="62"/>
-    <x v="66"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="22"/>
-    <x v="18"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="23"/>
-    <x v="50"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="39"/>
+    <x v="97"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="36"/>
+    <x v="77"/>
   </r>
   <r>
     <x v="2"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="83"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="17"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="55"/>
     <x v="9"/>
-    <x v="9"/>
-  </r>
-  <r>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="68"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="61"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="52"/>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="91"/>
+    <x v="80"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="23"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="73"/>
+    <x v="81"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="67"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="16"/>
+    <x v="67"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="82"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="31"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="83"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="64"/>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="91"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="63"/>
+    <x v="95"/>
+  </r>
+  <r>
+    <x v="4"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="53"/>
-    <x v="61"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="86"/>
+    <x v="94"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
     <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="66"/>
-    <x v="65"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="41"/>
-    <x v="33"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="19"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="38"/>
-    <x v="69"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="56"/>
-    <x v="47"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="36"/>
-    <x v="74"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="42"/>
-    <x v="32"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="17"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="31"/>
-    <x v="62"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="10"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="11"/>
-    <x v="22"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="52"/>
-    <x v="72"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="34"/>
-    <x v="64"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="65"/>
-    <x v="37"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="14"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="76"/>
-    <x v="75"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="20"/>
-    <x v="15"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="39"/>
-    <x v="54"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="49"/>
-    <x v="48"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="61"/>
-    <x v="27"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="28"/>
-    <x v="39"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="55"/>
-    <x v="44"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="77"/>
-    <x v="78"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="57"/>
-    <x v="67"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="12"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="72"/>
-    <x v="56"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="35"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="87"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="98"/>
+    <x v="86"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="25"/>
     <x v="63"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="18"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="37"/>
-    <x v="52"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="70"/>
-    <x v="24"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="44"/>
-    <x v="25"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="75"/>
-    <x v="77"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="24"/>
-    <x v="30"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="51"/>
-    <x v="40"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="32"/>
-    <x v="41"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="46"/>
-    <x v="58"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="73"/>
-    <x v="53"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="21"/>
-    <x v="17"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="80"/>
-    <x v="76"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="30"/>
-    <x v="35"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="48"/>
-    <x v="55"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="40"/>
-    <x v="43"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="71"/>
-    <x v="80"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="60"/>
-    <x v="31"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="63"/>
-    <x v="26"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="27"/>
-    <x v="42"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="15"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="69"/>
-    <x v="29"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -12210,28 +12374,29 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="1" outlineData="1">
-  <location ref="A6:E11" firstHeaderRow="2" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="1" outlineData="1">
+  <location ref="A6:C13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="6">
+    <pivotField axis="axisPage" showAll="0"/>
     <pivotField axis="axisRow" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0"/>
     <pivotField axis="axisPage" showAll="0"/>
     <pivotField axis="axisPage" showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="0"/>
+    <field x="1"/>
   </rowFields>
-  <colFields count="2">
-    <field x="1"/>
+  <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <pageFields count="2">
+  <pageFields count="3">
     <pageField fld="3" hier="-1"/>
     <pageField fld="2" hier="-1"/>
+    <pageField fld="0" hier="-1"/>
   </pageFields>
-  <dataFields count="1">
+  <dataFields count="2">
+    <dataField fld="4" subtotal="average"/>
     <dataField fld="5" subtotal="average"/>
   </dataFields>
 </pivotTableDefinition>
@@ -12359,10 +12524,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:E11"/>
+  <dimension ref="A2:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12370,48 +12535,46 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="138" t="s">
-        <v>118</v>
+        <v>106</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="138" t="s">
-        <v>119</v>
+        <v>112</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="57" t="s">
-        <v>116</v>
-      </c>
+      <c r="A6" s="57"/>
       <c r="B6" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="140"/>
+        <v>32</v>
+      </c>
+      <c r="C6" s="138"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="141" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" s="142" t="n">
-        <v>10</v>
-      </c>
-      <c r="D7" s="142" t="n">
-        <v>15</v>
-      </c>
-      <c r="E7" s="143" t="s">
-        <v>37</v>
+        <v>113</v>
+      </c>
+      <c r="B7" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12419,16 +12582,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="59" t="n">
-        <v>0.0125526970280986</v>
-      </c>
-      <c r="C8" s="29" t="n">
-        <v>0.0124626718123526</v>
-      </c>
-      <c r="D8" s="27" t="n">
-        <v>0.0127112741427428</v>
-      </c>
-      <c r="E8" s="31" t="n">
-        <v>0.0125755476610647</v>
+        <v>0.0273514875897071</v>
+      </c>
+      <c r="C8" s="139" t="n">
+        <v>0.0129118895670381</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12436,50 +12593,54 @@
         <v>10</v>
       </c>
       <c r="B9" s="61" t="n">
-        <v>0.0126134575699191</v>
-      </c>
-      <c r="C9" s="37" t="n">
-        <v>0.0128531800817593</v>
-      </c>
-      <c r="D9" s="35" t="n">
-        <v>0.0127119074393845</v>
-      </c>
-      <c r="E9" s="39" t="n">
-        <v>0.012726181697021</v>
+        <v>0.027228463385515</v>
+      </c>
+      <c r="C9" s="140" t="n">
+        <v>0.012799631703947</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="32" t="n">
         <v>15</v>
       </c>
-      <c r="B10" s="62" t="n">
-        <v>0.0130195443703591</v>
-      </c>
-      <c r="C10" s="45" t="n">
-        <v>0.0125619461670006</v>
-      </c>
-      <c r="D10" s="43" t="n">
-        <v>0.0126006877706183</v>
-      </c>
-      <c r="E10" s="47" t="n">
-        <v>0.012727392769326</v>
+      <c r="B10" s="61" t="n">
+        <v>0.0272766800486579</v>
+      </c>
+      <c r="C10" s="140" t="n">
+        <v>0.0131518491897973</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="32" t="n">
+        <v>20</v>
+      </c>
+      <c r="B11" s="61" t="n">
+        <v>0.0272647347350691</v>
+      </c>
+      <c r="C11" s="140" t="n">
+        <v>0.0131312920953754</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="32" t="n">
+        <v>25</v>
+      </c>
+      <c r="B12" s="62" t="n">
+        <v>0.0275701415540845</v>
+      </c>
+      <c r="C12" s="141" t="n">
+        <v>0.0131166830995314</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="64" t="n">
-        <v>0.0127285663227923</v>
-      </c>
-      <c r="C11" s="144" t="n">
-        <v>0.0126259326870375</v>
-      </c>
-      <c r="D11" s="54" t="n">
-        <v>0.0126746231175818</v>
-      </c>
-      <c r="E11" s="56" t="n">
-        <v>0.0126763740424705</v>
+      <c r="B13" s="64" t="n">
+        <v>0.0273383014626067</v>
+      </c>
+      <c r="C13" s="142" t="n">
+        <v>0.0130222691311378</v>
       </c>
     </row>
   </sheetData>
@@ -35109,10 +35270,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q273"/>
+  <dimension ref="A1:Q387"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A176" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E202" activeCellId="0" sqref="E202"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A256" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G290" activeCellId="0" sqref="G290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38568,10 +38729,10 @@
         <v>5</v>
       </c>
       <c r="J139" s="16" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K139" s="16" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="L139" s="108" t="s">
         <v>37</v>
@@ -38644,7 +38805,7 @@
       </c>
       <c r="G141" s="0"/>
       <c r="H141" s="32" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I141" s="88" t="n">
         <v>0.0274238627310136</v>
@@ -38685,7 +38846,7 @@
       </c>
       <c r="G142" s="0"/>
       <c r="H142" s="32" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="I142" s="101" t="n">
         <v>0.0274061332919906</v>
@@ -38870,10 +39031,10 @@
         <v>5</v>
       </c>
       <c r="J147" s="16" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K147" s="16" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="L147" s="108" t="s">
         <v>37</v>
@@ -38944,7 +39105,7 @@
       </c>
       <c r="G149" s="0"/>
       <c r="H149" s="32" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I149" s="121" t="n">
         <v>0.0125516333272871</v>
@@ -38982,7 +39143,7 @@
       </c>
       <c r="G150" s="0"/>
       <c r="H150" s="32" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="I150" s="123" t="n">
         <v>0.0127060594733748</v>
@@ -42280,6 +42441,2981 @@
         <v>117</v>
       </c>
       <c r="M273" s="0"/>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B279" s="0"/>
+      <c r="C279" s="0"/>
+      <c r="D279" s="0"/>
+      <c r="E279" s="0"/>
+      <c r="F279" s="0"/>
+      <c r="G279" s="0"/>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B280" s="0"/>
+      <c r="C280" s="0"/>
+      <c r="D280" s="0"/>
+      <c r="E280" s="0"/>
+      <c r="F280" s="0"/>
+      <c r="G280" s="0"/>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B281" s="0"/>
+      <c r="C281" s="0"/>
+      <c r="D281" s="0"/>
+      <c r="E281" s="0"/>
+      <c r="F281" s="0"/>
+      <c r="G281" s="0"/>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B282" s="0"/>
+      <c r="C282" s="0"/>
+      <c r="D282" s="0"/>
+      <c r="E282" s="0"/>
+      <c r="F282" s="0"/>
+      <c r="G282" s="0"/>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B283" s="0"/>
+      <c r="C283" s="0"/>
+      <c r="D283" s="0"/>
+      <c r="E283" s="0"/>
+      <c r="F283" s="0"/>
+      <c r="G283" s="0"/>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B284" s="0"/>
+      <c r="C284" s="0"/>
+      <c r="D284" s="0"/>
+      <c r="E284" s="0"/>
+      <c r="F284" s="0"/>
+      <c r="G284" s="0"/>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B285" s="0"/>
+      <c r="C285" s="0"/>
+      <c r="D285" s="0"/>
+      <c r="E285" s="0"/>
+      <c r="F285" s="0"/>
+      <c r="G285" s="0"/>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B286" s="0"/>
+      <c r="C286" s="0"/>
+      <c r="D286" s="0"/>
+      <c r="E286" s="0"/>
+      <c r="F286" s="0"/>
+      <c r="G286" s="0"/>
+    </row>
+    <row r="287" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="B287" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="C287" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="D287" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="E287" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="F287" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="G287" s="0"/>
+    </row>
+    <row r="288" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B288" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C288" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="D288" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E288" s="74" t="n">
+        <v>0.0272267321779275</v>
+      </c>
+      <c r="F288" s="0" t="n">
+        <v>0.0127072493796958</v>
+      </c>
+      <c r="G288" s="0"/>
+      <c r="L288" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M288" s="0"/>
+      <c r="N288" s="0"/>
+      <c r="O288" s="0"/>
+    </row>
+    <row r="289" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B289" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C289" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="D289" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E289" s="74" t="n">
+        <v>0.0272170140682453</v>
+      </c>
+      <c r="F289" s="0" t="n">
+        <v>0.0130349961899488</v>
+      </c>
+      <c r="G289" s="0"/>
+      <c r="H289" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I289" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="J289" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="L289" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M289" s="0"/>
+      <c r="N289" s="0"/>
+      <c r="O289" s="0"/>
+    </row>
+    <row r="290" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B290" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C290" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="D290" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E290" s="74" t="n">
+        <v>0.027788057946221</v>
+      </c>
+      <c r="F290" s="0" t="n">
+        <v>0.0126865141324746</v>
+      </c>
+      <c r="G290" s="0"/>
+      <c r="H290" s="85" t="n">
+        <v>400</v>
+      </c>
+      <c r="I290" s="86" t="n">
+        <v>0.0276020861079078</v>
+      </c>
+      <c r="J290" s="87" t="n">
+        <v>0.0129484864547766</v>
+      </c>
+      <c r="L290" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M290" s="0"/>
+      <c r="N290" s="0"/>
+      <c r="O290" s="0"/>
+    </row>
+    <row r="291" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B291" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C291" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="D291" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E291" s="74" t="n">
+        <v>0.0271579907833019</v>
+      </c>
+      <c r="F291" s="0" t="n">
+        <v>0.0128383392376259</v>
+      </c>
+      <c r="G291" s="0"/>
+      <c r="H291" s="32" t="n">
+        <v>600</v>
+      </c>
+      <c r="I291" s="88" t="n">
+        <v>0.0273596071624082</v>
+      </c>
+      <c r="J291" s="89" t="n">
+        <v>0.0131387778282022</v>
+      </c>
+      <c r="L291" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M291" s="0"/>
+      <c r="N291" s="0"/>
+      <c r="O291" s="0"/>
+    </row>
+    <row r="292" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B292" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C292" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="D292" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E292" s="74" t="n">
+        <v>0.0271984866611941</v>
+      </c>
+      <c r="F292" s="0" t="n">
+        <v>0.0125363040090725</v>
+      </c>
+      <c r="G292" s="0"/>
+      <c r="H292" s="32" t="n">
+        <v>800</v>
+      </c>
+      <c r="I292" s="88" t="n">
+        <v>0.0272151069676837</v>
+      </c>
+      <c r="J292" s="89" t="n">
+        <v>0.0129861977369785</v>
+      </c>
+      <c r="L292" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M292" s="0"/>
+      <c r="N292" s="0"/>
+      <c r="O292" s="0"/>
+    </row>
+    <row r="293" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B293" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C293" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="D293" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E293" s="74" t="n">
+        <v>0.0273143164542905</v>
+      </c>
+      <c r="F293" s="0" t="n">
+        <v>0.0126597183798832</v>
+      </c>
+      <c r="G293" s="0"/>
+      <c r="H293" s="32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I293" s="101" t="n">
+        <v>0.0271764056124272</v>
+      </c>
+      <c r="J293" s="102" t="n">
+        <v>0.0130156145045939</v>
+      </c>
+      <c r="L293" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M293" s="0"/>
+      <c r="N293" s="0"/>
+      <c r="O293" s="0"/>
+    </row>
+    <row r="294" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B294" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C294" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="D294" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E294" s="74" t="n">
+        <v>0.0273638145402698</v>
+      </c>
+      <c r="F294" s="0" t="n">
+        <v>0.0128452638595767</v>
+      </c>
+      <c r="G294" s="0"/>
+      <c r="H294" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="I294" s="93" t="n">
+        <v>0.0273383014626067</v>
+      </c>
+      <c r="J294" s="94" t="n">
+        <v>0.0130222691311378</v>
+      </c>
+      <c r="L294" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M294" s="0"/>
+      <c r="N294" s="0"/>
+      <c r="O294" s="0"/>
+    </row>
+    <row r="295" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B295" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C295" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="D295" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E295" s="74" t="n">
+        <v>0.0273155719218788</v>
+      </c>
+      <c r="F295" s="0" t="n">
+        <v>0.0128192002223724</v>
+      </c>
+      <c r="G295" s="0"/>
+      <c r="I295" s="95"/>
+      <c r="J295" s="95"/>
+      <c r="L295" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M295" s="0"/>
+      <c r="N295" s="0"/>
+      <c r="O295" s="0"/>
+    </row>
+    <row r="296" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B296" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C296" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="D296" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E296" s="74" t="n">
+        <v>0.0274813610351779</v>
+      </c>
+      <c r="F296" s="0" t="n">
+        <v>0.0126748975533765</v>
+      </c>
+      <c r="G296" s="0"/>
+      <c r="I296" s="95"/>
+      <c r="J296" s="95"/>
+      <c r="L296" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M296" s="0"/>
+      <c r="N296" s="0"/>
+      <c r="O296" s="0"/>
+    </row>
+    <row r="297" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B297" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C297" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D297" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E297" s="74" t="n">
+        <v>0.0272196881859122</v>
+      </c>
+      <c r="F297" s="0" t="n">
+        <v>0.0124343364585715</v>
+      </c>
+      <c r="G297" s="0"/>
+      <c r="I297" s="95"/>
+      <c r="J297" s="95"/>
+      <c r="L297" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M297" s="0"/>
+      <c r="N297" s="0"/>
+      <c r="O297" s="0"/>
+    </row>
+    <row r="298" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B298" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C298" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="D298" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E298" s="74" t="n">
+        <v>0.0271718649987658</v>
+      </c>
+      <c r="F298" s="0" t="n">
+        <v>0.0126024362917651</v>
+      </c>
+      <c r="G298" s="0"/>
+      <c r="H298" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="I298" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="J298" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="L298" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M298" s="0"/>
+      <c r="N298" s="0"/>
+      <c r="O298" s="0"/>
+    </row>
+    <row r="299" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B299" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C299" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D299" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E299" s="74" t="n">
+        <v>0.0264340101374757</v>
+      </c>
+      <c r="F299" s="0" t="n">
+        <v>0.012744887530726</v>
+      </c>
+      <c r="G299" s="0"/>
+      <c r="H299" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="I299" s="86" t="n">
+        <v>0.0272741001180084</v>
+      </c>
+      <c r="J299" s="87" t="n">
+        <v>0.0126705339036152</v>
+      </c>
+      <c r="L299" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M299" s="0"/>
+      <c r="N299" s="0"/>
+      <c r="O299" s="0"/>
+    </row>
+    <row r="300" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B300" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C300" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="D300" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E300" s="74" t="n">
+        <v>0.0272203894755963</v>
+      </c>
+      <c r="F300" s="0" t="n">
+        <v>0.0125193567048618</v>
+      </c>
+      <c r="G300" s="0"/>
+      <c r="H300" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="I300" s="88" t="n">
+        <v>0.027359685397225</v>
+      </c>
+      <c r="J300" s="89" t="n">
+        <v>0.013063985721263</v>
+      </c>
+      <c r="L300" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M300" s="0"/>
+      <c r="N300" s="0"/>
+      <c r="O300" s="0"/>
+    </row>
+    <row r="301" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B301" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C301" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="D301" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E301" s="74" t="n">
+        <v>0.0272208080994068</v>
+      </c>
+      <c r="F301" s="0" t="n">
+        <v>0.01252493095449</v>
+      </c>
+      <c r="G301" s="0"/>
+      <c r="H301" s="32" t="n">
+        <v>15</v>
+      </c>
+      <c r="I301" s="88" t="n">
+        <v>0.0272807848270018</v>
+      </c>
+      <c r="J301" s="89" t="n">
+        <v>0.0131616876362889</v>
+      </c>
+      <c r="L301" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M301" s="0"/>
+      <c r="N301" s="0"/>
+      <c r="O301" s="0"/>
+    </row>
+    <row r="302" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B302" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C302" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D302" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E302" s="74" t="n">
+        <v>0.0274097847995539</v>
+      </c>
+      <c r="F302" s="0" t="n">
+        <v>0.0126634894591041</v>
+      </c>
+      <c r="G302" s="0"/>
+      <c r="H302" s="32" t="n">
+        <v>20</v>
+      </c>
+      <c r="I302" s="88" t="n">
+        <v>0.0275706813536658</v>
+      </c>
+      <c r="J302" s="89" t="n">
+        <v>0.0132432592769147</v>
+      </c>
+      <c r="L302" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M302" s="0"/>
+      <c r="N302" s="0"/>
+      <c r="O302" s="0"/>
+    </row>
+    <row r="303" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B303" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C303" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="D303" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E303" s="74" t="n">
+        <v>0.027162535990137</v>
+      </c>
+      <c r="F303" s="0" t="n">
+        <v>0.0126707125559529</v>
+      </c>
+      <c r="G303" s="0"/>
+      <c r="H303" s="32" t="n">
+        <v>25</v>
+      </c>
+      <c r="I303" s="101" t="n">
+        <v>0.0272062556171326</v>
+      </c>
+      <c r="J303" s="102" t="n">
+        <v>0.0129718791176075</v>
+      </c>
+      <c r="L303" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M303" s="0"/>
+      <c r="N303" s="0"/>
+      <c r="O303" s="0"/>
+    </row>
+    <row r="304" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B304" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C304" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="D304" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E304" s="74" t="n">
+        <v>0.0272324747878921</v>
+      </c>
+      <c r="F304" s="0" t="n">
+        <v>0.0126114301726121</v>
+      </c>
+      <c r="G304" s="0"/>
+      <c r="H304" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="I304" s="93" t="n">
+        <v>0.0273383014626067</v>
+      </c>
+      <c r="J304" s="94" t="n">
+        <v>0.0130222691311378</v>
+      </c>
+      <c r="L304" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M304" s="0"/>
+      <c r="N304" s="0"/>
+      <c r="O304" s="0"/>
+    </row>
+    <row r="305" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B305" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C305" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="D305" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E305" s="74" t="n">
+        <v>0.0273738833568537</v>
+      </c>
+      <c r="F305" s="0" t="n">
+        <v>0.0145974672332472</v>
+      </c>
+      <c r="G305" s="0"/>
+      <c r="I305" s="95"/>
+      <c r="J305" s="95"/>
+      <c r="L305" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M305" s="0"/>
+      <c r="N305" s="0"/>
+      <c r="O305" s="0"/>
+    </row>
+    <row r="306" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B306" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C306" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="D306" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E306" s="74" t="n">
+        <v>0.0276203581483222</v>
+      </c>
+      <c r="F306" s="0" t="n">
+        <v>0.0128396235309207</v>
+      </c>
+      <c r="G306" s="0"/>
+      <c r="I306" s="95"/>
+      <c r="J306" s="95"/>
+      <c r="L306" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M306" s="0"/>
+      <c r="N306" s="0"/>
+      <c r="O306" s="0"/>
+    </row>
+    <row r="307" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B307" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C307" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="D307" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E307" s="74" t="n">
+        <v>0.027229541518922</v>
+      </c>
+      <c r="F307" s="0" t="n">
+        <v>0.0126433330755966</v>
+      </c>
+      <c r="G307" s="0"/>
+      <c r="H307" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="I307" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="J307" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="L307" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M307" s="0"/>
+      <c r="N307" s="0"/>
+      <c r="O307" s="0"/>
+    </row>
+    <row r="308" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B308" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C308" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="D308" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E308" s="74" t="n">
+        <v>0.0272522930506778</v>
+      </c>
+      <c r="F308" s="0" t="n">
+        <v>0.0130708071435599</v>
+      </c>
+      <c r="G308" s="0"/>
+      <c r="H308" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="I308" s="86" t="n">
+        <v>0.0273514875897071</v>
+      </c>
+      <c r="J308" s="87" t="n">
+        <v>0.0129118895670381</v>
+      </c>
+      <c r="L308" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M308" s="0"/>
+      <c r="N308" s="0"/>
+      <c r="O308" s="0"/>
+    </row>
+    <row r="309" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B309" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C309" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D309" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E309" s="74" t="n">
+        <v>0.0272231717420133</v>
+      </c>
+      <c r="F309" s="0" t="n">
+        <v>0.0125840051495073</v>
+      </c>
+      <c r="G309" s="0"/>
+      <c r="H309" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="I309" s="88" t="n">
+        <v>0.027228463385515</v>
+      </c>
+      <c r="J309" s="89" t="n">
+        <v>0.012799631703947</v>
+      </c>
+      <c r="L309" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M309" s="0"/>
+      <c r="N309" s="0"/>
+      <c r="O309" s="0"/>
+    </row>
+    <row r="310" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B310" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C310" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D310" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E310" s="74" t="n">
+        <v>0.0277620661766068</v>
+      </c>
+      <c r="F310" s="0" t="n">
+        <v>0.0133866059477988</v>
+      </c>
+      <c r="G310" s="0"/>
+      <c r="H310" s="32" t="n">
+        <v>15</v>
+      </c>
+      <c r="I310" s="88" t="n">
+        <v>0.0272766800486579</v>
+      </c>
+      <c r="J310" s="89" t="n">
+        <v>0.0131518491897973</v>
+      </c>
+      <c r="L310" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M310" s="0"/>
+      <c r="N310" s="0"/>
+      <c r="O310" s="0"/>
+    </row>
+    <row r="311" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B311" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C311" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="D311" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E311" s="74" t="n">
+        <v>0.0271861092486925</v>
+      </c>
+      <c r="F311" s="0" t="n">
+        <v>0.0129233435349313</v>
+      </c>
+      <c r="G311" s="0"/>
+      <c r="H311" s="32" t="n">
+        <v>20</v>
+      </c>
+      <c r="I311" s="88" t="n">
+        <v>0.0272647347350691</v>
+      </c>
+      <c r="J311" s="89" t="n">
+        <v>0.0131312920953754</v>
+      </c>
+      <c r="L311" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M311" s="0"/>
+      <c r="N311" s="0"/>
+      <c r="O311" s="0"/>
+    </row>
+    <row r="312" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B312" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C312" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="D312" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E312" s="74" t="n">
+        <v>0.0272403788439777</v>
+      </c>
+      <c r="F312" s="0" t="n">
+        <v>0.0136635869251637</v>
+      </c>
+      <c r="G312" s="0"/>
+      <c r="H312" s="32" t="n">
+        <v>25</v>
+      </c>
+      <c r="I312" s="101" t="n">
+        <v>0.0275701415540845</v>
+      </c>
+      <c r="J312" s="102" t="n">
+        <v>0.0131166830995314</v>
+      </c>
+      <c r="L312" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M312" s="0"/>
+      <c r="N312" s="0"/>
+      <c r="O312" s="0"/>
+    </row>
+    <row r="313" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B313" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C313" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D313" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E313" s="74" t="n">
+        <v>0.0269561279292822</v>
+      </c>
+      <c r="F313" s="0" t="n">
+        <v>0.012657792244098</v>
+      </c>
+      <c r="G313" s="0"/>
+      <c r="H313" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="I313" s="93" t="n">
+        <v>0.0273383014626067</v>
+      </c>
+      <c r="J313" s="94" t="n">
+        <v>0.0130222691311378</v>
+      </c>
+      <c r="L313" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M313" s="0"/>
+      <c r="N313" s="0"/>
+      <c r="O313" s="0"/>
+    </row>
+    <row r="314" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B314" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C314" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="D314" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E314" s="74" t="n">
+        <v>0.0271851063220836</v>
+      </c>
+      <c r="F314" s="0" t="n">
+        <v>0.0125857171919697</v>
+      </c>
+      <c r="G314" s="0"/>
+      <c r="L314" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M314" s="0"/>
+      <c r="N314" s="0"/>
+      <c r="O314" s="0"/>
+    </row>
+    <row r="315" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B315" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C315" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="D315" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E315" s="74" t="n">
+        <v>0.0273614028832171</v>
+      </c>
+      <c r="F315" s="0" t="n">
+        <v>0.0125404974638329</v>
+      </c>
+      <c r="G315" s="0"/>
+      <c r="L315" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M315" s="0"/>
+      <c r="N315" s="0"/>
+      <c r="O315" s="0"/>
+    </row>
+    <row r="316" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B316" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C316" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D316" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E316" s="74" t="n">
+        <v>0.0269489172259486</v>
+      </c>
+      <c r="F316" s="0" t="n">
+        <v>0.0125325213503217</v>
+      </c>
+      <c r="G316" s="0"/>
+      <c r="L316" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M316" s="0"/>
+      <c r="N316" s="0"/>
+      <c r="O316" s="0"/>
+    </row>
+    <row r="317" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B317" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C317" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="D317" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E317" s="74" t="n">
+        <v>0.0272825004367433</v>
+      </c>
+      <c r="F317" s="0" t="n">
+        <v>0.0125634950959043</v>
+      </c>
+      <c r="G317" s="0"/>
+      <c r="L317" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M317" s="0"/>
+      <c r="N317" s="0"/>
+      <c r="O317" s="0"/>
+    </row>
+    <row r="318" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B318" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C318" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D318" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E318" s="74" t="n">
+        <v>0.0270637571999201</v>
+      </c>
+      <c r="F318" s="0" t="n">
+        <v>0.0125841345479853</v>
+      </c>
+      <c r="G318" s="0"/>
+      <c r="L318" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M318" s="0"/>
+      <c r="N318" s="0"/>
+      <c r="O318" s="0"/>
+    </row>
+    <row r="319" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B319" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C319" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="D319" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E319" s="74" t="n">
+        <v>0.0271641780579856</v>
+      </c>
+      <c r="F319" s="0" t="n">
+        <v>0.0135383551567242</v>
+      </c>
+      <c r="G319" s="0"/>
+      <c r="L319" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M319" s="0"/>
+      <c r="N319" s="0"/>
+      <c r="O319" s="0"/>
+    </row>
+    <row r="320" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B320" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C320" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="D320" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E320" s="74" t="n">
+        <v>0.0272006499464067</v>
+      </c>
+      <c r="F320" s="0" t="n">
+        <v>0.0124819903909896</v>
+      </c>
+      <c r="G320" s="0"/>
+      <c r="L320" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M320" s="0"/>
+      <c r="N320" s="0"/>
+      <c r="O320" s="0"/>
+    </row>
+    <row r="321" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B321" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C321" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="D321" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E321" s="74" t="n">
+        <v>0.027321558654144</v>
+      </c>
+      <c r="F321" s="0" t="n">
+        <v>0.0124831778444825</v>
+      </c>
+      <c r="G321" s="0"/>
+      <c r="L321" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M321" s="0"/>
+      <c r="N321" s="0"/>
+      <c r="O321" s="0"/>
+    </row>
+    <row r="322" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B322" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C322" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D322" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E322" s="74" t="n">
+        <v>0.0272202192336435</v>
+      </c>
+      <c r="F322" s="0" t="n">
+        <v>0.0124932598585598</v>
+      </c>
+      <c r="G322" s="0"/>
+      <c r="L322" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M322" s="0"/>
+      <c r="N322" s="0"/>
+      <c r="O322" s="0"/>
+    </row>
+    <row r="323" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B323" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C323" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="D323" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E323" s="74" t="n">
+        <v>0.0272251801989211</v>
+      </c>
+      <c r="F323" s="0" t="n">
+        <v>0.012931448457034</v>
+      </c>
+      <c r="G323" s="0"/>
+      <c r="L323" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M323" s="0"/>
+      <c r="N323" s="0"/>
+      <c r="O323" s="0"/>
+    </row>
+    <row r="324" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B324" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C324" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="D324" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E324" s="74" t="n">
+        <v>0.0274645510081096</v>
+      </c>
+      <c r="F324" s="0" t="n">
+        <v>0.0126604381236739</v>
+      </c>
+      <c r="G324" s="0"/>
+      <c r="L324" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M324" s="0"/>
+      <c r="N324" s="0"/>
+      <c r="O324" s="0"/>
+    </row>
+    <row r="325" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B325" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C325" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="D325" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E325" s="74" t="n">
+        <v>0.0271840963534526</v>
+      </c>
+      <c r="F325" s="0" t="n">
+        <v>0.0126323705601221</v>
+      </c>
+      <c r="G325" s="0"/>
+      <c r="L325" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M325" s="0"/>
+      <c r="N325" s="0"/>
+      <c r="O325" s="0"/>
+    </row>
+    <row r="326" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B326" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C326" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="D326" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E326" s="74" t="n">
+        <v>0.0274972700269679</v>
+      </c>
+      <c r="F326" s="0" t="n">
+        <v>0.012610335811116</v>
+      </c>
+      <c r="G326" s="0"/>
+      <c r="L326" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M326" s="0"/>
+      <c r="N326" s="0"/>
+      <c r="O326" s="0"/>
+    </row>
+    <row r="327" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B327" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C327" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="D327" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E327" s="74" t="n">
+        <v>0.0272208443728329</v>
+      </c>
+      <c r="F327" s="0" t="n">
+        <v>0.0129686387188121</v>
+      </c>
+      <c r="G327" s="0"/>
+      <c r="L327" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M327" s="0"/>
+      <c r="N327" s="0"/>
+      <c r="O327" s="0"/>
+    </row>
+    <row r="328" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B328" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C328" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="D328" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E328" s="74" t="n">
+        <v>0.0272443607217251</v>
+      </c>
+      <c r="F328" s="0" t="n">
+        <v>0.0124796180821531</v>
+      </c>
+      <c r="G328" s="0"/>
+      <c r="L328" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M328" s="0"/>
+      <c r="N328" s="0"/>
+      <c r="O328" s="0"/>
+    </row>
+    <row r="329" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B329" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C329" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="D329" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E329" s="74" t="n">
+        <v>0.0275086193872398</v>
+      </c>
+      <c r="F329" s="0" t="n">
+        <v>0.0126831872588889</v>
+      </c>
+      <c r="G329" s="0"/>
+      <c r="L329" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M329" s="0"/>
+      <c r="N329" s="0"/>
+      <c r="O329" s="0"/>
+    </row>
+    <row r="330" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B330" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C330" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="D330" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E330" s="74" t="n">
+        <v>0.0273145613352002</v>
+      </c>
+      <c r="F330" s="0" t="n">
+        <v>0.0126313326740281</v>
+      </c>
+      <c r="G330" s="0"/>
+      <c r="L330" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M330" s="0"/>
+      <c r="N330" s="0"/>
+      <c r="O330" s="0"/>
+    </row>
+    <row r="331" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B331" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C331" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="D331" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E331" s="74" t="n">
+        <v>0.0271468508286893</v>
+      </c>
+      <c r="F331" s="0" t="n">
+        <v>0.0128838608631167</v>
+      </c>
+      <c r="G331" s="0"/>
+      <c r="L331" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M331" s="0"/>
+      <c r="N331" s="0"/>
+      <c r="O331" s="0"/>
+    </row>
+    <row r="332" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B332" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C332" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="D332" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E332" s="74" t="n">
+        <v>0.0271324159659263</v>
+      </c>
+      <c r="F332" s="0" t="n">
+        <v>0.0131314105941187</v>
+      </c>
+      <c r="G332" s="0"/>
+      <c r="L332" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M332" s="0"/>
+      <c r="N332" s="0"/>
+      <c r="O332" s="0"/>
+    </row>
+    <row r="333" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B333" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C333" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D333" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E333" s="74" t="n">
+        <v>0.027379819793401</v>
+      </c>
+      <c r="F333" s="0" t="n">
+        <v>0.0141740444540796</v>
+      </c>
+      <c r="G333" s="0"/>
+      <c r="L333" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M333" s="0"/>
+      <c r="N333" s="0"/>
+      <c r="O333" s="0"/>
+    </row>
+    <row r="334" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B334" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C334" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D334" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E334" s="74" t="n">
+        <v>0.0270359307134937</v>
+      </c>
+      <c r="F334" s="0" t="n">
+        <v>0.0130478887446968</v>
+      </c>
+      <c r="G334" s="0"/>
+      <c r="L334" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M334" s="0"/>
+      <c r="N334" s="0"/>
+      <c r="O334" s="0"/>
+    </row>
+    <row r="335" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B335" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C335" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D335" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E335" s="74" t="n">
+        <v>0.0268638350924724</v>
+      </c>
+      <c r="F335" s="0" t="n">
+        <v>0.0126162861415399</v>
+      </c>
+      <c r="G335" s="0"/>
+      <c r="L335" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M335" s="0"/>
+      <c r="N335" s="0"/>
+      <c r="O335" s="0"/>
+    </row>
+    <row r="336" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B336" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C336" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D336" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E336" s="74" t="n">
+        <v>0.0272097562031668</v>
+      </c>
+      <c r="F336" s="0" t="n">
+        <v>0.0125878860072548</v>
+      </c>
+      <c r="G336" s="0"/>
+      <c r="L336" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M336" s="0"/>
+      <c r="N336" s="0"/>
+      <c r="O336" s="0"/>
+    </row>
+    <row r="337" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B337" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C337" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D337" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E337" s="74" t="n">
+        <v>0.027412060829993</v>
+      </c>
+      <c r="F337" s="0" t="n">
+        <v>0.0127206373278375</v>
+      </c>
+      <c r="G337" s="0"/>
+      <c r="L337" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M337" s="0"/>
+      <c r="N337" s="0"/>
+      <c r="O337" s="0"/>
+    </row>
+    <row r="338" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B338" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C338" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D338" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E338" s="74" t="n">
+        <v>0.0273911563535529</v>
+      </c>
+      <c r="F338" s="0" t="n">
+        <v>0.0130055759523334</v>
+      </c>
+      <c r="G338" s="0"/>
+      <c r="L338" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M338" s="0"/>
+      <c r="N338" s="0"/>
+      <c r="O338" s="0"/>
+    </row>
+    <row r="339" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B339" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C339" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="D339" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E339" s="74" t="n">
+        <v>0.0272074792927777</v>
+      </c>
+      <c r="F339" s="0" t="n">
+        <v>0.0126078301700107</v>
+      </c>
+      <c r="G339" s="0"/>
+      <c r="L339" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M339" s="0"/>
+      <c r="N339" s="0"/>
+      <c r="O339" s="0"/>
+    </row>
+    <row r="340" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B340" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C340" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="D340" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E340" s="74" t="n">
+        <v>0.0272041883398165</v>
+      </c>
+      <c r="F340" s="0" t="n">
+        <v>0.0131313720213083</v>
+      </c>
+      <c r="G340" s="0"/>
+      <c r="L340" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M340" s="0"/>
+      <c r="N340" s="0"/>
+      <c r="O340" s="0"/>
+    </row>
+    <row r="341" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B341" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C341" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="D341" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E341" s="74" t="n">
+        <v>0.0273281680810793</v>
+      </c>
+      <c r="F341" s="0" t="n">
+        <v>0.0125229890655065</v>
+      </c>
+      <c r="G341" s="0"/>
+      <c r="L341" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M341" s="0"/>
+      <c r="N341" s="0"/>
+      <c r="O341" s="0"/>
+    </row>
+    <row r="342" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B342" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C342" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D342" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E342" s="74" t="n">
+        <v>0.0271209581452295</v>
+      </c>
+      <c r="F342" s="0" t="n">
+        <v>0.0126070268123409</v>
+      </c>
+      <c r="G342" s="0"/>
+      <c r="L342" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M342" s="0"/>
+      <c r="N342" s="0"/>
+      <c r="O342" s="0"/>
+    </row>
+    <row r="343" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B343" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C343" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="D343" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E343" s="74" t="n">
+        <v>0.0273885440190985</v>
+      </c>
+      <c r="F343" s="0" t="n">
+        <v>0.0126347448702584</v>
+      </c>
+      <c r="G343" s="0"/>
+      <c r="L343" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M343" s="0"/>
+      <c r="N343" s="0"/>
+      <c r="O343" s="0"/>
+    </row>
+    <row r="344" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B344" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C344" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="D344" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E344" s="74" t="n">
+        <v>0.0276050555349675</v>
+      </c>
+      <c r="F344" s="0" t="n">
+        <v>0.0125700588716432</v>
+      </c>
+      <c r="G344" s="0"/>
+      <c r="L344" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M344" s="0"/>
+      <c r="N344" s="0"/>
+      <c r="O344" s="0"/>
+    </row>
+    <row r="345" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B345" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C345" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="D345" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E345" s="74" t="n">
+        <v>0.0271926701362212</v>
+      </c>
+      <c r="F345" s="0" t="n">
+        <v>0.0125041915304598</v>
+      </c>
+      <c r="G345" s="0"/>
+      <c r="L345" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M345" s="0"/>
+      <c r="N345" s="0"/>
+      <c r="O345" s="0"/>
+    </row>
+    <row r="346" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B346" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C346" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="D346" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E346" s="74" t="n">
+        <v>0.0272207092597296</v>
+      </c>
+      <c r="F346" s="0" t="n">
+        <v>0.0126517081020976</v>
+      </c>
+      <c r="G346" s="0"/>
+      <c r="L346" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M346" s="0"/>
+      <c r="N346" s="0"/>
+      <c r="O346" s="0"/>
+    </row>
+    <row r="347" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B347" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C347" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="D347" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E347" s="74" t="n">
+        <v>0.0272102313051806</v>
+      </c>
+      <c r="F347" s="0" t="n">
+        <v>0.0125719125652616</v>
+      </c>
+      <c r="G347" s="0"/>
+      <c r="L347" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M347" s="0"/>
+      <c r="N347" s="0"/>
+      <c r="O347" s="0"/>
+    </row>
+    <row r="348" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B348" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C348" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="D348" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E348" s="74" t="n">
+        <v>0.02734110962849</v>
+      </c>
+      <c r="F348" s="0" t="n">
+        <v>0.0125432233196698</v>
+      </c>
+      <c r="G348" s="0"/>
+      <c r="L348" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M348" s="0"/>
+      <c r="N348" s="0"/>
+      <c r="O348" s="0"/>
+    </row>
+    <row r="349" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B349" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C349" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="D349" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E349" s="74" t="n">
+        <v>0.0272353143554483</v>
+      </c>
+      <c r="F349" s="0" t="n">
+        <v>0.0134860109724899</v>
+      </c>
+      <c r="G349" s="0"/>
+      <c r="L349" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M349" s="0"/>
+      <c r="N349" s="0"/>
+      <c r="O349" s="0"/>
+    </row>
+    <row r="350" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B350" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C350" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="D350" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E350" s="74" t="n">
+        <v>0.0274781446304043</v>
+      </c>
+      <c r="F350" s="0" t="n">
+        <v>0.0133340504636721</v>
+      </c>
+      <c r="G350" s="0"/>
+      <c r="L350" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M350" s="0"/>
+      <c r="N350" s="0"/>
+      <c r="O350" s="0"/>
+    </row>
+    <row r="351" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B351" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C351" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="D351" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E351" s="74" t="n">
+        <v>0.0272164524690665</v>
+      </c>
+      <c r="F351" s="0" t="n">
+        <v>0.0125134561710879</v>
+      </c>
+      <c r="G351" s="0"/>
+      <c r="L351" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M351" s="0"/>
+      <c r="N351" s="0"/>
+      <c r="O351" s="0"/>
+    </row>
+    <row r="352" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B352" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C352" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D352" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E352" s="74" t="n">
+        <v>0.0272775879258799</v>
+      </c>
+      <c r="F352" s="0" t="n">
+        <v>0.0126365523176607</v>
+      </c>
+      <c r="G352" s="0"/>
+      <c r="L352" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M352" s="0"/>
+      <c r="N352" s="0"/>
+      <c r="O352" s="0"/>
+    </row>
+    <row r="353" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B353" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C353" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="D353" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E353" s="74" t="n">
+        <v>0.0272230290290456</v>
+      </c>
+      <c r="F353" s="0" t="n">
+        <v>0.0125178469314913</v>
+      </c>
+      <c r="G353" s="0"/>
+      <c r="L353" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M353" s="0"/>
+      <c r="N353" s="0"/>
+      <c r="O353" s="0"/>
+    </row>
+    <row r="354" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B354" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C354" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="D354" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E354" s="74" t="n">
+        <v>0.0337923119051988</v>
+      </c>
+      <c r="F354" s="0" t="n">
+        <v>0.0196163489387901</v>
+      </c>
+      <c r="G354" s="0"/>
+      <c r="L354" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M354" s="0"/>
+      <c r="N354" s="0"/>
+      <c r="O354" s="0"/>
+    </row>
+    <row r="355" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B355" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C355" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="D355" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E355" s="74" t="n">
+        <v>0.027219828792157</v>
+      </c>
+      <c r="F355" s="0" t="n">
+        <v>0.0126827984307157</v>
+      </c>
+      <c r="G355" s="0"/>
+      <c r="L355" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M355" s="0"/>
+      <c r="N355" s="0"/>
+      <c r="O355" s="0"/>
+    </row>
+    <row r="356" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B356" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C356" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="D356" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E356" s="74" t="n">
+        <v>0.0275637873512777</v>
+      </c>
+      <c r="F356" s="0" t="n">
+        <v>0.0125786915777514</v>
+      </c>
+      <c r="G356" s="0"/>
+      <c r="L356" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M356" s="0"/>
+      <c r="N356" s="0"/>
+      <c r="O356" s="0"/>
+    </row>
+    <row r="357" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B357" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C357" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="D357" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E357" s="74" t="n">
+        <v>0.0273843479030494</v>
+      </c>
+      <c r="F357" s="0" t="n">
+        <v>0.0177738379605069</v>
+      </c>
+      <c r="G357" s="0"/>
+      <c r="L357" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M357" s="0"/>
+      <c r="N357" s="0"/>
+      <c r="O357" s="0"/>
+    </row>
+    <row r="358" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B358" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C358" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="D358" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E358" s="74" t="n">
+        <v>0.0272237697838078</v>
+      </c>
+      <c r="F358" s="0" t="n">
+        <v>0.0125036994988169</v>
+      </c>
+      <c r="G358" s="0"/>
+      <c r="L358" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M358" s="0"/>
+      <c r="N358" s="0"/>
+      <c r="O358" s="0"/>
+    </row>
+    <row r="359" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B359" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C359" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="D359" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E359" s="74" t="n">
+        <v>0.0272450721845087</v>
+      </c>
+      <c r="F359" s="0" t="n">
+        <v>0.0130236777180021</v>
+      </c>
+      <c r="G359" s="0"/>
+      <c r="L359" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M359" s="0"/>
+      <c r="N359" s="0"/>
+      <c r="O359" s="0"/>
+    </row>
+    <row r="360" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="B360" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C360" s="74" t="n">
+        <v>600</v>
+      </c>
+      <c r="D360" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E360" s="74" t="n">
+        <v>0.0272453355517233</v>
+      </c>
+      <c r="F360" s="74" t="n">
+        <v>0.0151982516430664</v>
+      </c>
+      <c r="G360" s="0"/>
+      <c r="L360" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M360" s="0"/>
+      <c r="N360" s="0"/>
+      <c r="O360" s="0"/>
+    </row>
+    <row r="361" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="B361" s="74" t="n">
+        <v>20</v>
+      </c>
+      <c r="C361" s="74" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D361" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E361" s="74" t="n">
+        <v>0.0272194246186294</v>
+      </c>
+      <c r="F361" s="74" t="n">
+        <v>0.0155871654613079</v>
+      </c>
+      <c r="G361" s="0"/>
+      <c r="L361" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M361" s="0"/>
+      <c r="N361" s="0"/>
+      <c r="O361" s="0"/>
+    </row>
+    <row r="362" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B362" s="74" t="n">
+        <v>25</v>
+      </c>
+      <c r="C362" s="74" t="n">
+        <v>600</v>
+      </c>
+      <c r="D362" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E362" s="74" t="n">
+        <v>0.0272126502104759</v>
+      </c>
+      <c r="F362" s="74" t="n">
+        <v>0.0131204343943837</v>
+      </c>
+      <c r="G362" s="0"/>
+      <c r="L362" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M362" s="0"/>
+      <c r="N362" s="0"/>
+      <c r="O362" s="0"/>
+    </row>
+    <row r="363" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="B363" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="C363" s="74" t="n">
+        <v>800</v>
+      </c>
+      <c r="D363" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E363" s="74" t="n">
+        <v>0.0274092084999433</v>
+      </c>
+      <c r="F363" s="74" t="n">
+        <v>0.0125648525527317</v>
+      </c>
+      <c r="G363" s="0"/>
+      <c r="L363" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M363" s="0"/>
+      <c r="N363" s="0"/>
+      <c r="O363" s="0"/>
+    </row>
+    <row r="364" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="74" t="n">
+        <v>25</v>
+      </c>
+      <c r="B364" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C364" s="74" t="n">
+        <v>600</v>
+      </c>
+      <c r="D364" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E364" s="74" t="n">
+        <v>0.0271487618643772</v>
+      </c>
+      <c r="F364" s="74" t="n">
+        <v>0.0125745167983707</v>
+      </c>
+      <c r="G364" s="0"/>
+      <c r="L364" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M364" s="0"/>
+      <c r="N364" s="0"/>
+      <c r="O364" s="0"/>
+    </row>
+    <row r="365" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="B365" s="74" t="n">
+        <v>20</v>
+      </c>
+      <c r="C365" s="74" t="n">
+        <v>800</v>
+      </c>
+      <c r="D365" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E365" s="74" t="n">
+        <v>0.0272339528163793</v>
+      </c>
+      <c r="F365" s="74" t="n">
+        <v>0.0125102484850861</v>
+      </c>
+      <c r="G365" s="0"/>
+      <c r="L365" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M365" s="0"/>
+      <c r="N365" s="0"/>
+      <c r="O365" s="0"/>
+    </row>
+    <row r="366" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="74" t="n">
+        <v>25</v>
+      </c>
+      <c r="B366" s="74" t="n">
+        <v>20</v>
+      </c>
+      <c r="C366" s="74" t="n">
+        <v>600</v>
+      </c>
+      <c r="D366" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E366" s="74" t="n">
+        <v>0.0271442593337774</v>
+      </c>
+      <c r="F366" s="74" t="n">
+        <v>0.0126575412753845</v>
+      </c>
+      <c r="G366" s="0"/>
+      <c r="L366" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M366" s="0"/>
+      <c r="N366" s="0"/>
+      <c r="O366" s="0"/>
+    </row>
+    <row r="367" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="74" t="n">
+        <v>20</v>
+      </c>
+      <c r="B367" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="C367" s="74" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D367" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E367" s="74" t="n">
+        <v>0.0272980171920418</v>
+      </c>
+      <c r="F367" s="74" t="n">
+        <v>0.0127833036530905</v>
+      </c>
+      <c r="G367" s="0"/>
+      <c r="L367" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M367" s="0"/>
+      <c r="N367" s="0"/>
+      <c r="O367" s="0"/>
+    </row>
+    <row r="368" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B368" s="74" t="n">
+        <v>25</v>
+      </c>
+      <c r="C368" s="74" t="n">
+        <v>600</v>
+      </c>
+      <c r="D368" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E368" s="74" t="n">
+        <v>0.0272496623946095</v>
+      </c>
+      <c r="F368" s="74" t="n">
+        <v>0.012760468554835</v>
+      </c>
+      <c r="G368" s="0"/>
+      <c r="L368" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M368" s="0"/>
+      <c r="N368" s="0"/>
+      <c r="O368" s="0"/>
+    </row>
+    <row r="369" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="74" t="n">
+        <v>20</v>
+      </c>
+      <c r="B369" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C369" s="74" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D369" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E369" s="74" t="n">
+        <v>0.0272294986186955</v>
+      </c>
+      <c r="F369" s="74" t="n">
+        <v>0.0126849181500778</v>
+      </c>
+      <c r="G369" s="0"/>
+      <c r="L369" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M369" s="0"/>
+      <c r="N369" s="0"/>
+      <c r="O369" s="0"/>
+    </row>
+    <row r="370" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B370" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="C370" s="74" t="n">
+        <v>800</v>
+      </c>
+      <c r="D370" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E370" s="74" t="n">
+        <v>0.0271397636297129</v>
+      </c>
+      <c r="F370" s="74" t="n">
+        <v>0.0125856690450786</v>
+      </c>
+      <c r="G370" s="0"/>
+      <c r="L370" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M370" s="0"/>
+      <c r="N370" s="0"/>
+      <c r="O370" s="0"/>
+    </row>
+    <row r="371" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="74" t="n">
+        <v>25</v>
+      </c>
+      <c r="B371" s="74" t="n">
+        <v>20</v>
+      </c>
+      <c r="C371" s="74" t="n">
+        <v>400</v>
+      </c>
+      <c r="D371" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E371" s="74" t="n">
+        <v>0.027506832078264</v>
+      </c>
+      <c r="F371" s="74" t="n">
+        <v>0.0131514447311332</v>
+      </c>
+      <c r="G371" s="0"/>
+      <c r="L371" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M371" s="0"/>
+      <c r="N371" s="0"/>
+      <c r="O371" s="0"/>
+    </row>
+    <row r="372" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B372" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C372" s="74" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D372" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E372" s="74" t="n">
+        <v>0.0271383314701658</v>
+      </c>
+      <c r="F372" s="74" t="n">
+        <v>0.0124779808745092</v>
+      </c>
+      <c r="G372" s="0"/>
+      <c r="L372" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M372" s="0"/>
+      <c r="N372" s="0"/>
+      <c r="O372" s="0"/>
+    </row>
+    <row r="373" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B373" s="74" t="n">
+        <v>25</v>
+      </c>
+      <c r="C373" s="74" t="n">
+        <v>800</v>
+      </c>
+      <c r="D373" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E373" s="74" t="n">
+        <v>0.0271749833931097</v>
+      </c>
+      <c r="F373" s="74" t="n">
+        <v>0.0124896977261677</v>
+      </c>
+      <c r="G373" s="0"/>
+      <c r="L373" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M373" s="0"/>
+      <c r="N373" s="0"/>
+      <c r="O373" s="0"/>
+    </row>
+    <row r="374" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="74" t="n">
+        <v>20</v>
+      </c>
+      <c r="B374" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C374" s="74" t="n">
+        <v>800</v>
+      </c>
+      <c r="D374" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E374" s="74" t="n">
+        <v>0.0270232049981044</v>
+      </c>
+      <c r="F374" s="74" t="n">
+        <v>0.0125416753985848</v>
+      </c>
+      <c r="G374" s="0"/>
+      <c r="L374" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M374" s="0"/>
+      <c r="N374" s="0"/>
+      <c r="O374" s="0"/>
+    </row>
+    <row r="375" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B375" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C375" s="74" t="n">
+        <v>800</v>
+      </c>
+      <c r="D375" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E375" s="74" t="n">
+        <v>0.0273269630920341</v>
+      </c>
+      <c r="F375" s="74" t="n">
+        <v>0.013235782586402</v>
+      </c>
+      <c r="G375" s="0"/>
+      <c r="L375" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M375" s="0"/>
+      <c r="N375" s="0"/>
+      <c r="O375" s="0"/>
+    </row>
+    <row r="376" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B376" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C376" s="74" t="n">
+        <v>800</v>
+      </c>
+      <c r="D376" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E376" s="74" t="n">
+        <v>0.0272956770874494</v>
+      </c>
+      <c r="F376" s="74" t="n">
+        <v>0.0127400531931046</v>
+      </c>
+      <c r="G376" s="0"/>
+      <c r="L376" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M376" s="0"/>
+      <c r="N376" s="0"/>
+      <c r="O376" s="0"/>
+    </row>
+    <row r="377" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="74" t="n">
+        <v>25</v>
+      </c>
+      <c r="B377" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C377" s="74" t="n">
+        <v>800</v>
+      </c>
+      <c r="D377" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E377" s="74" t="n">
+        <v>0.027148631946805</v>
+      </c>
+      <c r="F377" s="74" t="n">
+        <v>0.0128614330872221</v>
+      </c>
+      <c r="G377" s="0"/>
+      <c r="L377" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M377" s="0"/>
+      <c r="N377" s="0"/>
+      <c r="O377" s="0"/>
+    </row>
+    <row r="378" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B378" s="74" t="n">
+        <v>20</v>
+      </c>
+      <c r="C378" s="74" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D378" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E378" s="74" t="n">
+        <v>0.027004279068097</v>
+      </c>
+      <c r="F378" s="74" t="n">
+        <v>0.0132607315575299</v>
+      </c>
+      <c r="G378" s="0"/>
+      <c r="L378" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M378" s="0"/>
+      <c r="N378" s="0"/>
+      <c r="O378" s="0"/>
+    </row>
+    <row r="379" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="74" t="n">
+        <v>20</v>
+      </c>
+      <c r="B379" s="74" t="n">
+        <v>25</v>
+      </c>
+      <c r="C379" s="74" t="n">
+        <v>800</v>
+      </c>
+      <c r="D379" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E379" s="74" t="n">
+        <v>0.0272030192197244</v>
+      </c>
+      <c r="F379" s="74" t="n">
+        <v>0.0125264228120534</v>
+      </c>
+      <c r="G379" s="0"/>
+      <c r="L379" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M379" s="0"/>
+      <c r="N379" s="0"/>
+      <c r="O379" s="0"/>
+    </row>
+    <row r="380" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B380" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="C380" s="74" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D380" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E380" s="74" t="n">
+        <v>0.027047705573212</v>
+      </c>
+      <c r="F380" s="74" t="n">
+        <v>0.0133339648430716</v>
+      </c>
+      <c r="G380" s="0"/>
+      <c r="L380" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M380" s="0"/>
+      <c r="N380" s="0"/>
+      <c r="O380" s="0"/>
+    </row>
+    <row r="381" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="74" t="n">
+        <v>25</v>
+      </c>
+      <c r="B381" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="C381" s="74" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D381" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E381" s="74" t="n">
+        <v>0.0272757894151649</v>
+      </c>
+      <c r="F381" s="74" t="n">
+        <v>0.0126133281170494</v>
+      </c>
+      <c r="G381" s="0"/>
+      <c r="L381" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M381" s="0"/>
+      <c r="N381" s="0"/>
+      <c r="O381" s="0"/>
+    </row>
+    <row r="382" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="B382" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C382" s="74" t="n">
+        <v>800</v>
+      </c>
+      <c r="D382" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E382" s="74" t="n">
+        <v>0.0271594791695935</v>
+      </c>
+      <c r="F382" s="74" t="n">
+        <v>0.0136657693640739</v>
+      </c>
+      <c r="G382" s="0"/>
+      <c r="L382" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M382" s="0"/>
+      <c r="N382" s="0"/>
+      <c r="O382" s="0"/>
+    </row>
+    <row r="383" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="74" t="n">
+        <v>20</v>
+      </c>
+      <c r="B383" s="74" t="n">
+        <v>20</v>
+      </c>
+      <c r="C383" s="74" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D383" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E383" s="74" t="n">
+        <v>0.0272682466671283</v>
+      </c>
+      <c r="F383" s="74" t="n">
+        <v>0.0151720396537959</v>
+      </c>
+      <c r="G383" s="0"/>
+      <c r="L383" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M383" s="0"/>
+      <c r="N383" s="0"/>
+      <c r="O383" s="0"/>
+    </row>
+    <row r="384" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="74" t="n">
+        <v>25</v>
+      </c>
+      <c r="B384" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="C384" s="74" t="n">
+        <v>800</v>
+      </c>
+      <c r="D384" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E384" s="74" t="n">
+        <v>0.02744401569752</v>
+      </c>
+      <c r="F384" s="74" t="n">
+        <v>0.0148353570869095</v>
+      </c>
+      <c r="G384" s="0"/>
+      <c r="L384" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M384" s="0"/>
+      <c r="N384" s="0"/>
+      <c r="O384" s="0"/>
+    </row>
+    <row r="385" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B385" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="C385" s="74" t="n">
+        <v>800</v>
+      </c>
+      <c r="D385" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E385" s="74" t="n">
+        <v>0.0266204301854062</v>
+      </c>
+      <c r="F385" s="74" t="n">
+        <v>0.0134804245105135</v>
+      </c>
+      <c r="G385" s="0"/>
+      <c r="L385" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M385" s="0"/>
+      <c r="N385" s="0"/>
+      <c r="O385" s="0"/>
+    </row>
+    <row r="386" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B386" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C386" s="74" t="n">
+        <v>600</v>
+      </c>
+      <c r="D386" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E386" s="74" t="n">
+        <v>0.0298403221689202</v>
+      </c>
+      <c r="F386" s="74" t="n">
+        <v>0.0134596603398057</v>
+      </c>
+      <c r="G386" s="0"/>
+      <c r="L386" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M386" s="0"/>
+      <c r="N386" s="0"/>
+      <c r="O386" s="0"/>
+    </row>
+    <row r="387" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B387" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="C387" s="74" t="n">
+        <v>600</v>
+      </c>
+      <c r="D387" s="74" t="n">
+        <v>500</v>
+      </c>
+      <c r="E387" s="74" t="n">
+        <v>0.0271845090033409</v>
+      </c>
+      <c r="F387" s="74" t="n">
+        <v>0.012833012360393</v>
+      </c>
+      <c r="G387" s="0"/>
+      <c r="L387" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="M387" s="0"/>
+      <c r="N387" s="0"/>
+      <c r="O387" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="10">
